--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PHI\0273NYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1005,20 +1005,20 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="18" style="70" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="18.7265625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="60" t="s">
         <v>84</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="72" t="s">
         <v>98</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="73"/>
       <c r="C3" s="78"/>
       <c r="D3" s="13" t="s">
@@ -1053,7 +1053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="G7" s="56"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="74" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="74" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="G9" s="56"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="74" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="74" t="s">
         <v>34</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="G11" s="56"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="74" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="G13" s="56"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="74" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="74" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="G15" s="56"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="74" t="s">
         <v>16</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="G16" s="56"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="74" t="s">
         <v>17</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="74" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="G18" s="56"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="74" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="G19" s="56"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="74" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
         <v>21</v>
       </c>
@@ -1370,26 +1370,26 @@
   <dimension ref="B2:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -1406,12 +1406,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1457,12 +1457,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
@@ -1851,12 +1851,12 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1996,12 +1996,12 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>61</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>54</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2117,7 +2117,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
@@ -2137,13 +2137,13 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C32" s="68">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>99</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2190,18 +2190,18 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
         <v>725305</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
         <v>725305</v>
@@ -2209,17 +2209,17 @@
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2234,35 +2234,35 @@
   <dimension ref="B1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F1" s="51" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D2" s="9" t="s">
         <v>68</v>
       </c>
@@ -2286,12 +2286,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="26"/>
@@ -2331,7 +2331,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2394,11 +2394,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" ref="J7:J17" si="2">F8*$D8</f>
+        <f t="shared" ref="J8:J17" si="2">F8*$D8</f>
         <v>9720</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" ref="K7:K17" si="3">G8*$D8</f>
+        <f t="shared" ref="K8:K16" si="3">G8*$D8</f>
         <v>14580</v>
       </c>
       <c r="L8" s="16">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>11520</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2695,7 +2695,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="G19" s="49" t="s">
         <v>80</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2714,7 +2714,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>79</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="29">
-        <f t="shared" ref="J22:J32" si="9">F23*$D23</f>
+        <f t="shared" ref="J23:J32" si="9">F23*$D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="29">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C24" s="17" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
         <v>34</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4977.7777777777792</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>4977.7777777777792</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="s">
         <v>15</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
         <v>16</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="28" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3100,7 +3100,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C35" s="17" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C37" s="19" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C38" s="19" t="s">
         <v>21</v>
       </c>
@@ -3235,12 +3235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>81</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C41" s="28" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="50">
-        <f>(1-G41)*F35/SUM(F35,H35)</f>
+        <f>IFERROR((1-G41)*F35/SUM(F35,H35),0)</f>
         <v>0.5</v>
       </c>
       <c r="G41" s="50">
@@ -3268,7 +3268,7 @@
         <v>0.5</v>
       </c>
       <c r="H41" s="50">
-        <f>(1-G41)*H35/SUM(F35,H35)</f>
+        <f>IFERROR((1-G41)*H35/SUM(F35,H35),0)</f>
         <v>0</v>
       </c>
       <c r="J41" s="29">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
@@ -3293,15 +3293,15 @@
         <v>4000</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" ref="F42:F44" si="14">(1-G42)*F36/SUM(F36,H36)</f>
+        <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
         <v>0.5</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" ref="G42:G44" si="15">MIN(1,G36+$H$19)</f>
+        <f t="shared" ref="G42:G44" si="14">MIN(1,G36+$H$19)</f>
         <v>0.5</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" ref="H42:H44" si="16">(1-G42)*H36/SUM(F36,H36)</f>
+        <f>IFERROR((1-G42)*H36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="J42" s="18">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
         <v>20</v>
       </c>
@@ -3326,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="31">
+        <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G43" s="31">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G43" s="31">
-        <f t="shared" si="15"/>
         <v>0.7</v>
       </c>
       <c r="H43" s="31">
-        <f t="shared" si="16"/>
+        <f>IFERROR((1-G43)*H37/SUM(F37,H37),0)</f>
         <v>0</v>
       </c>
       <c r="J43" s="20">
-        <f t="shared" ref="J41:J44" si="17">F43*$D43</f>
+        <f t="shared" ref="J43:J44" si="15">F43*$D43</f>
         <v>0</v>
       </c>
       <c r="K43" s="20">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
         <v>21</v>
       </c>
@@ -3359,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="31">
+        <f>IFERROR((1-G44)*F38/SUM(F38,H38),0)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G44" s="31">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G44" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="H44" s="31">
+        <f>IFERROR((1-G44)*H38/SUM(F38,H38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
         <f t="shared" si="15"/>
-        <v>0.7</v>
-      </c>
-      <c r="H44" s="31">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="20">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K44" s="20">
@@ -3383,12 +3383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>61</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -3462,12 +3462,12 @@
         <v>-11000.091175512862</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
         <v>62</v>
       </c>
@@ -3480,15 +3480,15 @@
         <v>82806.45453887622</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:L50" si="18">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
+        <f t="shared" ref="K50:L50" si="16">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
         <v>109373.08108108108</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>27755.4643800427</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C51" s="21" t="s">
         <v>82</v>
       </c>
@@ -3500,12 +3500,12 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>96</v>
       </c>
@@ -3526,27 +3526,27 @@
         <v>83266.393140128072</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="J54" s="54">
         <f>J53/$D$53</f>
         <v>0.37862604506604619</v>
       </c>
       <c r="K54" s="54">
-        <f t="shared" ref="K54:L54" si="19">K53/$D$53</f>
+        <f t="shared" ref="K54:L54" si="17">K53/$D$53</f>
         <v>0.5065720534716337</v>
       </c>
       <c r="L54" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.11480190146232008</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="27" t="s">
         <v>77</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" s="27"/>
       <c r="C58" s="21" t="s">
         <v>18</v>
@@ -3585,19 +3585,19 @@
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="25">
-        <f t="shared" ref="J58:L61" si="20">F58*$D58</f>
+        <f t="shared" ref="J58:L61" si="18">F58*$D58</f>
         <v>0</v>
       </c>
       <c r="K58" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L58" s="25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="27"/>
       <c r="C59" s="21" t="s">
         <v>19</v>
@@ -3612,28 +3612,28 @@
         <v>0.37975090959977603</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" ref="G59:H59" si="21">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
+        <f t="shared" ref="G59:H59" si="19">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
         <v>0.37619647355163727</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.24405261684858667</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>60304.444444444431</v>
       </c>
       <c r="K59" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>59740</v>
       </c>
       <c r="L59" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>38755.555555555562</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
         <v>20</v>
@@ -3657,19 +3657,19 @@
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K60" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L60" s="25">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
         <v>21</v>
@@ -3693,15 +3693,15 @@
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K61" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3719,26 +3719,26 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="64" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="67"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" style="67"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" style="64" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="67"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7265625" style="67"/>
+    <col min="17" max="17" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="F1" s="69">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -3762,7 +3762,7 @@
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="63" t="s">
         <v>87</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="64">
         <v>42917</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="T3" s="67"/>
       <c r="U3" s="67"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="64">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="64">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="64">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="64">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="64">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="64">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="64">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -4379,7 +4379,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="64">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="64">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="64">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -4577,7 +4577,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="64">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="64">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="64">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -4775,7 +4775,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="64">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="64">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="64">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -4973,7 +4973,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="64">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="64">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="64">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -5171,7 +5171,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="64">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="64">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="64">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -5369,7 +5369,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="64">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="64">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="64">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -5567,7 +5567,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="64">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="64">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="64">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -5765,7 +5765,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="64">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="64">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="64">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -5963,7 +5963,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="64">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="64">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="64">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6161,7 +6161,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B39" s="64">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B40" s="64">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B41" s="64">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -6359,7 +6359,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B42" s="64">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B43" s="64">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B44" s="64">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -6557,7 +6557,7 @@
         <v>6938.8660950106751</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B45" s="64">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B46" s="64">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B47" s="64">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B48" s="64">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" s="64">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="64">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="64">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" s="64">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" s="64">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="64">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" s="64">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B56" s="64">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B57" s="64">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B58" s="64">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B59" s="64">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="64">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B61" s="64">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" s="64">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="64">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B64" s="64">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B65" s="64">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B66" s="64">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B67" s="64">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B68" s="64">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B69" s="64">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B70" s="64">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B71" s="64">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B72" s="64">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B73" s="64">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B74" s="64">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B75" s="64">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B76" s="64">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B77" s="64">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B78" s="64">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B79" s="64">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B80" s="64">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B81" s="64">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B82" s="64">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B83" s="64">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B84" s="64">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B85" s="64">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B86" s="64">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B87" s="64">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B88" s="64">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B89" s="64">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B90" s="64">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B91" s="64">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B92" s="64">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B93" s="64">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B94" s="64">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -9875,19 +9875,19 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -9919,12 +9919,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -9949,14 +9949,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
@@ -9981,19 +9981,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
         <v>15</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" s="19" t="s">
         <v>35</v>
       </c>
@@ -10268,12 +10268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C24" s="17" t="s">
         <v>33</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
         <v>34</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="s">
         <v>15</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
         <v>16</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" s="28" t="s">
         <v>35</v>
       </c>
@@ -10538,19 +10538,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C36" s="15" t="s">
         <v>3</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
         <v>33</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C38" s="17" t="s">
         <v>11</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C39" s="17" t="s">
         <v>34</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C40" s="17" t="s">
         <v>12</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C41" s="17" t="s">
         <v>13</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C42" s="17" t="s">
         <v>14</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
         <v>15</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
         <v>16</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
         <v>35</v>
       </c>
@@ -10825,12 +10825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C49" s="28" t="s">
         <v>3</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C50" s="17" t="s">
         <v>33</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C51" s="17" t="s">
         <v>11</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C52" s="17" t="s">
         <v>34</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C53" s="17" t="s">
         <v>12</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C54" s="17" t="s">
         <v>13</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C55" s="17" t="s">
         <v>14</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C56" s="19" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C57" s="19" t="s">
         <v>16</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C58" s="28" t="s">
         <v>35</v>
       </c>
@@ -11095,12 +11095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C62" s="17" t="s">
         <v>19</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C63" s="19" t="s">
         <v>20</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C64" s="19" t="s">
         <v>21</v>
       </c>
@@ -11280,12 +11280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C67" s="28" t="s">
         <v>18</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C68" s="17" t="s">
         <v>19</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C69" s="19" t="s">
         <v>20</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C70" s="19" t="s">
         <v>21</v>
       </c>
@@ -11400,19 +11400,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C73" s="17" t="s">
         <v>18</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C74" s="17" t="s">
         <v>19</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C75" s="19" t="s">
         <v>20</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C76" s="19" t="s">
         <v>21</v>
       </c>
@@ -11512,12 +11512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C79" s="28" t="s">
         <v>18</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="19" t="s">
         <v>20</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="19" t="s">
         <v>21</v>
       </c>
@@ -11632,12 +11632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>38</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>39</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>48</v>
       </c>
@@ -11712,10 +11712,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
         <v>66</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
         <v>57</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27"/>
       <c r="C95" s="21" t="s">
         <v>67</v>
@@ -11791,7 +11791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27"/>
       <c r="D96" s="21">
         <v>0.1</v>
@@ -11809,7 +11809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27"/>
       <c r="D97" s="21">
         <f>SUM(D95:D96)</f>
@@ -11832,7 +11832,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27"/>
       <c r="D98" s="21">
         <f>_xlfn.RANK.EQ(D97, $D$97:$H$97, 5)</f>
@@ -11855,16 +11855,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="27"/>
     </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27"/>
       <c r="C100" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27"/>
       <c r="D101" s="21" t="s">
         <v>42</v>
@@ -11874,7 +11874,7 @@
         <v>-54315</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27"/>
       <c r="D102" s="21" t="s">
         <v>43</v>
@@ -11884,7 +11884,7 @@
         <v>-32850</v>
       </c>
     </row>
-    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
         <v>55</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
         <v>56</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F108" s="2"/>
     </row>
   </sheetData>
@@ -11917,23 +11917,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.1796875" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -11956,7 +11954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
@@ -12005,7 +12003,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
@@ -12019,14 +12017,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="47" t="s">
         <v>44</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
@@ -12074,7 +12072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
@@ -12085,7 +12083,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -12097,7 +12095,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -12114,7 +12112,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
@@ -12131,7 +12129,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
@@ -12144,7 +12142,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
@@ -12155,7 +12153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
@@ -12166,11 +12164,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="44"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
@@ -12181,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>19</v>
       </c>
@@ -12192,7 +12190,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -12203,7 +12201,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -1291,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>45</v>
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>4</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E9" s="18">
         <f>SUM(Calcs!E37, Calcs!E50)</f>
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F9" s="18">
         <f>SUM(Calcs!F37, Calcs!F50)</f>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E10" s="18">
         <f>SUM(Calcs!E38, Calcs!E51)</f>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="F10" s="18">
         <f>SUM(Calcs!F38, Calcs!F51)</f>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E11" s="18">
         <f>SUM(Calcs!E39, Calcs!E52)</f>
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="F11" s="18">
         <f>SUM(Calcs!F39, Calcs!F52)</f>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E12" s="18">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="F12" s="18">
         <f>SUM(Calcs!F40, Calcs!F53)</f>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E20" s="1">
         <f>SUM(Calcs!E61, Calcs!E67)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="F20" s="1">
         <f>SUM(Calcs!F61, Calcs!F67)</f>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E62, Calcs!E68)</f>
-        <v>59600</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F62, Calcs!F68)</f>
@@ -2046,11 +2046,11 @@
       </c>
       <c r="E27" s="1">
         <f>Calcs!E90</f>
-        <v>0</v>
+        <v>-41895</v>
       </c>
       <c r="F27" s="1">
         <f>Calcs!F90</f>
-        <v>-54315</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f>Calcs!G90</f>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" ref="E29:H29" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
-        <v>120700</v>
+        <v>51205</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>66385</v>
+        <v>120700</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="E34" s="7">
         <f>(E29/12*Inputs!$C$2+E4)*$C$32</f>
-        <v>394850</v>
+        <v>186365</v>
       </c>
       <c r="F34" s="7">
         <f>(F29/12*Inputs!$C$2+F4)*$C$32</f>
-        <v>231905</v>
+        <v>394850</v>
       </c>
       <c r="G34" s="7">
         <f>(G29/12*Inputs!$C$2+G4)*$C$32</f>
@@ -2198,13 +2198,13 @@
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>725305</v>
+        <v>679765</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
-        <v>725305</v>
+        <v>679765</v>
       </c>
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="F13" s="33">
         <v>0.1</v>
@@ -2552,15 +2552,15 @@
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>1440</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>2160</v>
+        <v>1440</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="1"/>
-        <v>17280</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>14400</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="33">
         <v>0.1</v>
@@ -2583,15 +2583,15 @@
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="1"/>
-        <v>11520</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D28:H28)</f>
-        <v>7000.0000000000009</v>
+        <v>3500.0000000000005</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="7"/>
@@ -2949,15 +2949,15 @@
       </c>
       <c r="J28" s="18">
         <f t="shared" si="9"/>
-        <v>622.2222222222224</v>
+        <v>311.1111111111112</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" si="5"/>
-        <v>1400.0000000000002</v>
+        <v>700.00000000000011</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="6"/>
-        <v>4977.7777777777792</v>
+        <v>2488.8888888888896</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>7000.0000000000009</v>
+        <v>3500.0000000000005</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="7"/>
@@ -2982,15 +2982,15 @@
       </c>
       <c r="J29" s="18">
         <f t="shared" si="9"/>
-        <v>622.2222222222224</v>
+        <v>311.1111111111112</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" si="5"/>
-        <v>1400.0000000000002</v>
+        <v>700.00000000000011</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="6"/>
-        <v>4977.7777777777792</v>
+        <v>2488.8888888888896</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="D35" s="18">
         <f>SUM(Calcs!D73:H73)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="F35" s="33">
         <v>0.6</v>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="J35" s="18">
         <f>F35*$D35</f>
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" ref="J35:L38" si="11">G35*$D35</f>
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="11"/>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D74:H74)</f>
-        <v>50400</v>
+        <v>33600</v>
       </c>
       <c r="F36" s="33">
         <v>0.6</v>
@@ -3162,11 +3162,11 @@
       </c>
       <c r="J36" s="18">
         <f t="shared" si="11"/>
-        <v>30240</v>
+        <v>20160</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="11"/>
-        <v>20160</v>
+        <v>13440</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="11"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D42" s="18">
         <f>SUM(Calcs!D80:H80)</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="30">
         <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
@@ -3306,11 +3306,11 @@
       </c>
       <c r="J42" s="18">
         <f>F42*$D42</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L42" s="18">
         <f t="shared" si="13"/>
@@ -3406,15 +3406,15 @@
       </c>
       <c r="F47" s="8">
         <f>IFERROR(SUM(J58:J61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.37975090959977603</v>
+        <v>0.41116990076936893</v>
       </c>
       <c r="G47" s="8">
         <f>IFERROR(SUM(K58:K61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.37619647355163727</v>
+        <v>0.40764379712028043</v>
       </c>
       <c r="H47" s="8">
         <f>IFERROR(SUM(L58:L61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.24405261684858667</v>
+        <v>0.18118630211035067</v>
       </c>
       <c r="J47" s="12">
         <f>F47*$D$47</f>
@@ -3435,31 +3435,31 @@
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
-        <v>-87165</v>
+        <v>-74745</v>
       </c>
       <c r="F48" s="3">
         <f>IFERROR(SUM(J7:J47)/SUM(J7:L47), 0)</f>
-        <v>0.3765042150584319</v>
+        <v>0.38941761081295961</v>
       </c>
       <c r="G48" s="3">
         <f>IFERROR(SUM(K7:K47)/SUM(J7:L47), 0)</f>
-        <v>0.49729729729729732</v>
+        <v>0.52407871198568878</v>
       </c>
       <c r="H48" s="3">
         <f>1-F48-G48</f>
-        <v>0.12619848764427077</v>
+        <v>8.6503677201351548E-2</v>
       </c>
       <c r="J48" s="12">
         <f>F48*$D$48</f>
-        <v>-32817.989905568218</v>
+        <v>-29107.019320214666</v>
       </c>
       <c r="K48" s="12">
         <f>G48*$D$48</f>
-        <v>-43346.91891891892</v>
+        <v>-39172.26332737031</v>
       </c>
       <c r="L48" s="12">
         <f>H48*$D$48</f>
-        <v>-11000.091175512862</v>
+        <v>-6465.7173524150212</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
@@ -3473,19 +3473,19 @@
       </c>
       <c r="D50" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>219935</v>
+        <v>204755</v>
       </c>
       <c r="J50" s="12">
         <f>SUM(J47:J48, J35:J38, J7:J17,J22:J32,J41:J44)</f>
-        <v>82806.45453887622</v>
+        <v>79735.202902007557</v>
       </c>
       <c r="K50" s="12">
         <f t="shared" ref="K50:L50" si="16">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
-        <v>109373.08108108108</v>
+        <v>107307.73667262969</v>
       </c>
       <c r="L50" s="12">
         <f t="shared" si="16"/>
-        <v>27755.4643800427</v>
+        <v>17712.060425362761</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.35">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="D51" s="23">
         <f>SUM(J50:L50)</f>
-        <v>219935</v>
+        <v>204755</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
@@ -3511,34 +3511,34 @@
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>725305</v>
+        <v>679765</v>
       </c>
       <c r="J53" s="12">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>274619.36361662863</v>
+        <v>265405.60870602273</v>
       </c>
       <c r="K53" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>367419.24324324331</v>
+        <v>361223.21001788904</v>
       </c>
       <c r="L53" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>83266.393140128072</v>
+        <v>53136.181276088268</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="J54" s="54">
         <f>J53/$D$53</f>
-        <v>0.37862604506604619</v>
+        <v>0.39043729628036561</v>
       </c>
       <c r="K54" s="54">
         <f t="shared" ref="K54:L54" si="17">K53/$D$53</f>
-        <v>0.5065720534716337</v>
+        <v>0.53139424656740053</v>
       </c>
       <c r="L54" s="54">
         <f t="shared" si="17"/>
-        <v>0.11480190146232008</v>
+        <v>7.8168457152233889E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D58" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="24">
@@ -3586,11 +3586,11 @@
       <c r="I58" s="21"/>
       <c r="J58" s="25">
         <f t="shared" ref="J58:L61" si="18">F58*$D58</f>
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="K58" s="25">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="L58" s="25">
         <f t="shared" si="18"/>
@@ -3604,33 +3604,33 @@
       </c>
       <c r="D59" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
-        <v>158800</v>
+        <v>99200</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="24">
         <f>IFERROR(SUM(J$36,J$9:J$14,J$42,J$24:J$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.37975090959977603</v>
+        <v>0.39175390266299354</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" ref="G59:H59" si="19">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.37619647355163727</v>
+        <v>0.4084297520661157</v>
       </c>
       <c r="H59" s="24">
         <f t="shared" si="19"/>
-        <v>0.24405261684858667</v>
+        <v>0.19981634527089076</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="25">
         <f t="shared" si="18"/>
-        <v>60304.444444444431</v>
+        <v>38861.987144168961</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="18"/>
-        <v>59740</v>
+        <v>40516.231404958678</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="18"/>
-        <v>38755.555555555562</v>
+        <v>19821.781450872364</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
@@ -4216,19 +4216,19 @@
       </c>
       <c r="M9" s="67">
         <f>$F9*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N9" s="67">
         <f>$F9*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O9" s="67">
         <f>$F9*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P9" s="67">
         <f>$F9*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R9" s="67">
         <f t="shared" si="2"/>
@@ -4282,19 +4282,19 @@
       </c>
       <c r="M10" s="67">
         <f>$F10*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N10" s="67">
         <f>$F10*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O10" s="67">
         <f>$F10*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P10" s="67">
         <f>$F10*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R10" s="67">
         <f t="shared" si="2"/>
@@ -4348,35 +4348,35 @@
       </c>
       <c r="M11" s="67">
         <f>$F11*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N11" s="67">
         <f>$F11*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O11" s="67">
         <f>$F11*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P11" s="67">
         <f>$F11*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R11" s="67">
         <f t="shared" si="2"/>
-        <v>120483.75000000001</v>
+        <v>116688.75000000001</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="3"/>
-        <v>46901.613634719062</v>
+        <v>46133.800725501889</v>
       </c>
       <c r="T11" s="67">
         <f t="shared" si="4"/>
-        <v>66643.270270270266</v>
+        <v>66126.93416815743</v>
       </c>
       <c r="U11" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
@@ -4414,19 +4414,19 @@
       </c>
       <c r="M12" s="67">
         <f>$F12*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N12" s="67">
         <f>$F12*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O12" s="67">
         <f>$F12*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P12" s="67">
         <f>$F12*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R12" s="67">
         <f t="shared" si="2"/>
@@ -4480,19 +4480,19 @@
       </c>
       <c r="M13" s="67">
         <f>$F13*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N13" s="67">
         <f>$F13*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O13" s="67">
         <f>$F13*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P13" s="67">
         <f>$F13*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R13" s="67">
         <f t="shared" si="2"/>
@@ -4546,35 +4546,35 @@
       </c>
       <c r="M14" s="67">
         <f>$F14*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N14" s="67">
         <f>$F14*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O14" s="67">
         <f>$F14*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P14" s="67">
         <f>$F14*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R14" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.35">
@@ -4612,19 +4612,19 @@
       </c>
       <c r="M15" s="67">
         <f>$F15*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N15" s="67">
         <f>$F15*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O15" s="67">
         <f>$F15*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P15" s="67">
         <f>$F15*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R15" s="67">
         <f t="shared" si="2"/>
@@ -4678,19 +4678,19 @@
       </c>
       <c r="M16" s="67">
         <f>$F16*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N16" s="67">
         <f>$F16*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O16" s="67">
         <f>$F16*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P16" s="67">
         <f>$F16*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R16" s="67">
         <f t="shared" si="2"/>
@@ -4744,35 +4744,35 @@
       </c>
       <c r="M17" s="67">
         <f>$F17*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N17" s="67">
         <f>$F17*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O17" s="67">
         <f>$F17*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P17" s="67">
         <f>$F17*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R17" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
@@ -4810,19 +4810,19 @@
       </c>
       <c r="M18" s="67">
         <f>$F18*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N18" s="67">
         <f>$F18*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O18" s="67">
         <f>$F18*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P18" s="67">
         <f>$F18*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R18" s="67">
         <f t="shared" si="2"/>
@@ -4876,19 +4876,19 @@
       </c>
       <c r="M19" s="67">
         <f>$F19*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N19" s="67">
         <f>$F19*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O19" s="67">
         <f>$F19*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P19" s="67">
         <f>$F19*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R19" s="67">
         <f t="shared" si="2"/>
@@ -4942,35 +4942,35 @@
       </c>
       <c r="M20" s="67">
         <f>$F20*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N20" s="67">
         <f>$F20*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O20" s="67">
         <f>$F20*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P20" s="67">
         <f>$F20*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R20" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.35">
@@ -5008,19 +5008,19 @@
       </c>
       <c r="M21" s="67">
         <f>$F21*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N21" s="67">
         <f>$F21*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O21" s="67">
         <f>$F21*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P21" s="67">
         <f>$F21*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R21" s="67">
         <f t="shared" si="2"/>
@@ -5074,19 +5074,19 @@
       </c>
       <c r="M22" s="67">
         <f>$F22*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N22" s="67">
         <f>$F22*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O22" s="67">
         <f>$F22*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P22" s="67">
         <f>$F22*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R22" s="67">
         <f t="shared" si="2"/>
@@ -5140,35 +5140,35 @@
       </c>
       <c r="M23" s="67">
         <f>$F23*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N23" s="67">
         <f>$F23*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O23" s="67">
         <f>$F23*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P23" s="67">
         <f>$F23*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R23" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.35">
@@ -5206,19 +5206,19 @@
       </c>
       <c r="M24" s="67">
         <f>$F24*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N24" s="67">
         <f>$F24*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O24" s="67">
         <f>$F24*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P24" s="67">
         <f>$F24*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R24" s="67">
         <f t="shared" si="2"/>
@@ -5272,19 +5272,19 @@
       </c>
       <c r="M25" s="67">
         <f>$F25*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N25" s="67">
         <f>$F25*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O25" s="67">
         <f>$F25*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P25" s="67">
         <f>$F25*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R25" s="67">
         <f t="shared" si="2"/>
@@ -5338,35 +5338,35 @@
       </c>
       <c r="M26" s="67">
         <f>$F26*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N26" s="67">
         <f>$F26*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O26" s="67">
         <f>$F26*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P26" s="67">
         <f>$F26*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R26" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.35">
@@ -5404,19 +5404,19 @@
       </c>
       <c r="M27" s="67">
         <f>$F27*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N27" s="67">
         <f>$F27*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O27" s="67">
         <f>$F27*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P27" s="67">
         <f>$F27*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R27" s="67">
         <f t="shared" si="2"/>
@@ -5470,19 +5470,19 @@
       </c>
       <c r="M28" s="67">
         <f>$F28*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N28" s="67">
         <f>$F28*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O28" s="67">
         <f>$F28*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P28" s="67">
         <f>$F28*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R28" s="67">
         <f t="shared" si="2"/>
@@ -5536,35 +5536,35 @@
       </c>
       <c r="M29" s="67">
         <f>$F29*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N29" s="67">
         <f>$F29*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O29" s="67">
         <f>$F29*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P29" s="67">
         <f>$F29*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R29" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.35">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="M30" s="67">
         <f>$F30*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N30" s="67">
         <f>$F30*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O30" s="67">
         <f>$F30*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P30" s="67">
         <f>$F30*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R30" s="67">
         <f t="shared" si="2"/>
@@ -5668,19 +5668,19 @@
       </c>
       <c r="M31" s="67">
         <f>$F31*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N31" s="67">
         <f>$F31*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O31" s="67">
         <f>$F31*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P31" s="67">
         <f>$F31*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R31" s="67">
         <f t="shared" si="2"/>
@@ -5734,35 +5734,35 @@
       </c>
       <c r="M32" s="67">
         <f>$F32*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N32" s="67">
         <f>$F32*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O32" s="67">
         <f>$F32*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P32" s="67">
         <f>$F32*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R32" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.35">
@@ -5800,19 +5800,19 @@
       </c>
       <c r="M33" s="67">
         <f>$F33*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N33" s="67">
         <f>$F33*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O33" s="67">
         <f>$F33*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P33" s="67">
         <f>$F33*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R33" s="67">
         <f t="shared" si="2"/>
@@ -5866,19 +5866,19 @@
       </c>
       <c r="M34" s="67">
         <f>$F34*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N34" s="67">
         <f>$F34*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O34" s="67">
         <f>$F34*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P34" s="67">
         <f>$F34*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R34" s="67">
         <f t="shared" si="2"/>
@@ -5932,35 +5932,35 @@
       </c>
       <c r="M35" s="67">
         <f>$F35*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N35" s="67">
         <f>$F35*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O35" s="67">
         <f>$F35*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P35" s="67">
         <f>$F35*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R35" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
@@ -5998,19 +5998,19 @@
       </c>
       <c r="M36" s="67">
         <f>$F36*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N36" s="67">
         <f>$F36*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O36" s="67">
         <f>$F36*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P36" s="67">
         <f>$F36*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R36" s="67">
         <f t="shared" si="2"/>
@@ -6064,19 +6064,19 @@
       </c>
       <c r="M37" s="67">
         <f>$F37*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N37" s="67">
         <f>$F37*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O37" s="67">
         <f>$F37*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P37" s="67">
         <f>$F37*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R37" s="67">
         <f t="shared" si="2"/>
@@ -6130,35 +6130,35 @@
       </c>
       <c r="M38" s="67">
         <f>$F38*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N38" s="67">
         <f>$F38*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O38" s="67">
         <f>$F38*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P38" s="67">
         <f>$F38*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R38" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.35">
@@ -6196,19 +6196,19 @@
       </c>
       <c r="M39" s="67">
         <f>$F39*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N39" s="67">
         <f>$F39*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O39" s="67">
         <f>$F39*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P39" s="67">
         <f>$F39*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R39" s="67">
         <f t="shared" si="2"/>
@@ -6262,19 +6262,19 @@
       </c>
       <c r="M40" s="67">
         <f>$F40*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N40" s="67">
         <f>$F40*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O40" s="67">
         <f>$F40*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P40" s="67">
         <f>$F40*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R40" s="67">
         <f t="shared" si="2"/>
@@ -6328,35 +6328,35 @@
       </c>
       <c r="M41" s="67">
         <f>$F41*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N41" s="67">
         <f>$F41*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O41" s="67">
         <f>$F41*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P41" s="67">
         <f>$F41*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R41" s="67">
         <f t="shared" si="2"/>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.35">
@@ -6394,19 +6394,19 @@
       </c>
       <c r="M42" s="67">
         <f>$F42*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N42" s="67">
         <f>$F42*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O42" s="67">
         <f>$F42*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P42" s="67">
         <f>$F42*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R42" s="67">
         <f t="shared" si="2"/>
@@ -6460,19 +6460,19 @@
       </c>
       <c r="M43" s="67">
         <f>$F43*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N43" s="67">
         <f>$F43*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O43" s="67">
         <f>$F43*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P43" s="67">
         <f>$F43*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R43" s="67">
         <f t="shared" si="2"/>
@@ -6526,35 +6526,35 @@
       </c>
       <c r="M44" s="67">
         <f>$F44*Outputs_Internal!$D$50/12</f>
-        <v>18327.916666666668</v>
+        <v>17062.916666666668</v>
       </c>
       <c r="N44" s="67">
         <f>$F44*Outputs_Internal!J$50/12</f>
-        <v>6900.5378782396847</v>
+        <v>6644.6002418339631</v>
       </c>
       <c r="O44" s="67">
         <f>$F44*Outputs_Internal!K$50/12</f>
-        <v>9114.4234234234227</v>
+        <v>8942.3113893858081</v>
       </c>
       <c r="P44" s="67">
         <f>$F44*Outputs_Internal!L$50/12</f>
-        <v>2312.9553650035582</v>
+        <v>1476.0050354468967</v>
       </c>
       <c r="R44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>54983.75</v>
+        <v>51188.75</v>
       </c>
       <c r="S44" s="67">
         <f t="shared" si="3"/>
-        <v>20701.613634719055</v>
+        <v>19933.800725501889</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="4"/>
-        <v>27343.270270270266</v>
+        <v>26826.934168157422</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="5"/>
-        <v>6938.8660950106751</v>
+        <v>4428.0151063406902</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.35">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="E15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$19="Y"), Prices!$C14, 0)</f>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="E16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$19="Y"), Prices!$C15, 0)</f>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="E28" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D14),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F28" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D14),0))</f>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="E29" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D15),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F29" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D15),0))</f>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="E37" s="18">
         <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F37" s="18">
         <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="E38" s="18">
         <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F38" s="18">
         <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="E39" s="18">
         <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F39" s="18">
         <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="E40" s="18">
         <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F40" s="18">
         <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="E50" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D10),0))</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F50" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D10),0))</f>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="E51" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D11),0))</f>
-        <v>0</v>
+        <v>3500.0000000000005</v>
       </c>
       <c r="F51" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D11),0))</f>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E52" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D12),0))</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F52" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D12),0))</f>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="E53" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D13),0))</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F53" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D13),0))</f>
@@ -11105,23 +11105,23 @@
         <v>18</v>
       </c>
       <c r="D61" s="18">
-        <f>IF(Inputs!$D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="E61" s="18">
-        <f>IF(Inputs!$D$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
-        <v>0</v>
+        <f>IF(Inputs!E$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
+        <v>10200</v>
       </c>
       <c r="F61" s="18">
-        <f>IF(Inputs!$D$19 = "Y", 0, IF(Inputs!F18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!F$19 = "Y", 0, IF(Inputs!F18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="G61" s="18">
-        <f>IF(Inputs!$D$19 = "Y", 0, IF(Inputs!G18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!G$19 = "Y", 0, IF(Inputs!G18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="H61" s="18">
-        <f>IF(Inputs!$D$19 = "Y", 0, IF(Inputs!H18="Y", Prices!$C20, 0))</f>
+        <f>IF(Inputs!H$19 = "Y", 0, IF(Inputs!H18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
       <c r="K61" s="21">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="L61" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E61,E$61:E$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="21">
         <f t="shared" ref="M61:M64" si="1">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F61,F$61:F$64),4))</f>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="E62" s="18">
         <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="F62" s="18">
         <f>IF(Inputs!F19="Y", Prices!$C21, 0)</f>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="L62" s="21">
         <f t="shared" ref="L62:L64" si="4">IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E62,E$61:E$64),4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="21">
         <f t="shared" si="1"/>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E68" s="18">
         <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", 0, IF(Inputs!E19 = "Y", E$6*Prices!$D21, 0)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F68" s="18">
         <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", 0, IF(Inputs!F19 = "Y", F$6*Prices!$D21, 0)))</f>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="E73" s="18">
         <f t="shared" ref="E73:H73" si="9">E61</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="F73" s="18">
         <f t="shared" si="9"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="E74" s="18">
         <f t="shared" ref="E74:H74" si="10">IF(E62=0,0,E62-SUM(E11:E16))</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="F74" s="18">
         <f>IF(F62=0,0,F62-SUM(F11:F16))</f>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E80" s="18">
         <f t="shared" ref="E80:H80" si="17">IF(E68=0,0,E68-SUM(E24:E29))</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F80" s="18">
         <f t="shared" si="17"/>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="E88" s="7">
         <f t="shared" ref="E88:H88" si="20">SUM(E35:E45, E48:E58, E61:E64, E67:E70, E85:E86)</f>
-        <v>120700</v>
+        <v>93100</v>
       </c>
       <c r="F88" s="7">
         <f t="shared" si="20"/>
@@ -11725,11 +11725,11 @@
       </c>
       <c r="E90" s="1">
         <f t="shared" ref="E90:H90" si="21">IF(E98=1, 0, IF(E98=2, $E$101, IF(E98=3, $E$102, IF(E98=4, $E$103, IF(E98=5, $E$104, "")))))</f>
-        <v>0</v>
+        <v>-41895</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="21"/>
-        <v>-54315</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="21"/>
@@ -11750,11 +11750,11 @@
       </c>
       <c r="E92" s="7">
         <f>SUM(E88, E90)</f>
-        <v>120700</v>
+        <v>51205</v>
       </c>
       <c r="F92" s="7">
         <f>SUM(F88, F90)</f>
-        <v>66385</v>
+        <v>120700</v>
       </c>
       <c r="G92" s="7">
         <f>SUM(G88, G90)</f>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="E95" s="21">
         <f t="shared" ref="E95:H95" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="21">
         <f t="shared" si="22"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="E97" s="21">
         <f t="shared" ref="E97:H97" si="23">SUM(E95:E96)</f>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F97" s="21">
         <f t="shared" si="23"/>
@@ -11840,11 +11840,11 @@
       </c>
       <c r="E98" s="21">
         <f t="shared" ref="E98:H98" si="24">_xlfn.RANK.EQ(E97, $D$97:$H$97, 5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="21">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="21">
         <f t="shared" si="24"/>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="E101" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$98:$H$98, 0))*Prices!$I$10*-1</f>
-        <v>-54315</v>
+        <v>-41895</v>
       </c>
     </row>
     <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="101">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -1005,20 +1005,20 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" style="70" customWidth="1"/>
-    <col min="4" max="8" width="18.7265625" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
         <v>84</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>98</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="73"/>
       <c r="C3" s="78"/>
       <c r="D3" s="13" t="s">
@@ -1053,298 +1053,190 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="57"/>
       <c r="L4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="L5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="56">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="56">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="56">
-        <v>75000</v>
-      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>4</v>
-      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>45</v>
-      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="71"/>
-      <c r="D21" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="59"/>
     </row>
@@ -1373,23 +1265,23 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -1406,12 +1298,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1421,11 +1313,11 @@
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>MAX(Calcs!F4, 0)</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>MAX(Calcs!G4, 0)</f>
@@ -1447,7 +1339,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1457,26 +1349,26 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D35, Calcs!D48)</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E35, Calcs!E48)</f>
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F35, Calcs!F48)</f>
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
         <f>SUM(Calcs!G35, Calcs!G48)</f>
@@ -1498,21 +1390,21 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D36, Calcs!D49)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
         <f>SUM(Calcs!E36, Calcs!E49)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
         <f>SUM(Calcs!F36, Calcs!F49)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
         <f>SUM(Calcs!G36, Calcs!G49)</f>
@@ -1534,7 +1426,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1436,7 @@
       </c>
       <c r="E9" s="18">
         <f>SUM(Calcs!E37, Calcs!E50)</f>
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
         <f>SUM(Calcs!F37, Calcs!F50)</f>
@@ -1570,7 +1462,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1472,7 @@
       </c>
       <c r="E10" s="18">
         <f>SUM(Calcs!E38, Calcs!E51)</f>
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
         <f>SUM(Calcs!F38, Calcs!F51)</f>
@@ -1606,7 +1498,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1616,7 +1508,7 @@
       </c>
       <c r="E11" s="18">
         <f>SUM(Calcs!E39, Calcs!E52)</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
         <f>SUM(Calcs!F39, Calcs!F52)</f>
@@ -1641,7 +1533,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1543,7 @@
       </c>
       <c r="E12" s="18">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
         <f>SUM(Calcs!F40, Calcs!F53)</f>
@@ -1676,7 +1568,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +1603,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1638,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1673,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -1816,7 +1708,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
@@ -1851,12 +1743,12 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1866,7 +1758,7 @@
       </c>
       <c r="E20" s="1">
         <f>SUM(Calcs!E61, Calcs!E67)</f>
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <f>SUM(Calcs!F61, Calcs!F67)</f>
@@ -1891,13 +1783,13 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D62, Calcs!D68)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E62, Calcs!E68)</f>
@@ -1905,7 +1797,7 @@
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F62, Calcs!F68)</f>
-        <v>59600</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f>SUM(Calcs!G62, Calcs!G68)</f>
@@ -1926,7 +1818,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1853,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1996,12 +1888,12 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>61</v>
       </c>
@@ -2036,17 +1928,17 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D90</f>
-        <v>-32850</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <f>Calcs!E90</f>
-        <v>-41895</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <f>Calcs!F90</f>
@@ -2071,21 +1963,21 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D27)</f>
-        <v>32850</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" ref="E29:H29" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
-        <v>51205</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>120700</v>
+        <v>0</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
@@ -2103,7 +1995,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2117,7 +2009,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
@@ -2137,27 +2029,27 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="68">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="7">
         <f>(D29/12*Inputs!$C$2+D4)*$C$32</f>
-        <v>98550</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7">
         <f>(E29/12*Inputs!$C$2+E4)*$C$32</f>
-        <v>186365</v>
+        <v>0</v>
       </c>
       <c r="F34" s="7">
         <f>(F29/12*Inputs!$C$2+F4)*$C$32</f>
-        <v>394850</v>
+        <v>0</v>
       </c>
       <c r="G34" s="7">
         <f>(G29/12*Inputs!$C$2+G4)*$C$32</f>
@@ -2175,7 +2067,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2190,36 +2082,36 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>679765</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
-        <v>679765</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2237,32 +2129,32 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F1" s="51" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>68</v>
       </c>
@@ -2286,18 +2178,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f>SUM(Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>65500</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10">
@@ -2312,18 +2204,18 @@
       </c>
       <c r="J4" s="12">
         <f>F4*$D4</f>
-        <v>26200</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>G4*$D4</f>
-        <v>39300</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f>H4*$D4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="26"/>
@@ -2331,7 +2223,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
@@ -2342,13 +2234,13 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D9:H9)</f>
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="32">
@@ -2363,24 +2255,24 @@
       </c>
       <c r="J7" s="16">
         <f>F7*$D7</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
         <f>G7*$D7</f>
-        <v>50400</v>
+        <v>0</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L17" si="1">H7*$D7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D10:H10)</f>
-        <v>24300</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="32">
@@ -2395,24 +2287,24 @@
       </c>
       <c r="J8" s="16">
         <f t="shared" ref="J8:J17" si="2">F8*$D8</f>
-        <v>9720</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
         <f t="shared" ref="K8:K16" si="3">G8*$D8</f>
-        <v>14580</v>
+        <v>0</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D11:H11)</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="33">
@@ -2427,24 +2319,24 @@
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D12:H12)</f>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="33">
@@ -2459,24 +2351,24 @@
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>5760</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>8640</v>
+        <v>0</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D13:H13)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="33">
         <v>0.6</v>
@@ -2490,24 +2382,24 @@
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="33">
         <v>0.5</v>
@@ -2521,24 +2413,24 @@
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="F13" s="33">
         <v>0.1</v>
@@ -2552,24 +2444,24 @@
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="1"/>
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="33">
         <v>0.1</v>
@@ -2583,18 +2475,18 @@
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="1"/>
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
@@ -2687,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2695,7 +2587,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G19" s="49" t="s">
         <v>80</v>
       </c>
@@ -2706,7 +2598,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2714,7 +2606,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>79</v>
       </c>
@@ -2725,13 +2617,13 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="35">
@@ -2748,18 +2640,18 @@
       </c>
       <c r="J22" s="16">
         <f>F22*$D22</f>
-        <v>12000.000000000002</v>
+        <v>0</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" ref="K22:K32" si="5">G22*$D22</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" ref="L22:L32" si="6">H22*$D22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -2793,13 +2685,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="18">
         <f>SUM(Calcs!D24:H24)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="37">
@@ -2816,24 +2708,24 @@
       </c>
       <c r="J24" s="18">
         <f t="shared" si="9"/>
-        <v>1500.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="5"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="L24" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D25:H25)</f>
-        <v>7000.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
@@ -2850,24 +2742,24 @@
       </c>
       <c r="J25" s="18">
         <f t="shared" si="9"/>
-        <v>2100.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="5"/>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="7"/>
@@ -2883,24 +2775,24 @@
       </c>
       <c r="J26" s="18">
         <f t="shared" si="9"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" si="5"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D27:H27)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="7"/>
@@ -2916,24 +2808,24 @@
       </c>
       <c r="J27" s="18">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D28:H28)</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="7"/>
@@ -2949,24 +2841,24 @@
       </c>
       <c r="J28" s="18">
         <f t="shared" si="9"/>
-        <v>311.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" si="5"/>
-        <v>700.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="6"/>
-        <v>2488.8888888888896</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="7"/>
@@ -2982,18 +2874,18 @@
       </c>
       <c r="J29" s="18">
         <f t="shared" si="9"/>
-        <v>311.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" si="5"/>
-        <v>700.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="6"/>
-        <v>2488.8888888888896</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
         <v>15</v>
       </c>
@@ -3026,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
         <v>16</v>
       </c>
@@ -3059,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="28" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -3100,7 +2992,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
@@ -3111,13 +3003,13 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="18">
         <f>SUM(Calcs!D73:H73)</f>
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="33">
         <v>0.6</v>
@@ -3131,24 +3023,24 @@
       </c>
       <c r="J35" s="18">
         <f>F35*$D35</f>
-        <v>6120</v>
+        <v>0</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" ref="J35:L38" si="11">G35*$D35</f>
-        <v>4080</v>
+        <v>0</v>
       </c>
       <c r="L35" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D74:H74)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="F36" s="33">
         <v>0.6</v>
@@ -3162,18 +3054,18 @@
       </c>
       <c r="J36" s="18">
         <f t="shared" si="11"/>
-        <v>20160</v>
+        <v>0</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="11"/>
-        <v>13440</v>
+        <v>0</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
         <v>21</v>
       </c>
@@ -3235,12 +3127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>81</v>
       </c>
@@ -3251,7 +3143,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C41" s="28" t="s">
         <v>18</v>
       </c>
@@ -3284,13 +3176,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="18">
         <f>SUM(Calcs!D80:H80)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="30">
         <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
@@ -3306,18 +3198,18 @@
       </c>
       <c r="J42" s="18">
         <f>F42*$D42</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L42" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
         <v>21</v>
       </c>
@@ -3383,12 +3275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
@@ -3396,7 +3288,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>61</v>
       </c>
@@ -3406,15 +3298,15 @@
       </c>
       <c r="F47" s="8">
         <f>IFERROR(SUM(J58:J61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.41116990076936893</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8">
         <f>IFERROR(SUM(K58:K61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.40764379712028043</v>
+        <v>0</v>
       </c>
       <c r="H47" s="8">
         <f>IFERROR(SUM(L58:L61)/SUM($J$58:$L$61), 0)</f>
-        <v>0.18118630211035067</v>
+        <v>0</v>
       </c>
       <c r="J47" s="12">
         <f>F47*$D$47</f>
@@ -3429,124 +3321,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
-        <v>-74745</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <f>IFERROR(SUM(J7:J47)/SUM(J7:L47), 0)</f>
-        <v>0.38941761081295961</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <f>IFERROR(SUM(K7:K47)/SUM(J7:L47), 0)</f>
-        <v>0.52407871198568878</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <f>1-F48-G48</f>
-        <v>8.6503677201351548E-2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="12">
         <f>F48*$D$48</f>
-        <v>-29107.019320214666</v>
+        <v>0</v>
       </c>
       <c r="K48" s="12">
         <f>G48*$D$48</f>
-        <v>-39172.26332737031</v>
+        <v>0</v>
       </c>
       <c r="L48" s="12">
         <f>H48*$D$48</f>
-        <v>-6465.7173524150212</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>204755</v>
+        <v>0</v>
       </c>
       <c r="J50" s="12">
         <f>SUM(J47:J48, J35:J38, J7:J17,J22:J32,J41:J44)</f>
-        <v>79735.202902007557</v>
+        <v>0</v>
       </c>
       <c r="K50" s="12">
         <f t="shared" ref="K50:L50" si="16">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
-        <v>107307.73667262969</v>
+        <v>0</v>
       </c>
       <c r="L50" s="12">
         <f t="shared" si="16"/>
-        <v>17712.060425362761</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C51" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="23">
         <f>SUM(J50:L50)</f>
-        <v>204755</v>
+        <v>0</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>679765</v>
+        <v>0</v>
       </c>
       <c r="J53" s="12">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>265405.60870602273</v>
+        <v>0</v>
       </c>
       <c r="K53" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>361223.21001788904</v>
+        <v>0</v>
       </c>
       <c r="L53" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>53136.181276088268</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
-      <c r="J54" s="54">
+      <c r="J54" s="54" t="e">
         <f>J53/$D$53</f>
-        <v>0.39043729628036561</v>
-      </c>
-      <c r="K54" s="54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="54" t="e">
         <f t="shared" ref="K54:L54" si="17">K53/$D$53</f>
-        <v>0.53139424656740053</v>
-      </c>
-      <c r="L54" s="54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="54" t="e">
         <f t="shared" si="17"/>
-        <v>7.8168457152233889E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
         <v>77</v>
       </c>
@@ -3561,14 +3453,14 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
       <c r="C58" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="24">
@@ -3586,54 +3478,54 @@
       <c r="I58" s="21"/>
       <c r="J58" s="25">
         <f t="shared" ref="J58:L61" si="18">F58*$D58</f>
-        <v>6120</v>
+        <v>0</v>
       </c>
       <c r="K58" s="25">
         <f t="shared" si="18"/>
-        <v>4080</v>
+        <v>0</v>
       </c>
       <c r="L58" s="25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="27"/>
       <c r="C59" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
-        <v>99200</v>
+        <v>0</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="24">
         <f>IFERROR(SUM(J$36,J$9:J$14,J$42,J$24:J$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.39175390266299354</v>
+        <v>0</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" ref="G59:H59" si="19">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.4084297520661157</v>
+        <v>0</v>
       </c>
       <c r="H59" s="24">
         <f t="shared" si="19"/>
-        <v>0.19981634527089076</v>
+        <v>0</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="25">
         <f t="shared" si="18"/>
-        <v>38861.987144168961</v>
+        <v>0</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="18"/>
-        <v>40516.231404958678</v>
+        <v>0</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="18"/>
-        <v>19821.781450872364</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
         <v>20</v>
@@ -3669,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
         <v>21</v>
@@ -3722,23 +3614,23 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.54296875" style="64" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="67"/>
-    <col min="12" max="12" width="5.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.7265625" style="67"/>
-    <col min="17" max="17" width="3.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="64" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" style="67"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" style="67"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F1" s="69">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -3762,7 +3654,7 @@
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>87</v>
       </c>
@@ -3814,7 +3706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="64">
         <v>42917</v>
       </c>
@@ -3867,7 +3759,7 @@
       <c r="T3" s="67"/>
       <c r="U3" s="67"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="64">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -3917,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="64">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -3983,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="64">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4049,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="64">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -4115,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="64">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -4181,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="64">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -4200,15 +4092,15 @@
       </c>
       <c r="H9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D9</f>
-        <v>65500</v>
+        <v>0</v>
       </c>
       <c r="I9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!J$4,0)*$D9</f>
-        <v>26200</v>
+        <v>0</v>
       </c>
       <c r="J9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!K$4,0)*$D9</f>
-        <v>39300</v>
+        <v>0</v>
       </c>
       <c r="K9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!L$4,0)*$D9</f>
@@ -4216,19 +4108,19 @@
       </c>
       <c r="M9" s="67">
         <f>$F9*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N9" s="67">
         <f>$F9*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O9" s="67">
         <f>$F9*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P9" s="67">
         <f>$F9*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R9" s="67">
         <f t="shared" si="2"/>
@@ -4247,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -4282,19 +4174,19 @@
       </c>
       <c r="M10" s="67">
         <f>$F10*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N10" s="67">
         <f>$F10*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O10" s="67">
         <f>$F10*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P10" s="67">
         <f>$F10*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R10" s="67">
         <f t="shared" si="2"/>
@@ -4313,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="64">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -4348,38 +4240,38 @@
       </c>
       <c r="M11" s="67">
         <f>$F11*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N11" s="67">
         <f>$F11*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O11" s="67">
         <f>$F11*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P11" s="67">
         <f>$F11*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R11" s="67">
         <f t="shared" si="2"/>
-        <v>116688.75000000001</v>
+        <v>0</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="3"/>
-        <v>46133.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T11" s="67">
         <f t="shared" si="4"/>
-        <v>66126.93416815743</v>
+        <v>0</v>
       </c>
       <c r="U11" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="64">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -4414,19 +4306,19 @@
       </c>
       <c r="M12" s="67">
         <f>$F12*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N12" s="67">
         <f>$F12*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O12" s="67">
         <f>$F12*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P12" s="67">
         <f>$F12*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R12" s="67">
         <f t="shared" si="2"/>
@@ -4445,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="64">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -4480,19 +4372,19 @@
       </c>
       <c r="M13" s="67">
         <f>$F13*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N13" s="67">
         <f>$F13*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O13" s="67">
         <f>$F13*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P13" s="67">
         <f>$F13*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R13" s="67">
         <f t="shared" si="2"/>
@@ -4511,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="64">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -4546,38 +4438,38 @@
       </c>
       <c r="M14" s="67">
         <f>$F14*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N14" s="67">
         <f>$F14*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O14" s="67">
         <f>$F14*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P14" s="67">
         <f>$F14*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R14" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="64">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -4612,19 +4504,19 @@
       </c>
       <c r="M15" s="67">
         <f>$F15*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N15" s="67">
         <f>$F15*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O15" s="67">
         <f>$F15*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P15" s="67">
         <f>$F15*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R15" s="67">
         <f t="shared" si="2"/>
@@ -4643,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="64">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -4678,19 +4570,19 @@
       </c>
       <c r="M16" s="67">
         <f>$F16*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N16" s="67">
         <f>$F16*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O16" s="67">
         <f>$F16*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P16" s="67">
         <f>$F16*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R16" s="67">
         <f t="shared" si="2"/>
@@ -4709,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="64">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -4744,38 +4636,38 @@
       </c>
       <c r="M17" s="67">
         <f>$F17*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N17" s="67">
         <f>$F17*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O17" s="67">
         <f>$F17*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P17" s="67">
         <f>$F17*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R17" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="64">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -4810,19 +4702,19 @@
       </c>
       <c r="M18" s="67">
         <f>$F18*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N18" s="67">
         <f>$F18*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O18" s="67">
         <f>$F18*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P18" s="67">
         <f>$F18*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R18" s="67">
         <f t="shared" si="2"/>
@@ -4841,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="64">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -4876,19 +4768,19 @@
       </c>
       <c r="M19" s="67">
         <f>$F19*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N19" s="67">
         <f>$F19*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O19" s="67">
         <f>$F19*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P19" s="67">
         <f>$F19*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R19" s="67">
         <f t="shared" si="2"/>
@@ -4907,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="64">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -4942,38 +4834,38 @@
       </c>
       <c r="M20" s="67">
         <f>$F20*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N20" s="67">
         <f>$F20*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O20" s="67">
         <f>$F20*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P20" s="67">
         <f>$F20*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R20" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="64">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -5008,19 +4900,19 @@
       </c>
       <c r="M21" s="67">
         <f>$F21*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N21" s="67">
         <f>$F21*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O21" s="67">
         <f>$F21*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P21" s="67">
         <f>$F21*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R21" s="67">
         <f t="shared" si="2"/>
@@ -5039,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="64">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -5074,19 +4966,19 @@
       </c>
       <c r="M22" s="67">
         <f>$F22*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N22" s="67">
         <f>$F22*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O22" s="67">
         <f>$F22*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P22" s="67">
         <f>$F22*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R22" s="67">
         <f t="shared" si="2"/>
@@ -5105,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="64">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -5140,38 +5032,38 @@
       </c>
       <c r="M23" s="67">
         <f>$F23*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N23" s="67">
         <f>$F23*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O23" s="67">
         <f>$F23*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P23" s="67">
         <f>$F23*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R23" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="64">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -5206,19 +5098,19 @@
       </c>
       <c r="M24" s="67">
         <f>$F24*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N24" s="67">
         <f>$F24*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O24" s="67">
         <f>$F24*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P24" s="67">
         <f>$F24*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R24" s="67">
         <f t="shared" si="2"/>
@@ -5237,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="64">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -5272,19 +5164,19 @@
       </c>
       <c r="M25" s="67">
         <f>$F25*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N25" s="67">
         <f>$F25*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O25" s="67">
         <f>$F25*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P25" s="67">
         <f>$F25*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R25" s="67">
         <f t="shared" si="2"/>
@@ -5303,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="64">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -5338,38 +5230,38 @@
       </c>
       <c r="M26" s="67">
         <f>$F26*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N26" s="67">
         <f>$F26*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O26" s="67">
         <f>$F26*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P26" s="67">
         <f>$F26*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R26" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="64">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -5404,19 +5296,19 @@
       </c>
       <c r="M27" s="67">
         <f>$F27*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N27" s="67">
         <f>$F27*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O27" s="67">
         <f>$F27*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P27" s="67">
         <f>$F27*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R27" s="67">
         <f t="shared" si="2"/>
@@ -5435,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="64">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -5470,19 +5362,19 @@
       </c>
       <c r="M28" s="67">
         <f>$F28*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N28" s="67">
         <f>$F28*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O28" s="67">
         <f>$F28*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P28" s="67">
         <f>$F28*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R28" s="67">
         <f t="shared" si="2"/>
@@ -5501,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="64">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -5536,38 +5428,38 @@
       </c>
       <c r="M29" s="67">
         <f>$F29*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N29" s="67">
         <f>$F29*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O29" s="67">
         <f>$F29*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P29" s="67">
         <f>$F29*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R29" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="64">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -5602,19 +5494,19 @@
       </c>
       <c r="M30" s="67">
         <f>$F30*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N30" s="67">
         <f>$F30*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O30" s="67">
         <f>$F30*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P30" s="67">
         <f>$F30*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R30" s="67">
         <f t="shared" si="2"/>
@@ -5633,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="64">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -5668,19 +5560,19 @@
       </c>
       <c r="M31" s="67">
         <f>$F31*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N31" s="67">
         <f>$F31*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O31" s="67">
         <f>$F31*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P31" s="67">
         <f>$F31*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R31" s="67">
         <f t="shared" si="2"/>
@@ -5699,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="64">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -5734,38 +5626,38 @@
       </c>
       <c r="M32" s="67">
         <f>$F32*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N32" s="67">
         <f>$F32*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O32" s="67">
         <f>$F32*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P32" s="67">
         <f>$F32*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R32" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="64">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -5800,19 +5692,19 @@
       </c>
       <c r="M33" s="67">
         <f>$F33*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N33" s="67">
         <f>$F33*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O33" s="67">
         <f>$F33*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P33" s="67">
         <f>$F33*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R33" s="67">
         <f t="shared" si="2"/>
@@ -5831,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="64">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -5866,19 +5758,19 @@
       </c>
       <c r="M34" s="67">
         <f>$F34*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N34" s="67">
         <f>$F34*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O34" s="67">
         <f>$F34*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P34" s="67">
         <f>$F34*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R34" s="67">
         <f t="shared" si="2"/>
@@ -5897,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="64">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -5932,38 +5824,38 @@
       </c>
       <c r="M35" s="67">
         <f>$F35*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N35" s="67">
         <f>$F35*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O35" s="67">
         <f>$F35*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P35" s="67">
         <f>$F35*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R35" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="64">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -5998,19 +5890,19 @@
       </c>
       <c r="M36" s="67">
         <f>$F36*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N36" s="67">
         <f>$F36*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O36" s="67">
         <f>$F36*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P36" s="67">
         <f>$F36*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R36" s="67">
         <f t="shared" si="2"/>
@@ -6029,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="64">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6064,19 +5956,19 @@
       </c>
       <c r="M37" s="67">
         <f>$F37*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N37" s="67">
         <f>$F37*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O37" s="67">
         <f>$F37*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P37" s="67">
         <f>$F37*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R37" s="67">
         <f t="shared" si="2"/>
@@ -6095,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="64">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6130,38 +6022,38 @@
       </c>
       <c r="M38" s="67">
         <f>$F38*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N38" s="67">
         <f>$F38*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O38" s="67">
         <f>$F38*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P38" s="67">
         <f>$F38*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R38" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="64">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -6196,19 +6088,19 @@
       </c>
       <c r="M39" s="67">
         <f>$F39*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N39" s="67">
         <f>$F39*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O39" s="67">
         <f>$F39*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P39" s="67">
         <f>$F39*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R39" s="67">
         <f t="shared" si="2"/>
@@ -6227,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="64">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -6262,19 +6154,19 @@
       </c>
       <c r="M40" s="67">
         <f>$F40*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N40" s="67">
         <f>$F40*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O40" s="67">
         <f>$F40*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P40" s="67">
         <f>$F40*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R40" s="67">
         <f t="shared" si="2"/>
@@ -6293,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="64">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -6328,38 +6220,38 @@
       </c>
       <c r="M41" s="67">
         <f>$F41*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N41" s="67">
         <f>$F41*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O41" s="67">
         <f>$F41*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P41" s="67">
         <f>$F41*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R41" s="67">
         <f t="shared" si="2"/>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="64">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -6394,19 +6286,19 @@
       </c>
       <c r="M42" s="67">
         <f>$F42*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N42" s="67">
         <f>$F42*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O42" s="67">
         <f>$F42*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P42" s="67">
         <f>$F42*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R42" s="67">
         <f t="shared" si="2"/>
@@ -6425,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="64">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -6460,19 +6352,19 @@
       </c>
       <c r="M43" s="67">
         <f>$F43*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N43" s="67">
         <f>$F43*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O43" s="67">
         <f>$F43*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P43" s="67">
         <f>$F43*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R43" s="67">
         <f t="shared" si="2"/>
@@ -6491,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="64">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -6526,38 +6418,38 @@
       </c>
       <c r="M44" s="67">
         <f>$F44*Outputs_Internal!$D$50/12</f>
-        <v>17062.916666666668</v>
+        <v>0</v>
       </c>
       <c r="N44" s="67">
         <f>$F44*Outputs_Internal!J$50/12</f>
-        <v>6644.6002418339631</v>
+        <v>0</v>
       </c>
       <c r="O44" s="67">
         <f>$F44*Outputs_Internal!K$50/12</f>
-        <v>8942.3113893858081</v>
+        <v>0</v>
       </c>
       <c r="P44" s="67">
         <f>$F44*Outputs_Internal!L$50/12</f>
-        <v>1476.0050354468967</v>
+        <v>0</v>
       </c>
       <c r="R44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>51188.75</v>
+        <v>0</v>
       </c>
       <c r="S44" s="67">
         <f t="shared" si="3"/>
-        <v>19933.800725501889</v>
+        <v>0</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="4"/>
-        <v>26826.934168157422</v>
+        <v>0</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="5"/>
-        <v>4428.0151063406902</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="64">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -6623,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="64">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -6689,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="64">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -6755,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="64">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -6821,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="64">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -6887,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="64">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -6953,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="64">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -7019,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="64">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -7085,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="64">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -7151,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="64">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -7217,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="64">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -7283,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="64">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -7349,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="64">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -7415,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="64">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -7481,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="64">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -7547,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="64">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -7613,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="64">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -7679,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="64">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -7745,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="64">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -7811,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="64">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -7877,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="64">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -7943,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="64">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -8009,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="64">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -8075,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="64">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -8141,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="64">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -8207,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="64">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -8273,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="64">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -8339,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="64">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -8405,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="64">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -8471,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="64">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -8537,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="64">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -8603,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="64">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -8669,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="64">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -8735,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="64">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -8801,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="64">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -8867,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="64">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -8933,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="64">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -8999,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="64">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -9065,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="64">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -9131,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="64">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -9197,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="64">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -9263,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="64">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -9329,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="64">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -9395,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="64">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -9461,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="64">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -9527,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="64">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -9593,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="64">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -9659,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="64">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -9725,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="64">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -9791,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="64">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -9875,19 +9767,19 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>22</v>
       </c>
@@ -9919,44 +9811,44 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(Inputs!D5="Y", 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(Inputs!E5="Y", 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
-        <v>32750</v>
+        <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(Inputs!F5="Y", 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))</f>
-        <v>32750</v>
+        <f>IF(AND(Inputs!F5="Y",Inputs!F4="Y"), 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(Inputs!G5="Y", 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))</f>
+        <f>IF(AND(Inputs!G5="Y",Inputs!G4="Y"), 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(Inputs!H5="Y", 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+        <f>IF(AND(Inputs!H5="Y",Inputs!H4="Y"), 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
@@ -9966,11 +9858,11 @@
       </c>
       <c r="E6" s="5">
         <f>IF(Inputs!E4="N",MAX(Inputs!E7-25000,0),)</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <f>IF(Inputs!F4="N",MAX(Inputs!F7-25000,0),)</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <f>IF(Inputs!G4="N",MAX(Inputs!G7-25000,0),)</f>
@@ -9981,33 +9873,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
@@ -10018,21 +9910,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
         <f>IF(Inputs!F8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="16">
         <f>IF(Inputs!G8="Y", Prices!$C$7, 0)</f>
@@ -10043,21 +9935,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E9="Y",Inputs!E$19="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F9="Y",Inputs!F$19="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G9="Y",Inputs!G$19="Y"), Prices!$C10, 0)</f>
@@ -10068,21 +9960,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$19="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$19="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$19="Y"), Prices!$C11, 0)</f>
@@ -10093,21 +9985,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$19="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$19="Y"), Prices!$C12, 0)</f>
@@ -10118,21 +10010,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$19="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$19="Y"), Prices!$C13, 0)</f>
@@ -10143,13 +10035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
@@ -10157,7 +10049,7 @@
       </c>
       <c r="F15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$19="Y"), Prices!$C14, 0)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$19="Y"), Prices!$C14, 0)</f>
@@ -10168,13 +10060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
@@ -10182,7 +10074,7 @@
       </c>
       <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$19="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$19="Y"), Prices!$C15, 0)</f>
@@ -10193,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
         <v>15</v>
       </c>
@@ -10218,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
@@ -10243,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>35</v>
       </c>
@@ -10268,12 +10160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10283,11 +10175,11 @@
       </c>
       <c r="E22" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="16">
         <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", "", PRODUCT(F$6, Prices!$E$6)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16">
         <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", "", PRODUCT(G$6, Prices!$E$6)))</f>
@@ -10298,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -10318,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>33</v>
       </c>
@@ -10328,11 +10220,11 @@
       </c>
       <c r="E24" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D10),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F24" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F9="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D10),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G24" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G9="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D10),0))</f>
@@ -10343,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
@@ -10353,11 +10245,11 @@
       </c>
       <c r="E25" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D11),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F25" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D11),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="G25" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D11),0))</f>
@@ -10368,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>34</v>
       </c>
@@ -10378,11 +10270,11 @@
       </c>
       <c r="E26" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D12),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F26" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D12),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G26" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D12),0))</f>
@@ -10393,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
@@ -10403,11 +10295,11 @@
       </c>
       <c r="E27" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D13),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F27" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D13),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G27" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D13),0))</f>
@@ -10418,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
@@ -10432,7 +10324,7 @@
       </c>
       <c r="F28" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D14),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="G28" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D14),0))</f>
@@ -10443,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
@@ -10457,7 +10349,7 @@
       </c>
       <c r="F29" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D15),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D15),0))</f>
@@ -10468,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
         <v>15</v>
       </c>
@@ -10493,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
         <v>16</v>
       </c>
@@ -10518,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="28" t="s">
         <v>35</v>
       </c>
@@ -10538,33 +10430,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="F35" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="G35" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
@@ -10575,21 +10467,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F36" s="16">
         <f>IF(Inputs!F8="Y", Prices!$C$7, 0)</f>
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16">
         <f>IF(Inputs!G8="Y", Prices!$C$7, 0)</f>
@@ -10600,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>33</v>
       </c>
@@ -10610,7 +10502,7 @@
       </c>
       <c r="E37" s="18">
         <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F37" s="18">
         <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
@@ -10625,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>11</v>
       </c>
@@ -10635,7 +10527,7 @@
       </c>
       <c r="E38" s="18">
         <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="F38" s="18">
         <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
@@ -10650,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>34</v>
       </c>
@@ -10660,7 +10552,7 @@
       </c>
       <c r="E39" s="18">
         <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F39" s="18">
         <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
@@ -10675,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>12</v>
       </c>
@@ -10685,7 +10577,7 @@
       </c>
       <c r="E40" s="18">
         <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F40" s="18">
         <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
@@ -10700,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>13</v>
       </c>
@@ -10725,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>14</v>
       </c>
@@ -10750,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
         <v>15</v>
       </c>
@@ -10775,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
         <v>16</v>
       </c>
@@ -10800,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
         <v>35</v>
       </c>
@@ -10825,12 +10717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -10840,11 +10732,11 @@
       </c>
       <c r="E48" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="16">
         <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", "", PRODUCT(F$6, Prices!$E$6)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G48" s="16">
         <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", "", PRODUCT(G$6, Prices!$E$6)))</f>
@@ -10855,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C49" s="28" t="s">
         <v>3</v>
       </c>
@@ -10875,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
         <v>33</v>
       </c>
@@ -10885,7 +10777,7 @@
       </c>
       <c r="E50" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D10),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F50" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D10),0))</f>
@@ -10900,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
         <v>11</v>
       </c>
@@ -10910,7 +10802,7 @@
       </c>
       <c r="E51" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D11),0))</f>
-        <v>3500.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="F51" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D11),0))</f>
@@ -10925,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>34</v>
       </c>
@@ -10935,7 +10827,7 @@
       </c>
       <c r="E52" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D12),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F52" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D12),0))</f>
@@ -10950,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
         <v>12</v>
       </c>
@@ -10960,7 +10852,7 @@
       </c>
       <c r="E53" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D13),0))</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F53" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D13),0))</f>
@@ -10975,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>13</v>
       </c>
@@ -11000,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>14</v>
       </c>
@@ -11025,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
         <v>16</v>
       </c>
@@ -11075,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C58" s="28" t="s">
         <v>35</v>
       </c>
@@ -11095,12 +10987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
@@ -11110,7 +11002,7 @@
       </c>
       <c r="E61" s="18">
         <f>IF(Inputs!E$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="18">
         <f>IF(Inputs!F$19 = "Y", 0, IF(Inputs!F18="Y", Prices!$C20, 0))</f>
@@ -11126,7 +11018,7 @@
       </c>
       <c r="K61" s="21">
         <f t="shared" ref="K61:K64" si="0">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D61,D$61:D$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E61,E$61:E$64),4))</f>
@@ -11134,7 +11026,7 @@
       </c>
       <c r="M61" s="21">
         <f t="shared" ref="M61:M64" si="1">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F61,F$61:F$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" s="21">
         <f t="shared" ref="N61:N64" si="2">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G61,G$61:G$64),4))</f>
@@ -11145,13 +11037,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="E62" s="18">
         <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
@@ -11159,7 +11051,7 @@
       </c>
       <c r="F62" s="18">
         <f>IF(Inputs!F19="Y", Prices!$C21, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="G62" s="18">
         <f>IF(Inputs!G19="Y", Prices!$C21, 0)</f>
@@ -11175,7 +11067,7 @@
       </c>
       <c r="L62" s="21">
         <f t="shared" ref="L62:L64" si="4">IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E62,E$61:E$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="21">
         <f t="shared" si="1"/>
@@ -11190,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="s">
         <v>20</v>
       </c>
@@ -11216,15 +11108,15 @@
       </c>
       <c r="K63" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="21">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="21">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" s="21">
         <f t="shared" si="2"/>
@@ -11235,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="s">
         <v>21</v>
       </c>
@@ -11261,15 +11153,15 @@
       </c>
       <c r="K64" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="21">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" s="21">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" s="21">
         <f t="shared" si="2"/>
@@ -11280,12 +11172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="28" t="s">
         <v>18</v>
       </c>
@@ -11306,15 +11198,15 @@
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67" si="5">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D67,D$61:D$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E67,E$61:E$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="21">
         <f t="shared" ref="M67" si="6">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F67,F$61:F$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67" s="21">
         <f t="shared" ref="N67" si="7">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G67,G$61:G$64),4))</f>
@@ -11325,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
         <v>19</v>
       </c>
@@ -11339,7 +11231,7 @@
       </c>
       <c r="F68" s="18">
         <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", 0, IF(Inputs!F19 = "Y", F$6*Prices!$D21, 0)))</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G68" s="18">
         <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", 0, IF(Inputs!G19 = "Y", G$6*Prices!$D21, 0)))</f>
@@ -11350,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
         <v>20</v>
       </c>
@@ -11375,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="s">
         <v>21</v>
       </c>
@@ -11400,19 +11292,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
         <v>18</v>
       </c>
@@ -11422,7 +11314,7 @@
       </c>
       <c r="E73" s="18">
         <f t="shared" ref="E73:H73" si="9">E61</f>
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="F73" s="18">
         <f t="shared" si="9"/>
@@ -11437,13 +11329,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="18">
         <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="E74" s="18">
         <f t="shared" ref="E74:H74" si="10">IF(E62=0,0,E62-SUM(E11:E16))</f>
@@ -11451,7 +11343,7 @@
       </c>
       <c r="F74" s="18">
         <f>IF(F62=0,0,F62-SUM(F11:F16))</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G74" s="18">
         <f t="shared" si="10"/>
@@ -11462,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
         <v>20</v>
       </c>
@@ -11487,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
         <v>21</v>
       </c>
@@ -11512,12 +11404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" s="28" t="s">
         <v>18</v>
       </c>
@@ -11538,15 +11430,15 @@
       </c>
       <c r="K79" s="21">
         <f t="shared" ref="K79" si="13">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D79,D$61:D$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E79,E$61:E$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="21">
         <f t="shared" ref="M79" si="14">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F79,F$61:F$64),4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" s="21">
         <f t="shared" ref="N79" si="15">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G79,G$61:G$64),4))</f>
@@ -11557,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11463,7 @@
       </c>
       <c r="F80" s="18">
         <f t="shared" si="17"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G80" s="18">
         <f t="shared" si="17"/>
@@ -11582,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="19" t="s">
         <v>20</v>
       </c>
@@ -11607,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="s">
         <v>21</v>
       </c>
@@ -11632,12 +11524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>38</v>
       </c>
@@ -11662,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>39</v>
       </c>
@@ -11687,21 +11579,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
-        <v>65700</v>
+        <v>0</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" ref="E88:H88" si="20">SUM(E35:E45, E48:E58, E61:E64, E67:E70, E85:E86)</f>
-        <v>93100</v>
+        <v>0</v>
       </c>
       <c r="F88" s="7">
         <f t="shared" si="20"/>
-        <v>120700</v>
+        <v>0</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="20"/>
@@ -11712,20 +11604,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D90" s="1">
         <f>IF(D98=1, 0, IF(D98=2, $E$101, IF(D98=3, $E$102, IF(D98=4, $E$103, IF(D98=5, $E$104, "")))))</f>
-        <v>-32850</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" ref="E90:H90" si="21">IF(E98=1, 0, IF(E98=2, $E$101, IF(E98=3, $E$102, IF(E98=4, $E$103, IF(E98=5, $E$104, "")))))</f>
-        <v>-41895</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="21"/>
@@ -11740,21 +11632,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D92" s="7">
         <f>SUM(D88, D90)</f>
-        <v>32850</v>
+        <v>0</v>
       </c>
       <c r="E92" s="7">
         <f>SUM(E88, E90)</f>
-        <v>51205</v>
+        <v>0</v>
       </c>
       <c r="F92" s="7">
         <f>SUM(F88, F90)</f>
-        <v>120700</v>
+        <v>0</v>
       </c>
       <c r="G92" s="7">
         <f>SUM(G88, G90)</f>
@@ -11765,18 +11657,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27"/>
       <c r="C95" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D95" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" s="21">
         <f t="shared" ref="E95:H95" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="21">
         <f t="shared" si="22"/>
@@ -11784,14 +11676,14 @@
       </c>
       <c r="G95" s="21">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" s="21">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="27"/>
       <c r="D96" s="21">
         <v>0.1</v>
@@ -11809,15 +11701,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27"/>
       <c r="D97" s="21">
         <f>SUM(D95:D96)</f>
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E97" s="21">
         <f t="shared" ref="E97:H97" si="23">SUM(E95:E96)</f>
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="F97" s="21">
         <f t="shared" si="23"/>
@@ -11825,18 +11717,18 @@
       </c>
       <c r="G97" s="21">
         <f t="shared" si="23"/>
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="H97" s="21">
         <f t="shared" si="23"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="27"/>
       <c r="D98" s="21">
         <f>_xlfn.RANK.EQ(D97, $D$97:$H$97, 5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" s="21">
         <f t="shared" ref="E98:H98" si="24">_xlfn.RANK.EQ(E97, $D$97:$H$97, 5)</f>
@@ -11844,7 +11736,7 @@
       </c>
       <c r="F98" s="21">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98" s="21">
         <f t="shared" si="24"/>
@@ -11855,36 +11747,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="27"/>
     </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="27"/>
       <c r="C100" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="27"/>
       <c r="D101" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E101" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$98:$H$98, 0))*Prices!$I$10*-1</f>
-        <v>-41895</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27"/>
       <c r="D102" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E102" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
-        <v>-32850</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
         <v>55</v>
@@ -11894,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
         <v>56</v>
@@ -11904,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F108" s="2"/>
     </row>
   </sheetData>
@@ -11919,19 +11811,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.1796875" customWidth="1"/>
-    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
@@ -11939,7 +11831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -11954,7 +11846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -11972,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
@@ -11983,7 +11875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
@@ -12003,7 +11895,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
@@ -12017,14 +11909,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
         <v>44</v>
       </c>
@@ -12038,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
@@ -12055,7 +11947,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
@@ -12072,7 +11964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
@@ -12083,7 +11975,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -12095,7 +11987,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -12112,7 +12004,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
@@ -12129,7 +12021,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
@@ -12142,7 +12034,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
@@ -12153,7 +12045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
@@ -12164,11 +12056,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="44"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
@@ -12179,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>19</v>
       </c>
@@ -12190,7 +12082,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -12201,7 +12093,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>21</v>
       </c>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -1005,7 +1005,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,9 @@
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
@@ -1070,7 +1072,9 @@
       <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -1083,7 +1087,9 @@
       <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
@@ -1093,7 +1099,9 @@
       <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="56">
+        <v>50000</v>
+      </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -1103,7 +1111,9 @@
       <c r="B8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -1113,7 +1123,9 @@
       <c r="B9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -1123,7 +1135,9 @@
       <c r="B10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
@@ -1133,7 +1147,9 @@
       <c r="B11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
@@ -1143,7 +1159,9 @@
       <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
@@ -1153,7 +1171,9 @@
       <c r="B13" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -1163,7 +1183,9 @@
       <c r="B14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
@@ -1173,7 +1195,9 @@
       <c r="B15" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -1183,7 +1207,9 @@
       <c r="B16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -1193,7 +1219,9 @@
       <c r="B17" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -1203,7 +1231,9 @@
       <c r="B18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -1213,7 +1243,9 @@
       <c r="B19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -1223,7 +1255,9 @@
       <c r="B20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -1234,7 +1268,9 @@
         <v>21</v>
       </c>
       <c r="C21" s="71"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
@@ -1309,7 +1345,7 @@
       </c>
       <c r="D4" s="1">
         <f>MAX(Calcs!D4, 0)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
@@ -1360,7 +1396,7 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D35, Calcs!D48)</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E35, Calcs!E48)</f>
@@ -1396,7 +1432,7 @@
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D36, Calcs!D49)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="16">
         <f>SUM(Calcs!E36, Calcs!E49)</f>
@@ -1432,7 +1468,7 @@
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="18">
         <f>SUM(Calcs!E37, Calcs!E50)</f>
@@ -1468,7 +1504,7 @@
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D38, Calcs!D51)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E10" s="18">
         <f>SUM(Calcs!E38, Calcs!E51)</f>
@@ -1504,7 +1540,7 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(Calcs!E39, Calcs!E52)</f>
@@ -1539,7 +1575,7 @@
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="18">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
@@ -1754,7 +1790,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D61, Calcs!D67)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E20" s="1">
         <f>SUM(Calcs!E61, Calcs!E67)</f>
@@ -1969,7 +2005,7 @@
       </c>
       <c r="D29" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D27)</f>
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" ref="E29:H29" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
@@ -2041,7 +2077,7 @@
       </c>
       <c r="D34" s="7">
         <f>(D29/12*Inputs!$C$2+D4)*$C$32</f>
-        <v>0</v>
+        <v>146300</v>
       </c>
       <c r="E34" s="7">
         <f>(E29/12*Inputs!$C$2+E4)*$C$32</f>
@@ -2090,13 +2126,13 @@
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>0</v>
+        <v>146300</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
-        <v>0</v>
+        <v>146300</v>
       </c>
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
@@ -2129,7 +2165,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,14 +2225,14 @@
       </c>
       <c r="D4" s="1">
         <f>SUM(Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="52">
         <f>1-SUM(F4:G4)</f>
@@ -2204,11 +2240,11 @@
       </c>
       <c r="J4" s="12">
         <f>F4*$D4</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K4" s="12">
         <f>G4*$D4</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L4" s="12">
         <f>H4*$D4</f>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D9:H9)</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="32">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H7" s="35">
         <f t="shared" ref="H7:H17" si="0">1-SUM(F7:G7)</f>
@@ -2255,11 +2291,11 @@
       </c>
       <c r="J7" s="16">
         <f>F7*$D7</f>
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="K7" s="16">
         <f>G7*$D7</f>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L17" si="1">H7*$D7</f>
@@ -2272,14 +2308,14 @@
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D10:H10)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="32">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="35">
         <f t="shared" si="0"/>
@@ -2287,11 +2323,11 @@
       </c>
       <c r="J8" s="16">
         <f t="shared" ref="J8:J17" si="2">F8*$D8</f>
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="K8" s="16">
         <f t="shared" ref="K8:K16" si="3">G8*$D8</f>
-        <v>0</v>
+        <v>6480</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="1"/>
@@ -2304,14 +2340,14 @@
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D11:H11)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="33">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="0"/>
@@ -2319,11 +2355,11 @@
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="1"/>
@@ -2336,14 +2372,14 @@
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D12:H12)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="33">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="0"/>
@@ -2351,11 +2387,11 @@
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4320</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
@@ -2368,13 +2404,13 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D13:H13)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F11" s="33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G11" s="33">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
@@ -2382,11 +2418,11 @@
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="1"/>
@@ -2399,13 +2435,13 @@
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="33">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="0"/>
@@ -2413,11 +2449,11 @@
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="1"/>
@@ -2495,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="34">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G15" s="34">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="0"/>
@@ -2526,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="34">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G16" s="34">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="0"/>
@@ -2557,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="34">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G17" s="34">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="0"/>
@@ -2628,11 +2664,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="35">
         <f>(1-G22)*F7/SUM(F7,H7)</f>
-        <v>0.30000000000000004</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" ref="G22:G32" si="4">MIN(1,G7+$H$19)</f>
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="H22" s="35">
         <f>(1-G22)*H7/SUM(F7,H7)</f>
@@ -2662,11 +2698,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="36">
         <f t="shared" ref="F23:F32" si="7">(1-G23)*F8/SUM(F8,H8)</f>
-        <v>0.30000000000000004</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="G23" s="36">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H23" s="36">
         <f t="shared" ref="H23:H32" si="8">(1-G23)*H8/SUM(F8,H8)</f>
@@ -2696,11 +2732,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="37">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G24" s="37">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" si="8"/>
@@ -2730,11 +2766,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="37">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G25" s="37">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="8"/>
@@ -2763,11 +2799,11 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G26" s="37">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="8"/>
@@ -2796,11 +2832,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="37">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="8"/>
@@ -2895,11 +2931,11 @@
       </c>
       <c r="F30" s="38">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G30" s="38">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H30" s="38">
         <f t="shared" si="8"/>
@@ -2928,11 +2964,11 @@
       </c>
       <c r="F31" s="38">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G31" s="38">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H31" s="38">
         <f t="shared" si="8"/>
@@ -2961,11 +2997,11 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G32" s="36">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" si="8"/>
@@ -3009,28 +3045,28 @@
       </c>
       <c r="D35" s="18">
         <f>SUM(Calcs!D73:H73)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="F35" s="33">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G35" s="33">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" ref="H35:H38" si="10">1-SUM(F35:G35)</f>
+        <f>1-SUM(F35:G35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="18">
         <f>F35*$D35</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" ref="J35:L38" si="11">G35*$D35</f>
+        <f t="shared" ref="J35:L38" si="10">G35*$D35</f>
         <v>0</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3043,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="F36" s="33">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G36" s="33">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="37">
+        <f>1-SUM(F36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J36" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K36" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3074,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="F37" s="34">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G37" s="34">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H37" s="38">
+        <f t="shared" ref="H35:H38" si="11">1-SUM(F37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J37" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K37" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3105,25 +3141,25 @@
         <v>0</v>
       </c>
       <c r="F38" s="34">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G38" s="34">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H38" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="20">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J38" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K38" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3153,11 +3189,11 @@
       </c>
       <c r="F41" s="50">
         <f>IFERROR((1-G41)*F35/SUM(F35,H35),0)</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G41" s="50">
         <f>MIN(1,G35+$H$19)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H41" s="50">
         <f>IFERROR((1-G41)*H35/SUM(F35,H35),0)</f>
@@ -3186,11 +3222,11 @@
       </c>
       <c r="F42" s="30">
         <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" ref="G42:G44" si="14">MIN(1,G36+$H$19)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42" s="30">
         <f>IFERROR((1-G42)*H36/SUM(F36,H36),0)</f>
@@ -3219,11 +3255,11 @@
       </c>
       <c r="F43" s="31">
         <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G43" s="31">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H43" s="31">
         <f>IFERROR((1-G43)*H37/SUM(F37,H37),0)</f>
@@ -3252,11 +3288,11 @@
       </c>
       <c r="F44" s="31">
         <f>IFERROR((1-G44)*F38/SUM(F38,H38),0)</f>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G44" s="31">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H44" s="31">
         <f>IFERROR((1-G44)*H38/SUM(F38,H38),0)</f>
@@ -3298,7 +3334,7 @@
       </c>
       <c r="F47" s="8">
         <f>IFERROR(SUM(J58:J61)/SUM($J$58:$L$61), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="8">
         <f>IFERROR(SUM(K58:K61)/SUM($J$58:$L$61), 0)</f>
@@ -3331,15 +3367,15 @@
       </c>
       <c r="F48" s="3">
         <f>IFERROR(SUM(J7:J47)/SUM(J7:L47), 0)</f>
-        <v>0</v>
+        <v>0.42929936305732486</v>
       </c>
       <c r="G48" s="3">
         <f>IFERROR(SUM(K7:K47)/SUM(J7:L47), 0)</f>
-        <v>0</v>
+        <v>0.57070063694267514</v>
       </c>
       <c r="H48" s="3">
         <f>1-F48-G48</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="12">
         <f>F48*$D$48</f>
@@ -3365,15 +3401,15 @@
       </c>
       <c r="D50" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="J50" s="12">
         <f>SUM(J47:J48, J35:J38, J7:J17,J22:J32,J41:J44)</f>
-        <v>0</v>
+        <v>20220</v>
       </c>
       <c r="K50" s="12">
         <f t="shared" ref="K50:L50" si="16">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
-        <v>0</v>
+        <v>26880</v>
       </c>
       <c r="L50" s="12">
         <f t="shared" si="16"/>
@@ -3386,7 +3422,7 @@
       </c>
       <c r="D51" s="23">
         <f>SUM(J50:L50)</f>
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
@@ -3403,15 +3439,15 @@
       </c>
       <c r="D53" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>0</v>
+        <v>146300</v>
       </c>
       <c r="J53" s="12">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>0</v>
+        <v>61160</v>
       </c>
       <c r="K53" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>0</v>
+        <v>85140</v>
       </c>
       <c r="L53" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
@@ -3420,17 +3456,17 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
-      <c r="J54" s="54" t="e">
-        <f>J53/$D$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="54" t="e">
-        <f t="shared" ref="K54:L54" si="17">K53/$D$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="54" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J54" s="54">
+        <f>IFERROR(J53/$D$53, 0)</f>
+        <v>0.41804511278195489</v>
+      </c>
+      <c r="K54" s="54">
+        <f>IFERROR(K53/$D$53, 0)</f>
+        <v>0.58195488721804511</v>
+      </c>
+      <c r="L54" s="54">
+        <f>IFERROR(L53/$D$53, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -3460,16 +3496,16 @@
       </c>
       <c r="D58" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="24">
         <f>F35</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G58" s="24">
         <f>G35</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H58" s="24">
         <f>H35</f>
@@ -3477,15 +3513,15 @@
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="25">
-        <f t="shared" ref="J58:L61" si="18">F58*$D58</f>
-        <v>0</v>
+        <f t="shared" ref="J58:L61" si="17">F58*$D58</f>
+        <v>10200</v>
       </c>
       <c r="K58" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L58" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3501,27 +3537,27 @@
       <c r="E59" s="21"/>
       <c r="F59" s="24">
         <f>IFERROR(SUM(J$36,J$9:J$14,J$42,J$24:J$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" ref="G59:H59" si="19">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0</v>
+        <f t="shared" ref="G59:H59" si="18">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K59" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L59" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3549,15 +3585,15 @@
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L60" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3573,11 +3609,11 @@
       <c r="E61" s="21"/>
       <c r="F61" s="24">
         <f>F38</f>
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="G61" s="24">
         <f>G38</f>
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H61" s="24">
         <f>H38</f>
@@ -3585,15 +3621,15 @@
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K61" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4092,15 +4128,15 @@
       </c>
       <c r="H9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D9</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!J$4,0)*$D9</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!K$4,0)*$D9</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="K9" s="67">
         <f>IF($B9=Inputs!$C$1,Outputs_Internal!L$4,0)*$D9</f>
@@ -4108,15 +4144,15 @@
       </c>
       <c r="M9" s="67">
         <f>$F9*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N9" s="67">
         <f>$F9*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O9" s="67">
         <f>$F9*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P9" s="67">
         <f>$F9*Outputs_Internal!L$50/12</f>
@@ -4174,15 +4210,15 @@
       </c>
       <c r="M10" s="67">
         <f>$F10*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N10" s="67">
         <f>$F10*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O10" s="67">
         <f>$F10*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P10" s="67">
         <f>$F10*Outputs_Internal!L$50/12</f>
@@ -4240,15 +4276,15 @@
       </c>
       <c r="M11" s="67">
         <f>$F11*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N11" s="67">
         <f>$F11*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O11" s="67">
         <f>$F11*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P11" s="67">
         <f>$F11*Outputs_Internal!L$50/12</f>
@@ -4256,15 +4292,15 @@
       </c>
       <c r="R11" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16775</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5555</v>
       </c>
       <c r="T11" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11220</v>
       </c>
       <c r="U11" s="67">
         <f t="shared" si="5"/>
@@ -4306,15 +4342,15 @@
       </c>
       <c r="M12" s="67">
         <f>$F12*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N12" s="67">
         <f>$F12*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O12" s="67">
         <f>$F12*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P12" s="67">
         <f>$F12*Outputs_Internal!L$50/12</f>
@@ -4372,15 +4408,15 @@
       </c>
       <c r="M13" s="67">
         <f>$F13*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N13" s="67">
         <f>$F13*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O13" s="67">
         <f>$F13*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P13" s="67">
         <f>$F13*Outputs_Internal!L$50/12</f>
@@ -4438,15 +4474,15 @@
       </c>
       <c r="M14" s="67">
         <f>$F14*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N14" s="67">
         <f>$F14*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O14" s="67">
         <f>$F14*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P14" s="67">
         <f>$F14*Outputs_Internal!L$50/12</f>
@@ -4454,15 +4490,15 @@
       </c>
       <c r="R14" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="5"/>
@@ -4504,15 +4540,15 @@
       </c>
       <c r="M15" s="67">
         <f>$F15*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N15" s="67">
         <f>$F15*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O15" s="67">
         <f>$F15*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P15" s="67">
         <f>$F15*Outputs_Internal!L$50/12</f>
@@ -4570,15 +4606,15 @@
       </c>
       <c r="M16" s="67">
         <f>$F16*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N16" s="67">
         <f>$F16*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O16" s="67">
         <f>$F16*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P16" s="67">
         <f>$F16*Outputs_Internal!L$50/12</f>
@@ -4636,15 +4672,15 @@
       </c>
       <c r="M17" s="67">
         <f>$F17*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N17" s="67">
         <f>$F17*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O17" s="67">
         <f>$F17*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P17" s="67">
         <f>$F17*Outputs_Internal!L$50/12</f>
@@ -4652,15 +4688,15 @@
       </c>
       <c r="R17" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="5"/>
@@ -4702,15 +4738,15 @@
       </c>
       <c r="M18" s="67">
         <f>$F18*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N18" s="67">
         <f>$F18*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O18" s="67">
         <f>$F18*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P18" s="67">
         <f>$F18*Outputs_Internal!L$50/12</f>
@@ -4768,15 +4804,15 @@
       </c>
       <c r="M19" s="67">
         <f>$F19*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N19" s="67">
         <f>$F19*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O19" s="67">
         <f>$F19*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P19" s="67">
         <f>$F19*Outputs_Internal!L$50/12</f>
@@ -4834,15 +4870,15 @@
       </c>
       <c r="M20" s="67">
         <f>$F20*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N20" s="67">
         <f>$F20*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O20" s="67">
         <f>$F20*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P20" s="67">
         <f>$F20*Outputs_Internal!L$50/12</f>
@@ -4850,15 +4886,15 @@
       </c>
       <c r="R20" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="5"/>
@@ -4900,15 +4936,15 @@
       </c>
       <c r="M21" s="67">
         <f>$F21*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N21" s="67">
         <f>$F21*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O21" s="67">
         <f>$F21*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P21" s="67">
         <f>$F21*Outputs_Internal!L$50/12</f>
@@ -4966,15 +5002,15 @@
       </c>
       <c r="M22" s="67">
         <f>$F22*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N22" s="67">
         <f>$F22*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O22" s="67">
         <f>$F22*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P22" s="67">
         <f>$F22*Outputs_Internal!L$50/12</f>
@@ -5032,15 +5068,15 @@
       </c>
       <c r="M23" s="67">
         <f>$F23*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N23" s="67">
         <f>$F23*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O23" s="67">
         <f>$F23*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P23" s="67">
         <f>$F23*Outputs_Internal!L$50/12</f>
@@ -5048,15 +5084,15 @@
       </c>
       <c r="R23" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="5"/>
@@ -5098,15 +5134,15 @@
       </c>
       <c r="M24" s="67">
         <f>$F24*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N24" s="67">
         <f>$F24*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O24" s="67">
         <f>$F24*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P24" s="67">
         <f>$F24*Outputs_Internal!L$50/12</f>
@@ -5164,15 +5200,15 @@
       </c>
       <c r="M25" s="67">
         <f>$F25*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N25" s="67">
         <f>$F25*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O25" s="67">
         <f>$F25*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P25" s="67">
         <f>$F25*Outputs_Internal!L$50/12</f>
@@ -5230,15 +5266,15 @@
       </c>
       <c r="M26" s="67">
         <f>$F26*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N26" s="67">
         <f>$F26*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O26" s="67">
         <f>$F26*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P26" s="67">
         <f>$F26*Outputs_Internal!L$50/12</f>
@@ -5246,15 +5282,15 @@
       </c>
       <c r="R26" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="5"/>
@@ -5296,15 +5332,15 @@
       </c>
       <c r="M27" s="67">
         <f>$F27*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N27" s="67">
         <f>$F27*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O27" s="67">
         <f>$F27*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P27" s="67">
         <f>$F27*Outputs_Internal!L$50/12</f>
@@ -5362,15 +5398,15 @@
       </c>
       <c r="M28" s="67">
         <f>$F28*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N28" s="67">
         <f>$F28*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O28" s="67">
         <f>$F28*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P28" s="67">
         <f>$F28*Outputs_Internal!L$50/12</f>
@@ -5428,15 +5464,15 @@
       </c>
       <c r="M29" s="67">
         <f>$F29*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N29" s="67">
         <f>$F29*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O29" s="67">
         <f>$F29*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P29" s="67">
         <f>$F29*Outputs_Internal!L$50/12</f>
@@ -5444,15 +5480,15 @@
       </c>
       <c r="R29" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="5"/>
@@ -5494,15 +5530,15 @@
       </c>
       <c r="M30" s="67">
         <f>$F30*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N30" s="67">
         <f>$F30*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O30" s="67">
         <f>$F30*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P30" s="67">
         <f>$F30*Outputs_Internal!L$50/12</f>
@@ -5560,15 +5596,15 @@
       </c>
       <c r="M31" s="67">
         <f>$F31*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N31" s="67">
         <f>$F31*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O31" s="67">
         <f>$F31*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P31" s="67">
         <f>$F31*Outputs_Internal!L$50/12</f>
@@ -5626,15 +5662,15 @@
       </c>
       <c r="M32" s="67">
         <f>$F32*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N32" s="67">
         <f>$F32*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O32" s="67">
         <f>$F32*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P32" s="67">
         <f>$F32*Outputs_Internal!L$50/12</f>
@@ -5642,15 +5678,15 @@
       </c>
       <c r="R32" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="5"/>
@@ -5692,15 +5728,15 @@
       </c>
       <c r="M33" s="67">
         <f>$F33*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N33" s="67">
         <f>$F33*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O33" s="67">
         <f>$F33*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P33" s="67">
         <f>$F33*Outputs_Internal!L$50/12</f>
@@ -5758,15 +5794,15 @@
       </c>
       <c r="M34" s="67">
         <f>$F34*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N34" s="67">
         <f>$F34*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O34" s="67">
         <f>$F34*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P34" s="67">
         <f>$F34*Outputs_Internal!L$50/12</f>
@@ -5824,15 +5860,15 @@
       </c>
       <c r="M35" s="67">
         <f>$F35*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N35" s="67">
         <f>$F35*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O35" s="67">
         <f>$F35*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P35" s="67">
         <f>$F35*Outputs_Internal!L$50/12</f>
@@ -5840,15 +5876,15 @@
       </c>
       <c r="R35" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="5"/>
@@ -5890,15 +5926,15 @@
       </c>
       <c r="M36" s="67">
         <f>$F36*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N36" s="67">
         <f>$F36*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O36" s="67">
         <f>$F36*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P36" s="67">
         <f>$F36*Outputs_Internal!L$50/12</f>
@@ -5956,15 +5992,15 @@
       </c>
       <c r="M37" s="67">
         <f>$F37*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N37" s="67">
         <f>$F37*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O37" s="67">
         <f>$F37*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P37" s="67">
         <f>$F37*Outputs_Internal!L$50/12</f>
@@ -6022,15 +6058,15 @@
       </c>
       <c r="M38" s="67">
         <f>$F38*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N38" s="67">
         <f>$F38*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O38" s="67">
         <f>$F38*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P38" s="67">
         <f>$F38*Outputs_Internal!L$50/12</f>
@@ -6038,15 +6074,15 @@
       </c>
       <c r="R38" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="5"/>
@@ -6088,15 +6124,15 @@
       </c>
       <c r="M39" s="67">
         <f>$F39*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N39" s="67">
         <f>$F39*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O39" s="67">
         <f>$F39*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P39" s="67">
         <f>$F39*Outputs_Internal!L$50/12</f>
@@ -6154,15 +6190,15 @@
       </c>
       <c r="M40" s="67">
         <f>$F40*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N40" s="67">
         <f>$F40*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O40" s="67">
         <f>$F40*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P40" s="67">
         <f>$F40*Outputs_Internal!L$50/12</f>
@@ -6220,15 +6256,15 @@
       </c>
       <c r="M41" s="67">
         <f>$F41*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N41" s="67">
         <f>$F41*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O41" s="67">
         <f>$F41*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P41" s="67">
         <f>$F41*Outputs_Internal!L$50/12</f>
@@ -6236,15 +6272,15 @@
       </c>
       <c r="R41" s="67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="5"/>
@@ -6286,15 +6322,15 @@
       </c>
       <c r="M42" s="67">
         <f>$F42*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N42" s="67">
         <f>$F42*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O42" s="67">
         <f>$F42*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P42" s="67">
         <f>$F42*Outputs_Internal!L$50/12</f>
@@ -6352,15 +6388,15 @@
       </c>
       <c r="M43" s="67">
         <f>$F43*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N43" s="67">
         <f>$F43*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O43" s="67">
         <f>$F43*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P43" s="67">
         <f>$F43*Outputs_Internal!L$50/12</f>
@@ -6418,15 +6454,15 @@
       </c>
       <c r="M44" s="67">
         <f>$F44*Outputs_Internal!$D$50/12</f>
-        <v>0</v>
+        <v>3925</v>
       </c>
       <c r="N44" s="67">
         <f>$F44*Outputs_Internal!J$50/12</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="O44" s="67">
         <f>$F44*Outputs_Internal!K$50/12</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="P44" s="67">
         <f>$F44*Outputs_Internal!L$50/12</f>
@@ -6434,15 +6470,15 @@
       </c>
       <c r="R44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>0</v>
+        <v>11775</v>
       </c>
       <c r="S44" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="5"/>
@@ -9822,7 +9858,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
@@ -9891,7 +9927,7 @@
       </c>
       <c r="D9" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E9" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
@@ -9916,7 +9952,7 @@
       </c>
       <c r="D10" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E10" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
@@ -9941,7 +9977,7 @@
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E9="Y",Inputs!E$19="Y"), Prices!$C10, 0)</f>
@@ -9966,7 +10002,7 @@
       </c>
       <c r="D12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$19="Y"), Prices!$C11, 0)</f>
@@ -9991,7 +10027,7 @@
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
@@ -10016,7 +10052,7 @@
       </c>
       <c r="D14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
@@ -10448,7 +10484,7 @@
       </c>
       <c r="D35" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E35" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
@@ -10473,7 +10509,7 @@
       </c>
       <c r="D36" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E36" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
@@ -10498,7 +10534,7 @@
       </c>
       <c r="D37" s="18">
         <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E37" s="18">
         <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
@@ -10523,7 +10559,7 @@
       </c>
       <c r="D38" s="18">
         <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E38" s="18">
         <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
@@ -10548,7 +10584,7 @@
       </c>
       <c r="D39" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E39" s="18">
         <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
@@ -10573,7 +10609,7 @@
       </c>
       <c r="D40" s="18">
         <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E40" s="18">
         <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
@@ -10998,7 +11034,7 @@
       </c>
       <c r="D61" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E61" s="18">
         <f>IF(Inputs!E$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
@@ -11063,7 +11099,7 @@
       </c>
       <c r="K62" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="21">
         <f t="shared" ref="L62:L64" si="4">IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E62,E$61:E$64),4))</f>
@@ -11108,7 +11144,7 @@
       </c>
       <c r="K63" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="21">
         <f t="shared" si="4"/>
@@ -11153,7 +11189,7 @@
       </c>
       <c r="K64" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="21">
         <f t="shared" si="4"/>
@@ -11198,7 +11234,7 @@
       </c>
       <c r="K67" s="21">
         <f t="shared" ref="K67" si="5">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D67,D$61:D$64),4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E67,E$61:E$64),4))</f>
@@ -11310,7 +11346,7 @@
       </c>
       <c r="D73" s="18">
         <f>D61</f>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E73" s="18">
         <f t="shared" ref="E73:H73" si="9">E61</f>
@@ -11430,7 +11466,7 @@
       </c>
       <c r="K79" s="21">
         <f t="shared" ref="K79" si="13">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D79,D$61:D$64),4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="21">
         <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E79,E$61:E$64),4))</f>
@@ -11585,7 +11621,7 @@
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" ref="E88:H88" si="20">SUM(E35:E45, E48:E58, E61:E64, E67:E70, E85:E86)</f>
@@ -11638,7 +11674,7 @@
       </c>
       <c r="D92" s="7">
         <f>SUM(D88, D90)</f>
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="E92" s="7">
         <f>SUM(E88, E90)</f>
@@ -11668,19 +11704,19 @@
       </c>
       <c r="E95" s="21">
         <f t="shared" ref="E95:H95" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="21">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="21">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="21">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11709,19 +11745,19 @@
       </c>
       <c r="E97" s="21">
         <f t="shared" ref="E97:H97" si="23">SUM(E95:E96)</f>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F97" s="21">
         <f t="shared" si="23"/>
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G97" s="21">
         <f t="shared" si="23"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H97" s="21">
         <f t="shared" si="23"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -229,9 +229,6 @@
     <t>PRM</t>
   </si>
   <si>
-    <t>MedInsight</t>
-  </si>
-  <si>
     <t>Datamart Discounts</t>
   </si>
   <si>
@@ -335,6 +332,15 @@
   </si>
   <si>
     <t>Price inflation multiplier</t>
+  </si>
+  <si>
+    <t>Implementation (CCLF)</t>
+  </si>
+  <si>
+    <t>Implementation (non-CCLF)</t>
+  </si>
+  <si>
+    <t>Royalties</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="76">
         <v>43101</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="77">
         <v>36</v>
@@ -1058,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
@@ -1301,7 +1307,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1351,7 @@
       </c>
       <c r="D4" s="1">
         <f>MAX(Calcs!D4, 0)</f>
-        <v>5000</v>
+        <v>32750</v>
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
@@ -1396,7 +1402,7 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D35, Calcs!D48)</f>
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E35, Calcs!E48)</f>
@@ -1468,7 +1474,7 @@
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="E9" s="18">
         <f>SUM(Calcs!E37, Calcs!E50)</f>
@@ -1504,7 +1510,7 @@
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D38, Calcs!D51)</f>
-        <v>4800</v>
+        <v>6550</v>
       </c>
       <c r="E10" s="18">
         <f>SUM(Calcs!E38, Calcs!E51)</f>
@@ -1540,7 +1546,7 @@
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
-        <v>2400</v>
+        <v>3650</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(Calcs!E39, Calcs!E52)</f>
@@ -1575,7 +1581,7 @@
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
-        <v>2400</v>
+        <v>3650</v>
       </c>
       <c r="E12" s="18">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="D29" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D27)</f>
-        <v>47100</v>
+        <v>77600</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" ref="E29:H29" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
@@ -2047,7 +2053,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2073,11 +2079,11 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="7">
         <f>(D29/12*Inputs!$C$2+D4)*$C$32</f>
-        <v>146300</v>
+        <v>265550</v>
       </c>
       <c r="E34" s="7">
         <f>(E29/12*Inputs!$C$2+E4)*$C$32</f>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>146300</v>
+        <v>265550</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
-        <v>146300</v>
+        <v>265550</v>
       </c>
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
@@ -2159,13 +2165,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L61"/>
+  <dimension ref="B1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,14 +2191,14 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F1" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>63</v>
@@ -2201,7 +2207,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
@@ -2211,7 +2217,7 @@
         <v>64</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -2221,18 +2227,18 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>5000</v>
+        <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="10">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="52">
         <f>1-SUM(F4:G4)</f>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="J4" s="12">
         <f>F4*$D4</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>G4*$D4</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f>H4*$D4</f>
@@ -2252,17 +2258,38 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="26"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
+        <v>32750</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="52">
+        <f>1-SUM(F5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>F5*$D5</f>
+        <v>3275</v>
+      </c>
+      <c r="K5" s="12">
+        <f>G5*$D5</f>
+        <v>29475</v>
+      </c>
+      <c r="L5" s="12">
+        <f>H5*$D5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="26"/>
@@ -2271,108 +2298,87 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16">
-        <f>SUM(Calcs!D9:H9)</f>
-        <v>18000</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7:H17" si="0">1-SUM(F7:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <f>F7*$D7</f>
-        <v>5400</v>
-      </c>
-      <c r="K7" s="16">
-        <f>G7*$D7</f>
-        <v>12600</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" ref="L7:L17" si="1">H7*$D7</f>
-        <v>0</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <f>SUM(Calcs!D9:H9)</f>
+        <v>33000</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:H18" si="0">1-SUM(F8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <f>F8*$D8</f>
+        <v>9900</v>
+      </c>
+      <c r="K8" s="16">
+        <f>G8*$D8</f>
+        <v>23100</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" ref="L8:L18" si="1">H8*$D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <f>SUM(Calcs!D10:H10)</f>
         <v>8100</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="32">
+      <c r="E9" s="3"/>
+      <c r="F9" s="32">
         <v>0.2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G9" s="32">
         <v>0.8</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="16">
-        <f t="shared" ref="J8:J17" si="2">F8*$D8</f>
+      <c r="J9" s="16">
+        <f t="shared" ref="J9:J18" si="2">F9*$D9</f>
         <v>1620</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" ref="K8:K16" si="3">G8*$D8</f>
+      <c r="K9" s="16">
+        <f t="shared" ref="K9:K17" si="3">G9*$D9</f>
         <v>6480</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="18">
         <f>SUM(Calcs!D11:H11)</f>
         <v>1200</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18">
-        <f>SUM(Calcs!D12:H12)</f>
-        <v>4800</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="33">
@@ -2387,11 +2393,11 @@
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>4320</v>
+        <v>1080</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
@@ -2400,92 +2406,93 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="18">
+        <f>SUM(Calcs!D12:H12)</f>
+        <v>4800</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="3"/>
+        <v>4320</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="18">
         <f>SUM(Calcs!D13:H13)</f>
         <v>2400</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F12" s="33">
         <v>0.9</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G12" s="33">
         <v>0.1</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J12" s="18">
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K12" s="18">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f>SUM(Calcs!D14:H14)</f>
         <v>2400</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F13" s="33">
         <v>0.1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G13" s="33">
         <v>0.9</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K13" s="18">
         <f t="shared" si="3"/>
         <v>2160</v>
       </c>
-      <c r="L12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="18">
-        <f>SUM(Calcs!D15:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="37">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L13" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2493,10 +2500,10 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="18">
-        <f>SUM(Calcs!D16:H16)</f>
+        <f>SUM(Calcs!D15:H15)</f>
         <v>0</v>
       </c>
       <c r="F14" s="33">
@@ -2523,49 +2530,49 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="20">
-        <f>SUM(Calcs!D17:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0.98</v>
-      </c>
-      <c r="H15" s="38">
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18">
+        <f>SUM(Calcs!D16:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20">
-        <f>SUM(Calcs!D18:H18)</f>
+        <f>SUM(Calcs!D17:H17)</f>
         <v>0</v>
       </c>
       <c r="F16" s="34">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="34">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="0"/>
@@ -2586,17 +2593,17 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D17" s="20">
-        <f>SUM(Calcs!D19:H19)</f>
+        <f>SUM(Calcs!D18:H18)</f>
         <v>0</v>
       </c>
       <c r="F17" s="34">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="34">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="0"/>
@@ -2607,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <f>G17*$D17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="20">
@@ -2616,36 +2623,56 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="20">
+        <f>SUM(Calcs!D19:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f>G18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.1</v>
-      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.1</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2654,114 +2681,91 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="35">
-        <f>(1-G22)*F7/SUM(F7,H7)</f>
+        <v>10000</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="35">
+        <f>(1-G23)*F8/SUM(F8,H8)</f>
         <v>0.20000000000000007</v>
       </c>
-      <c r="G22" s="35">
-        <f t="shared" ref="G22:G32" si="4">MIN(1,G7+$H$19)</f>
+      <c r="G23" s="35">
+        <f t="shared" ref="G23:G33" si="4">MIN(1,G8+$H$20)</f>
         <v>0.79999999999999993</v>
       </c>
-      <c r="H22" s="35">
-        <f>(1-G22)*H7/SUM(F7,H7)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <f>F22*$D22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" ref="K22:K32" si="5">G22*$D22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" ref="L22:L32" si="6">H22*$D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="28" t="s">
+      <c r="H23" s="35">
+        <f>(1-G23)*H8/SUM(F8,H8)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <f>F23*$D23</f>
+        <v>2000.0000000000007</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" ref="K23:K33" si="5">G23*$D23</f>
+        <v>7999.9999999999991</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" ref="L23:L33" si="6">H23*$D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D24" s="29">
         <f>SUM(Calcs!D23:H23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="36">
-        <f t="shared" ref="F23:F32" si="7">(1-G23)*F8/SUM(F8,H8)</f>
+      <c r="E24" s="3"/>
+      <c r="F24" s="36">
+        <f t="shared" ref="F24:F33" si="7">(1-G24)*F9/SUM(F9,H9)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G24" s="36">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="H23" s="36">
-        <f t="shared" ref="H23:H32" si="8">(1-G23)*H8/SUM(F8,H8)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <f t="shared" ref="J23:J32" si="9">F23*$D23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
+      <c r="H24" s="36">
+        <f t="shared" ref="H24:H33" si="8">(1-G24)*H9/SUM(F9,H9)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" ref="J24:J33" si="9">F24*$D24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="18">
-        <f>SUM(Calcs!D24:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
+      <c r="L24" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D25" s="18">
-        <f>SUM(Calcs!D25:H25)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D24:H24)</f>
+        <v>1250</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
@@ -2782,7 +2786,7 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="L25" s="18">
         <f t="shared" si="6"/>
@@ -2791,19 +2795,20 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D26" s="18">
-        <f>SUM(Calcs!D26:H26)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(Calcs!D25:H25)</f>
+        <v>1750.0000000000002</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="37">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G26" s="37">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="8"/>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1750.0000000000002</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="6"/>
@@ -2824,19 +2829,19 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D27" s="18">
-        <f>SUM(Calcs!D27:H27)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D26:H26)</f>
+        <v>1250</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="37">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="8"/>
@@ -2844,11 +2849,11 @@
       </c>
       <c r="J27" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="6"/>
@@ -2857,23 +2862,23 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="18">
-        <f>SUM(Calcs!D28:H28)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D27:H27)</f>
+        <v>1250</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="7"/>
-        <v>8.8888888888888906E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="37">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="37">
-        <f>(1-G28)*H13/SUM(F13,H13)</f>
-        <v>0.71111111111111125</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="9"/>
@@ -2881,7 +2886,7 @@
       </c>
       <c r="K28" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="L28" s="18">
         <f t="shared" si="6"/>
@@ -2890,10 +2895,10 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="18">
-        <f>SUM(Calcs!D29:H29)</f>
+        <f>SUM(Calcs!D28:H28)</f>
         <v>0</v>
       </c>
       <c r="F29" s="37">
@@ -2905,61 +2910,61 @@
         <v>0.2</v>
       </c>
       <c r="H29" s="37">
+        <f>(1-G29)*H14/SUM(F14,H14)</f>
+        <v>0.71111111111111125</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="18">
+        <f>SUM(Calcs!D29:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" si="7"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="37">
         <f t="shared" si="8"/>
         <v>0.71111111111111125</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J30" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>SUM(Calcs!D30:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="20">
-        <f>SUM(Calcs!D31:H31)</f>
+        <f>SUM(Calcs!D30:H30)</f>
         <v>0</v>
       </c>
       <c r="F31" s="38">
@@ -2988,50 +2993,72 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20">
+        <f>SUM(Calcs!D31:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D33" s="29">
         <f>SUM(Calcs!D32:H32)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F33" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G33" s="36">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H33" s="36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J33" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K33" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L33" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3040,61 +3067,41 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="18">
         <f>SUM(Calcs!D73:H73)</f>
         <v>10200</v>
       </c>
-      <c r="F35" s="33">
-        <v>1</v>
-      </c>
-      <c r="G35" s="33">
-        <v>0</v>
-      </c>
-      <c r="H35" s="37">
-        <f>1-SUM(F35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
-        <f>F35*$D35</f>
-        <v>10200</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" ref="J35:L38" si="10">G35*$D35</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="18">
-        <f>SUM(Calcs!D74:H74)</f>
-        <v>0</v>
-      </c>
       <c r="F36" s="33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G36" s="33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="37">
         <f>1-SUM(F36:G36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>F36*$D36</f>
+        <v>9180</v>
       </c>
       <c r="K36" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="J36:L39" si="10">G36*$D36</f>
+        <v>1020</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="10"/>
@@ -3102,52 +3109,52 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="20">
-        <f>SUM(Calcs!D75:H75)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="34">
-        <v>0.02</v>
-      </c>
-      <c r="G37" s="34">
-        <v>0.98</v>
-      </c>
-      <c r="H37" s="38">
-        <f t="shared" ref="H35:H38" si="11">1-SUM(F37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="20">
+      <c r="C37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="18">
+        <f>SUM(Calcs!D74:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="G37" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="37">
+        <f>1-SUM(F37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="20">
-        <f>SUM(Calcs!D76:H76)</f>
+        <f>SUM(Calcs!D75:H75)</f>
         <v>0</v>
       </c>
       <c r="F38" s="34">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G38" s="34">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="H38" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H38:H39" si="11">1-SUM(F38:G38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="20">
@@ -3164,126 +3171,124 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="C39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="20">
+        <f>SUM(Calcs!D76:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D42" s="29">
         <f>SUM(Calcs!D79:H79)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="50">
-        <f>IFERROR((1-G41)*F35/SUM(F35,H35),0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G41" s="50">
-        <f>MIN(1,G35+$H$19)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="50">
-        <f>IFERROR((1-G41)*H35/SUM(F35,H35),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="29">
-        <f>F41*$D41</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="29">
-        <f t="shared" ref="K41:K44" si="12">G41*$D41</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="29">
-        <f t="shared" ref="L41:L44" si="13">H41*$D41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
+      <c r="F42" s="50">
+        <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G42" s="50">
+        <f>MIN(1,G36+$H$20)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="50">
+        <f>IFERROR((1-G42)*H36/SUM(F36,H36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="29">
+        <f>F42*$D42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="29">
+        <f t="shared" ref="K42:K45" si="12">G42*$D42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="29">
+        <f t="shared" ref="L42:L45" si="13">H42*$D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <f>SUM(Calcs!D80:H80)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="30">
-        <f>IFERROR((1-G42)*F36/SUM(F36,H36),0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G42" s="30">
-        <f t="shared" ref="G42:G44" si="14">MIN(1,G36+$H$19)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="30">
-        <f>IFERROR((1-G42)*H36/SUM(F36,H36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
-        <f>F42*$D42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="18">
+      <c r="F43" s="30">
+        <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="30">
+        <f t="shared" ref="G43:G45" si="14">MIN(1,G37+$H$20)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H43" s="30">
+        <f>IFERROR((1-G43)*H37/SUM(F37,H37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <f>F43*$D43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L42" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="20">
-        <f>SUM(Calcs!D81:H81)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="31">
-        <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="31">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="31">
-        <f>IFERROR((1-G43)*H37/SUM(F37,H37),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="20">
-        <f t="shared" ref="J43:J44" si="15">F43*$D43</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="20">
+      <c r="L43" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="20">
-        <f>SUM(Calcs!D82:H82)</f>
+        <f>SUM(Calcs!D81:H81)</f>
         <v>0</v>
       </c>
       <c r="F44" s="31">
@@ -3299,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J44:J45" si="15">F44*$D44</f>
         <v>0</v>
       </c>
       <c r="K44" s="20">
@@ -3312,69 +3317,69 @@
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="C45" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="20">
+        <f>SUM(Calcs!D82:H82)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="31">
+        <f>IFERROR((1-G45)*F39/SUM(F39,H39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="31">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="31">
+        <f>IFERROR((1-G45)*H39/SUM(F39,H39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1">
-        <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <f>IFERROR(SUM(J58:J61)/SUM($J$58:$L$61), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
-        <f>IFERROR(SUM(K58:K61)/SUM($J$58:$L$61), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <f>IFERROR(SUM(L58:L61)/SUM($J$58:$L$61), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <f>F47*$D$47</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="12">
-        <f>G47*$D$47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <f>H47*$D$47</f>
-        <v>0</v>
-      </c>
+      <c r="B47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1">
-        <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <f>IFERROR(SUM(J7:J47)/SUM(J7:L47), 0)</f>
-        <v>0.42929936305732486</v>
-      </c>
-      <c r="G48" s="3">
-        <f>IFERROR(SUM(K7:K47)/SUM(J7:L47), 0)</f>
-        <v>0.57070063694267514</v>
-      </c>
-      <c r="H48" s="3">
-        <f>1-F48-G48</f>
+        <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <f>IFERROR(SUM(J59:J62)/SUM($J$59:$L$62), 0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G48" s="8">
+        <f>IFERROR(SUM(K59:K62)/SUM($J$59:$L$62), 0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="8">
+        <f>IFERROR(SUM(L59:L62)/SUM($J$59:$L$62), 0)</f>
         <v>0</v>
       </c>
       <c r="J48" s="12">
@@ -3391,170 +3396,167 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f>IFERROR(SUM(J8:J48)/SUM(J8:L48), 0)</f>
+        <v>0.34407216494845361</v>
+      </c>
+      <c r="G49" s="3">
+        <f>IFERROR(SUM(K8:K48)/SUM(J8:L48), 0)</f>
+        <v>0.65592783505154639</v>
+      </c>
+      <c r="H49" s="3">
+        <f>1-F49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <f>F49*$D$49</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <f>G49*$D$49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
+        <f>H49*$D$49</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
-        <v>47100</v>
-      </c>
-      <c r="J50" s="12">
-        <f>SUM(J47:J48, J35:J38, J7:J17,J22:J32,J41:J44)</f>
-        <v>20220</v>
-      </c>
-      <c r="K50" s="12">
-        <f t="shared" ref="K50:L50" si="16">SUM(K47:K48, K35:K38, K7:K17,K22:K32,K41:K44)</f>
-        <v>26880</v>
-      </c>
-      <c r="L50" s="12">
+        <v>77600</v>
+      </c>
+      <c r="J51" s="12">
+        <f>SUM(J48:J49, J36:J39, J8:J18,J23:J33,J42:J45)</f>
+        <v>26700</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" ref="K51:L51" si="16">SUM(K48:K49, K36:K39, K8:K18,K23:K33,K42:K45)</f>
+        <v>50900</v>
+      </c>
+      <c r="L51" s="12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C51" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="23">
-        <f>SUM(J50:L50)</f>
-        <v>47100</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-    </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="C52" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="23">
+        <f>SUM(J51:L51)</f>
+        <v>77600</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
-        <v>146300</v>
-      </c>
-      <c r="J53" s="12">
+        <v>265550</v>
+      </c>
+      <c r="J54" s="12">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>61160</v>
-      </c>
-      <c r="K53" s="12">
+        <v>83375</v>
+      </c>
+      <c r="K54" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>85140</v>
-      </c>
-      <c r="L53" s="12">
+        <v>182175</v>
+      </c>
+      <c r="L54" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
-      <c r="J54" s="54">
-        <f>IFERROR(J53/$D$53, 0)</f>
-        <v>0.41804511278195489</v>
-      </c>
-      <c r="K54" s="54">
-        <f>IFERROR(K53/$D$53, 0)</f>
-        <v>0.58195488721804511</v>
-      </c>
-      <c r="L54" s="54">
-        <f>IFERROR(L53/$D$53, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="J55" s="54">
+        <f>IFERROR(J54/$D$54, 0)</f>
+        <v>0.3139710035774807</v>
+      </c>
+      <c r="K55" s="54">
+        <f>IFERROR(K54/$D$54, 0)</f>
+        <v>0.68602899642251935</v>
+      </c>
+      <c r="L55" s="54">
+        <f>IFERROR(L54/$D$54, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="23">
-        <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>10200</v>
-      </c>
+      <c r="B58" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="24">
-        <f>F35</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="24">
-        <f>G35</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="24">
-        <f>H35</f>
-        <v>0</v>
-      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="21"/>
-      <c r="J58" s="25">
-        <f t="shared" ref="J58:L61" si="17">F58*$D58</f>
-        <v>10200</v>
-      </c>
-      <c r="K58" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="27"/>
       <c r="C59" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="23">
-        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
+        <v>10200</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="24">
-        <f>IFERROR(SUM(J$36,J$9:J$14,J$42,J$24:J$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.27777777777777779</v>
+        <f>F36</f>
+        <v>0.9</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" ref="G59:H59" si="18">IFERROR(SUM(K$36,K$9:K$14,K$42,K$24:K$29)/SUM($J$36:$L$36,$J$9:$L$14,$J$42:$L$42,$J$24:$L$29),0)</f>
-        <v>0.72222222222222221</v>
+        <f>G36</f>
+        <v>0.1</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="18"/>
+        <f>H36</f>
         <v>0</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="25">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="J59:L62" si="17">F59*$D59</f>
+        <v>9180</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="17"/>
@@ -3564,23 +3566,23 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="23">
-        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
+        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
         <v>0</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="24">
-        <f>IFERROR(SUM(J37,J15:J17,J43,J30:J32)/SUM($J$37:$L$37,$J$15:$L$17,$J$43:$L$43,$J$30:$L$32),0)</f>
-        <v>0</v>
+        <f>IFERROR(SUM(J$37,J$10:J$15,J$43,J$25:J$30)/SUM($J$37:$L$37,$J$10:$L$15,$J$43:$L$43,$J$25:$L$30),0)</f>
+        <v>0.24539877300613497</v>
       </c>
       <c r="G60" s="24">
-        <f>IFERROR(SUM(K37,K15:K17,K43,K30:K32)/SUM($J$37:$L$37,$J$15:$L$17,$J$43:$L$43,$J$30:$L$32),0)</f>
-        <v>0</v>
+        <f t="shared" ref="G60:H60" si="18">IFERROR(SUM(K$37,K$10:K$15,K$43,K$25:K$30)/SUM($J$37:$L$37,$J$10:$L$15,$J$43:$L$43,$J$25:$L$30),0)</f>
+        <v>0.754601226993865</v>
       </c>
       <c r="H60" s="24">
-        <f>IFERROR(SUM(L37,L15:L17,L43,L30:L32)/SUM($J$37:$L$37,$J$15:$L$17,$J$43:$L$43,$J$30:$L$32),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I60" s="21"/>
@@ -3600,23 +3602,23 @@
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="23">
-        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
+        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
         <v>0</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="24">
-        <f>F38</f>
-        <v>0.02</v>
+        <f>IFERROR(SUM(J38,J16:J18,J44,J31:J33)/SUM($J$38:$L$38,$J$16:$L$18,$J$44:$L$44,$J$31:$L$33),0)</f>
+        <v>0</v>
       </c>
       <c r="G61" s="24">
-        <f>G38</f>
-        <v>0.98</v>
+        <f>IFERROR(SUM(K38,K16:K18,K44,K31:K33)/SUM($J$38:$L$38,$J$16:$L$18,$J$44:$L$44,$J$31:$L$33),0)</f>
+        <v>0</v>
       </c>
       <c r="H61" s="24">
-        <f>H38</f>
+        <f>IFERROR(SUM(L38,L16:L18,L44,L31:L33)/SUM($J$38:$L$38,$J$16:$L$18,$J$44:$L$44,$J$31:$L$33),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="21"/>
@@ -3629,6 +3631,42 @@
         <v>0</v>
       </c>
       <c r="L61" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="23">
+        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="24">
+        <f>F39</f>
+        <v>0.1</v>
+      </c>
+      <c r="G62" s="24">
+        <f>G39</f>
+        <v>0.9</v>
+      </c>
+      <c r="H62" s="24">
+        <f>H39</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="25">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -3647,7 +3685,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,19 +3710,19 @@
         <v>36</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="M1" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
       <c r="P1" s="65"/>
       <c r="R1" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
@@ -3692,54 +3730,54 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="66" t="s">
         <v>89</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>90</v>
       </c>
       <c r="J2" s="66" t="s">
         <v>64</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>89</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>90</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>64</v>
       </c>
       <c r="P2" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="66" t="s">
         <v>89</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>90</v>
       </c>
       <c r="T2" s="66" t="s">
         <v>64</v>
       </c>
       <c r="U2" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -3759,35 +3797,35 @@
         <v>0</v>
       </c>
       <c r="H3" s="67">
-        <f>IF($B3=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D3</f>
+        <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D3</f>
         <v>0</v>
       </c>
       <c r="I3" s="67">
-        <f>IF($B3=Inputs!$C$1,Outputs_Internal!J$4,0)*$D3</f>
+        <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D3</f>
         <v>0</v>
       </c>
       <c r="J3" s="67">
-        <f>IF($B3=Inputs!$C$1,Outputs_Internal!K$4,0)*$D3</f>
+        <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D3</f>
         <v>0</v>
       </c>
       <c r="K3" s="67">
-        <f>IF($B3=Inputs!$C$1,Outputs_Internal!L$4,0)*$D3</f>
+        <f>IF($B3=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D3</f>
         <v>0</v>
       </c>
       <c r="M3" s="67">
-        <f>$F3*Outputs_Internal!$D$50/12</f>
+        <f>$F3*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N3" s="67">
-        <f>$F3*Outputs_Internal!J$50/12</f>
+        <f>$F3*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O3" s="67">
-        <f>$F3*Outputs_Internal!K$50/12</f>
+        <f>$F3*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P3" s="67">
-        <f>$F3*Outputs_Internal!L$50/12</f>
+        <f>$F3*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R3" s="67"/>
@@ -3813,35 +3851,35 @@
         <v>0</v>
       </c>
       <c r="H4" s="67">
-        <f>IF($B4=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D4</f>
+        <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D4</f>
         <v>0</v>
       </c>
       <c r="I4" s="67">
-        <f>IF($B4=Inputs!$C$1,Outputs_Internal!J$4,0)*$D4</f>
+        <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D4</f>
         <v>0</v>
       </c>
       <c r="J4" s="67">
-        <f>IF($B4=Inputs!$C$1,Outputs_Internal!K$4,0)*$D4</f>
+        <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D4</f>
         <v>0</v>
       </c>
       <c r="K4" s="67">
-        <f>IF($B4=Inputs!$C$1,Outputs_Internal!L$4,0)*$D4</f>
+        <f>IF($B4=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D4</f>
         <v>0</v>
       </c>
       <c r="M4" s="67">
-        <f>$F4*Outputs_Internal!$D$50/12</f>
+        <f>$F4*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N4" s="67">
-        <f>$F4*Outputs_Internal!J$50/12</f>
+        <f>$F4*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O4" s="67">
-        <f>$F4*Outputs_Internal!K$50/12</f>
+        <f>$F4*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P4" s="67">
-        <f>$F4*Outputs_Internal!L$50/12</f>
+        <f>$F4*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
     </row>
@@ -3863,35 +3901,35 @@
         <v>0</v>
       </c>
       <c r="H5" s="67">
-        <f>IF($B5=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D5</f>
+        <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D5</f>
         <v>0</v>
       </c>
       <c r="I5" s="67">
-        <f>IF($B5=Inputs!$C$1,Outputs_Internal!J$4,0)*$D5</f>
+        <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D5</f>
         <v>0</v>
       </c>
       <c r="J5" s="67">
-        <f>IF($B5=Inputs!$C$1,Outputs_Internal!K$4,0)*$D5</f>
+        <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D5</f>
         <v>0</v>
       </c>
       <c r="K5" s="67">
-        <f>IF($B5=Inputs!$C$1,Outputs_Internal!L$4,0)*$D5</f>
+        <f>IF($B5=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="67">
-        <f>$F5*Outputs_Internal!$D$50/12</f>
+        <f>$F5*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N5" s="67">
-        <f>$F5*Outputs_Internal!J$50/12</f>
+        <f>$F5*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O5" s="67">
-        <f>$F5*Outputs_Internal!K$50/12</f>
+        <f>$F5*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P5" s="67">
-        <f>$F5*Outputs_Internal!L$50/12</f>
+        <f>$F5*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R5" s="67">
@@ -3929,35 +3967,35 @@
         <v>0</v>
       </c>
       <c r="H6" s="67">
-        <f>IF($B6=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D6</f>
+        <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D6</f>
         <v>0</v>
       </c>
       <c r="I6" s="67">
-        <f>IF($B6=Inputs!$C$1,Outputs_Internal!J$4,0)*$D6</f>
+        <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D6</f>
         <v>0</v>
       </c>
       <c r="J6" s="67">
-        <f>IF($B6=Inputs!$C$1,Outputs_Internal!K$4,0)*$D6</f>
+        <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D6</f>
         <v>0</v>
       </c>
       <c r="K6" s="67">
-        <f>IF($B6=Inputs!$C$1,Outputs_Internal!L$4,0)*$D6</f>
+        <f>IF($B6=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D6</f>
         <v>0</v>
       </c>
       <c r="M6" s="67">
-        <f>$F6*Outputs_Internal!$D$50/12</f>
+        <f>$F6*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N6" s="67">
-        <f>$F6*Outputs_Internal!J$50/12</f>
+        <f>$F6*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O6" s="67">
-        <f>$F6*Outputs_Internal!K$50/12</f>
+        <f>$F6*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P6" s="67">
-        <f>$F6*Outputs_Internal!L$50/12</f>
+        <f>$F6*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R6" s="67">
@@ -3995,35 +4033,35 @@
         <v>0</v>
       </c>
       <c r="H7" s="67">
-        <f>IF($B7=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D7</f>
+        <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="67">
-        <f>IF($B7=Inputs!$C$1,Outputs_Internal!J$4,0)*$D7</f>
+        <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D7</f>
         <v>0</v>
       </c>
       <c r="J7" s="67">
-        <f>IF($B7=Inputs!$C$1,Outputs_Internal!K$4,0)*$D7</f>
+        <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D7</f>
         <v>0</v>
       </c>
       <c r="K7" s="67">
-        <f>IF($B7=Inputs!$C$1,Outputs_Internal!L$4,0)*$D7</f>
+        <f>IF($B7=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D7</f>
         <v>0</v>
       </c>
       <c r="M7" s="67">
-        <f>$F7*Outputs_Internal!$D$50/12</f>
+        <f>$F7*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N7" s="67">
-        <f>$F7*Outputs_Internal!J$50/12</f>
+        <f>$F7*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O7" s="67">
-        <f>$F7*Outputs_Internal!K$50/12</f>
+        <f>$F7*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P7" s="67">
-        <f>$F7*Outputs_Internal!L$50/12</f>
+        <f>$F7*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R7" s="67">
@@ -4061,35 +4099,35 @@
         <v>0</v>
       </c>
       <c r="H8" s="67">
-        <f>IF($B8=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D8</f>
+        <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D8</f>
         <v>0</v>
       </c>
       <c r="I8" s="67">
-        <f>IF($B8=Inputs!$C$1,Outputs_Internal!J$4,0)*$D8</f>
+        <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D8</f>
         <v>0</v>
       </c>
       <c r="J8" s="67">
-        <f>IF($B8=Inputs!$C$1,Outputs_Internal!K$4,0)*$D8</f>
+        <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D8</f>
         <v>0</v>
       </c>
       <c r="K8" s="67">
-        <f>IF($B8=Inputs!$C$1,Outputs_Internal!L$4,0)*$D8</f>
+        <f>IF($B8=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D8</f>
         <v>0</v>
       </c>
       <c r="M8" s="67">
-        <f>$F8*Outputs_Internal!$D$50/12</f>
+        <f>$F8*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N8" s="67">
-        <f>$F8*Outputs_Internal!J$50/12</f>
+        <f>$F8*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O8" s="67">
-        <f>$F8*Outputs_Internal!K$50/12</f>
+        <f>$F8*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P8" s="67">
-        <f>$F8*Outputs_Internal!L$50/12</f>
+        <f>$F8*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R8" s="67">
@@ -4127,35 +4165,35 @@
         <v>1</v>
       </c>
       <c r="H9" s="67">
-        <f>IF($B9=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D9</f>
-        <v>5000</v>
+        <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
+        <v>32750</v>
       </c>
       <c r="I9" s="67">
-        <f>IF($B9=Inputs!$C$1,Outputs_Internal!J$4,0)*$D9</f>
-        <v>500</v>
+        <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D9</f>
+        <v>3275</v>
       </c>
       <c r="J9" s="67">
-        <f>IF($B9=Inputs!$C$1,Outputs_Internal!K$4,0)*$D9</f>
-        <v>4500</v>
+        <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
+        <v>29475</v>
       </c>
       <c r="K9" s="67">
-        <f>IF($B9=Inputs!$C$1,Outputs_Internal!L$4,0)*$D9</f>
+        <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D9</f>
         <v>0</v>
       </c>
       <c r="M9" s="67">
-        <f>$F9*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F9*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N9" s="67">
-        <f>$F9*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F9*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O9" s="67">
-        <f>$F9*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F9*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P9" s="67">
-        <f>$F9*Outputs_Internal!L$50/12</f>
+        <f>$F9*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R9" s="67">
@@ -4193,35 +4231,35 @@
         <v>1</v>
       </c>
       <c r="H10" s="67">
-        <f>IF($B10=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D10</f>
+        <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D10</f>
         <v>0</v>
       </c>
       <c r="I10" s="67">
-        <f>IF($B10=Inputs!$C$1,Outputs_Internal!J$4,0)*$D10</f>
+        <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D10</f>
         <v>0</v>
       </c>
       <c r="J10" s="67">
-        <f>IF($B10=Inputs!$C$1,Outputs_Internal!K$4,0)*$D10</f>
+        <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D10</f>
         <v>0</v>
       </c>
       <c r="K10" s="67">
-        <f>IF($B10=Inputs!$C$1,Outputs_Internal!L$4,0)*$D10</f>
+        <f>IF($B10=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D10</f>
         <v>0</v>
       </c>
       <c r="M10" s="67">
-        <f>$F10*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F10*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N10" s="67">
-        <f>$F10*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F10*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O10" s="67">
-        <f>$F10*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F10*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P10" s="67">
-        <f>$F10*Outputs_Internal!L$50/12</f>
+        <f>$F10*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R10" s="67">
@@ -4259,48 +4297,48 @@
         <v>1</v>
       </c>
       <c r="H11" s="67">
-        <f>IF($B11=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D11</f>
+        <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D11</f>
         <v>0</v>
       </c>
       <c r="I11" s="67">
-        <f>IF($B11=Inputs!$C$1,Outputs_Internal!J$4,0)*$D11</f>
+        <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D11</f>
         <v>0</v>
       </c>
       <c r="J11" s="67">
-        <f>IF($B11=Inputs!$C$1,Outputs_Internal!K$4,0)*$D11</f>
+        <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D11</f>
         <v>0</v>
       </c>
       <c r="K11" s="67">
-        <f>IF($B11=Inputs!$C$1,Outputs_Internal!L$4,0)*$D11</f>
+        <f>IF($B11=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D11</f>
         <v>0</v>
       </c>
       <c r="M11" s="67">
-        <f>$F11*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F11*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N11" s="67">
-        <f>$F11*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F11*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O11" s="67">
-        <f>$F11*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F11*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P11" s="67">
-        <f>$F11*Outputs_Internal!L$50/12</f>
+        <f>$F11*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R11" s="67">
         <f t="shared" si="2"/>
-        <v>16775</v>
+        <v>52149.999999999993</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="3"/>
-        <v>5555</v>
+        <v>9950</v>
       </c>
       <c r="T11" s="67">
-        <f t="shared" si="4"/>
-        <v>11220</v>
+        <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
+        <v>42199.999999999993</v>
       </c>
       <c r="U11" s="67">
         <f t="shared" si="5"/>
@@ -4325,35 +4363,35 @@
         <v>1</v>
       </c>
       <c r="H12" s="67">
-        <f>IF($B12=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D12</f>
+        <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D12</f>
         <v>0</v>
       </c>
       <c r="I12" s="67">
-        <f>IF($B12=Inputs!$C$1,Outputs_Internal!J$4,0)*$D12</f>
+        <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D12</f>
         <v>0</v>
       </c>
       <c r="J12" s="67">
-        <f>IF($B12=Inputs!$C$1,Outputs_Internal!K$4,0)*$D12</f>
+        <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D12</f>
         <v>0</v>
       </c>
       <c r="K12" s="67">
-        <f>IF($B12=Inputs!$C$1,Outputs_Internal!L$4,0)*$D12</f>
+        <f>IF($B12=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D12</f>
         <v>0</v>
       </c>
       <c r="M12" s="67">
-        <f>$F12*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F12*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N12" s="67">
-        <f>$F12*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F12*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O12" s="67">
-        <f>$F12*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F12*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P12" s="67">
-        <f>$F12*Outputs_Internal!L$50/12</f>
+        <f>$F12*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R12" s="67">
@@ -4391,35 +4429,35 @@
         <v>1</v>
       </c>
       <c r="H13" s="67">
-        <f>IF($B13=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D13</f>
+        <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D13</f>
         <v>0</v>
       </c>
       <c r="I13" s="67">
-        <f>IF($B13=Inputs!$C$1,Outputs_Internal!J$4,0)*$D13</f>
+        <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D13</f>
         <v>0</v>
       </c>
       <c r="J13" s="67">
-        <f>IF($B13=Inputs!$C$1,Outputs_Internal!K$4,0)*$D13</f>
+        <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D13</f>
         <v>0</v>
       </c>
       <c r="K13" s="67">
-        <f>IF($B13=Inputs!$C$1,Outputs_Internal!L$4,0)*$D13</f>
+        <f>IF($B13=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D13</f>
         <v>0</v>
       </c>
       <c r="M13" s="67">
-        <f>$F13*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F13*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N13" s="67">
-        <f>$F13*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F13*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O13" s="67">
-        <f>$F13*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F13*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P13" s="67">
-        <f>$F13*Outputs_Internal!L$50/12</f>
+        <f>$F13*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R13" s="67">
@@ -4457,48 +4495,48 @@
         <v>1</v>
       </c>
       <c r="H14" s="67">
-        <f>IF($B14=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D14</f>
+        <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D14</f>
         <v>0</v>
       </c>
       <c r="I14" s="67">
-        <f>IF($B14=Inputs!$C$1,Outputs_Internal!J$4,0)*$D14</f>
+        <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D14</f>
         <v>0</v>
       </c>
       <c r="J14" s="67">
-        <f>IF($B14=Inputs!$C$1,Outputs_Internal!K$4,0)*$D14</f>
+        <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D14</f>
         <v>0</v>
       </c>
       <c r="K14" s="67">
-        <f>IF($B14=Inputs!$C$1,Outputs_Internal!L$4,0)*$D14</f>
+        <f>IF($B14=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D14</f>
         <v>0</v>
       </c>
       <c r="M14" s="67">
-        <f>$F14*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F14*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N14" s="67">
-        <f>$F14*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F14*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O14" s="67">
-        <f>$F14*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F14*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P14" s="67">
-        <f>$F14*Outputs_Internal!L$50/12</f>
+        <f>$F14*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R14" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="5"/>
@@ -4523,35 +4561,35 @@
         <v>1</v>
       </c>
       <c r="H15" s="67">
-        <f>IF($B15=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D15</f>
+        <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D15</f>
         <v>0</v>
       </c>
       <c r="I15" s="67">
-        <f>IF($B15=Inputs!$C$1,Outputs_Internal!J$4,0)*$D15</f>
+        <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D15</f>
         <v>0</v>
       </c>
       <c r="J15" s="67">
-        <f>IF($B15=Inputs!$C$1,Outputs_Internal!K$4,0)*$D15</f>
+        <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D15</f>
         <v>0</v>
       </c>
       <c r="K15" s="67">
-        <f>IF($B15=Inputs!$C$1,Outputs_Internal!L$4,0)*$D15</f>
+        <f>IF($B15=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D15</f>
         <v>0</v>
       </c>
       <c r="M15" s="67">
-        <f>$F15*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F15*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N15" s="67">
-        <f>$F15*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F15*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O15" s="67">
-        <f>$F15*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F15*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P15" s="67">
-        <f>$F15*Outputs_Internal!L$50/12</f>
+        <f>$F15*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R15" s="67">
@@ -4589,35 +4627,35 @@
         <v>1</v>
       </c>
       <c r="H16" s="67">
-        <f>IF($B16=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D16</f>
+        <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D16</f>
         <v>0</v>
       </c>
       <c r="I16" s="67">
-        <f>IF($B16=Inputs!$C$1,Outputs_Internal!J$4,0)*$D16</f>
+        <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D16</f>
         <v>0</v>
       </c>
       <c r="J16" s="67">
-        <f>IF($B16=Inputs!$C$1,Outputs_Internal!K$4,0)*$D16</f>
+        <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D16</f>
         <v>0</v>
       </c>
       <c r="K16" s="67">
-        <f>IF($B16=Inputs!$C$1,Outputs_Internal!L$4,0)*$D16</f>
+        <f>IF($B16=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D16</f>
         <v>0</v>
       </c>
       <c r="M16" s="67">
-        <f>$F16*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F16*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N16" s="67">
-        <f>$F16*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F16*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O16" s="67">
-        <f>$F16*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F16*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P16" s="67">
-        <f>$F16*Outputs_Internal!L$50/12</f>
+        <f>$F16*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R16" s="67">
@@ -4655,48 +4693,48 @@
         <v>1</v>
       </c>
       <c r="H17" s="67">
-        <f>IF($B17=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D17</f>
+        <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D17</f>
         <v>0</v>
       </c>
       <c r="I17" s="67">
-        <f>IF($B17=Inputs!$C$1,Outputs_Internal!J$4,0)*$D17</f>
+        <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D17</f>
         <v>0</v>
       </c>
       <c r="J17" s="67">
-        <f>IF($B17=Inputs!$C$1,Outputs_Internal!K$4,0)*$D17</f>
+        <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D17</f>
         <v>0</v>
       </c>
       <c r="K17" s="67">
-        <f>IF($B17=Inputs!$C$1,Outputs_Internal!L$4,0)*$D17</f>
+        <f>IF($B17=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D17</f>
         <v>0</v>
       </c>
       <c r="M17" s="67">
-        <f>$F17*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F17*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N17" s="67">
-        <f>$F17*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F17*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O17" s="67">
-        <f>$F17*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F17*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P17" s="67">
-        <f>$F17*Outputs_Internal!L$50/12</f>
+        <f>$F17*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R17" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="5"/>
@@ -4721,35 +4759,35 @@
         <v>1</v>
       </c>
       <c r="H18" s="67">
-        <f>IF($B18=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D18</f>
+        <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D18</f>
         <v>0</v>
       </c>
       <c r="I18" s="67">
-        <f>IF($B18=Inputs!$C$1,Outputs_Internal!J$4,0)*$D18</f>
+        <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D18</f>
         <v>0</v>
       </c>
       <c r="J18" s="67">
-        <f>IF($B18=Inputs!$C$1,Outputs_Internal!K$4,0)*$D18</f>
+        <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D18</f>
         <v>0</v>
       </c>
       <c r="K18" s="67">
-        <f>IF($B18=Inputs!$C$1,Outputs_Internal!L$4,0)*$D18</f>
+        <f>IF($B18=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D18</f>
         <v>0</v>
       </c>
       <c r="M18" s="67">
-        <f>$F18*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F18*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N18" s="67">
-        <f>$F18*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F18*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O18" s="67">
-        <f>$F18*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F18*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P18" s="67">
-        <f>$F18*Outputs_Internal!L$50/12</f>
+        <f>$F18*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R18" s="67">
@@ -4787,35 +4825,35 @@
         <v>1</v>
       </c>
       <c r="H19" s="67">
-        <f>IF($B19=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D19</f>
+        <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D19</f>
         <v>0</v>
       </c>
       <c r="I19" s="67">
-        <f>IF($B19=Inputs!$C$1,Outputs_Internal!J$4,0)*$D19</f>
+        <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D19</f>
         <v>0</v>
       </c>
       <c r="J19" s="67">
-        <f>IF($B19=Inputs!$C$1,Outputs_Internal!K$4,0)*$D19</f>
+        <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D19</f>
         <v>0</v>
       </c>
       <c r="K19" s="67">
-        <f>IF($B19=Inputs!$C$1,Outputs_Internal!L$4,0)*$D19</f>
+        <f>IF($B19=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D19</f>
         <v>0</v>
       </c>
       <c r="M19" s="67">
-        <f>$F19*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F19*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N19" s="67">
-        <f>$F19*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F19*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O19" s="67">
-        <f>$F19*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F19*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P19" s="67">
-        <f>$F19*Outputs_Internal!L$50/12</f>
+        <f>$F19*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R19" s="67">
@@ -4853,48 +4891,48 @@
         <v>1</v>
       </c>
       <c r="H20" s="67">
-        <f>IF($B20=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D20</f>
+        <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D20</f>
         <v>0</v>
       </c>
       <c r="I20" s="67">
-        <f>IF($B20=Inputs!$C$1,Outputs_Internal!J$4,0)*$D20</f>
+        <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D20</f>
         <v>0</v>
       </c>
       <c r="J20" s="67">
-        <f>IF($B20=Inputs!$C$1,Outputs_Internal!K$4,0)*$D20</f>
+        <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D20</f>
         <v>0</v>
       </c>
       <c r="K20" s="67">
-        <f>IF($B20=Inputs!$C$1,Outputs_Internal!L$4,0)*$D20</f>
+        <f>IF($B20=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D20</f>
         <v>0</v>
       </c>
       <c r="M20" s="67">
-        <f>$F20*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F20*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N20" s="67">
-        <f>$F20*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F20*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O20" s="67">
-        <f>$F20*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F20*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P20" s="67">
-        <f>$F20*Outputs_Internal!L$50/12</f>
+        <f>$F20*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R20" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="5"/>
@@ -4919,35 +4957,35 @@
         <v>1</v>
       </c>
       <c r="H21" s="67">
-        <f>IF($B21=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D21</f>
+        <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D21</f>
         <v>0</v>
       </c>
       <c r="I21" s="67">
-        <f>IF($B21=Inputs!$C$1,Outputs_Internal!J$4,0)*$D21</f>
+        <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D21</f>
         <v>0</v>
       </c>
       <c r="J21" s="67">
-        <f>IF($B21=Inputs!$C$1,Outputs_Internal!K$4,0)*$D21</f>
+        <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D21</f>
         <v>0</v>
       </c>
       <c r="K21" s="67">
-        <f>IF($B21=Inputs!$C$1,Outputs_Internal!L$4,0)*$D21</f>
+        <f>IF($B21=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D21</f>
         <v>0</v>
       </c>
       <c r="M21" s="67">
-        <f>$F21*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F21*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N21" s="67">
-        <f>$F21*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F21*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O21" s="67">
-        <f>$F21*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F21*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P21" s="67">
-        <f>$F21*Outputs_Internal!L$50/12</f>
+        <f>$F21*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R21" s="67">
@@ -4985,35 +5023,35 @@
         <v>1</v>
       </c>
       <c r="H22" s="67">
-        <f>IF($B22=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D22</f>
+        <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D22</f>
         <v>0</v>
       </c>
       <c r="I22" s="67">
-        <f>IF($B22=Inputs!$C$1,Outputs_Internal!J$4,0)*$D22</f>
+        <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D22</f>
         <v>0</v>
       </c>
       <c r="J22" s="67">
-        <f>IF($B22=Inputs!$C$1,Outputs_Internal!K$4,0)*$D22</f>
+        <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D22</f>
         <v>0</v>
       </c>
       <c r="K22" s="67">
-        <f>IF($B22=Inputs!$C$1,Outputs_Internal!L$4,0)*$D22</f>
+        <f>IF($B22=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D22</f>
         <v>0</v>
       </c>
       <c r="M22" s="67">
-        <f>$F22*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F22*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N22" s="67">
-        <f>$F22*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F22*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O22" s="67">
-        <f>$F22*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F22*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P22" s="67">
-        <f>$F22*Outputs_Internal!L$50/12</f>
+        <f>$F22*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R22" s="67">
@@ -5051,48 +5089,48 @@
         <v>1</v>
       </c>
       <c r="H23" s="67">
-        <f>IF($B23=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D23</f>
+        <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D23</f>
         <v>0</v>
       </c>
       <c r="I23" s="67">
-        <f>IF($B23=Inputs!$C$1,Outputs_Internal!J$4,0)*$D23</f>
+        <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D23</f>
         <v>0</v>
       </c>
       <c r="J23" s="67">
-        <f>IF($B23=Inputs!$C$1,Outputs_Internal!K$4,0)*$D23</f>
+        <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D23</f>
         <v>0</v>
       </c>
       <c r="K23" s="67">
-        <f>IF($B23=Inputs!$C$1,Outputs_Internal!L$4,0)*$D23</f>
+        <f>IF($B23=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D23</f>
         <v>0</v>
       </c>
       <c r="M23" s="67">
-        <f>$F23*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F23*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N23" s="67">
-        <f>$F23*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F23*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O23" s="67">
-        <f>$F23*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F23*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P23" s="67">
-        <f>$F23*Outputs_Internal!L$50/12</f>
+        <f>$F23*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R23" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="5"/>
@@ -5117,35 +5155,35 @@
         <v>1</v>
       </c>
       <c r="H24" s="67">
-        <f>IF($B24=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D24</f>
+        <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="67">
-        <f>IF($B24=Inputs!$C$1,Outputs_Internal!J$4,0)*$D24</f>
+        <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D24</f>
         <v>0</v>
       </c>
       <c r="J24" s="67">
-        <f>IF($B24=Inputs!$C$1,Outputs_Internal!K$4,0)*$D24</f>
+        <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D24</f>
         <v>0</v>
       </c>
       <c r="K24" s="67">
-        <f>IF($B24=Inputs!$C$1,Outputs_Internal!L$4,0)*$D24</f>
+        <f>IF($B24=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D24</f>
         <v>0</v>
       </c>
       <c r="M24" s="67">
-        <f>$F24*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F24*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N24" s="67">
-        <f>$F24*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F24*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O24" s="67">
-        <f>$F24*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F24*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P24" s="67">
-        <f>$F24*Outputs_Internal!L$50/12</f>
+        <f>$F24*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R24" s="67">
@@ -5183,35 +5221,35 @@
         <v>1</v>
       </c>
       <c r="H25" s="67">
-        <f>IF($B25=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D25</f>
+        <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D25</f>
         <v>0</v>
       </c>
       <c r="I25" s="67">
-        <f>IF($B25=Inputs!$C$1,Outputs_Internal!J$4,0)*$D25</f>
+        <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D25</f>
         <v>0</v>
       </c>
       <c r="J25" s="67">
-        <f>IF($B25=Inputs!$C$1,Outputs_Internal!K$4,0)*$D25</f>
+        <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D25</f>
         <v>0</v>
       </c>
       <c r="K25" s="67">
-        <f>IF($B25=Inputs!$C$1,Outputs_Internal!L$4,0)*$D25</f>
+        <f>IF($B25=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D25</f>
         <v>0</v>
       </c>
       <c r="M25" s="67">
-        <f>$F25*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F25*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N25" s="67">
-        <f>$F25*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F25*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O25" s="67">
-        <f>$F25*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F25*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P25" s="67">
-        <f>$F25*Outputs_Internal!L$50/12</f>
+        <f>$F25*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R25" s="67">
@@ -5249,48 +5287,48 @@
         <v>1</v>
       </c>
       <c r="H26" s="67">
-        <f>IF($B26=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D26</f>
+        <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D26</f>
         <v>0</v>
       </c>
       <c r="I26" s="67">
-        <f>IF($B26=Inputs!$C$1,Outputs_Internal!J$4,0)*$D26</f>
+        <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D26</f>
         <v>0</v>
       </c>
       <c r="J26" s="67">
-        <f>IF($B26=Inputs!$C$1,Outputs_Internal!K$4,0)*$D26</f>
+        <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D26</f>
         <v>0</v>
       </c>
       <c r="K26" s="67">
-        <f>IF($B26=Inputs!$C$1,Outputs_Internal!L$4,0)*$D26</f>
+        <f>IF($B26=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D26</f>
         <v>0</v>
       </c>
       <c r="M26" s="67">
-        <f>$F26*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F26*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N26" s="67">
-        <f>$F26*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F26*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O26" s="67">
-        <f>$F26*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F26*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P26" s="67">
-        <f>$F26*Outputs_Internal!L$50/12</f>
+        <f>$F26*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R26" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="5"/>
@@ -5315,35 +5353,35 @@
         <v>1</v>
       </c>
       <c r="H27" s="67">
-        <f>IF($B27=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D27</f>
+        <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D27</f>
         <v>0</v>
       </c>
       <c r="I27" s="67">
-        <f>IF($B27=Inputs!$C$1,Outputs_Internal!J$4,0)*$D27</f>
+        <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D27</f>
         <v>0</v>
       </c>
       <c r="J27" s="67">
-        <f>IF($B27=Inputs!$C$1,Outputs_Internal!K$4,0)*$D27</f>
+        <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D27</f>
         <v>0</v>
       </c>
       <c r="K27" s="67">
-        <f>IF($B27=Inputs!$C$1,Outputs_Internal!L$4,0)*$D27</f>
+        <f>IF($B27=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D27</f>
         <v>0</v>
       </c>
       <c r="M27" s="67">
-        <f>$F27*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F27*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N27" s="67">
-        <f>$F27*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F27*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O27" s="67">
-        <f>$F27*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F27*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P27" s="67">
-        <f>$F27*Outputs_Internal!L$50/12</f>
+        <f>$F27*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R27" s="67">
@@ -5381,35 +5419,35 @@
         <v>1</v>
       </c>
       <c r="H28" s="67">
-        <f>IF($B28=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D28</f>
+        <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="67">
-        <f>IF($B28=Inputs!$C$1,Outputs_Internal!J$4,0)*$D28</f>
+        <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D28</f>
         <v>0</v>
       </c>
       <c r="J28" s="67">
-        <f>IF($B28=Inputs!$C$1,Outputs_Internal!K$4,0)*$D28</f>
+        <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D28</f>
         <v>0</v>
       </c>
       <c r="K28" s="67">
-        <f>IF($B28=Inputs!$C$1,Outputs_Internal!L$4,0)*$D28</f>
+        <f>IF($B28=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D28</f>
         <v>0</v>
       </c>
       <c r="M28" s="67">
-        <f>$F28*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F28*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N28" s="67">
-        <f>$F28*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F28*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O28" s="67">
-        <f>$F28*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F28*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P28" s="67">
-        <f>$F28*Outputs_Internal!L$50/12</f>
+        <f>$F28*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R28" s="67">
@@ -5447,48 +5485,48 @@
         <v>1</v>
       </c>
       <c r="H29" s="67">
-        <f>IF($B29=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D29</f>
+        <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D29</f>
         <v>0</v>
       </c>
       <c r="I29" s="67">
-        <f>IF($B29=Inputs!$C$1,Outputs_Internal!J$4,0)*$D29</f>
+        <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D29</f>
         <v>0</v>
       </c>
       <c r="J29" s="67">
-        <f>IF($B29=Inputs!$C$1,Outputs_Internal!K$4,0)*$D29</f>
+        <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D29</f>
         <v>0</v>
       </c>
       <c r="K29" s="67">
-        <f>IF($B29=Inputs!$C$1,Outputs_Internal!L$4,0)*$D29</f>
+        <f>IF($B29=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D29</f>
         <v>0</v>
       </c>
       <c r="M29" s="67">
-        <f>$F29*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F29*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N29" s="67">
-        <f>$F29*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F29*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O29" s="67">
-        <f>$F29*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F29*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P29" s="67">
-        <f>$F29*Outputs_Internal!L$50/12</f>
+        <f>$F29*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R29" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="5"/>
@@ -5513,35 +5551,35 @@
         <v>1</v>
       </c>
       <c r="H30" s="67">
-        <f>IF($B30=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D30</f>
+        <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D30</f>
         <v>0</v>
       </c>
       <c r="I30" s="67">
-        <f>IF($B30=Inputs!$C$1,Outputs_Internal!J$4,0)*$D30</f>
+        <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D30</f>
         <v>0</v>
       </c>
       <c r="J30" s="67">
-        <f>IF($B30=Inputs!$C$1,Outputs_Internal!K$4,0)*$D30</f>
+        <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D30</f>
         <v>0</v>
       </c>
       <c r="K30" s="67">
-        <f>IF($B30=Inputs!$C$1,Outputs_Internal!L$4,0)*$D30</f>
+        <f>IF($B30=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D30</f>
         <v>0</v>
       </c>
       <c r="M30" s="67">
-        <f>$F30*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F30*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N30" s="67">
-        <f>$F30*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F30*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O30" s="67">
-        <f>$F30*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F30*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P30" s="67">
-        <f>$F30*Outputs_Internal!L$50/12</f>
+        <f>$F30*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R30" s="67">
@@ -5579,35 +5617,35 @@
         <v>1</v>
       </c>
       <c r="H31" s="67">
-        <f>IF($B31=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D31</f>
+        <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D31</f>
         <v>0</v>
       </c>
       <c r="I31" s="67">
-        <f>IF($B31=Inputs!$C$1,Outputs_Internal!J$4,0)*$D31</f>
+        <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D31</f>
         <v>0</v>
       </c>
       <c r="J31" s="67">
-        <f>IF($B31=Inputs!$C$1,Outputs_Internal!K$4,0)*$D31</f>
+        <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D31</f>
         <v>0</v>
       </c>
       <c r="K31" s="67">
-        <f>IF($B31=Inputs!$C$1,Outputs_Internal!L$4,0)*$D31</f>
+        <f>IF($B31=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D31</f>
         <v>0</v>
       </c>
       <c r="M31" s="67">
-        <f>$F31*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F31*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N31" s="67">
-        <f>$F31*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F31*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O31" s="67">
-        <f>$F31*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F31*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P31" s="67">
-        <f>$F31*Outputs_Internal!L$50/12</f>
+        <f>$F31*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R31" s="67">
@@ -5645,48 +5683,48 @@
         <v>1</v>
       </c>
       <c r="H32" s="67">
-        <f>IF($B32=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D32</f>
+        <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="67">
-        <f>IF($B32=Inputs!$C$1,Outputs_Internal!J$4,0)*$D32</f>
+        <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D32</f>
         <v>0</v>
       </c>
       <c r="J32" s="67">
-        <f>IF($B32=Inputs!$C$1,Outputs_Internal!K$4,0)*$D32</f>
+        <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D32</f>
         <v>0</v>
       </c>
       <c r="K32" s="67">
-        <f>IF($B32=Inputs!$C$1,Outputs_Internal!L$4,0)*$D32</f>
+        <f>IF($B32=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D32</f>
         <v>0</v>
       </c>
       <c r="M32" s="67">
-        <f>$F32*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F32*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N32" s="67">
-        <f>$F32*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F32*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O32" s="67">
-        <f>$F32*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F32*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P32" s="67">
-        <f>$F32*Outputs_Internal!L$50/12</f>
+        <f>$F32*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R32" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="5"/>
@@ -5711,35 +5749,35 @@
         <v>1</v>
       </c>
       <c r="H33" s="67">
-        <f>IF($B33=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D33</f>
+        <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D33</f>
         <v>0</v>
       </c>
       <c r="I33" s="67">
-        <f>IF($B33=Inputs!$C$1,Outputs_Internal!J$4,0)*$D33</f>
+        <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D33</f>
         <v>0</v>
       </c>
       <c r="J33" s="67">
-        <f>IF($B33=Inputs!$C$1,Outputs_Internal!K$4,0)*$D33</f>
+        <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D33</f>
         <v>0</v>
       </c>
       <c r="K33" s="67">
-        <f>IF($B33=Inputs!$C$1,Outputs_Internal!L$4,0)*$D33</f>
+        <f>IF($B33=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D33</f>
         <v>0</v>
       </c>
       <c r="M33" s="67">
-        <f>$F33*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F33*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N33" s="67">
-        <f>$F33*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F33*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O33" s="67">
-        <f>$F33*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F33*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P33" s="67">
-        <f>$F33*Outputs_Internal!L$50/12</f>
+        <f>$F33*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R33" s="67">
@@ -5777,35 +5815,35 @@
         <v>1</v>
       </c>
       <c r="H34" s="67">
-        <f>IF($B34=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D34</f>
+        <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="67">
-        <f>IF($B34=Inputs!$C$1,Outputs_Internal!J$4,0)*$D34</f>
+        <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D34</f>
         <v>0</v>
       </c>
       <c r="J34" s="67">
-        <f>IF($B34=Inputs!$C$1,Outputs_Internal!K$4,0)*$D34</f>
+        <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D34</f>
         <v>0</v>
       </c>
       <c r="K34" s="67">
-        <f>IF($B34=Inputs!$C$1,Outputs_Internal!L$4,0)*$D34</f>
+        <f>IF($B34=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D34</f>
         <v>0</v>
       </c>
       <c r="M34" s="67">
-        <f>$F34*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F34*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N34" s="67">
-        <f>$F34*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F34*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O34" s="67">
-        <f>$F34*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F34*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P34" s="67">
-        <f>$F34*Outputs_Internal!L$50/12</f>
+        <f>$F34*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R34" s="67">
@@ -5843,48 +5881,48 @@
         <v>1</v>
       </c>
       <c r="H35" s="67">
-        <f>IF($B35=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D35</f>
+        <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D35</f>
         <v>0</v>
       </c>
       <c r="I35" s="67">
-        <f>IF($B35=Inputs!$C$1,Outputs_Internal!J$4,0)*$D35</f>
+        <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D35</f>
         <v>0</v>
       </c>
       <c r="J35" s="67">
-        <f>IF($B35=Inputs!$C$1,Outputs_Internal!K$4,0)*$D35</f>
+        <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D35</f>
         <v>0</v>
       </c>
       <c r="K35" s="67">
-        <f>IF($B35=Inputs!$C$1,Outputs_Internal!L$4,0)*$D35</f>
+        <f>IF($B35=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D35</f>
         <v>0</v>
       </c>
       <c r="M35" s="67">
-        <f>$F35*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F35*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N35" s="67">
-        <f>$F35*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F35*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O35" s="67">
-        <f>$F35*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F35*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P35" s="67">
-        <f>$F35*Outputs_Internal!L$50/12</f>
+        <f>$F35*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R35" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="5"/>
@@ -5909,35 +5947,35 @@
         <v>1</v>
       </c>
       <c r="H36" s="67">
-        <f>IF($B36=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D36</f>
+        <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D36</f>
         <v>0</v>
       </c>
       <c r="I36" s="67">
-        <f>IF($B36=Inputs!$C$1,Outputs_Internal!J$4,0)*$D36</f>
+        <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D36</f>
         <v>0</v>
       </c>
       <c r="J36" s="67">
-        <f>IF($B36=Inputs!$C$1,Outputs_Internal!K$4,0)*$D36</f>
+        <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D36</f>
         <v>0</v>
       </c>
       <c r="K36" s="67">
-        <f>IF($B36=Inputs!$C$1,Outputs_Internal!L$4,0)*$D36</f>
+        <f>IF($B36=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D36</f>
         <v>0</v>
       </c>
       <c r="M36" s="67">
-        <f>$F36*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F36*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N36" s="67">
-        <f>$F36*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F36*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O36" s="67">
-        <f>$F36*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F36*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P36" s="67">
-        <f>$F36*Outputs_Internal!L$50/12</f>
+        <f>$F36*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R36" s="67">
@@ -5975,35 +6013,35 @@
         <v>1</v>
       </c>
       <c r="H37" s="67">
-        <f>IF($B37=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D37</f>
+        <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D37</f>
         <v>0</v>
       </c>
       <c r="I37" s="67">
-        <f>IF($B37=Inputs!$C$1,Outputs_Internal!J$4,0)*$D37</f>
+        <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D37</f>
         <v>0</v>
       </c>
       <c r="J37" s="67">
-        <f>IF($B37=Inputs!$C$1,Outputs_Internal!K$4,0)*$D37</f>
+        <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D37</f>
         <v>0</v>
       </c>
       <c r="K37" s="67">
-        <f>IF($B37=Inputs!$C$1,Outputs_Internal!L$4,0)*$D37</f>
+        <f>IF($B37=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D37</f>
         <v>0</v>
       </c>
       <c r="M37" s="67">
-        <f>$F37*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F37*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N37" s="67">
-        <f>$F37*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F37*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O37" s="67">
-        <f>$F37*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F37*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P37" s="67">
-        <f>$F37*Outputs_Internal!L$50/12</f>
+        <f>$F37*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R37" s="67">
@@ -6041,48 +6079,48 @@
         <v>1</v>
       </c>
       <c r="H38" s="67">
-        <f>IF($B38=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D38</f>
+        <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="67">
-        <f>IF($B38=Inputs!$C$1,Outputs_Internal!J$4,0)*$D38</f>
+        <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D38</f>
         <v>0</v>
       </c>
       <c r="J38" s="67">
-        <f>IF($B38=Inputs!$C$1,Outputs_Internal!K$4,0)*$D38</f>
+        <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D38</f>
         <v>0</v>
       </c>
       <c r="K38" s="67">
-        <f>IF($B38=Inputs!$C$1,Outputs_Internal!L$4,0)*$D38</f>
+        <f>IF($B38=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D38</f>
         <v>0</v>
       </c>
       <c r="M38" s="67">
-        <f>$F38*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F38*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N38" s="67">
-        <f>$F38*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F38*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O38" s="67">
-        <f>$F38*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F38*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P38" s="67">
-        <f>$F38*Outputs_Internal!L$50/12</f>
+        <f>$F38*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R38" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="5"/>
@@ -6107,35 +6145,35 @@
         <v>1</v>
       </c>
       <c r="H39" s="67">
-        <f>IF($B39=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D39</f>
+        <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D39</f>
         <v>0</v>
       </c>
       <c r="I39" s="67">
-        <f>IF($B39=Inputs!$C$1,Outputs_Internal!J$4,0)*$D39</f>
+        <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D39</f>
         <v>0</v>
       </c>
       <c r="J39" s="67">
-        <f>IF($B39=Inputs!$C$1,Outputs_Internal!K$4,0)*$D39</f>
+        <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D39</f>
         <v>0</v>
       </c>
       <c r="K39" s="67">
-        <f>IF($B39=Inputs!$C$1,Outputs_Internal!L$4,0)*$D39</f>
+        <f>IF($B39=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D39</f>
         <v>0</v>
       </c>
       <c r="M39" s="67">
-        <f>$F39*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F39*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N39" s="67">
-        <f>$F39*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F39*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O39" s="67">
-        <f>$F39*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F39*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P39" s="67">
-        <f>$F39*Outputs_Internal!L$50/12</f>
+        <f>$F39*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R39" s="67">
@@ -6173,35 +6211,35 @@
         <v>1</v>
       </c>
       <c r="H40" s="67">
-        <f>IF($B40=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D40</f>
+        <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D40</f>
         <v>0</v>
       </c>
       <c r="I40" s="67">
-        <f>IF($B40=Inputs!$C$1,Outputs_Internal!J$4,0)*$D40</f>
+        <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D40</f>
         <v>0</v>
       </c>
       <c r="J40" s="67">
-        <f>IF($B40=Inputs!$C$1,Outputs_Internal!K$4,0)*$D40</f>
+        <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D40</f>
         <v>0</v>
       </c>
       <c r="K40" s="67">
-        <f>IF($B40=Inputs!$C$1,Outputs_Internal!L$4,0)*$D40</f>
+        <f>IF($B40=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D40</f>
         <v>0</v>
       </c>
       <c r="M40" s="67">
-        <f>$F40*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F40*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N40" s="67">
-        <f>$F40*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F40*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O40" s="67">
-        <f>$F40*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F40*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P40" s="67">
-        <f>$F40*Outputs_Internal!L$50/12</f>
+        <f>$F40*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R40" s="67">
@@ -6239,48 +6277,48 @@
         <v>1</v>
       </c>
       <c r="H41" s="67">
-        <f>IF($B41=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D41</f>
+        <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D41</f>
         <v>0</v>
       </c>
       <c r="I41" s="67">
-        <f>IF($B41=Inputs!$C$1,Outputs_Internal!J$4,0)*$D41</f>
+        <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D41</f>
         <v>0</v>
       </c>
       <c r="J41" s="67">
-        <f>IF($B41=Inputs!$C$1,Outputs_Internal!K$4,0)*$D41</f>
+        <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D41</f>
         <v>0</v>
       </c>
       <c r="K41" s="67">
-        <f>IF($B41=Inputs!$C$1,Outputs_Internal!L$4,0)*$D41</f>
+        <f>IF($B41=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D41</f>
         <v>0</v>
       </c>
       <c r="M41" s="67">
-        <f>$F41*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F41*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N41" s="67">
-        <f>$F41*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F41*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O41" s="67">
-        <f>$F41*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F41*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P41" s="67">
-        <f>$F41*Outputs_Internal!L$50/12</f>
+        <f>$F41*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R41" s="67">
         <f t="shared" si="2"/>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="5"/>
@@ -6305,35 +6343,35 @@
         <v>1</v>
       </c>
       <c r="H42" s="67">
-        <f>IF($B42=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D42</f>
+        <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D42</f>
         <v>0</v>
       </c>
       <c r="I42" s="67">
-        <f>IF($B42=Inputs!$C$1,Outputs_Internal!J$4,0)*$D42</f>
+        <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D42</f>
         <v>0</v>
       </c>
       <c r="J42" s="67">
-        <f>IF($B42=Inputs!$C$1,Outputs_Internal!K$4,0)*$D42</f>
+        <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D42</f>
         <v>0</v>
       </c>
       <c r="K42" s="67">
-        <f>IF($B42=Inputs!$C$1,Outputs_Internal!L$4,0)*$D42</f>
+        <f>IF($B42=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D42</f>
         <v>0</v>
       </c>
       <c r="M42" s="67">
-        <f>$F42*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F42*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N42" s="67">
-        <f>$F42*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F42*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O42" s="67">
-        <f>$F42*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F42*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P42" s="67">
-        <f>$F42*Outputs_Internal!L$50/12</f>
+        <f>$F42*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R42" s="67">
@@ -6371,35 +6409,35 @@
         <v>1</v>
       </c>
       <c r="H43" s="67">
-        <f>IF($B43=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D43</f>
+        <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D43</f>
         <v>0</v>
       </c>
       <c r="I43" s="67">
-        <f>IF($B43=Inputs!$C$1,Outputs_Internal!J$4,0)*$D43</f>
+        <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D43</f>
         <v>0</v>
       </c>
       <c r="J43" s="67">
-        <f>IF($B43=Inputs!$C$1,Outputs_Internal!K$4,0)*$D43</f>
+        <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D43</f>
         <v>0</v>
       </c>
       <c r="K43" s="67">
-        <f>IF($B43=Inputs!$C$1,Outputs_Internal!L$4,0)*$D43</f>
+        <f>IF($B43=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D43</f>
         <v>0</v>
       </c>
       <c r="M43" s="67">
-        <f>$F43*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F43*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N43" s="67">
-        <f>$F43*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F43*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O43" s="67">
-        <f>$F43*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F43*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P43" s="67">
-        <f>$F43*Outputs_Internal!L$50/12</f>
+        <f>$F43*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R43" s="67">
@@ -6437,48 +6475,48 @@
         <v>1</v>
       </c>
       <c r="H44" s="67">
-        <f>IF($B44=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D44</f>
+        <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D44</f>
         <v>0</v>
       </c>
       <c r="I44" s="67">
-        <f>IF($B44=Inputs!$C$1,Outputs_Internal!J$4,0)*$D44</f>
+        <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D44</f>
         <v>0</v>
       </c>
       <c r="J44" s="67">
-        <f>IF($B44=Inputs!$C$1,Outputs_Internal!K$4,0)*$D44</f>
+        <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D44</f>
         <v>0</v>
       </c>
       <c r="K44" s="67">
-        <f>IF($B44=Inputs!$C$1,Outputs_Internal!L$4,0)*$D44</f>
+        <f>IF($B44=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D44</f>
         <v>0</v>
       </c>
       <c r="M44" s="67">
-        <f>$F44*Outputs_Internal!$D$50/12</f>
-        <v>3925</v>
+        <f>$F44*Outputs_Internal!$D$51/12</f>
+        <v>6466.666666666667</v>
       </c>
       <c r="N44" s="67">
-        <f>$F44*Outputs_Internal!J$50/12</f>
-        <v>1685</v>
+        <f>$F44*Outputs_Internal!J$51/12</f>
+        <v>2225</v>
       </c>
       <c r="O44" s="67">
-        <f>$F44*Outputs_Internal!K$50/12</f>
-        <v>2240</v>
+        <f>$F44*Outputs_Internal!K$51/12</f>
+        <v>4241.666666666667</v>
       </c>
       <c r="P44" s="67">
-        <f>$F44*Outputs_Internal!L$50/12</f>
+        <f>$F44*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>11775</v>
+        <v>19400</v>
       </c>
       <c r="S44" s="67">
         <f t="shared" si="3"/>
-        <v>5055</v>
+        <v>6675</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="4"/>
-        <v>6720</v>
+        <v>12725</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="5"/>
@@ -6503,35 +6541,35 @@
         <v>0</v>
       </c>
       <c r="H45" s="67">
-        <f>IF($B45=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D45</f>
+        <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D45</f>
         <v>0</v>
       </c>
       <c r="I45" s="67">
-        <f>IF($B45=Inputs!$C$1,Outputs_Internal!J$4,0)*$D45</f>
+        <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D45</f>
         <v>0</v>
       </c>
       <c r="J45" s="67">
-        <f>IF($B45=Inputs!$C$1,Outputs_Internal!K$4,0)*$D45</f>
+        <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D45</f>
         <v>0</v>
       </c>
       <c r="K45" s="67">
-        <f>IF($B45=Inputs!$C$1,Outputs_Internal!L$4,0)*$D45</f>
+        <f>IF($B45=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D45</f>
         <v>0</v>
       </c>
       <c r="M45" s="67">
-        <f>$F45*Outputs_Internal!$D$50/12</f>
+        <f>$F45*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N45" s="67">
-        <f>$F45*Outputs_Internal!J$50/12</f>
+        <f>$F45*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O45" s="67">
-        <f>$F45*Outputs_Internal!K$50/12</f>
+        <f>$F45*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P45" s="67">
-        <f>$F45*Outputs_Internal!L$50/12</f>
+        <f>$F45*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R45" s="67">
@@ -6569,35 +6607,35 @@
         <v>0</v>
       </c>
       <c r="H46" s="67">
-        <f>IF($B46=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D46</f>
+        <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D46</f>
         <v>0</v>
       </c>
       <c r="I46" s="67">
-        <f>IF($B46=Inputs!$C$1,Outputs_Internal!J$4,0)*$D46</f>
+        <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D46</f>
         <v>0</v>
       </c>
       <c r="J46" s="67">
-        <f>IF($B46=Inputs!$C$1,Outputs_Internal!K$4,0)*$D46</f>
+        <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D46</f>
         <v>0</v>
       </c>
       <c r="K46" s="67">
-        <f>IF($B46=Inputs!$C$1,Outputs_Internal!L$4,0)*$D46</f>
+        <f>IF($B46=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D46</f>
         <v>0</v>
       </c>
       <c r="M46" s="67">
-        <f>$F46*Outputs_Internal!$D$50/12</f>
+        <f>$F46*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N46" s="67">
-        <f>$F46*Outputs_Internal!J$50/12</f>
+        <f>$F46*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O46" s="67">
-        <f>$F46*Outputs_Internal!K$50/12</f>
+        <f>$F46*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P46" s="67">
-        <f>$F46*Outputs_Internal!L$50/12</f>
+        <f>$F46*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R46" s="67">
@@ -6635,35 +6673,35 @@
         <v>0</v>
       </c>
       <c r="H47" s="67">
-        <f>IF($B47=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D47</f>
+        <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D47</f>
         <v>0</v>
       </c>
       <c r="I47" s="67">
-        <f>IF($B47=Inputs!$C$1,Outputs_Internal!J$4,0)*$D47</f>
+        <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D47</f>
         <v>0</v>
       </c>
       <c r="J47" s="67">
-        <f>IF($B47=Inputs!$C$1,Outputs_Internal!K$4,0)*$D47</f>
+        <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D47</f>
         <v>0</v>
       </c>
       <c r="K47" s="67">
-        <f>IF($B47=Inputs!$C$1,Outputs_Internal!L$4,0)*$D47</f>
+        <f>IF($B47=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D47</f>
         <v>0</v>
       </c>
       <c r="M47" s="67">
-        <f>$F47*Outputs_Internal!$D$50/12</f>
+        <f>$F47*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N47" s="67">
-        <f>$F47*Outputs_Internal!J$50/12</f>
+        <f>$F47*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O47" s="67">
-        <f>$F47*Outputs_Internal!K$50/12</f>
+        <f>$F47*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P47" s="67">
-        <f>$F47*Outputs_Internal!L$50/12</f>
+        <f>$F47*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R47" s="67">
@@ -6701,35 +6739,35 @@
         <v>0</v>
       </c>
       <c r="H48" s="67">
-        <f>IF($B48=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D48</f>
+        <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D48</f>
         <v>0</v>
       </c>
       <c r="I48" s="67">
-        <f>IF($B48=Inputs!$C$1,Outputs_Internal!J$4,0)*$D48</f>
+        <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D48</f>
         <v>0</v>
       </c>
       <c r="J48" s="67">
-        <f>IF($B48=Inputs!$C$1,Outputs_Internal!K$4,0)*$D48</f>
+        <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D48</f>
         <v>0</v>
       </c>
       <c r="K48" s="67">
-        <f>IF($B48=Inputs!$C$1,Outputs_Internal!L$4,0)*$D48</f>
+        <f>IF($B48=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D48</f>
         <v>0</v>
       </c>
       <c r="M48" s="67">
-        <f>$F48*Outputs_Internal!$D$50/12</f>
+        <f>$F48*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N48" s="67">
-        <f>$F48*Outputs_Internal!J$50/12</f>
+        <f>$F48*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O48" s="67">
-        <f>$F48*Outputs_Internal!K$50/12</f>
+        <f>$F48*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P48" s="67">
-        <f>$F48*Outputs_Internal!L$50/12</f>
+        <f>$F48*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R48" s="67">
@@ -6767,35 +6805,35 @@
         <v>0</v>
       </c>
       <c r="H49" s="67">
-        <f>IF($B49=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D49</f>
+        <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D49</f>
         <v>0</v>
       </c>
       <c r="I49" s="67">
-        <f>IF($B49=Inputs!$C$1,Outputs_Internal!J$4,0)*$D49</f>
+        <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D49</f>
         <v>0</v>
       </c>
       <c r="J49" s="67">
-        <f>IF($B49=Inputs!$C$1,Outputs_Internal!K$4,0)*$D49</f>
+        <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D49</f>
         <v>0</v>
       </c>
       <c r="K49" s="67">
-        <f>IF($B49=Inputs!$C$1,Outputs_Internal!L$4,0)*$D49</f>
+        <f>IF($B49=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D49</f>
         <v>0</v>
       </c>
       <c r="M49" s="67">
-        <f>$F49*Outputs_Internal!$D$50/12</f>
+        <f>$F49*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N49" s="67">
-        <f>$F49*Outputs_Internal!J$50/12</f>
+        <f>$F49*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O49" s="67">
-        <f>$F49*Outputs_Internal!K$50/12</f>
+        <f>$F49*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P49" s="67">
-        <f>$F49*Outputs_Internal!L$50/12</f>
+        <f>$F49*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R49" s="67">
@@ -6833,35 +6871,35 @@
         <v>0</v>
       </c>
       <c r="H50" s="67">
-        <f>IF($B50=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D50</f>
+        <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D50</f>
         <v>0</v>
       </c>
       <c r="I50" s="67">
-        <f>IF($B50=Inputs!$C$1,Outputs_Internal!J$4,0)*$D50</f>
+        <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D50</f>
         <v>0</v>
       </c>
       <c r="J50" s="67">
-        <f>IF($B50=Inputs!$C$1,Outputs_Internal!K$4,0)*$D50</f>
+        <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D50</f>
         <v>0</v>
       </c>
       <c r="K50" s="67">
-        <f>IF($B50=Inputs!$C$1,Outputs_Internal!L$4,0)*$D50</f>
+        <f>IF($B50=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D50</f>
         <v>0</v>
       </c>
       <c r="M50" s="67">
-        <f>$F50*Outputs_Internal!$D$50/12</f>
+        <f>$F50*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N50" s="67">
-        <f>$F50*Outputs_Internal!J$50/12</f>
+        <f>$F50*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O50" s="67">
-        <f>$F50*Outputs_Internal!K$50/12</f>
+        <f>$F50*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P50" s="67">
-        <f>$F50*Outputs_Internal!L$50/12</f>
+        <f>$F50*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R50" s="67">
@@ -6899,35 +6937,35 @@
         <v>0</v>
       </c>
       <c r="H51" s="67">
-        <f>IF($B51=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D51</f>
+        <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D51</f>
         <v>0</v>
       </c>
       <c r="I51" s="67">
-        <f>IF($B51=Inputs!$C$1,Outputs_Internal!J$4,0)*$D51</f>
+        <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D51</f>
         <v>0</v>
       </c>
       <c r="J51" s="67">
-        <f>IF($B51=Inputs!$C$1,Outputs_Internal!K$4,0)*$D51</f>
+        <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D51</f>
         <v>0</v>
       </c>
       <c r="K51" s="67">
-        <f>IF($B51=Inputs!$C$1,Outputs_Internal!L$4,0)*$D51</f>
+        <f>IF($B51=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D51</f>
         <v>0</v>
       </c>
       <c r="M51" s="67">
-        <f>$F51*Outputs_Internal!$D$50/12</f>
+        <f>$F51*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N51" s="67">
-        <f>$F51*Outputs_Internal!J$50/12</f>
+        <f>$F51*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O51" s="67">
-        <f>$F51*Outputs_Internal!K$50/12</f>
+        <f>$F51*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P51" s="67">
-        <f>$F51*Outputs_Internal!L$50/12</f>
+        <f>$F51*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R51" s="67">
@@ -6965,35 +7003,35 @@
         <v>0</v>
       </c>
       <c r="H52" s="67">
-        <f>IF($B52=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D52</f>
+        <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D52</f>
         <v>0</v>
       </c>
       <c r="I52" s="67">
-        <f>IF($B52=Inputs!$C$1,Outputs_Internal!J$4,0)*$D52</f>
+        <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D52</f>
         <v>0</v>
       </c>
       <c r="J52" s="67">
-        <f>IF($B52=Inputs!$C$1,Outputs_Internal!K$4,0)*$D52</f>
+        <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D52</f>
         <v>0</v>
       </c>
       <c r="K52" s="67">
-        <f>IF($B52=Inputs!$C$1,Outputs_Internal!L$4,0)*$D52</f>
+        <f>IF($B52=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D52</f>
         <v>0</v>
       </c>
       <c r="M52" s="67">
-        <f>$F52*Outputs_Internal!$D$50/12</f>
+        <f>$F52*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N52" s="67">
-        <f>$F52*Outputs_Internal!J$50/12</f>
+        <f>$F52*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O52" s="67">
-        <f>$F52*Outputs_Internal!K$50/12</f>
+        <f>$F52*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P52" s="67">
-        <f>$F52*Outputs_Internal!L$50/12</f>
+        <f>$F52*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R52" s="67">
@@ -7031,35 +7069,35 @@
         <v>0</v>
       </c>
       <c r="H53" s="67">
-        <f>IF($B53=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D53</f>
+        <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D53</f>
         <v>0</v>
       </c>
       <c r="I53" s="67">
-        <f>IF($B53=Inputs!$C$1,Outputs_Internal!J$4,0)*$D53</f>
+        <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D53</f>
         <v>0</v>
       </c>
       <c r="J53" s="67">
-        <f>IF($B53=Inputs!$C$1,Outputs_Internal!K$4,0)*$D53</f>
+        <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D53</f>
         <v>0</v>
       </c>
       <c r="K53" s="67">
-        <f>IF($B53=Inputs!$C$1,Outputs_Internal!L$4,0)*$D53</f>
+        <f>IF($B53=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D53</f>
         <v>0</v>
       </c>
       <c r="M53" s="67">
-        <f>$F53*Outputs_Internal!$D$50/12</f>
+        <f>$F53*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N53" s="67">
-        <f>$F53*Outputs_Internal!J$50/12</f>
+        <f>$F53*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O53" s="67">
-        <f>$F53*Outputs_Internal!K$50/12</f>
+        <f>$F53*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P53" s="67">
-        <f>$F53*Outputs_Internal!L$50/12</f>
+        <f>$F53*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R53" s="67">
@@ -7097,35 +7135,35 @@
         <v>0</v>
       </c>
       <c r="H54" s="67">
-        <f>IF($B54=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D54</f>
+        <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D54</f>
         <v>0</v>
       </c>
       <c r="I54" s="67">
-        <f>IF($B54=Inputs!$C$1,Outputs_Internal!J$4,0)*$D54</f>
+        <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D54</f>
         <v>0</v>
       </c>
       <c r="J54" s="67">
-        <f>IF($B54=Inputs!$C$1,Outputs_Internal!K$4,0)*$D54</f>
+        <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D54</f>
         <v>0</v>
       </c>
       <c r="K54" s="67">
-        <f>IF($B54=Inputs!$C$1,Outputs_Internal!L$4,0)*$D54</f>
+        <f>IF($B54=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D54</f>
         <v>0</v>
       </c>
       <c r="M54" s="67">
-        <f>$F54*Outputs_Internal!$D$50/12</f>
+        <f>$F54*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N54" s="67">
-        <f>$F54*Outputs_Internal!J$50/12</f>
+        <f>$F54*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O54" s="67">
-        <f>$F54*Outputs_Internal!K$50/12</f>
+        <f>$F54*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P54" s="67">
-        <f>$F54*Outputs_Internal!L$50/12</f>
+        <f>$F54*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R54" s="67">
@@ -7163,35 +7201,35 @@
         <v>0</v>
       </c>
       <c r="H55" s="67">
-        <f>IF($B55=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D55</f>
+        <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D55</f>
         <v>0</v>
       </c>
       <c r="I55" s="67">
-        <f>IF($B55=Inputs!$C$1,Outputs_Internal!J$4,0)*$D55</f>
+        <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D55</f>
         <v>0</v>
       </c>
       <c r="J55" s="67">
-        <f>IF($B55=Inputs!$C$1,Outputs_Internal!K$4,0)*$D55</f>
+        <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D55</f>
         <v>0</v>
       </c>
       <c r="K55" s="67">
-        <f>IF($B55=Inputs!$C$1,Outputs_Internal!L$4,0)*$D55</f>
+        <f>IF($B55=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D55</f>
         <v>0</v>
       </c>
       <c r="M55" s="67">
-        <f>$F55*Outputs_Internal!$D$50/12</f>
+        <f>$F55*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N55" s="67">
-        <f>$F55*Outputs_Internal!J$50/12</f>
+        <f>$F55*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O55" s="67">
-        <f>$F55*Outputs_Internal!K$50/12</f>
+        <f>$F55*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P55" s="67">
-        <f>$F55*Outputs_Internal!L$50/12</f>
+        <f>$F55*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R55" s="67">
@@ -7229,35 +7267,35 @@
         <v>0</v>
       </c>
       <c r="H56" s="67">
-        <f>IF($B56=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D56</f>
+        <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D56</f>
         <v>0</v>
       </c>
       <c r="I56" s="67">
-        <f>IF($B56=Inputs!$C$1,Outputs_Internal!J$4,0)*$D56</f>
+        <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D56</f>
         <v>0</v>
       </c>
       <c r="J56" s="67">
-        <f>IF($B56=Inputs!$C$1,Outputs_Internal!K$4,0)*$D56</f>
+        <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D56</f>
         <v>0</v>
       </c>
       <c r="K56" s="67">
-        <f>IF($B56=Inputs!$C$1,Outputs_Internal!L$4,0)*$D56</f>
+        <f>IF($B56=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D56</f>
         <v>0</v>
       </c>
       <c r="M56" s="67">
-        <f>$F56*Outputs_Internal!$D$50/12</f>
+        <f>$F56*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N56" s="67">
-        <f>$F56*Outputs_Internal!J$50/12</f>
+        <f>$F56*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O56" s="67">
-        <f>$F56*Outputs_Internal!K$50/12</f>
+        <f>$F56*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P56" s="67">
-        <f>$F56*Outputs_Internal!L$50/12</f>
+        <f>$F56*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R56" s="67">
@@ -7295,35 +7333,35 @@
         <v>0</v>
       </c>
       <c r="H57" s="67">
-        <f>IF($B57=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D57</f>
+        <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D57</f>
         <v>0</v>
       </c>
       <c r="I57" s="67">
-        <f>IF($B57=Inputs!$C$1,Outputs_Internal!J$4,0)*$D57</f>
+        <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D57</f>
         <v>0</v>
       </c>
       <c r="J57" s="67">
-        <f>IF($B57=Inputs!$C$1,Outputs_Internal!K$4,0)*$D57</f>
+        <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D57</f>
         <v>0</v>
       </c>
       <c r="K57" s="67">
-        <f>IF($B57=Inputs!$C$1,Outputs_Internal!L$4,0)*$D57</f>
+        <f>IF($B57=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D57</f>
         <v>0</v>
       </c>
       <c r="M57" s="67">
-        <f>$F57*Outputs_Internal!$D$50/12</f>
+        <f>$F57*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N57" s="67">
-        <f>$F57*Outputs_Internal!J$50/12</f>
+        <f>$F57*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O57" s="67">
-        <f>$F57*Outputs_Internal!K$50/12</f>
+        <f>$F57*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P57" s="67">
-        <f>$F57*Outputs_Internal!L$50/12</f>
+        <f>$F57*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R57" s="67">
@@ -7361,35 +7399,35 @@
         <v>0</v>
       </c>
       <c r="H58" s="67">
-        <f>IF($B58=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D58</f>
+        <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D58</f>
         <v>0</v>
       </c>
       <c r="I58" s="67">
-        <f>IF($B58=Inputs!$C$1,Outputs_Internal!J$4,0)*$D58</f>
+        <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D58</f>
         <v>0</v>
       </c>
       <c r="J58" s="67">
-        <f>IF($B58=Inputs!$C$1,Outputs_Internal!K$4,0)*$D58</f>
+        <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D58</f>
         <v>0</v>
       </c>
       <c r="K58" s="67">
-        <f>IF($B58=Inputs!$C$1,Outputs_Internal!L$4,0)*$D58</f>
+        <f>IF($B58=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D58</f>
         <v>0</v>
       </c>
       <c r="M58" s="67">
-        <f>$F58*Outputs_Internal!$D$50/12</f>
+        <f>$F58*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N58" s="67">
-        <f>$F58*Outputs_Internal!J$50/12</f>
+        <f>$F58*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O58" s="67">
-        <f>$F58*Outputs_Internal!K$50/12</f>
+        <f>$F58*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P58" s="67">
-        <f>$F58*Outputs_Internal!L$50/12</f>
+        <f>$F58*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R58" s="67">
@@ -7427,35 +7465,35 @@
         <v>0</v>
       </c>
       <c r="H59" s="67">
-        <f>IF($B59=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D59</f>
+        <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D59</f>
         <v>0</v>
       </c>
       <c r="I59" s="67">
-        <f>IF($B59=Inputs!$C$1,Outputs_Internal!J$4,0)*$D59</f>
+        <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D59</f>
         <v>0</v>
       </c>
       <c r="J59" s="67">
-        <f>IF($B59=Inputs!$C$1,Outputs_Internal!K$4,0)*$D59</f>
+        <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D59</f>
         <v>0</v>
       </c>
       <c r="K59" s="67">
-        <f>IF($B59=Inputs!$C$1,Outputs_Internal!L$4,0)*$D59</f>
+        <f>IF($B59=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D59</f>
         <v>0</v>
       </c>
       <c r="M59" s="67">
-        <f>$F59*Outputs_Internal!$D$50/12</f>
+        <f>$F59*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N59" s="67">
-        <f>$F59*Outputs_Internal!J$50/12</f>
+        <f>$F59*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O59" s="67">
-        <f>$F59*Outputs_Internal!K$50/12</f>
+        <f>$F59*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P59" s="67">
-        <f>$F59*Outputs_Internal!L$50/12</f>
+        <f>$F59*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R59" s="67">
@@ -7493,35 +7531,35 @@
         <v>0</v>
       </c>
       <c r="H60" s="67">
-        <f>IF($B60=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D60</f>
+        <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D60</f>
         <v>0</v>
       </c>
       <c r="I60" s="67">
-        <f>IF($B60=Inputs!$C$1,Outputs_Internal!J$4,0)*$D60</f>
+        <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D60</f>
         <v>0</v>
       </c>
       <c r="J60" s="67">
-        <f>IF($B60=Inputs!$C$1,Outputs_Internal!K$4,0)*$D60</f>
+        <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D60</f>
         <v>0</v>
       </c>
       <c r="K60" s="67">
-        <f>IF($B60=Inputs!$C$1,Outputs_Internal!L$4,0)*$D60</f>
+        <f>IF($B60=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D60</f>
         <v>0</v>
       </c>
       <c r="M60" s="67">
-        <f>$F60*Outputs_Internal!$D$50/12</f>
+        <f>$F60*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N60" s="67">
-        <f>$F60*Outputs_Internal!J$50/12</f>
+        <f>$F60*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O60" s="67">
-        <f>$F60*Outputs_Internal!K$50/12</f>
+        <f>$F60*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P60" s="67">
-        <f>$F60*Outputs_Internal!L$50/12</f>
+        <f>$F60*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R60" s="67">
@@ -7559,35 +7597,35 @@
         <v>0</v>
       </c>
       <c r="H61" s="67">
-        <f>IF($B61=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D61</f>
+        <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D61</f>
         <v>0</v>
       </c>
       <c r="I61" s="67">
-        <f>IF($B61=Inputs!$C$1,Outputs_Internal!J$4,0)*$D61</f>
+        <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D61</f>
         <v>0</v>
       </c>
       <c r="J61" s="67">
-        <f>IF($B61=Inputs!$C$1,Outputs_Internal!K$4,0)*$D61</f>
+        <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D61</f>
         <v>0</v>
       </c>
       <c r="K61" s="67">
-        <f>IF($B61=Inputs!$C$1,Outputs_Internal!L$4,0)*$D61</f>
+        <f>IF($B61=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D61</f>
         <v>0</v>
       </c>
       <c r="M61" s="67">
-        <f>$F61*Outputs_Internal!$D$50/12</f>
+        <f>$F61*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N61" s="67">
-        <f>$F61*Outputs_Internal!J$50/12</f>
+        <f>$F61*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O61" s="67">
-        <f>$F61*Outputs_Internal!K$50/12</f>
+        <f>$F61*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P61" s="67">
-        <f>$F61*Outputs_Internal!L$50/12</f>
+        <f>$F61*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R61" s="67">
@@ -7625,35 +7663,35 @@
         <v>0</v>
       </c>
       <c r="H62" s="67">
-        <f>IF($B62=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D62</f>
+        <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D62</f>
         <v>0</v>
       </c>
       <c r="I62" s="67">
-        <f>IF($B62=Inputs!$C$1,Outputs_Internal!J$4,0)*$D62</f>
+        <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D62</f>
         <v>0</v>
       </c>
       <c r="J62" s="67">
-        <f>IF($B62=Inputs!$C$1,Outputs_Internal!K$4,0)*$D62</f>
+        <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D62</f>
         <v>0</v>
       </c>
       <c r="K62" s="67">
-        <f>IF($B62=Inputs!$C$1,Outputs_Internal!L$4,0)*$D62</f>
+        <f>IF($B62=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D62</f>
         <v>0</v>
       </c>
       <c r="M62" s="67">
-        <f>$F62*Outputs_Internal!$D$50/12</f>
+        <f>$F62*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N62" s="67">
-        <f>$F62*Outputs_Internal!J$50/12</f>
+        <f>$F62*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O62" s="67">
-        <f>$F62*Outputs_Internal!K$50/12</f>
+        <f>$F62*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P62" s="67">
-        <f>$F62*Outputs_Internal!L$50/12</f>
+        <f>$F62*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R62" s="67">
@@ -7691,35 +7729,35 @@
         <v>0</v>
       </c>
       <c r="H63" s="67">
-        <f>IF($B63=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D63</f>
+        <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D63</f>
         <v>0</v>
       </c>
       <c r="I63" s="67">
-        <f>IF($B63=Inputs!$C$1,Outputs_Internal!J$4,0)*$D63</f>
+        <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D63</f>
         <v>0</v>
       </c>
       <c r="J63" s="67">
-        <f>IF($B63=Inputs!$C$1,Outputs_Internal!K$4,0)*$D63</f>
+        <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D63</f>
         <v>0</v>
       </c>
       <c r="K63" s="67">
-        <f>IF($B63=Inputs!$C$1,Outputs_Internal!L$4,0)*$D63</f>
+        <f>IF($B63=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D63</f>
         <v>0</v>
       </c>
       <c r="M63" s="67">
-        <f>$F63*Outputs_Internal!$D$50/12</f>
+        <f>$F63*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N63" s="67">
-        <f>$F63*Outputs_Internal!J$50/12</f>
+        <f>$F63*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O63" s="67">
-        <f>$F63*Outputs_Internal!K$50/12</f>
+        <f>$F63*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P63" s="67">
-        <f>$F63*Outputs_Internal!L$50/12</f>
+        <f>$F63*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R63" s="67">
@@ -7757,35 +7795,35 @@
         <v>0</v>
       </c>
       <c r="H64" s="67">
-        <f>IF($B64=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D64</f>
+        <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D64</f>
         <v>0</v>
       </c>
       <c r="I64" s="67">
-        <f>IF($B64=Inputs!$C$1,Outputs_Internal!J$4,0)*$D64</f>
+        <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D64</f>
         <v>0</v>
       </c>
       <c r="J64" s="67">
-        <f>IF($B64=Inputs!$C$1,Outputs_Internal!K$4,0)*$D64</f>
+        <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D64</f>
         <v>0</v>
       </c>
       <c r="K64" s="67">
-        <f>IF($B64=Inputs!$C$1,Outputs_Internal!L$4,0)*$D64</f>
+        <f>IF($B64=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D64</f>
         <v>0</v>
       </c>
       <c r="M64" s="67">
-        <f>$F64*Outputs_Internal!$D$50/12</f>
+        <f>$F64*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N64" s="67">
-        <f>$F64*Outputs_Internal!J$50/12</f>
+        <f>$F64*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O64" s="67">
-        <f>$F64*Outputs_Internal!K$50/12</f>
+        <f>$F64*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P64" s="67">
-        <f>$F64*Outputs_Internal!L$50/12</f>
+        <f>$F64*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R64" s="67">
@@ -7823,35 +7861,35 @@
         <v>0</v>
       </c>
       <c r="H65" s="67">
-        <f>IF($B65=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D65</f>
+        <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D65</f>
         <v>0</v>
       </c>
       <c r="I65" s="67">
-        <f>IF($B65=Inputs!$C$1,Outputs_Internal!J$4,0)*$D65</f>
+        <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D65</f>
         <v>0</v>
       </c>
       <c r="J65" s="67">
-        <f>IF($B65=Inputs!$C$1,Outputs_Internal!K$4,0)*$D65</f>
+        <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D65</f>
         <v>0</v>
       </c>
       <c r="K65" s="67">
-        <f>IF($B65=Inputs!$C$1,Outputs_Internal!L$4,0)*$D65</f>
+        <f>IF($B65=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D65</f>
         <v>0</v>
       </c>
       <c r="M65" s="67">
-        <f>$F65*Outputs_Internal!$D$50/12</f>
+        <f>$F65*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N65" s="67">
-        <f>$F65*Outputs_Internal!J$50/12</f>
+        <f>$F65*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O65" s="67">
-        <f>$F65*Outputs_Internal!K$50/12</f>
+        <f>$F65*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P65" s="67">
-        <f>$F65*Outputs_Internal!L$50/12</f>
+        <f>$F65*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R65" s="67">
@@ -7889,35 +7927,35 @@
         <v>0</v>
       </c>
       <c r="H66" s="67">
-        <f>IF($B66=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D66</f>
+        <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D66</f>
         <v>0</v>
       </c>
       <c r="I66" s="67">
-        <f>IF($B66=Inputs!$C$1,Outputs_Internal!J$4,0)*$D66</f>
+        <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D66</f>
         <v>0</v>
       </c>
       <c r="J66" s="67">
-        <f>IF($B66=Inputs!$C$1,Outputs_Internal!K$4,0)*$D66</f>
+        <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D66</f>
         <v>0</v>
       </c>
       <c r="K66" s="67">
-        <f>IF($B66=Inputs!$C$1,Outputs_Internal!L$4,0)*$D66</f>
+        <f>IF($B66=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D66</f>
         <v>0</v>
       </c>
       <c r="M66" s="67">
-        <f>$F66*Outputs_Internal!$D$50/12</f>
+        <f>$F66*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N66" s="67">
-        <f>$F66*Outputs_Internal!J$50/12</f>
+        <f>$F66*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O66" s="67">
-        <f>$F66*Outputs_Internal!K$50/12</f>
+        <f>$F66*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P66" s="67">
-        <f>$F66*Outputs_Internal!L$50/12</f>
+        <f>$F66*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R66" s="67">
@@ -7955,35 +7993,35 @@
         <v>0</v>
       </c>
       <c r="H67" s="67">
-        <f>IF($B67=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D67</f>
+        <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D67</f>
         <v>0</v>
       </c>
       <c r="I67" s="67">
-        <f>IF($B67=Inputs!$C$1,Outputs_Internal!J$4,0)*$D67</f>
+        <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D67</f>
         <v>0</v>
       </c>
       <c r="J67" s="67">
-        <f>IF($B67=Inputs!$C$1,Outputs_Internal!K$4,0)*$D67</f>
+        <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D67</f>
         <v>0</v>
       </c>
       <c r="K67" s="67">
-        <f>IF($B67=Inputs!$C$1,Outputs_Internal!L$4,0)*$D67</f>
+        <f>IF($B67=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D67</f>
         <v>0</v>
       </c>
       <c r="M67" s="67">
-        <f>$F67*Outputs_Internal!$D$50/12</f>
+        <f>$F67*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N67" s="67">
-        <f>$F67*Outputs_Internal!J$50/12</f>
+        <f>$F67*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O67" s="67">
-        <f>$F67*Outputs_Internal!K$50/12</f>
+        <f>$F67*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P67" s="67">
-        <f>$F67*Outputs_Internal!L$50/12</f>
+        <f>$F67*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R67" s="67">
@@ -8021,35 +8059,35 @@
         <v>0</v>
       </c>
       <c r="H68" s="67">
-        <f>IF($B68=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D68</f>
+        <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D68</f>
         <v>0</v>
       </c>
       <c r="I68" s="67">
-        <f>IF($B68=Inputs!$C$1,Outputs_Internal!J$4,0)*$D68</f>
+        <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D68</f>
         <v>0</v>
       </c>
       <c r="J68" s="67">
-        <f>IF($B68=Inputs!$C$1,Outputs_Internal!K$4,0)*$D68</f>
+        <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D68</f>
         <v>0</v>
       </c>
       <c r="K68" s="67">
-        <f>IF($B68=Inputs!$C$1,Outputs_Internal!L$4,0)*$D68</f>
+        <f>IF($B68=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D68</f>
         <v>0</v>
       </c>
       <c r="M68" s="67">
-        <f>$F68*Outputs_Internal!$D$50/12</f>
+        <f>$F68*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N68" s="67">
-        <f>$F68*Outputs_Internal!J$50/12</f>
+        <f>$F68*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O68" s="67">
-        <f>$F68*Outputs_Internal!K$50/12</f>
+        <f>$F68*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P68" s="67">
-        <f>$F68*Outputs_Internal!L$50/12</f>
+        <f>$F68*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R68" s="67">
@@ -8087,35 +8125,35 @@
         <v>0</v>
       </c>
       <c r="H69" s="67">
-        <f>IF($B69=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D69</f>
+        <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D69</f>
         <v>0</v>
       </c>
       <c r="I69" s="67">
-        <f>IF($B69=Inputs!$C$1,Outputs_Internal!J$4,0)*$D69</f>
+        <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D69</f>
         <v>0</v>
       </c>
       <c r="J69" s="67">
-        <f>IF($B69=Inputs!$C$1,Outputs_Internal!K$4,0)*$D69</f>
+        <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D69</f>
         <v>0</v>
       </c>
       <c r="K69" s="67">
-        <f>IF($B69=Inputs!$C$1,Outputs_Internal!L$4,0)*$D69</f>
+        <f>IF($B69=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D69</f>
         <v>0</v>
       </c>
       <c r="M69" s="67">
-        <f>$F69*Outputs_Internal!$D$50/12</f>
+        <f>$F69*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N69" s="67">
-        <f>$F69*Outputs_Internal!J$50/12</f>
+        <f>$F69*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O69" s="67">
-        <f>$F69*Outputs_Internal!K$50/12</f>
+        <f>$F69*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P69" s="67">
-        <f>$F69*Outputs_Internal!L$50/12</f>
+        <f>$F69*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R69" s="67">
@@ -8153,35 +8191,35 @@
         <v>0</v>
       </c>
       <c r="H70" s="67">
-        <f>IF($B70=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D70</f>
+        <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D70</f>
         <v>0</v>
       </c>
       <c r="I70" s="67">
-        <f>IF($B70=Inputs!$C$1,Outputs_Internal!J$4,0)*$D70</f>
+        <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D70</f>
         <v>0</v>
       </c>
       <c r="J70" s="67">
-        <f>IF($B70=Inputs!$C$1,Outputs_Internal!K$4,0)*$D70</f>
+        <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D70</f>
         <v>0</v>
       </c>
       <c r="K70" s="67">
-        <f>IF($B70=Inputs!$C$1,Outputs_Internal!L$4,0)*$D70</f>
+        <f>IF($B70=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D70</f>
         <v>0</v>
       </c>
       <c r="M70" s="67">
-        <f>$F70*Outputs_Internal!$D$50/12</f>
+        <f>$F70*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N70" s="67">
-        <f>$F70*Outputs_Internal!J$50/12</f>
+        <f>$F70*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O70" s="67">
-        <f>$F70*Outputs_Internal!K$50/12</f>
+        <f>$F70*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P70" s="67">
-        <f>$F70*Outputs_Internal!L$50/12</f>
+        <f>$F70*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R70" s="67">
@@ -8219,35 +8257,35 @@
         <v>0</v>
       </c>
       <c r="H71" s="67">
-        <f>IF($B71=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D71</f>
+        <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D71</f>
         <v>0</v>
       </c>
       <c r="I71" s="67">
-        <f>IF($B71=Inputs!$C$1,Outputs_Internal!J$4,0)*$D71</f>
+        <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D71</f>
         <v>0</v>
       </c>
       <c r="J71" s="67">
-        <f>IF($B71=Inputs!$C$1,Outputs_Internal!K$4,0)*$D71</f>
+        <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D71</f>
         <v>0</v>
       </c>
       <c r="K71" s="67">
-        <f>IF($B71=Inputs!$C$1,Outputs_Internal!L$4,0)*$D71</f>
+        <f>IF($B71=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D71</f>
         <v>0</v>
       </c>
       <c r="M71" s="67">
-        <f>$F71*Outputs_Internal!$D$50/12</f>
+        <f>$F71*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N71" s="67">
-        <f>$F71*Outputs_Internal!J$50/12</f>
+        <f>$F71*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O71" s="67">
-        <f>$F71*Outputs_Internal!K$50/12</f>
+        <f>$F71*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P71" s="67">
-        <f>$F71*Outputs_Internal!L$50/12</f>
+        <f>$F71*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R71" s="67">
@@ -8285,35 +8323,35 @@
         <v>0</v>
       </c>
       <c r="H72" s="67">
-        <f>IF($B72=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D72</f>
+        <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D72</f>
         <v>0</v>
       </c>
       <c r="I72" s="67">
-        <f>IF($B72=Inputs!$C$1,Outputs_Internal!J$4,0)*$D72</f>
+        <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D72</f>
         <v>0</v>
       </c>
       <c r="J72" s="67">
-        <f>IF($B72=Inputs!$C$1,Outputs_Internal!K$4,0)*$D72</f>
+        <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D72</f>
         <v>0</v>
       </c>
       <c r="K72" s="67">
-        <f>IF($B72=Inputs!$C$1,Outputs_Internal!L$4,0)*$D72</f>
+        <f>IF($B72=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D72</f>
         <v>0</v>
       </c>
       <c r="M72" s="67">
-        <f>$F72*Outputs_Internal!$D$50/12</f>
+        <f>$F72*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N72" s="67">
-        <f>$F72*Outputs_Internal!J$50/12</f>
+        <f>$F72*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O72" s="67">
-        <f>$F72*Outputs_Internal!K$50/12</f>
+        <f>$F72*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P72" s="67">
-        <f>$F72*Outputs_Internal!L$50/12</f>
+        <f>$F72*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R72" s="67">
@@ -8351,35 +8389,35 @@
         <v>0</v>
       </c>
       <c r="H73" s="67">
-        <f>IF($B73=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D73</f>
+        <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D73</f>
         <v>0</v>
       </c>
       <c r="I73" s="67">
-        <f>IF($B73=Inputs!$C$1,Outputs_Internal!J$4,0)*$D73</f>
+        <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D73</f>
         <v>0</v>
       </c>
       <c r="J73" s="67">
-        <f>IF($B73=Inputs!$C$1,Outputs_Internal!K$4,0)*$D73</f>
+        <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D73</f>
         <v>0</v>
       </c>
       <c r="K73" s="67">
-        <f>IF($B73=Inputs!$C$1,Outputs_Internal!L$4,0)*$D73</f>
+        <f>IF($B73=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D73</f>
         <v>0</v>
       </c>
       <c r="M73" s="67">
-        <f>$F73*Outputs_Internal!$D$50/12</f>
+        <f>$F73*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N73" s="67">
-        <f>$F73*Outputs_Internal!J$50/12</f>
+        <f>$F73*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O73" s="67">
-        <f>$F73*Outputs_Internal!K$50/12</f>
+        <f>$F73*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P73" s="67">
-        <f>$F73*Outputs_Internal!L$50/12</f>
+        <f>$F73*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R73" s="67">
@@ -8417,35 +8455,35 @@
         <v>0</v>
       </c>
       <c r="H74" s="67">
-        <f>IF($B74=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D74</f>
+        <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D74</f>
         <v>0</v>
       </c>
       <c r="I74" s="67">
-        <f>IF($B74=Inputs!$C$1,Outputs_Internal!J$4,0)*$D74</f>
+        <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D74</f>
         <v>0</v>
       </c>
       <c r="J74" s="67">
-        <f>IF($B74=Inputs!$C$1,Outputs_Internal!K$4,0)*$D74</f>
+        <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D74</f>
         <v>0</v>
       </c>
       <c r="K74" s="67">
-        <f>IF($B74=Inputs!$C$1,Outputs_Internal!L$4,0)*$D74</f>
+        <f>IF($B74=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D74</f>
         <v>0</v>
       </c>
       <c r="M74" s="67">
-        <f>$F74*Outputs_Internal!$D$50/12</f>
+        <f>$F74*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N74" s="67">
-        <f>$F74*Outputs_Internal!J$50/12</f>
+        <f>$F74*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O74" s="67">
-        <f>$F74*Outputs_Internal!K$50/12</f>
+        <f>$F74*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P74" s="67">
-        <f>$F74*Outputs_Internal!L$50/12</f>
+        <f>$F74*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R74" s="67">
@@ -8483,35 +8521,35 @@
         <v>0</v>
       </c>
       <c r="H75" s="67">
-        <f>IF($B75=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D75</f>
+        <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D75</f>
         <v>0</v>
       </c>
       <c r="I75" s="67">
-        <f>IF($B75=Inputs!$C$1,Outputs_Internal!J$4,0)*$D75</f>
+        <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D75</f>
         <v>0</v>
       </c>
       <c r="J75" s="67">
-        <f>IF($B75=Inputs!$C$1,Outputs_Internal!K$4,0)*$D75</f>
+        <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D75</f>
         <v>0</v>
       </c>
       <c r="K75" s="67">
-        <f>IF($B75=Inputs!$C$1,Outputs_Internal!L$4,0)*$D75</f>
+        <f>IF($B75=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D75</f>
         <v>0</v>
       </c>
       <c r="M75" s="67">
-        <f>$F75*Outputs_Internal!$D$50/12</f>
+        <f>$F75*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N75" s="67">
-        <f>$F75*Outputs_Internal!J$50/12</f>
+        <f>$F75*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O75" s="67">
-        <f>$F75*Outputs_Internal!K$50/12</f>
+        <f>$F75*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P75" s="67">
-        <f>$F75*Outputs_Internal!L$50/12</f>
+        <f>$F75*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R75" s="67">
@@ -8549,35 +8587,35 @@
         <v>0</v>
       </c>
       <c r="H76" s="67">
-        <f>IF($B76=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D76</f>
+        <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D76</f>
         <v>0</v>
       </c>
       <c r="I76" s="67">
-        <f>IF($B76=Inputs!$C$1,Outputs_Internal!J$4,0)*$D76</f>
+        <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D76</f>
         <v>0</v>
       </c>
       <c r="J76" s="67">
-        <f>IF($B76=Inputs!$C$1,Outputs_Internal!K$4,0)*$D76</f>
+        <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D76</f>
         <v>0</v>
       </c>
       <c r="K76" s="67">
-        <f>IF($B76=Inputs!$C$1,Outputs_Internal!L$4,0)*$D76</f>
+        <f>IF($B76=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D76</f>
         <v>0</v>
       </c>
       <c r="M76" s="67">
-        <f>$F76*Outputs_Internal!$D$50/12</f>
+        <f>$F76*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N76" s="67">
-        <f>$F76*Outputs_Internal!J$50/12</f>
+        <f>$F76*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O76" s="67">
-        <f>$F76*Outputs_Internal!K$50/12</f>
+        <f>$F76*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P76" s="67">
-        <f>$F76*Outputs_Internal!L$50/12</f>
+        <f>$F76*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R76" s="67">
@@ -8615,35 +8653,35 @@
         <v>0</v>
       </c>
       <c r="H77" s="67">
-        <f>IF($B77=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D77</f>
+        <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D77</f>
         <v>0</v>
       </c>
       <c r="I77" s="67">
-        <f>IF($B77=Inputs!$C$1,Outputs_Internal!J$4,0)*$D77</f>
+        <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D77</f>
         <v>0</v>
       </c>
       <c r="J77" s="67">
-        <f>IF($B77=Inputs!$C$1,Outputs_Internal!K$4,0)*$D77</f>
+        <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D77</f>
         <v>0</v>
       </c>
       <c r="K77" s="67">
-        <f>IF($B77=Inputs!$C$1,Outputs_Internal!L$4,0)*$D77</f>
+        <f>IF($B77=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D77</f>
         <v>0</v>
       </c>
       <c r="M77" s="67">
-        <f>$F77*Outputs_Internal!$D$50/12</f>
+        <f>$F77*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N77" s="67">
-        <f>$F77*Outputs_Internal!J$50/12</f>
+        <f>$F77*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O77" s="67">
-        <f>$F77*Outputs_Internal!K$50/12</f>
+        <f>$F77*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P77" s="67">
-        <f>$F77*Outputs_Internal!L$50/12</f>
+        <f>$F77*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R77" s="67">
@@ -8681,35 +8719,35 @@
         <v>0</v>
       </c>
       <c r="H78" s="67">
-        <f>IF($B78=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D78</f>
+        <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D78</f>
         <v>0</v>
       </c>
       <c r="I78" s="67">
-        <f>IF($B78=Inputs!$C$1,Outputs_Internal!J$4,0)*$D78</f>
+        <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D78</f>
         <v>0</v>
       </c>
       <c r="J78" s="67">
-        <f>IF($B78=Inputs!$C$1,Outputs_Internal!K$4,0)*$D78</f>
+        <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D78</f>
         <v>0</v>
       </c>
       <c r="K78" s="67">
-        <f>IF($B78=Inputs!$C$1,Outputs_Internal!L$4,0)*$D78</f>
+        <f>IF($B78=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="67">
-        <f>$F78*Outputs_Internal!$D$50/12</f>
+        <f>$F78*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N78" s="67">
-        <f>$F78*Outputs_Internal!J$50/12</f>
+        <f>$F78*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O78" s="67">
-        <f>$F78*Outputs_Internal!K$50/12</f>
+        <f>$F78*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P78" s="67">
-        <f>$F78*Outputs_Internal!L$50/12</f>
+        <f>$F78*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R78" s="67">
@@ -8747,35 +8785,35 @@
         <v>0</v>
       </c>
       <c r="H79" s="67">
-        <f>IF($B79=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D79</f>
+        <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D79</f>
         <v>0</v>
       </c>
       <c r="I79" s="67">
-        <f>IF($B79=Inputs!$C$1,Outputs_Internal!J$4,0)*$D79</f>
+        <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D79</f>
         <v>0</v>
       </c>
       <c r="J79" s="67">
-        <f>IF($B79=Inputs!$C$1,Outputs_Internal!K$4,0)*$D79</f>
+        <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D79</f>
         <v>0</v>
       </c>
       <c r="K79" s="67">
-        <f>IF($B79=Inputs!$C$1,Outputs_Internal!L$4,0)*$D79</f>
+        <f>IF($B79=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D79</f>
         <v>0</v>
       </c>
       <c r="M79" s="67">
-        <f>$F79*Outputs_Internal!$D$50/12</f>
+        <f>$F79*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N79" s="67">
-        <f>$F79*Outputs_Internal!J$50/12</f>
+        <f>$F79*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O79" s="67">
-        <f>$F79*Outputs_Internal!K$50/12</f>
+        <f>$F79*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P79" s="67">
-        <f>$F79*Outputs_Internal!L$50/12</f>
+        <f>$F79*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R79" s="67">
@@ -8813,35 +8851,35 @@
         <v>0</v>
       </c>
       <c r="H80" s="67">
-        <f>IF($B80=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D80</f>
+        <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D80</f>
         <v>0</v>
       </c>
       <c r="I80" s="67">
-        <f>IF($B80=Inputs!$C$1,Outputs_Internal!J$4,0)*$D80</f>
+        <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D80</f>
         <v>0</v>
       </c>
       <c r="J80" s="67">
-        <f>IF($B80=Inputs!$C$1,Outputs_Internal!K$4,0)*$D80</f>
+        <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D80</f>
         <v>0</v>
       </c>
       <c r="K80" s="67">
-        <f>IF($B80=Inputs!$C$1,Outputs_Internal!L$4,0)*$D80</f>
+        <f>IF($B80=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D80</f>
         <v>0</v>
       </c>
       <c r="M80" s="67">
-        <f>$F80*Outputs_Internal!$D$50/12</f>
+        <f>$F80*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N80" s="67">
-        <f>$F80*Outputs_Internal!J$50/12</f>
+        <f>$F80*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O80" s="67">
-        <f>$F80*Outputs_Internal!K$50/12</f>
+        <f>$F80*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P80" s="67">
-        <f>$F80*Outputs_Internal!L$50/12</f>
+        <f>$F80*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R80" s="67">
@@ -8879,35 +8917,35 @@
         <v>0</v>
       </c>
       <c r="H81" s="67">
-        <f>IF($B81=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D81</f>
+        <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D81</f>
         <v>0</v>
       </c>
       <c r="I81" s="67">
-        <f>IF($B81=Inputs!$C$1,Outputs_Internal!J$4,0)*$D81</f>
+        <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D81</f>
         <v>0</v>
       </c>
       <c r="J81" s="67">
-        <f>IF($B81=Inputs!$C$1,Outputs_Internal!K$4,0)*$D81</f>
+        <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D81</f>
         <v>0</v>
       </c>
       <c r="K81" s="67">
-        <f>IF($B81=Inputs!$C$1,Outputs_Internal!L$4,0)*$D81</f>
+        <f>IF($B81=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D81</f>
         <v>0</v>
       </c>
       <c r="M81" s="67">
-        <f>$F81*Outputs_Internal!$D$50/12</f>
+        <f>$F81*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N81" s="67">
-        <f>$F81*Outputs_Internal!J$50/12</f>
+        <f>$F81*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O81" s="67">
-        <f>$F81*Outputs_Internal!K$50/12</f>
+        <f>$F81*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P81" s="67">
-        <f>$F81*Outputs_Internal!L$50/12</f>
+        <f>$F81*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R81" s="67">
@@ -8945,35 +8983,35 @@
         <v>0</v>
       </c>
       <c r="H82" s="67">
-        <f>IF($B82=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D82</f>
+        <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D82</f>
         <v>0</v>
       </c>
       <c r="I82" s="67">
-        <f>IF($B82=Inputs!$C$1,Outputs_Internal!J$4,0)*$D82</f>
+        <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D82</f>
         <v>0</v>
       </c>
       <c r="J82" s="67">
-        <f>IF($B82=Inputs!$C$1,Outputs_Internal!K$4,0)*$D82</f>
+        <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D82</f>
         <v>0</v>
       </c>
       <c r="K82" s="67">
-        <f>IF($B82=Inputs!$C$1,Outputs_Internal!L$4,0)*$D82</f>
+        <f>IF($B82=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="67">
-        <f>$F82*Outputs_Internal!$D$50/12</f>
+        <f>$F82*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N82" s="67">
-        <f>$F82*Outputs_Internal!J$50/12</f>
+        <f>$F82*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O82" s="67">
-        <f>$F82*Outputs_Internal!K$50/12</f>
+        <f>$F82*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P82" s="67">
-        <f>$F82*Outputs_Internal!L$50/12</f>
+        <f>$F82*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R82" s="67">
@@ -9011,35 +9049,35 @@
         <v>0</v>
       </c>
       <c r="H83" s="67">
-        <f>IF($B83=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D83</f>
+        <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D83</f>
         <v>0</v>
       </c>
       <c r="I83" s="67">
-        <f>IF($B83=Inputs!$C$1,Outputs_Internal!J$4,0)*$D83</f>
+        <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D83</f>
         <v>0</v>
       </c>
       <c r="J83" s="67">
-        <f>IF($B83=Inputs!$C$1,Outputs_Internal!K$4,0)*$D83</f>
+        <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D83</f>
         <v>0</v>
       </c>
       <c r="K83" s="67">
-        <f>IF($B83=Inputs!$C$1,Outputs_Internal!L$4,0)*$D83</f>
+        <f>IF($B83=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D83</f>
         <v>0</v>
       </c>
       <c r="M83" s="67">
-        <f>$F83*Outputs_Internal!$D$50/12</f>
+        <f>$F83*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N83" s="67">
-        <f>$F83*Outputs_Internal!J$50/12</f>
+        <f>$F83*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O83" s="67">
-        <f>$F83*Outputs_Internal!K$50/12</f>
+        <f>$F83*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P83" s="67">
-        <f>$F83*Outputs_Internal!L$50/12</f>
+        <f>$F83*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R83" s="67">
@@ -9077,35 +9115,35 @@
         <v>0</v>
       </c>
       <c r="H84" s="67">
-        <f>IF($B84=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D84</f>
+        <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D84</f>
         <v>0</v>
       </c>
       <c r="I84" s="67">
-        <f>IF($B84=Inputs!$C$1,Outputs_Internal!J$4,0)*$D84</f>
+        <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D84</f>
         <v>0</v>
       </c>
       <c r="J84" s="67">
-        <f>IF($B84=Inputs!$C$1,Outputs_Internal!K$4,0)*$D84</f>
+        <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D84</f>
         <v>0</v>
       </c>
       <c r="K84" s="67">
-        <f>IF($B84=Inputs!$C$1,Outputs_Internal!L$4,0)*$D84</f>
+        <f>IF($B84=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D84</f>
         <v>0</v>
       </c>
       <c r="M84" s="67">
-        <f>$F84*Outputs_Internal!$D$50/12</f>
+        <f>$F84*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N84" s="67">
-        <f>$F84*Outputs_Internal!J$50/12</f>
+        <f>$F84*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O84" s="67">
-        <f>$F84*Outputs_Internal!K$50/12</f>
+        <f>$F84*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P84" s="67">
-        <f>$F84*Outputs_Internal!L$50/12</f>
+        <f>$F84*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R84" s="67">
@@ -9143,35 +9181,35 @@
         <v>0</v>
       </c>
       <c r="H85" s="67">
-        <f>IF($B85=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D85</f>
+        <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D85</f>
         <v>0</v>
       </c>
       <c r="I85" s="67">
-        <f>IF($B85=Inputs!$C$1,Outputs_Internal!J$4,0)*$D85</f>
+        <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D85</f>
         <v>0</v>
       </c>
       <c r="J85" s="67">
-        <f>IF($B85=Inputs!$C$1,Outputs_Internal!K$4,0)*$D85</f>
+        <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D85</f>
         <v>0</v>
       </c>
       <c r="K85" s="67">
-        <f>IF($B85=Inputs!$C$1,Outputs_Internal!L$4,0)*$D85</f>
+        <f>IF($B85=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D85</f>
         <v>0</v>
       </c>
       <c r="M85" s="67">
-        <f>$F85*Outputs_Internal!$D$50/12</f>
+        <f>$F85*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N85" s="67">
-        <f>$F85*Outputs_Internal!J$50/12</f>
+        <f>$F85*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O85" s="67">
-        <f>$F85*Outputs_Internal!K$50/12</f>
+        <f>$F85*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P85" s="67">
-        <f>$F85*Outputs_Internal!L$50/12</f>
+        <f>$F85*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R85" s="67">
@@ -9209,35 +9247,35 @@
         <v>0</v>
       </c>
       <c r="H86" s="67">
-        <f>IF($B86=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D86</f>
+        <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D86</f>
         <v>0</v>
       </c>
       <c r="I86" s="67">
-        <f>IF($B86=Inputs!$C$1,Outputs_Internal!J$4,0)*$D86</f>
+        <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D86</f>
         <v>0</v>
       </c>
       <c r="J86" s="67">
-        <f>IF($B86=Inputs!$C$1,Outputs_Internal!K$4,0)*$D86</f>
+        <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D86</f>
         <v>0</v>
       </c>
       <c r="K86" s="67">
-        <f>IF($B86=Inputs!$C$1,Outputs_Internal!L$4,0)*$D86</f>
+        <f>IF($B86=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D86</f>
         <v>0</v>
       </c>
       <c r="M86" s="67">
-        <f>$F86*Outputs_Internal!$D$50/12</f>
+        <f>$F86*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N86" s="67">
-        <f>$F86*Outputs_Internal!J$50/12</f>
+        <f>$F86*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O86" s="67">
-        <f>$F86*Outputs_Internal!K$50/12</f>
+        <f>$F86*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P86" s="67">
-        <f>$F86*Outputs_Internal!L$50/12</f>
+        <f>$F86*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R86" s="67">
@@ -9275,35 +9313,35 @@
         <v>0</v>
       </c>
       <c r="H87" s="67">
-        <f>IF($B87=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D87</f>
+        <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D87</f>
         <v>0</v>
       </c>
       <c r="I87" s="67">
-        <f>IF($B87=Inputs!$C$1,Outputs_Internal!J$4,0)*$D87</f>
+        <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D87</f>
         <v>0</v>
       </c>
       <c r="J87" s="67">
-        <f>IF($B87=Inputs!$C$1,Outputs_Internal!K$4,0)*$D87</f>
+        <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D87</f>
         <v>0</v>
       </c>
       <c r="K87" s="67">
-        <f>IF($B87=Inputs!$C$1,Outputs_Internal!L$4,0)*$D87</f>
+        <f>IF($B87=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D87</f>
         <v>0</v>
       </c>
       <c r="M87" s="67">
-        <f>$F87*Outputs_Internal!$D$50/12</f>
+        <f>$F87*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N87" s="67">
-        <f>$F87*Outputs_Internal!J$50/12</f>
+        <f>$F87*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O87" s="67">
-        <f>$F87*Outputs_Internal!K$50/12</f>
+        <f>$F87*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P87" s="67">
-        <f>$F87*Outputs_Internal!L$50/12</f>
+        <f>$F87*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R87" s="67">
@@ -9341,35 +9379,35 @@
         <v>0</v>
       </c>
       <c r="H88" s="67">
-        <f>IF($B88=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D88</f>
+        <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D88</f>
         <v>0</v>
       </c>
       <c r="I88" s="67">
-        <f>IF($B88=Inputs!$C$1,Outputs_Internal!J$4,0)*$D88</f>
+        <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D88</f>
         <v>0</v>
       </c>
       <c r="J88" s="67">
-        <f>IF($B88=Inputs!$C$1,Outputs_Internal!K$4,0)*$D88</f>
+        <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D88</f>
         <v>0</v>
       </c>
       <c r="K88" s="67">
-        <f>IF($B88=Inputs!$C$1,Outputs_Internal!L$4,0)*$D88</f>
+        <f>IF($B88=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D88</f>
         <v>0</v>
       </c>
       <c r="M88" s="67">
-        <f>$F88*Outputs_Internal!$D$50/12</f>
+        <f>$F88*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N88" s="67">
-        <f>$F88*Outputs_Internal!J$50/12</f>
+        <f>$F88*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O88" s="67">
-        <f>$F88*Outputs_Internal!K$50/12</f>
+        <f>$F88*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P88" s="67">
-        <f>$F88*Outputs_Internal!L$50/12</f>
+        <f>$F88*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R88" s="67">
@@ -9407,35 +9445,35 @@
         <v>0</v>
       </c>
       <c r="H89" s="67">
-        <f>IF($B89=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D89</f>
+        <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D89</f>
         <v>0</v>
       </c>
       <c r="I89" s="67">
-        <f>IF($B89=Inputs!$C$1,Outputs_Internal!J$4,0)*$D89</f>
+        <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D89</f>
         <v>0</v>
       </c>
       <c r="J89" s="67">
-        <f>IF($B89=Inputs!$C$1,Outputs_Internal!K$4,0)*$D89</f>
+        <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D89</f>
         <v>0</v>
       </c>
       <c r="K89" s="67">
-        <f>IF($B89=Inputs!$C$1,Outputs_Internal!L$4,0)*$D89</f>
+        <f>IF($B89=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D89</f>
         <v>0</v>
       </c>
       <c r="M89" s="67">
-        <f>$F89*Outputs_Internal!$D$50/12</f>
+        <f>$F89*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N89" s="67">
-        <f>$F89*Outputs_Internal!J$50/12</f>
+        <f>$F89*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O89" s="67">
-        <f>$F89*Outputs_Internal!K$50/12</f>
+        <f>$F89*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P89" s="67">
-        <f>$F89*Outputs_Internal!L$50/12</f>
+        <f>$F89*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R89" s="67">
@@ -9473,35 +9511,35 @@
         <v>0</v>
       </c>
       <c r="H90" s="67">
-        <f>IF($B90=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D90</f>
+        <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D90</f>
         <v>0</v>
       </c>
       <c r="I90" s="67">
-        <f>IF($B90=Inputs!$C$1,Outputs_Internal!J$4,0)*$D90</f>
+        <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D90</f>
         <v>0</v>
       </c>
       <c r="J90" s="67">
-        <f>IF($B90=Inputs!$C$1,Outputs_Internal!K$4,0)*$D90</f>
+        <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D90</f>
         <v>0</v>
       </c>
       <c r="K90" s="67">
-        <f>IF($B90=Inputs!$C$1,Outputs_Internal!L$4,0)*$D90</f>
+        <f>IF($B90=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D90</f>
         <v>0</v>
       </c>
       <c r="M90" s="67">
-        <f>$F90*Outputs_Internal!$D$50/12</f>
+        <f>$F90*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N90" s="67">
-        <f>$F90*Outputs_Internal!J$50/12</f>
+        <f>$F90*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O90" s="67">
-        <f>$F90*Outputs_Internal!K$50/12</f>
+        <f>$F90*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P90" s="67">
-        <f>$F90*Outputs_Internal!L$50/12</f>
+        <f>$F90*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R90" s="67">
@@ -9539,35 +9577,35 @@
         <v>0</v>
       </c>
       <c r="H91" s="67">
-        <f>IF($B91=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D91</f>
+        <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D91</f>
         <v>0</v>
       </c>
       <c r="I91" s="67">
-        <f>IF($B91=Inputs!$C$1,Outputs_Internal!J$4,0)*$D91</f>
+        <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D91</f>
         <v>0</v>
       </c>
       <c r="J91" s="67">
-        <f>IF($B91=Inputs!$C$1,Outputs_Internal!K$4,0)*$D91</f>
+        <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D91</f>
         <v>0</v>
       </c>
       <c r="K91" s="67">
-        <f>IF($B91=Inputs!$C$1,Outputs_Internal!L$4,0)*$D91</f>
+        <f>IF($B91=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D91</f>
         <v>0</v>
       </c>
       <c r="M91" s="67">
-        <f>$F91*Outputs_Internal!$D$50/12</f>
+        <f>$F91*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N91" s="67">
-        <f>$F91*Outputs_Internal!J$50/12</f>
+        <f>$F91*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O91" s="67">
-        <f>$F91*Outputs_Internal!K$50/12</f>
+        <f>$F91*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P91" s="67">
-        <f>$F91*Outputs_Internal!L$50/12</f>
+        <f>$F91*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R91" s="67">
@@ -9605,35 +9643,35 @@
         <v>0</v>
       </c>
       <c r="H92" s="67">
-        <f>IF($B92=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D92</f>
+        <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D92</f>
         <v>0</v>
       </c>
       <c r="I92" s="67">
-        <f>IF($B92=Inputs!$C$1,Outputs_Internal!J$4,0)*$D92</f>
+        <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D92</f>
         <v>0</v>
       </c>
       <c r="J92" s="67">
-        <f>IF($B92=Inputs!$C$1,Outputs_Internal!K$4,0)*$D92</f>
+        <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D92</f>
         <v>0</v>
       </c>
       <c r="K92" s="67">
-        <f>IF($B92=Inputs!$C$1,Outputs_Internal!L$4,0)*$D92</f>
+        <f>IF($B92=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D92</f>
         <v>0</v>
       </c>
       <c r="M92" s="67">
-        <f>$F92*Outputs_Internal!$D$50/12</f>
+        <f>$F92*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N92" s="67">
-        <f>$F92*Outputs_Internal!J$50/12</f>
+        <f>$F92*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O92" s="67">
-        <f>$F92*Outputs_Internal!K$50/12</f>
+        <f>$F92*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P92" s="67">
-        <f>$F92*Outputs_Internal!L$50/12</f>
+        <f>$F92*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R92" s="67">
@@ -9671,35 +9709,35 @@
         <v>0</v>
       </c>
       <c r="H93" s="67">
-        <f>IF($B93=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D93</f>
+        <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D93</f>
         <v>0</v>
       </c>
       <c r="I93" s="67">
-        <f>IF($B93=Inputs!$C$1,Outputs_Internal!J$4,0)*$D93</f>
+        <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D93</f>
         <v>0</v>
       </c>
       <c r="J93" s="67">
-        <f>IF($B93=Inputs!$C$1,Outputs_Internal!K$4,0)*$D93</f>
+        <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D93</f>
         <v>0</v>
       </c>
       <c r="K93" s="67">
-        <f>IF($B93=Inputs!$C$1,Outputs_Internal!L$4,0)*$D93</f>
+        <f>IF($B93=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D93</f>
         <v>0</v>
       </c>
       <c r="M93" s="67">
-        <f>$F93*Outputs_Internal!$D$50/12</f>
+        <f>$F93*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N93" s="67">
-        <f>$F93*Outputs_Internal!J$50/12</f>
+        <f>$F93*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O93" s="67">
-        <f>$F93*Outputs_Internal!K$50/12</f>
+        <f>$F93*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P93" s="67">
-        <f>$F93*Outputs_Internal!L$50/12</f>
+        <f>$F93*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R93" s="67">
@@ -9737,35 +9775,35 @@
         <v>0</v>
       </c>
       <c r="H94" s="67">
-        <f>IF($B94=Inputs!$C$1,Outputs_Internal!$D$4,0)*$D94</f>
+        <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D94</f>
         <v>0</v>
       </c>
       <c r="I94" s="67">
-        <f>IF($B94=Inputs!$C$1,Outputs_Internal!J$4,0)*$D94</f>
+        <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!J$4, Outputs_Internal!J$5),0)*$D94</f>
         <v>0</v>
       </c>
       <c r="J94" s="67">
-        <f>IF($B94=Inputs!$C$1,Outputs_Internal!K$4,0)*$D94</f>
+        <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D94</f>
         <v>0</v>
       </c>
       <c r="K94" s="67">
-        <f>IF($B94=Inputs!$C$1,Outputs_Internal!L$4,0)*$D94</f>
+        <f>IF($B94=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!$L$5),0)*$D94</f>
         <v>0</v>
       </c>
       <c r="M94" s="67">
-        <f>$F94*Outputs_Internal!$D$50/12</f>
+        <f>$F94*Outputs_Internal!$D$51/12</f>
         <v>0</v>
       </c>
       <c r="N94" s="67">
-        <f>$F94*Outputs_Internal!J$50/12</f>
+        <f>$F94*Outputs_Internal!J$51/12</f>
         <v>0</v>
       </c>
       <c r="O94" s="67">
-        <f>$F94*Outputs_Internal!K$50/12</f>
+        <f>$F94*Outputs_Internal!K$51/12</f>
         <v>0</v>
       </c>
       <c r="P94" s="67">
-        <f>$F94*Outputs_Internal!L$50/12</f>
+        <f>$F94*Outputs_Internal!L$51/12</f>
         <v>0</v>
       </c>
       <c r="R94" s="67">
@@ -9858,7 +9896,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
-        <v>5000</v>
+        <v>32750</v>
       </c>
       <c r="E4" s="1">
         <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
@@ -9890,7 +9928,7 @@
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E6" s="5">
         <f>IF(Inputs!E4="N",MAX(Inputs!E7-25000,0),)</f>
@@ -9918,7 +9956,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -9927,7 +9965,7 @@
       </c>
       <c r="D9" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="E9" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
@@ -10198,7 +10236,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10207,7 +10245,7 @@
       </c>
       <c r="D22" s="16">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", "", PRODUCT(D$6, Prices!$E$6)))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
@@ -10252,7 +10290,7 @@
       </c>
       <c r="D24" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E24" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D10),0))</f>
@@ -10277,7 +10315,7 @@
       </c>
       <c r="D25" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D11),0))</f>
-        <v>0</v>
+        <v>1750.0000000000002</v>
       </c>
       <c r="E25" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D11),0))</f>
@@ -10302,7 +10340,7 @@
       </c>
       <c r="D26" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E26" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D12),0))</f>
@@ -10327,7 +10365,7 @@
       </c>
       <c r="D27" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D13),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E27" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D13),0))</f>
@@ -10475,7 +10513,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10484,7 +10522,7 @@
       </c>
       <c r="D35" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="E35" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
@@ -10755,7 +10793,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -10764,7 +10802,7 @@
       </c>
       <c r="D48" s="16">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", "", PRODUCT(D$6, Prices!$E$6)))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
@@ -10809,7 +10847,7 @@
       </c>
       <c r="D50" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E50" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D10),0))</f>
@@ -10834,7 +10872,7 @@
       </c>
       <c r="D51" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D11),0))</f>
-        <v>0</v>
+        <v>1750.0000000000002</v>
       </c>
       <c r="E51" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D11),0))</f>
@@ -10859,7 +10897,7 @@
       </c>
       <c r="D52" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E52" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D12),0))</f>
@@ -10884,7 +10922,7 @@
       </c>
       <c r="D53" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D13),0))</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="E53" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D13),0))</f>
@@ -11025,7 +11063,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
@@ -11210,7 +11248,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
@@ -11337,7 +11375,7 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
@@ -11442,7 +11480,7 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
@@ -11621,7 +11659,7 @@
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
-        <v>47100</v>
+        <v>77600</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" ref="E88:H88" si="20">SUM(E35:E45, E48:E58, E61:E64, E67:E70, E85:E86)</f>
@@ -11645,7 +11683,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D90" s="1">
         <f>IF(D98=1, 0, IF(D98=2, $E$101, IF(D98=3, $E$102, IF(D98=4, $E$103, IF(D98=5, $E$104, "")))))</f>
@@ -11674,7 +11712,7 @@
       </c>
       <c r="D92" s="7">
         <f>SUM(D88, D90)</f>
-        <v>47100</v>
+        <v>77600</v>
       </c>
       <c r="E92" s="7">
         <f>SUM(E88, E90)</f>
@@ -11696,7 +11734,7 @@
     <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27"/>
       <c r="C95" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
@@ -12034,7 +12072,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="61">
         <v>1.2500000000000001E-2</v>
@@ -12051,7 +12089,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="55">
         <v>43466</v>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scratch\todays_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="2"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Waste Calculator</t>
-  </si>
-  <si>
-    <t>CCHGs</t>
   </si>
   <si>
     <t>PRM Oppourtunity Prospective Scores</t>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Royalties</t>
+  </si>
+  <si>
+    <t>Medical Conditions</t>
   </si>
 </sst>
 </file>
@@ -1018,59 +1018,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="18" style="70" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="18.7265625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="76">
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="77">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="73"/>
       <c r="C3" s="78"/>
       <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
@@ -1085,34 +1085,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="L5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="G7" s="56"/>
       <c r="H7" s="57"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="74" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="74" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="G9" s="56"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="74" t="s">
         <v>11</v>
       </c>
@@ -1160,9 +1160,9 @@
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>4</v>
@@ -1172,7 +1172,7 @@
       <c r="G11" s="56"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
@@ -1184,69 +1184,69 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="74" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="74" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>4</v>
@@ -1256,37 +1256,37 @@
       <c r="G18" s="56"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
@@ -1318,45 +1318,45 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1402,12 +1402,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1479,9 +1479,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
@@ -1515,7 +1515,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1551,9 +1551,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
@@ -1586,7 +1586,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
@@ -1656,9 +1656,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D42, Calcs!D55)</f>
@@ -1691,9 +1691,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D43, Calcs!D56)</f>
@@ -1726,9 +1726,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D44, Calcs!D57)</f>
@@ -1761,9 +1761,9 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D45, Calcs!D58)</f>
@@ -1796,14 +1796,14 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D61, Calcs!D67)</f>
@@ -1836,9 +1836,9 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D62, Calcs!D68)</f>
@@ -1871,9 +1871,9 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D63, Calcs!D69)</f>
@@ -1906,9 +1906,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D64, Calcs!D70)</f>
@@ -1941,14 +1941,14 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>61</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(Calcs!D85:D86)</f>
@@ -1981,9 +1981,9 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D90</f>
@@ -2016,9 +2016,9 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D27)</f>
@@ -2048,7 +2048,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2062,9 +2062,9 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2082,15 +2082,15 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C32" s="68">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="7">
         <f>(D29/12*Inputs!$C$2+D4)*$C$32</f>
@@ -2120,7 +2120,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2135,18 +2135,18 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="7">
         <f>SUM(Outputs_Timeline!R:R)</f>
         <v>146300</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="53">
         <f>SUM(D34:H34)</f>
         <v>146300</v>
@@ -2154,17 +2154,17 @@
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2181,67 +2181,67 @@
   </sheetPr>
   <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:L55"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F1" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2271,9 +2271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="26"/>
@@ -2311,9 +2311,9 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2322,7 +2322,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2386,9 +2386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D11:H11)</f>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>11</v>
       </c>
@@ -2450,9 +2450,9 @@
         <v>479.99999999999989</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D13:H13)</f>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2543,23 +2543,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(Calcs!D16:H16)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0.1</v>
+      <c r="F15" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="80">
+        <v>0.4</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="3"/>
@@ -2574,9 +2574,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D17:H17)</f>
@@ -2605,9 +2605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D18:H18)</f>
@@ -2636,9 +2636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D19:H19)</f>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2675,9 +2675,9 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="G20" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="10">
         <v>0.1</v>
@@ -2686,7 +2686,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2694,9 +2694,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2705,7 +2705,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
         <v>2</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
@@ -2773,9 +2773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D24:H24)</f>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2841,9 +2841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D26:H26)</f>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>12</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
         <v>13</v>
       </c>
@@ -2940,9 +2940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C30" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D29:H29)</f>
@@ -2950,15 +2950,15 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="8"/>
-        <v>8.8888888888888906E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="9"/>
-        <v>0.71111111111111125</v>
+        <v>0</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="10"/>
@@ -2973,9 +2973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D30:H30)</f>
@@ -3006,9 +3006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C32" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D31:H31)</f>
@@ -3039,9 +3039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C33" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="29">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3080,9 +3080,9 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3091,9 +3091,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C36" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D73:H73)</f>
@@ -3122,9 +3122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Calcs!D74:H74)</f>
@@ -3153,9 +3153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C38" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D75:H75)</f>
@@ -3184,9 +3184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C39" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D76:H76)</f>
@@ -3215,14 +3215,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3231,9 +3231,9 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C42" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="29">
         <f>SUM(Calcs!D79:H79)</f>
@@ -3264,9 +3264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C43" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Calcs!D80:H80)</f>
@@ -3297,9 +3297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D81:H81)</f>
@@ -3330,9 +3330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="20">
         <f>SUM(Calcs!D82:H82)</f>
@@ -3363,22 +3363,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
@@ -3409,9 +3409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
@@ -3442,14 +3442,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1">
         <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
@@ -3468,9 +3468,9 @@
         <v>479.99999999999989</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C52" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="23">
         <f>SUM(J51:L51)</f>
@@ -3480,14 +3480,14 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1">
         <f>SUM(Outputs_Timeline!R:R)</f>
@@ -3506,7 +3506,7 @@
         <v>1439.9999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="J55" s="54">
         <f>IFERROR(J54/$D$54, 0)</f>
@@ -3521,14 +3521,14 @@
         <v>9.8427887901572104E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
@@ -3541,10 +3541,10 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="27"/>
       <c r="C59" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="23">
         <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="23">
         <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
@@ -3613,10 +3613,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
@@ -3649,10 +3649,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
@@ -3699,102 +3699,102 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="64" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="67"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" style="67"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" style="64" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="67"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.7265625" style="67"/>
+    <col min="17" max="17" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="F1" s="69">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="M1" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
       <c r="P1" s="65"/>
       <c r="R1" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="J2" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>90</v>
-      </c>
       <c r="M2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="O2" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="66" t="s">
-        <v>90</v>
-      </c>
       <c r="R2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="T2" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="64">
         <v>42917</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="T3" s="67"/>
       <c r="U3" s="67"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="64">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="64">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="64">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="64">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="64">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="64">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="64">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="64">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -4359,7 +4359,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="64">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="64">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="64">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -4557,7 +4557,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="64">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="64">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="64">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -4755,7 +4755,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="64">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="64">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="64">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -4953,7 +4953,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="64">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="64">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="64">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -5151,7 +5151,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="64">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="64">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="64">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -5349,7 +5349,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="64">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="64">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="64">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -5547,7 +5547,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="64">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="64">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="64">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -5745,7 +5745,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="64">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="64">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="64">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -5943,7 +5943,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="64">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="64">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="64">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6141,7 +6141,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B39" s="64">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B40" s="64">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B41" s="64">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -6339,7 +6339,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B42" s="64">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B43" s="64">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B44" s="64">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -6537,7 +6537,7 @@
         <v>119.99999999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B45" s="64">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B46" s="64">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B47" s="64">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B48" s="64">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" s="64">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="64">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="64">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" s="64">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" s="64">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="64">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" s="64">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B56" s="64">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B57" s="64">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B58" s="64">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B59" s="64">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="64">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B61" s="64">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" s="64">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="64">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B64" s="64">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B65" s="64">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B66" s="64">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B67" s="64">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B68" s="64">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B69" s="64">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B70" s="64">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B71" s="64">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B72" s="64">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B73" s="64">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B74" s="64">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B75" s="64">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B76" s="64">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B77" s="64">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B78" s="64">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B79" s="64">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B80" s="64">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B81" s="64">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B82" s="64">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B83" s="64">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B84" s="64">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B85" s="64">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B86" s="64">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B87" s="64">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B88" s="64">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B89" s="64">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B90" s="64">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B91" s="64">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B92" s="64">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B93" s="64">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B94" s="64">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -9855,56 +9855,56 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -9929,16 +9929,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
@@ -9961,19 +9961,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -10023,9 +10023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
@@ -10073,9 +10073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
@@ -10148,9 +10148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C16" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
@@ -10173,9 +10173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
@@ -10198,9 +10198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C18" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
@@ -10223,9 +10223,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
@@ -10248,12 +10248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
@@ -10298,9 +10298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C24" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
@@ -10348,9 +10348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C26" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -10373,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C28" s="17" t="s">
         <v>13</v>
       </c>
@@ -10423,9 +10423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C29" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D29" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -10448,9 +10448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C30" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -10473,9 +10473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C31" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -10498,9 +10498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="29">
         <v>0</v>
@@ -10518,19 +10518,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C36" s="15" t="s">
         <v>3</v>
       </c>
@@ -10580,9 +10580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C37" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="18">
         <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C38" s="17" t="s">
         <v>11</v>
       </c>
@@ -10630,9 +10630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C40" s="17" t="s">
         <v>12</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C41" s="17" t="s">
         <v>13</v>
       </c>
@@ -10705,9 +10705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C42" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D42" s="18">
         <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
@@ -10730,9 +10730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="20">
         <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
@@ -10755,9 +10755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C44" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="20">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
@@ -10780,9 +10780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C45" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="20">
         <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
@@ -10805,12 +10805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C49" s="28" t="s">
         <v>3</v>
       </c>
@@ -10855,9 +10855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C50" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C51" s="17" t="s">
         <v>11</v>
       </c>
@@ -10905,9 +10905,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C52" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C53" s="17" t="s">
         <v>12</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C54" s="17" t="s">
         <v>13</v>
       </c>
@@ -10980,9 +10980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C55" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D55" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -11005,9 +11005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C56" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -11030,9 +11030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C57" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -11055,9 +11055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C58" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="29">
         <v>0</v>
@@ -11075,14 +11075,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C61" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
@@ -11125,9 +11125,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C62" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
@@ -11170,9 +11170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C63" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="20">
         <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
@@ -11215,9 +11215,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C64" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="20">
         <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
@@ -11260,14 +11260,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C67" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="29">
         <v>0</v>
@@ -11305,9 +11305,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C68" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="18">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D19 = "Y", D$6*Prices!$D21, 0)))</f>
@@ -11330,9 +11330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C69" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D20 = "Y", D$6*Prices!$D22, 0)))</f>
@@ -11355,9 +11355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C70" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D21 = "Y", D$6*Prices!$D23, 0)))</f>
@@ -11380,21 +11380,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C73" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="18">
         <f>D61</f>
@@ -11417,9 +11417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="18">
         <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
@@ -11442,9 +11442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C75" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="20">
         <f>IF(D63=0,0,D63-SUM(D17:D19))</f>
@@ -11467,9 +11467,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C76" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="20">
         <f t="shared" ref="D76:H76" si="12">D64</f>
@@ -11492,14 +11492,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C79" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="29">
         <v>0</v>
@@ -11537,9 +11537,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C80" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" s="18">
         <f>IF(D68=0,0,D68-SUM(D24:D29))</f>
@@ -11562,9 +11562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="20">
         <f>IF(D69=0,0,D69-SUM(D30:D31))</f>
@@ -11587,9 +11587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="20">
         <f t="shared" ref="D82:H82" si="19">D70</f>
@@ -11612,14 +11612,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(2, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(2, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -11642,9 +11642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -11667,9 +11667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
@@ -11692,12 +11692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1">
         <f>IF(D98=1, 0, IF(D98=2, $E$101, IF(D98=3, $E$102, IF(D98=4, $E$103, IF(D98=5, $E$104, "")))))</f>
@@ -11720,9 +11720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D92" s="7">
         <f>SUM(D88, D90)</f>
@@ -11745,10 +11745,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="27"/>
       <c r="C95" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="27"/>
       <c r="D96" s="21">
         <v>0.1</v>
@@ -11789,7 +11789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="27"/>
       <c r="D97" s="21">
         <f>SUM(D95:D96)</f>
@@ -11812,7 +11812,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="27"/>
       <c r="D98" s="21">
         <f>_xlfn.RANK.EQ(D97, $D$97:$H$97, 5)</f>
@@ -11835,56 +11835,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="27"/>
     </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B100" s="27"/>
       <c r="C100" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="27"/>
       <c r="D101" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E101" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$98:$H$98, 0))*Prices!$I$10*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B102" s="27"/>
       <c r="D102" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E102" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E103" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104" s="23">
         <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F108" s="2"/>
     </row>
   </sheetData>
@@ -11899,29 +11899,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.1796875" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -11931,12 +11931,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -11946,26 +11946,26 @@
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="43">
         <v>18000</v>
@@ -11977,15 +11977,15 @@
         <v>0.4</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="43">
         <v>8100</v>
@@ -11997,30 +11997,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="45">
         <v>1200</v>
@@ -12029,13 +12029,13 @@
         <v>0.05</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
@@ -12046,15 +12046,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="45">
         <v>2400</v>
@@ -12063,7 +12063,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -12086,15 +12086,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="61">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C15" s="45">
         <v>4800</v>
@@ -12103,15 +12103,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="55">
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="46">
         <v>12000</v>
@@ -12122,9 +12122,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="46">
         <v>6000</v>
@@ -12133,9 +12133,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="46">
         <v>6000</v>
@@ -12144,13 +12144,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="44"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="45">
         <v>10200</v>
@@ -12159,9 +12159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="45">
         <v>39600</v>
@@ -12170,9 +12170,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="46">
         <v>42000</v>
@@ -12181,9 +12181,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="46">
         <v>33600</v>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2184,11 +2184,11 @@
   </sheetPr>
   <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="12">
-        <f>F4*$D4</f>
+        <f t="shared" ref="K4:N5" si="0">F4*$D4</f>
         <v>2500</v>
       </c>
       <c r="L4" s="12">
-        <f>G4*$D4</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="M4" s="12">
-        <f>H4*$D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="12">
-        <f>I4*$D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2313,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="12">
-        <f>F5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="12">
-        <f>G5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="12">
-        <f>H5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="12">
-        <f>I5*$D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
         <v>0.6</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" ref="H8:H18" si="0">1-SUM(F8:G8)</f>
+        <f t="shared" ref="H8:H18" si="1">1-SUM(F8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="35">
@@ -2381,7 +2381,7 @@
         <v>10800</v>
       </c>
       <c r="M8" s="16">
-        <f t="shared" ref="M8:N18" si="1">H8*$D8</f>
+        <f t="shared" ref="M8:N18" si="2">H8*$D8</f>
         <v>0</v>
       </c>
       <c r="N8" s="16">
@@ -2405,26 +2405,26 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="35">
         <v>0</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" ref="K9:K18" si="2">F9*$D9</f>
+        <f t="shared" ref="K9:K18" si="3">F9*$D9</f>
         <v>1620</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" ref="L9:L17" si="3">G9*$D9</f>
+        <f t="shared" ref="L9:L17" si="4">G9*$D9</f>
         <v>6480</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,26 +2444,26 @@
         <v>0.9</v>
       </c>
       <c r="H10" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="37">
         <v>0</v>
       </c>
       <c r="K10" s="18">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="4"/>
+        <v>1080</v>
+      </c>
+      <c r="M10" s="18">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2489,19 +2489,19 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="2"/>
-        <v>2160</v>
-      </c>
-      <c r="L11" s="18">
         <f t="shared" si="3"/>
         <v>2160</v>
       </c>
+      <c r="L11" s="18">
+        <f t="shared" si="4"/>
+        <v>2160</v>
+      </c>
       <c r="M11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
@@ -2520,26 +2520,26 @@
         <v>0.1</v>
       </c>
       <c r="H12" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="37">
         <v>0</v>
       </c>
       <c r="K12" s="18">
+        <f t="shared" si="3"/>
+        <v>2160</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="M12" s="18">
         <f t="shared" si="2"/>
-        <v>2160</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2558,26 +2558,26 @@
         <v>0.9</v>
       </c>
       <c r="H13" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="37">
         <v>0</v>
       </c>
       <c r="K13" s="18">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="4"/>
+        <v>2160</v>
+      </c>
+      <c r="M13" s="18">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="3"/>
-        <v>2160</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2602,15 +2602,15 @@
         <v>0</v>
       </c>
       <c r="K14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="18">
@@ -2633,26 +2633,26 @@
         <v>0.4</v>
       </c>
       <c r="H15" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="37">
         <v>0</v>
       </c>
       <c r="K15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N15" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2671,26 +2671,26 @@
         <v>0.9</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="38">
         <v>0</v>
       </c>
       <c r="K16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2709,26 +2709,26 @@
         <v>0.9</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="38">
         <v>0</v>
       </c>
       <c r="K17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2747,14 +2747,14 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="38">
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="20">
@@ -2762,11 +2762,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G23" s="35">
-        <f t="shared" ref="G23:G33" si="4">MIN(1,G8+$H$20)</f>
+        <f t="shared" ref="G23:G33" si="5">MIN(1,G8+$H$20)</f>
         <v>0.7</v>
       </c>
       <c r="H23" s="35">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" ref="L23:L33" si="5">G23*$D23</f>
+        <f t="shared" ref="L23:L33" si="6">G23*$D23</f>
         <v>0</v>
       </c>
       <c r="M23" s="16">
@@ -2864,35 +2864,35 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="36">
-        <f t="shared" ref="F24:F33" si="6">(1-G24)*F9/SUM(F9,H9)</f>
+        <f t="shared" ref="F24:F33" si="7">(1-G24)*F9/SUM(F9,H9)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" ref="H24:H33" si="7">IF(H9=0, 0,(1-G24)*H9/SUM(F9,H9))</f>
+        <f t="shared" ref="H24:H33" si="8">IF(H9=0, 0,(1-G24)*H9/SUM(F9,H9))</f>
         <v>0</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" ref="I24:I33" si="8">IF(I9=0, 0,(1-G24)*I9/SUM(F9,I9))</f>
+        <f t="shared" ref="I24:I33" si="9">IF(I9=0, 0,(1-G24)*I9/SUM(F9,I9))</f>
         <v>0</v>
       </c>
       <c r="K24" s="29">
-        <f t="shared" ref="K24:K33" si="9">F24*$D24</f>
+        <f t="shared" ref="K24:K33" si="10">F24*$D24</f>
         <v>0</v>
       </c>
       <c r="L24" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="29">
-        <f t="shared" ref="M23:N33" si="10">H24*$D24</f>
+        <f t="shared" ref="M24:N33" si="11">H24*$D24</f>
         <v>0</v>
       </c>
       <c r="N24" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,35 +2906,35 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M25" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2948,35 +2948,35 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="37">
+        <f>(1-G26)*F11/SUM(F11,H11, I11)</f>
+        <v>0.36818181818181811</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H26" s="37">
+        <f>IF(H11=0, 0,(1-G26)*H11/SUM(F11,H11))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="9"/>
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
         <f t="shared" si="6"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G26" s="37">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H26" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="37">
-        <f t="shared" si="8"/>
-        <v>8.1818181818181804E-2</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2989,35 +2989,35 @@
         <v>0</v>
       </c>
       <c r="F27" s="37">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="37">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
         <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="37">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3030,35 +3030,35 @@
         <v>0</v>
       </c>
       <c r="F28" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M28" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3071,35 +3071,35 @@
         <v>0</v>
       </c>
       <c r="F29" s="37">
+        <f t="shared" si="7"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="37">
+        <f t="shared" si="8"/>
+        <v>0.71111111111111125</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
         <f t="shared" si="6"/>
-        <v>8.8888888888888906E-2</v>
-      </c>
-      <c r="G29" s="37">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="37">
-        <f t="shared" si="7"/>
-        <v>0.71111111111111125</v>
-      </c>
-      <c r="I29" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3112,35 +3112,35 @@
         <v>0</v>
       </c>
       <c r="F30" s="37">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="37">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3153,35 +3153,35 @@
         <v>0</v>
       </c>
       <c r="F31" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3194,35 +3194,35 @@
         <v>0</v>
       </c>
       <c r="F32" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3235,35 +3235,35 @@
         <v>0</v>
       </c>
       <c r="F33" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="M33" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N33" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="K36" s="18">
-        <f>F36*$D36</f>
+        <f t="shared" ref="K36:N39" si="12">F36*$D36</f>
         <v>9180</v>
       </c>
       <c r="L36" s="18">
-        <f>G36*$D36</f>
+        <f t="shared" si="12"/>
         <v>1020</v>
       </c>
       <c r="M36" s="18">
-        <f>H36*$D36</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N36" s="18">
-        <f>I36*$D36</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="K37" s="18">
-        <f>F37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L37" s="18">
-        <f>G37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M37" s="18">
-        <f>H37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N37" s="18">
-        <f>I37*$D37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3379,26 +3379,26 @@
         <v>0.9</v>
       </c>
       <c r="H38" s="38">
-        <f t="shared" ref="H38:H39" si="11">1-SUM(F38:G38)</f>
+        <f t="shared" ref="H38:H39" si="13">1-SUM(F38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="38">
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <f>F38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L38" s="20">
-        <f>G38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M38" s="20">
-        <f>H38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N38" s="20">
-        <f>I38*$D38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3417,26 +3417,26 @@
         <v>0.9</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I39" s="38">
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f>F39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L39" s="20">
-        <f>G39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M39" s="20">
-        <f>H39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N39" s="20">
-        <f>I39*$D39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="29">
-        <f t="shared" ref="L42:L45" si="12">G42*$D42</f>
+        <f t="shared" ref="L42:L45" si="14">G42*$D42</f>
         <v>0</v>
       </c>
       <c r="M42" s="29">
@@ -3525,15 +3525,15 @@
         <v>0</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M43" s="18">
-        <f t="shared" ref="M42:N45" si="13">H43*$D43</f>
+        <f t="shared" ref="M43:N45" si="15">H43*$D43</f>
         <v>0</v>
       </c>
       <c r="N43" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3561,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" ref="K44:K45" si="14">F44*$D44</f>
+        <f t="shared" ref="K44:K45" si="16">F44*$D44</f>
         <v>0</v>
       </c>
       <c r="L44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M44" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N44" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="31">
-        <f t="shared" ref="G43:G45" si="15">MIN(1,G39+$H$20)</f>
+        <f t="shared" ref="G45" si="17">MIN(1,G39+$H$20)</f>
         <v>1</v>
       </c>
       <c r="H45" s="31">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="20">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L45" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="M45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
         <v>22680</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" ref="L51:M51" si="16">SUM(L48:L49, L36:L39, L8:L18,L23:L33,L42:L45)</f>
+        <f t="shared" ref="L51" si="18">SUM(L48:L49, L36:L39, L8:L18,L23:L33,L42:L45)</f>
         <v>23940</v>
       </c>
       <c r="M51" s="12">
@@ -3852,19 +3852,19 @@
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="25">
-        <f>F59*$D59</f>
+        <f t="shared" ref="K59:N62" si="19">F59*$D59</f>
         <v>9180</v>
       </c>
       <c r="L59" s="25">
-        <f>G59*$D59</f>
+        <f t="shared" si="19"/>
         <v>1020</v>
       </c>
       <c r="M59" s="25">
-        <f>H59*$D59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N59" s="25">
-        <f>I59*$D59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
         <v>0.45348837209302323</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" ref="G60:H60" si="17">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
+        <f t="shared" ref="G60" si="20">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
         <v>0.54651162790697672</v>
       </c>
       <c r="H60" s="24">
@@ -3896,19 +3896,19 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="25">
-        <f>F60*$D60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L60" s="25">
-        <f>G60*$D60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M60" s="25">
-        <f>H60*$D60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N60" s="25">
-        <f>I60*$D60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3940,19 +3940,19 @@
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
-        <f>F61*$D61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f>G61*$D61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M61" s="25">
-        <f>H61*$D61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N61" s="25">
-        <f>I61*$D61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3984,19 +3984,19 @@
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="25">
-        <f>F62*$D62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L62" s="25">
-        <f>G62*$D62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M62" s="25">
-        <f>H62*$D62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N62" s="25">
-        <f>I62*$D62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="ACOInsight1">Inputs!$D$18:$D$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Outputs_Internal!$B$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>CCLF</t>
-  </si>
-  <si>
-    <t>Collaborative Member</t>
   </si>
   <si>
     <t>Non-CMS Files</t>
@@ -345,6 +342,15 @@
   </si>
   <si>
     <t>MI Royalties</t>
+  </si>
+  <si>
+    <t>Collaborative Member Prior to 2017-07-01</t>
+  </si>
+  <si>
+    <t>Existing Collaborative Member Discount</t>
+  </si>
+  <si>
+    <t>Existing Collaborative Discount</t>
   </si>
 </sst>
 </file>
@@ -1021,11 +1027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="76">
         <v>43101</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="77">
         <v>36</v>
@@ -1058,19 +1064,19 @@
       <c r="B3" s="73"/>
       <c r="C3" s="78"/>
       <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,25 +1096,25 @@
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -1129,7 +1135,7 @@
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>4</v>
@@ -1141,7 +1147,7 @@
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>4</v>
@@ -1153,7 +1159,7 @@
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>4</v>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>4</v>
@@ -1177,7 +1183,7 @@
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>4</v>
@@ -1189,10 +1195,10 @@
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
@@ -1201,10 +1207,10 @@
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -1213,10 +1219,10 @@
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
@@ -1225,10 +1231,10 @@
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1237,10 +1243,10 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>4</v>
@@ -1261,10 +1267,10 @@
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
@@ -1285,11 +1291,11 @@
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
@@ -1315,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U42"/>
+  <dimension ref="B2:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,19 +1345,19 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -1407,7 +1413,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1484,7 +1490,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D37, Calcs!D50)</f>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D38, Calcs!D51)</f>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D39, Calcs!D52)</f>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D41, Calcs!D54)</f>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D42, Calcs!D55)</f>
@@ -1696,7 +1702,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D43, Calcs!D56)</f>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D44, Calcs!D57)</f>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D45, Calcs!D58)</f>
@@ -1801,12 +1807,12 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(Calcs!D61, Calcs!D67)</f>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D62, Calcs!D68)</f>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Calcs!D63, Calcs!D69)</f>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Calcs!D64, Calcs!D70)</f>
@@ -1946,12 +1952,12 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(Calcs!D85:D86)</f>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D90</f>
@@ -2019,44 +2025,61 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="7">
-        <f>SUM(D7:D17, D20:D23, D26:D27)</f>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1">
+        <f>Calcs!D92</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7">
+        <f>SUM(D7:D17, D20:D23, D26:D28)</f>
         <v>47100</v>
       </c>
-      <c r="E29" s="7">
-        <f t="shared" ref="E29:H29" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E30" s="7">
+        <f t="shared" ref="E30:H30" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -2066,9 +2089,6 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2078,99 +2098,116 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="M31" s="1"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="68">
+      <c r="B32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="68">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="7">
-        <f>(D29/12*Inputs!$C$2+D4)*$C$32</f>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="7">
+        <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
         <v>146300</v>
       </c>
-      <c r="E34" s="7">
-        <f>(E29/12*Inputs!$C$2+E4)*$C$32</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <f>(F29/12*Inputs!$C$2+F4)*$C$32</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <f>(G29/12*Inputs!$C$2+G4)*$C$32</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <f>(H29/12*Inputs!$C$2+H4)*$C$32</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="M34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="1"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="E35" s="7">
+        <f>(E30/12*Inputs!$C$2+E4)*$C$33</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <f>(F30/12*Inputs!$C$2+F4)*$C$33</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f>(G30/12*Inputs!$C$2+G4)*$C$33</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f>(H30/12*Inputs!$C$2+H4)*$C$33</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="1"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="7">
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
         <v>146300</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="53">
-        <f>SUM(D34:H34)</f>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="53">
+        <f>SUM(D35:H35)</f>
         <v>146300</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,13 +2219,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N62"/>
+  <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
@@ -2218,32 +2255,32 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2253,7 +2290,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2292,7 +2329,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
@@ -2340,7 +2377,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2430,7 +2467,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D11:H11)</f>
@@ -2469,7 +2506,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D12:H12)</f>
@@ -2507,7 +2544,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D13:H13)</f>
@@ -2545,7 +2582,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D14:H14)</f>
@@ -2583,7 +2620,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D15:H15)</f>
@@ -2620,7 +2657,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(Calcs!D16:H16)</f>
@@ -2658,7 +2695,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D17:H17)</f>
@@ -2696,7 +2733,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D18:H18)</f>
@@ -2734,7 +2771,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="20">
         <f>SUM(Calcs!D19:H19)</f>
@@ -2781,7 +2818,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G20" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="10">
         <v>0.1</v>
@@ -2802,7 +2839,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2898,7 +2935,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D24:H24)</f>
@@ -2940,7 +2977,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D25:H25)</f>
@@ -2982,7 +3019,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D26:H26)</f>
@@ -3023,7 +3060,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D27:H27)</f>
@@ -3064,7 +3101,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D28:H28)</f>
@@ -3105,7 +3142,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D29:H29)</f>
@@ -3146,7 +3183,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D30:H30)</f>
@@ -3187,7 +3224,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D31:H31)</f>
@@ -3228,7 +3265,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="29">
         <f>SUM(Calcs!D32:H32)</f>
@@ -3278,7 +3315,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3290,7 +3327,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(Calcs!D73:H73)</f>
@@ -3328,7 +3365,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Calcs!D74:H74)</f>
@@ -3366,7 +3403,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="20">
         <f>SUM(Calcs!D75:H75)</f>
@@ -3404,7 +3441,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(Calcs!D76:H76)</f>
@@ -3447,7 +3484,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3459,7 +3496,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="29">
         <f>SUM(Calcs!D79:H79)</f>
@@ -3499,7 +3536,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Calcs!D80:H80)</f>
@@ -3539,7 +3576,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D81:H81)</f>
@@ -3579,7 +3616,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="20">
         <f>SUM(Calcs!D82:H82)</f>
@@ -3624,7 +3661,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3632,26 +3669,26 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>IFERROR(SUM(K59:K62)/SUM($K$59:$M$62), 0)</f>
+        <f>IFERROR(SUM(K60:K63)/SUM($K$60:$M$63), 0)</f>
         <v>0.9</v>
       </c>
       <c r="G48" s="8">
-        <f>IFERROR(SUM(L59:L62)/SUM($K$59:$M$62), 0)</f>
+        <f>IFERROR(SUM(L60:L63)/SUM($K$60:$M$63), 0)</f>
         <v>0.1</v>
       </c>
       <c r="H48" s="8">
-        <f>IFERROR(SUM(M59:M62)/SUM($K$59:$M$62), 0)</f>
+        <f>IFERROR(SUM(M60:M63)/SUM($K$60:$M$63), 0)</f>
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <f>IFERROR(SUM(N59:N62)/SUM($K$59:$M$62), 0)</f>
+        <f>IFERROR(SUM(N60:N63)/SUM($K$60:$M$63), 0)</f>
         <v>0</v>
       </c>
       <c r="K48" s="12">
@@ -3673,7 +3710,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
@@ -3713,290 +3750,328 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1">
+        <f>Outputs_External!D28</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.58085106382978724</v>
+      </c>
+      <c r="G50" s="3">
+        <f>1-F50</f>
+        <v>0.41914893617021276</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <f>$D$50*F50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
+        <f t="shared" ref="L50:N50" si="18">$D$50*G50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="1">
-        <f>SUM(Outputs_External!D29:'Outputs_External'!H29)</f>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1">
+        <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
         <v>47100</v>
       </c>
-      <c r="K51" s="12">
-        <f>SUM(K48:K49, K36:K39, K8:K18,K23:K33,K42:K45)</f>
+      <c r="K52" s="12">
+        <f>SUM(K48:K50, K36:K39, K8:K18,K23:K33,K42:K45)</f>
         <v>22680</v>
       </c>
-      <c r="L51" s="12">
-        <f t="shared" ref="L51" si="18">SUM(L48:L49, L36:L39, L8:L18,L23:L33,L42:L45)</f>
+      <c r="L52" s="12">
+        <f t="shared" ref="L52:N52" si="19">SUM(L48:L50, L36:L39, L8:L18,L23:L33,L42:L45)</f>
         <v>23940</v>
       </c>
-      <c r="M51" s="12">
-        <f>SUM(M48:M49, M36:M39, M8:M18,M23:M33,M42:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="12">
-        <f>SUM(N48:N49, N36:N39, N8:N18,N23:N33,N42:N45)</f>
+      <c r="M52" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="19"/>
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C52" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="23">
-        <f>SUM(K51:N51)</f>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="23">
+        <f>SUM(K52:N52)</f>
         <v>47100</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
         <v>146300</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K55" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
         <v>70540</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L55" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
         <v>74320</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M55" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N55" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
-      <c r="K55" s="54">
-        <f>IFERROR(K54/$D$54, 0)</f>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="K56" s="54">
+        <f>IFERROR(K55/$D$55, 0)</f>
         <v>0.48215994531784007</v>
       </c>
-      <c r="L55" s="54">
-        <f>IFERROR(L54/$D$54, 0)</f>
+      <c r="L56" s="54">
+        <f>IFERROR(L55/$D$55, 0)</f>
         <v>0.50799726589200278</v>
       </c>
-      <c r="M55" s="54">
-        <f>IFERROR(M54/$D$54, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="54">
-        <f>IFERROR(N54/$D$54, 0)</f>
+      <c r="M56" s="54">
+        <f>IFERROR(M55/$D$55, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="54">
+        <f>IFERROR(N55/$D$55, 0)</f>
         <v>9.8427887901572104E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-    </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="23">
-        <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>10200</v>
-      </c>
+      <c r="B59" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="24">
-        <f>F36</f>
-        <v>0.9</v>
-      </c>
-      <c r="G59" s="24">
-        <f>G36</f>
-        <v>0.1</v>
-      </c>
-      <c r="H59" s="24">
-        <f>H36</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="24">
-        <f>I36</f>
-        <v>0</v>
-      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="25">
-        <f t="shared" ref="K59:N62" si="19">F59*$D59</f>
-        <v>9180</v>
-      </c>
-      <c r="L59" s="25">
-        <f t="shared" si="19"/>
-        <v>1020</v>
-      </c>
-      <c r="M59" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="23">
-        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
+        <v>10200</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="24">
-        <f>IFERROR(SUM(K$37,K$10:K$15,K$43,K$25:K$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.45348837209302323</v>
+        <f>F36</f>
+        <v>0.9</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" ref="G60" si="20">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.54651162790697672</v>
+        <f>G36</f>
+        <v>0.1</v>
       </c>
       <c r="H60" s="24">
-        <f>IFERROR(SUM(M$37,M$10:M$15,M$43,M$25:M$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
+        <f>H36</f>
         <v>0</v>
       </c>
       <c r="I60" s="24">
-        <f>IFERROR(SUM(N$37,N$10:N$15,N$43,N$25:N$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
-        <v>4.4444444444444446E-2</v>
+        <f>I36</f>
+        <v>0</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="K60:N63" si="20">F60*$D60</f>
+        <v>9180</v>
       </c>
       <c r="L60" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1020</v>
       </c>
       <c r="M60" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N60" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="23">
-        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
+        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
         <v>0</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="24">
-        <f>IFERROR(SUM(K38,K16:K18,K44,K31:K33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
-        <v>0</v>
+        <f>IFERROR(SUM(K$37,K$10:K$15,K$43,K$25:K$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
+        <v>0.45348837209302323</v>
       </c>
       <c r="G61" s="24">
-        <f>IFERROR(SUM(L38,L16:L18,L44,L31:L33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
-        <v>0</v>
+        <f t="shared" ref="G61" si="21">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
+        <v>0.54651162790697672</v>
       </c>
       <c r="H61" s="24">
-        <f>IFERROR(SUM(M38,M16:M18,M44,M31:M33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
+        <f>IFERROR(SUM(M$37,M$10:M$15,M$43,M$25:M$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="24">
-        <f>IFERROR(SUM(N38,N16:N18,N44,N31:N33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
-        <v>0</v>
+        <f>IFERROR(SUM(N$37,N$10:N$15,N$43,N$25:N$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N61" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" s="23">
-        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
+        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
         <v>0</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="24">
+        <f>IFERROR(SUM(K38,K16:K18,K44,K31:K33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <f>IFERROR(SUM(L38,L16:L18,L44,L31:L33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="24">
+        <f>IFERROR(SUM(M38,M16:M18,M44,M31:M33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <f>IFERROR(SUM(N38,N16:N18,N44,N31:N33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="C63" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="23">
+        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="24">
         <f>F39</f>
         <v>0.1</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G63" s="24">
         <f>G39</f>
         <v>0.9</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H63" s="24">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I63" s="24">
         <f>I39</f>
         <v>0</v>
       </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="25">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="25">
-        <f t="shared" si="19"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="25">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4042,20 +4117,20 @@
         <v>36</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="M1" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="65"/>
       <c r="S1" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
@@ -4063,60 +4138,60 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="J2" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>89</v>
-      </c>
       <c r="M2" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="66" t="s">
-        <v>88</v>
-      </c>
       <c r="O2" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="66" t="s">
-        <v>103</v>
-      </c>
       <c r="W2" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -4152,23 +4227,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="67">
-        <f>$F3*Outputs_Internal!$D$51/12</f>
+        <f>$F3*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N3" s="67">
-        <f>$F3*Outputs_Internal!K$51/12</f>
+        <f>$F3*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O3" s="67">
-        <f>$F3*Outputs_Internal!L$51/12</f>
+        <f>$F3*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P3" s="67">
-        <f>$F3*Outputs_Internal!M$51/12</f>
+        <f>$F3*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="67">
-        <f>$F3*Outputs_Internal!N$51/12</f>
+        <f>$F3*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S3" s="67"/>
@@ -4210,23 +4285,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="67">
-        <f>$F4*Outputs_Internal!$D$51/12</f>
+        <f>$F4*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N4" s="67">
-        <f>$F4*Outputs_Internal!K$51/12</f>
+        <f>$F4*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O4" s="67">
-        <f>$F4*Outputs_Internal!L$51/12</f>
+        <f>$F4*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P4" s="67">
-        <f>$F4*Outputs_Internal!M$51/12</f>
+        <f>$F4*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q4" s="67">
-        <f>$F4*Outputs_Internal!N$51/12</f>
+        <f>$F4*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
     </row>
@@ -4264,23 +4339,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="67">
-        <f>$F5*Outputs_Internal!$D$51/12</f>
+        <f>$F5*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N5" s="67">
-        <f>$F5*Outputs_Internal!K$51/12</f>
+        <f>$F5*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O5" s="67">
-        <f>$F5*Outputs_Internal!L$51/12</f>
+        <f>$F5*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P5" s="67">
-        <f>$F5*Outputs_Internal!M$51/12</f>
+        <f>$F5*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q5" s="67">
-        <f>$F5*Outputs_Internal!N$51/12</f>
+        <f>$F5*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S5" s="67">
@@ -4338,23 +4413,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="67">
-        <f>$F6*Outputs_Internal!$D$51/12</f>
+        <f>$F6*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N6" s="67">
-        <f>$F6*Outputs_Internal!K$51/12</f>
+        <f>$F6*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O6" s="67">
-        <f>$F6*Outputs_Internal!L$51/12</f>
+        <f>$F6*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P6" s="67">
-        <f>$F6*Outputs_Internal!M$51/12</f>
+        <f>$F6*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="67">
-        <f>$F6*Outputs_Internal!N$51/12</f>
+        <f>$F6*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S6" s="67">
@@ -4412,23 +4487,23 @@
         <v>0</v>
       </c>
       <c r="M7" s="67">
-        <f>$F7*Outputs_Internal!$D$51/12</f>
+        <f>$F7*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N7" s="67">
-        <f>$F7*Outputs_Internal!K$51/12</f>
+        <f>$F7*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O7" s="67">
-        <f>$F7*Outputs_Internal!L$51/12</f>
+        <f>$F7*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P7" s="67">
-        <f>$F7*Outputs_Internal!M$51/12</f>
+        <f>$F7*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="67">
-        <f>$F7*Outputs_Internal!N$51/12</f>
+        <f>$F7*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S7" s="67">
@@ -4486,23 +4561,23 @@
         <v>0</v>
       </c>
       <c r="M8" s="67">
-        <f>$F8*Outputs_Internal!$D$51/12</f>
+        <f>$F8*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N8" s="67">
-        <f>$F8*Outputs_Internal!K$51/12</f>
+        <f>$F8*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O8" s="67">
-        <f>$F8*Outputs_Internal!L$51/12</f>
+        <f>$F8*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P8" s="67">
-        <f>$F8*Outputs_Internal!M$51/12</f>
+        <f>$F8*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q8" s="67">
-        <f>$F8*Outputs_Internal!N$51/12</f>
+        <f>$F8*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S8" s="67">
@@ -4560,23 +4635,23 @@
         <v>0</v>
       </c>
       <c r="M9" s="67">
-        <f>$F9*Outputs_Internal!$D$51/12</f>
+        <f>$F9*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N9" s="67">
-        <f>$F9*Outputs_Internal!K$51/12</f>
+        <f>$F9*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O9" s="67">
-        <f>$F9*Outputs_Internal!L$51/12</f>
+        <f>$F9*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P9" s="67">
-        <f>$F9*Outputs_Internal!M$51/12</f>
+        <f>$F9*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q9" s="67">
-        <f>$F9*Outputs_Internal!N$51/12</f>
+        <f>$F9*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S9" s="67">
@@ -4634,23 +4709,23 @@
         <v>0</v>
       </c>
       <c r="M10" s="67">
-        <f>$F10*Outputs_Internal!$D$51/12</f>
+        <f>$F10*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N10" s="67">
-        <f>$F10*Outputs_Internal!K$51/12</f>
+        <f>$F10*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O10" s="67">
-        <f>$F10*Outputs_Internal!L$51/12</f>
+        <f>$F10*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P10" s="67">
-        <f>$F10*Outputs_Internal!M$51/12</f>
+        <f>$F10*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q10" s="67">
-        <f>$F10*Outputs_Internal!N$51/12</f>
+        <f>$F10*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S10" s="67">
@@ -4708,23 +4783,23 @@
         <v>0</v>
       </c>
       <c r="M11" s="67">
-        <f>$F11*Outputs_Internal!$D$51/12</f>
+        <f>$F11*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N11" s="67">
-        <f>$F11*Outputs_Internal!K$51/12</f>
+        <f>$F11*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O11" s="67">
-        <f>$F11*Outputs_Internal!L$51/12</f>
+        <f>$F11*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P11" s="67">
-        <f>$F11*Outputs_Internal!M$51/12</f>
+        <f>$F11*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q11" s="67">
-        <f>$F11*Outputs_Internal!N$51/12</f>
+        <f>$F11*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S11" s="67">
@@ -4782,23 +4857,23 @@
         <v>0</v>
       </c>
       <c r="M12" s="67">
-        <f>$F12*Outputs_Internal!$D$51/12</f>
+        <f>$F12*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N12" s="67">
-        <f>$F12*Outputs_Internal!K$51/12</f>
+        <f>$F12*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O12" s="67">
-        <f>$F12*Outputs_Internal!L$51/12</f>
+        <f>$F12*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P12" s="67">
-        <f>$F12*Outputs_Internal!M$51/12</f>
+        <f>$F12*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="67">
-        <f>$F12*Outputs_Internal!N$51/12</f>
+        <f>$F12*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S12" s="67">
@@ -4856,23 +4931,23 @@
         <v>0</v>
       </c>
       <c r="M13" s="67">
-        <f>$F13*Outputs_Internal!$D$51/12</f>
+        <f>$F13*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N13" s="67">
-        <f>$F13*Outputs_Internal!K$51/12</f>
+        <f>$F13*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O13" s="67">
-        <f>$F13*Outputs_Internal!L$51/12</f>
+        <f>$F13*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P13" s="67">
-        <f>$F13*Outputs_Internal!M$51/12</f>
+        <f>$F13*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q13" s="67">
-        <f>$F13*Outputs_Internal!N$51/12</f>
+        <f>$F13*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S13" s="67">
@@ -4930,23 +5005,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="67">
-        <f>$F14*Outputs_Internal!$D$51/12</f>
+        <f>$F14*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N14" s="67">
-        <f>$F14*Outputs_Internal!K$51/12</f>
+        <f>$F14*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O14" s="67">
-        <f>$F14*Outputs_Internal!L$51/12</f>
+        <f>$F14*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P14" s="67">
-        <f>$F14*Outputs_Internal!M$51/12</f>
+        <f>$F14*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q14" s="67">
-        <f>$F14*Outputs_Internal!N$51/12</f>
+        <f>$F14*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S14" s="67">
@@ -5004,23 +5079,23 @@
         <v>0</v>
       </c>
       <c r="M15" s="67">
-        <f>$F15*Outputs_Internal!$D$51/12</f>
+        <f>$F15*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N15" s="67">
-        <f>$F15*Outputs_Internal!K$51/12</f>
+        <f>$F15*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O15" s="67">
-        <f>$F15*Outputs_Internal!L$51/12</f>
+        <f>$F15*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P15" s="67">
-        <f>$F15*Outputs_Internal!M$51/12</f>
+        <f>$F15*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q15" s="67">
-        <f>$F15*Outputs_Internal!N$51/12</f>
+        <f>$F15*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S15" s="67">
@@ -5078,23 +5153,23 @@
         <v>0</v>
       </c>
       <c r="M16" s="67">
-        <f>$F16*Outputs_Internal!$D$51/12</f>
+        <f>$F16*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N16" s="67">
-        <f>$F16*Outputs_Internal!K$51/12</f>
+        <f>$F16*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O16" s="67">
-        <f>$F16*Outputs_Internal!L$51/12</f>
+        <f>$F16*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P16" s="67">
-        <f>$F16*Outputs_Internal!M$51/12</f>
+        <f>$F16*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q16" s="67">
-        <f>$F16*Outputs_Internal!N$51/12</f>
+        <f>$F16*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S16" s="67">
@@ -5152,23 +5227,23 @@
         <v>0</v>
       </c>
       <c r="M17" s="67">
-        <f>$F17*Outputs_Internal!$D$51/12</f>
+        <f>$F17*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N17" s="67">
-        <f>$F17*Outputs_Internal!K$51/12</f>
+        <f>$F17*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O17" s="67">
-        <f>$F17*Outputs_Internal!L$51/12</f>
+        <f>$F17*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P17" s="67">
-        <f>$F17*Outputs_Internal!M$51/12</f>
+        <f>$F17*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q17" s="67">
-        <f>$F17*Outputs_Internal!N$51/12</f>
+        <f>$F17*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S17" s="67">
@@ -5226,23 +5301,23 @@
         <v>0</v>
       </c>
       <c r="M18" s="67">
-        <f>$F18*Outputs_Internal!$D$51/12</f>
+        <f>$F18*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N18" s="67">
-        <f>$F18*Outputs_Internal!K$51/12</f>
+        <f>$F18*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O18" s="67">
-        <f>$F18*Outputs_Internal!L$51/12</f>
+        <f>$F18*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P18" s="67">
-        <f>$F18*Outputs_Internal!M$51/12</f>
+        <f>$F18*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="67">
-        <f>$F18*Outputs_Internal!N$51/12</f>
+        <f>$F18*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S18" s="67">
@@ -5300,23 +5375,23 @@
         <v>0</v>
       </c>
       <c r="M19" s="67">
-        <f>$F19*Outputs_Internal!$D$51/12</f>
+        <f>$F19*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N19" s="67">
-        <f>$F19*Outputs_Internal!K$51/12</f>
+        <f>$F19*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O19" s="67">
-        <f>$F19*Outputs_Internal!L$51/12</f>
+        <f>$F19*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P19" s="67">
-        <f>$F19*Outputs_Internal!M$51/12</f>
+        <f>$F19*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q19" s="67">
-        <f>$F19*Outputs_Internal!N$51/12</f>
+        <f>$F19*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S19" s="67">
@@ -5374,23 +5449,23 @@
         <v>0</v>
       </c>
       <c r="M20" s="67">
-        <f>$F20*Outputs_Internal!$D$51/12</f>
+        <f>$F20*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N20" s="67">
-        <f>$F20*Outputs_Internal!K$51/12</f>
+        <f>$F20*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O20" s="67">
-        <f>$F20*Outputs_Internal!L$51/12</f>
+        <f>$F20*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P20" s="67">
-        <f>$F20*Outputs_Internal!M$51/12</f>
+        <f>$F20*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q20" s="67">
-        <f>$F20*Outputs_Internal!N$51/12</f>
+        <f>$F20*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S20" s="67">
@@ -5448,23 +5523,23 @@
         <v>0</v>
       </c>
       <c r="M21" s="67">
-        <f>$F21*Outputs_Internal!$D$51/12</f>
+        <f>$F21*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N21" s="67">
-        <f>$F21*Outputs_Internal!K$51/12</f>
+        <f>$F21*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O21" s="67">
-        <f>$F21*Outputs_Internal!L$51/12</f>
+        <f>$F21*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P21" s="67">
-        <f>$F21*Outputs_Internal!M$51/12</f>
+        <f>$F21*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q21" s="67">
-        <f>$F21*Outputs_Internal!N$51/12</f>
+        <f>$F21*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S21" s="67">
@@ -5522,23 +5597,23 @@
         <v>0</v>
       </c>
       <c r="M22" s="67">
-        <f>$F22*Outputs_Internal!$D$51/12</f>
+        <f>$F22*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N22" s="67">
-        <f>$F22*Outputs_Internal!K$51/12</f>
+        <f>$F22*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O22" s="67">
-        <f>$F22*Outputs_Internal!L$51/12</f>
+        <f>$F22*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P22" s="67">
-        <f>$F22*Outputs_Internal!M$51/12</f>
+        <f>$F22*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q22" s="67">
-        <f>$F22*Outputs_Internal!N$51/12</f>
+        <f>$F22*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S22" s="67">
@@ -5596,23 +5671,23 @@
         <v>0</v>
       </c>
       <c r="M23" s="67">
-        <f>$F23*Outputs_Internal!$D$51/12</f>
+        <f>$F23*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N23" s="67">
-        <f>$F23*Outputs_Internal!K$51/12</f>
+        <f>$F23*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O23" s="67">
-        <f>$F23*Outputs_Internal!L$51/12</f>
+        <f>$F23*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P23" s="67">
-        <f>$F23*Outputs_Internal!M$51/12</f>
+        <f>$F23*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q23" s="67">
-        <f>$F23*Outputs_Internal!N$51/12</f>
+        <f>$F23*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S23" s="67">
@@ -5670,23 +5745,23 @@
         <v>0</v>
       </c>
       <c r="M24" s="67">
-        <f>$F24*Outputs_Internal!$D$51/12</f>
+        <f>$F24*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N24" s="67">
-        <f>$F24*Outputs_Internal!K$51/12</f>
+        <f>$F24*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O24" s="67">
-        <f>$F24*Outputs_Internal!L$51/12</f>
+        <f>$F24*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P24" s="67">
-        <f>$F24*Outputs_Internal!M$51/12</f>
+        <f>$F24*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q24" s="67">
-        <f>$F24*Outputs_Internal!N$51/12</f>
+        <f>$F24*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S24" s="67">
@@ -5744,23 +5819,23 @@
         <v>0</v>
       </c>
       <c r="M25" s="67">
-        <f>$F25*Outputs_Internal!$D$51/12</f>
+        <f>$F25*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N25" s="67">
-        <f>$F25*Outputs_Internal!K$51/12</f>
+        <f>$F25*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O25" s="67">
-        <f>$F25*Outputs_Internal!L$51/12</f>
+        <f>$F25*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P25" s="67">
-        <f>$F25*Outputs_Internal!M$51/12</f>
+        <f>$F25*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q25" s="67">
-        <f>$F25*Outputs_Internal!N$51/12</f>
+        <f>$F25*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S25" s="67">
@@ -5818,23 +5893,23 @@
         <v>0</v>
       </c>
       <c r="M26" s="67">
-        <f>$F26*Outputs_Internal!$D$51/12</f>
+        <f>$F26*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N26" s="67">
-        <f>$F26*Outputs_Internal!K$51/12</f>
+        <f>$F26*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O26" s="67">
-        <f>$F26*Outputs_Internal!L$51/12</f>
+        <f>$F26*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P26" s="67">
-        <f>$F26*Outputs_Internal!M$51/12</f>
+        <f>$F26*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q26" s="67">
-        <f>$F26*Outputs_Internal!N$51/12</f>
+        <f>$F26*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S26" s="67">
@@ -5892,23 +5967,23 @@
         <v>0</v>
       </c>
       <c r="M27" s="67">
-        <f>$F27*Outputs_Internal!$D$51/12</f>
+        <f>$F27*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N27" s="67">
-        <f>$F27*Outputs_Internal!K$51/12</f>
+        <f>$F27*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O27" s="67">
-        <f>$F27*Outputs_Internal!L$51/12</f>
+        <f>$F27*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P27" s="67">
-        <f>$F27*Outputs_Internal!M$51/12</f>
+        <f>$F27*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q27" s="67">
-        <f>$F27*Outputs_Internal!N$51/12</f>
+        <f>$F27*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S27" s="67">
@@ -5966,23 +6041,23 @@
         <v>0</v>
       </c>
       <c r="M28" s="67">
-        <f>$F28*Outputs_Internal!$D$51/12</f>
+        <f>$F28*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N28" s="67">
-        <f>$F28*Outputs_Internal!K$51/12</f>
+        <f>$F28*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O28" s="67">
-        <f>$F28*Outputs_Internal!L$51/12</f>
+        <f>$F28*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P28" s="67">
-        <f>$F28*Outputs_Internal!M$51/12</f>
+        <f>$F28*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q28" s="67">
-        <f>$F28*Outputs_Internal!N$51/12</f>
+        <f>$F28*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S28" s="67">
@@ -6040,23 +6115,23 @@
         <v>0</v>
       </c>
       <c r="M29" s="67">
-        <f>$F29*Outputs_Internal!$D$51/12</f>
+        <f>$F29*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N29" s="67">
-        <f>$F29*Outputs_Internal!K$51/12</f>
+        <f>$F29*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O29" s="67">
-        <f>$F29*Outputs_Internal!L$51/12</f>
+        <f>$F29*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P29" s="67">
-        <f>$F29*Outputs_Internal!M$51/12</f>
+        <f>$F29*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q29" s="67">
-        <f>$F29*Outputs_Internal!N$51/12</f>
+        <f>$F29*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S29" s="67">
@@ -6114,23 +6189,23 @@
         <v>0</v>
       </c>
       <c r="M30" s="67">
-        <f>$F30*Outputs_Internal!$D$51/12</f>
+        <f>$F30*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N30" s="67">
-        <f>$F30*Outputs_Internal!K$51/12</f>
+        <f>$F30*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O30" s="67">
-        <f>$F30*Outputs_Internal!L$51/12</f>
+        <f>$F30*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P30" s="67">
-        <f>$F30*Outputs_Internal!M$51/12</f>
+        <f>$F30*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q30" s="67">
-        <f>$F30*Outputs_Internal!N$51/12</f>
+        <f>$F30*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S30" s="67">
@@ -6188,23 +6263,23 @@
         <v>0</v>
       </c>
       <c r="M31" s="67">
-        <f>$F31*Outputs_Internal!$D$51/12</f>
+        <f>$F31*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N31" s="67">
-        <f>$F31*Outputs_Internal!K$51/12</f>
+        <f>$F31*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O31" s="67">
-        <f>$F31*Outputs_Internal!L$51/12</f>
+        <f>$F31*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P31" s="67">
-        <f>$F31*Outputs_Internal!M$51/12</f>
+        <f>$F31*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q31" s="67">
-        <f>$F31*Outputs_Internal!N$51/12</f>
+        <f>$F31*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S31" s="67">
@@ -6262,23 +6337,23 @@
         <v>0</v>
       </c>
       <c r="M32" s="67">
-        <f>$F32*Outputs_Internal!$D$51/12</f>
+        <f>$F32*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N32" s="67">
-        <f>$F32*Outputs_Internal!K$51/12</f>
+        <f>$F32*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O32" s="67">
-        <f>$F32*Outputs_Internal!L$51/12</f>
+        <f>$F32*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P32" s="67">
-        <f>$F32*Outputs_Internal!M$51/12</f>
+        <f>$F32*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q32" s="67">
-        <f>$F32*Outputs_Internal!N$51/12</f>
+        <f>$F32*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S32" s="67">
@@ -6336,23 +6411,23 @@
         <v>0</v>
       </c>
       <c r="M33" s="67">
-        <f>$F33*Outputs_Internal!$D$51/12</f>
+        <f>$F33*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N33" s="67">
-        <f>$F33*Outputs_Internal!K$51/12</f>
+        <f>$F33*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O33" s="67">
-        <f>$F33*Outputs_Internal!L$51/12</f>
+        <f>$F33*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P33" s="67">
-        <f>$F33*Outputs_Internal!M$51/12</f>
+        <f>$F33*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q33" s="67">
-        <f>$F33*Outputs_Internal!N$51/12</f>
+        <f>$F33*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S33" s="67">
@@ -6410,23 +6485,23 @@
         <v>0</v>
       </c>
       <c r="M34" s="67">
-        <f>$F34*Outputs_Internal!$D$51/12</f>
+        <f>$F34*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N34" s="67">
-        <f>$F34*Outputs_Internal!K$51/12</f>
+        <f>$F34*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O34" s="67">
-        <f>$F34*Outputs_Internal!L$51/12</f>
+        <f>$F34*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P34" s="67">
-        <f>$F34*Outputs_Internal!M$51/12</f>
+        <f>$F34*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q34" s="67">
-        <f>$F34*Outputs_Internal!N$51/12</f>
+        <f>$F34*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S34" s="67">
@@ -6484,23 +6559,23 @@
         <v>0</v>
       </c>
       <c r="M35" s="67">
-        <f>$F35*Outputs_Internal!$D$51/12</f>
+        <f>$F35*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N35" s="67">
-        <f>$F35*Outputs_Internal!K$51/12</f>
+        <f>$F35*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O35" s="67">
-        <f>$F35*Outputs_Internal!L$51/12</f>
+        <f>$F35*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P35" s="67">
-        <f>$F35*Outputs_Internal!M$51/12</f>
+        <f>$F35*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q35" s="67">
-        <f>$F35*Outputs_Internal!N$51/12</f>
+        <f>$F35*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S35" s="67">
@@ -6558,23 +6633,23 @@
         <v>0</v>
       </c>
       <c r="M36" s="67">
-        <f>$F36*Outputs_Internal!$D$51/12</f>
+        <f>$F36*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N36" s="67">
-        <f>$F36*Outputs_Internal!K$51/12</f>
+        <f>$F36*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O36" s="67">
-        <f>$F36*Outputs_Internal!L$51/12</f>
+        <f>$F36*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P36" s="67">
-        <f>$F36*Outputs_Internal!M$51/12</f>
+        <f>$F36*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q36" s="67">
-        <f>$F36*Outputs_Internal!N$51/12</f>
+        <f>$F36*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S36" s="67">
@@ -6632,23 +6707,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="67">
-        <f>$F37*Outputs_Internal!$D$51/12</f>
+        <f>$F37*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N37" s="67">
-        <f>$F37*Outputs_Internal!K$51/12</f>
+        <f>$F37*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O37" s="67">
-        <f>$F37*Outputs_Internal!L$51/12</f>
+        <f>$F37*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P37" s="67">
-        <f>$F37*Outputs_Internal!M$51/12</f>
+        <f>$F37*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q37" s="67">
-        <f>$F37*Outputs_Internal!N$51/12</f>
+        <f>$F37*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S37" s="67">
@@ -6706,23 +6781,23 @@
         <v>0</v>
       </c>
       <c r="M38" s="67">
-        <f>$F38*Outputs_Internal!$D$51/12</f>
+        <f>$F38*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N38" s="67">
-        <f>$F38*Outputs_Internal!K$51/12</f>
+        <f>$F38*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O38" s="67">
-        <f>$F38*Outputs_Internal!L$51/12</f>
+        <f>$F38*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P38" s="67">
-        <f>$F38*Outputs_Internal!M$51/12</f>
+        <f>$F38*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q38" s="67">
-        <f>$F38*Outputs_Internal!N$51/12</f>
+        <f>$F38*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S38" s="67">
@@ -6780,23 +6855,23 @@
         <v>0</v>
       </c>
       <c r="M39" s="67">
-        <f>$F39*Outputs_Internal!$D$51/12</f>
+        <f>$F39*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N39" s="67">
-        <f>$F39*Outputs_Internal!K$51/12</f>
+        <f>$F39*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O39" s="67">
-        <f>$F39*Outputs_Internal!L$51/12</f>
+        <f>$F39*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P39" s="67">
-        <f>$F39*Outputs_Internal!M$51/12</f>
+        <f>$F39*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q39" s="67">
-        <f>$F39*Outputs_Internal!N$51/12</f>
+        <f>$F39*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S39" s="67">
@@ -6854,23 +6929,23 @@
         <v>0</v>
       </c>
       <c r="M40" s="67">
-        <f>$F40*Outputs_Internal!$D$51/12</f>
+        <f>$F40*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N40" s="67">
-        <f>$F40*Outputs_Internal!K$51/12</f>
+        <f>$F40*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O40" s="67">
-        <f>$F40*Outputs_Internal!L$51/12</f>
+        <f>$F40*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P40" s="67">
-        <f>$F40*Outputs_Internal!M$51/12</f>
+        <f>$F40*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q40" s="67">
-        <f>$F40*Outputs_Internal!N$51/12</f>
+        <f>$F40*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S40" s="67">
@@ -6928,23 +7003,23 @@
         <v>0</v>
       </c>
       <c r="M41" s="67">
-        <f>$F41*Outputs_Internal!$D$51/12</f>
+        <f>$F41*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N41" s="67">
-        <f>$F41*Outputs_Internal!K$51/12</f>
+        <f>$F41*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O41" s="67">
-        <f>$F41*Outputs_Internal!L$51/12</f>
+        <f>$F41*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P41" s="67">
-        <f>$F41*Outputs_Internal!M$51/12</f>
+        <f>$F41*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q41" s="67">
-        <f>$F41*Outputs_Internal!N$51/12</f>
+        <f>$F41*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S41" s="67">
@@ -7002,23 +7077,23 @@
         <v>0</v>
       </c>
       <c r="M42" s="67">
-        <f>$F42*Outputs_Internal!$D$51/12</f>
+        <f>$F42*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N42" s="67">
-        <f>$F42*Outputs_Internal!K$51/12</f>
+        <f>$F42*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O42" s="67">
-        <f>$F42*Outputs_Internal!L$51/12</f>
+        <f>$F42*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P42" s="67">
-        <f>$F42*Outputs_Internal!M$51/12</f>
+        <f>$F42*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q42" s="67">
-        <f>$F42*Outputs_Internal!N$51/12</f>
+        <f>$F42*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S42" s="67">
@@ -7076,23 +7151,23 @@
         <v>0</v>
       </c>
       <c r="M43" s="67">
-        <f>$F43*Outputs_Internal!$D$51/12</f>
+        <f>$F43*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N43" s="67">
-        <f>$F43*Outputs_Internal!K$51/12</f>
+        <f>$F43*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O43" s="67">
-        <f>$F43*Outputs_Internal!L$51/12</f>
+        <f>$F43*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P43" s="67">
-        <f>$F43*Outputs_Internal!M$51/12</f>
+        <f>$F43*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q43" s="67">
-        <f>$F43*Outputs_Internal!N$51/12</f>
+        <f>$F43*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S43" s="67">
@@ -7150,23 +7225,23 @@
         <v>0</v>
       </c>
       <c r="M44" s="67">
-        <f>$F44*Outputs_Internal!$D$51/12</f>
+        <f>$F44*Outputs_Internal!$D$52/12</f>
         <v>3925</v>
       </c>
       <c r="N44" s="67">
-        <f>$F44*Outputs_Internal!K$51/12</f>
+        <f>$F44*Outputs_Internal!K$52/12</f>
         <v>1890</v>
       </c>
       <c r="O44" s="67">
-        <f>$F44*Outputs_Internal!L$51/12</f>
+        <f>$F44*Outputs_Internal!L$52/12</f>
         <v>1995</v>
       </c>
       <c r="P44" s="67">
-        <f>$F44*Outputs_Internal!M$51/12</f>
+        <f>$F44*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q44" s="67">
-        <f>$F44*Outputs_Internal!N$51/12</f>
+        <f>$F44*Outputs_Internal!N$52/12</f>
         <v>40</v>
       </c>
       <c r="S44" s="67">
@@ -7224,23 +7299,23 @@
         <v>0</v>
       </c>
       <c r="M45" s="67">
-        <f>$F45*Outputs_Internal!$D$51/12</f>
+        <f>$F45*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N45" s="67">
-        <f>$F45*Outputs_Internal!K$51/12</f>
+        <f>$F45*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O45" s="67">
-        <f>$F45*Outputs_Internal!L$51/12</f>
+        <f>$F45*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P45" s="67">
-        <f>$F45*Outputs_Internal!M$51/12</f>
+        <f>$F45*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q45" s="67">
-        <f>$F45*Outputs_Internal!N$51/12</f>
+        <f>$F45*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S45" s="67">
@@ -7298,23 +7373,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="67">
-        <f>$F46*Outputs_Internal!$D$51/12</f>
+        <f>$F46*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N46" s="67">
-        <f>$F46*Outputs_Internal!K$51/12</f>
+        <f>$F46*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O46" s="67">
-        <f>$F46*Outputs_Internal!L$51/12</f>
+        <f>$F46*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P46" s="67">
-        <f>$F46*Outputs_Internal!M$51/12</f>
+        <f>$F46*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q46" s="67">
-        <f>$F46*Outputs_Internal!N$51/12</f>
+        <f>$F46*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S46" s="67">
@@ -7372,23 +7447,23 @@
         <v>0</v>
       </c>
       <c r="M47" s="67">
-        <f>$F47*Outputs_Internal!$D$51/12</f>
+        <f>$F47*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N47" s="67">
-        <f>$F47*Outputs_Internal!K$51/12</f>
+        <f>$F47*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O47" s="67">
-        <f>$F47*Outputs_Internal!L$51/12</f>
+        <f>$F47*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P47" s="67">
-        <f>$F47*Outputs_Internal!M$51/12</f>
+        <f>$F47*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q47" s="67">
-        <f>$F47*Outputs_Internal!N$51/12</f>
+        <f>$F47*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S47" s="67">
@@ -7446,23 +7521,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="67">
-        <f>$F48*Outputs_Internal!$D$51/12</f>
+        <f>$F48*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N48" s="67">
-        <f>$F48*Outputs_Internal!K$51/12</f>
+        <f>$F48*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O48" s="67">
-        <f>$F48*Outputs_Internal!L$51/12</f>
+        <f>$F48*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P48" s="67">
-        <f>$F48*Outputs_Internal!M$51/12</f>
+        <f>$F48*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q48" s="67">
-        <f>$F48*Outputs_Internal!N$51/12</f>
+        <f>$F48*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S48" s="67">
@@ -7520,23 +7595,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="67">
-        <f>$F49*Outputs_Internal!$D$51/12</f>
+        <f>$F49*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N49" s="67">
-        <f>$F49*Outputs_Internal!K$51/12</f>
+        <f>$F49*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O49" s="67">
-        <f>$F49*Outputs_Internal!L$51/12</f>
+        <f>$F49*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P49" s="67">
-        <f>$F49*Outputs_Internal!M$51/12</f>
+        <f>$F49*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q49" s="67">
-        <f>$F49*Outputs_Internal!N$51/12</f>
+        <f>$F49*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S49" s="67">
@@ -7594,23 +7669,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="67">
-        <f>$F50*Outputs_Internal!$D$51/12</f>
+        <f>$F50*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N50" s="67">
-        <f>$F50*Outputs_Internal!K$51/12</f>
+        <f>$F50*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O50" s="67">
-        <f>$F50*Outputs_Internal!L$51/12</f>
+        <f>$F50*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P50" s="67">
-        <f>$F50*Outputs_Internal!M$51/12</f>
+        <f>$F50*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q50" s="67">
-        <f>$F50*Outputs_Internal!N$51/12</f>
+        <f>$F50*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S50" s="67">
@@ -7668,23 +7743,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="67">
-        <f>$F51*Outputs_Internal!$D$51/12</f>
+        <f>$F51*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N51" s="67">
-        <f>$F51*Outputs_Internal!K$51/12</f>
+        <f>$F51*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O51" s="67">
-        <f>$F51*Outputs_Internal!L$51/12</f>
+        <f>$F51*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P51" s="67">
-        <f>$F51*Outputs_Internal!M$51/12</f>
+        <f>$F51*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q51" s="67">
-        <f>$F51*Outputs_Internal!N$51/12</f>
+        <f>$F51*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S51" s="67">
@@ -7742,23 +7817,23 @@
         <v>0</v>
       </c>
       <c r="M52" s="67">
-        <f>$F52*Outputs_Internal!$D$51/12</f>
+        <f>$F52*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N52" s="67">
-        <f>$F52*Outputs_Internal!K$51/12</f>
+        <f>$F52*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O52" s="67">
-        <f>$F52*Outputs_Internal!L$51/12</f>
+        <f>$F52*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P52" s="67">
-        <f>$F52*Outputs_Internal!M$51/12</f>
+        <f>$F52*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q52" s="67">
-        <f>$F52*Outputs_Internal!N$51/12</f>
+        <f>$F52*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S52" s="67">
@@ -7816,23 +7891,23 @@
         <v>0</v>
       </c>
       <c r="M53" s="67">
-        <f>$F53*Outputs_Internal!$D$51/12</f>
+        <f>$F53*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N53" s="67">
-        <f>$F53*Outputs_Internal!K$51/12</f>
+        <f>$F53*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O53" s="67">
-        <f>$F53*Outputs_Internal!L$51/12</f>
+        <f>$F53*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P53" s="67">
-        <f>$F53*Outputs_Internal!M$51/12</f>
+        <f>$F53*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q53" s="67">
-        <f>$F53*Outputs_Internal!N$51/12</f>
+        <f>$F53*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S53" s="67">
@@ -7890,23 +7965,23 @@
         <v>0</v>
       </c>
       <c r="M54" s="67">
-        <f>$F54*Outputs_Internal!$D$51/12</f>
+        <f>$F54*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N54" s="67">
-        <f>$F54*Outputs_Internal!K$51/12</f>
+        <f>$F54*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O54" s="67">
-        <f>$F54*Outputs_Internal!L$51/12</f>
+        <f>$F54*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P54" s="67">
-        <f>$F54*Outputs_Internal!M$51/12</f>
+        <f>$F54*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q54" s="67">
-        <f>$F54*Outputs_Internal!N$51/12</f>
+        <f>$F54*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S54" s="67">
@@ -7964,23 +8039,23 @@
         <v>0</v>
       </c>
       <c r="M55" s="67">
-        <f>$F55*Outputs_Internal!$D$51/12</f>
+        <f>$F55*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N55" s="67">
-        <f>$F55*Outputs_Internal!K$51/12</f>
+        <f>$F55*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O55" s="67">
-        <f>$F55*Outputs_Internal!L$51/12</f>
+        <f>$F55*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P55" s="67">
-        <f>$F55*Outputs_Internal!M$51/12</f>
+        <f>$F55*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q55" s="67">
-        <f>$F55*Outputs_Internal!N$51/12</f>
+        <f>$F55*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S55" s="67">
@@ -8038,23 +8113,23 @@
         <v>0</v>
       </c>
       <c r="M56" s="67">
-        <f>$F56*Outputs_Internal!$D$51/12</f>
+        <f>$F56*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N56" s="67">
-        <f>$F56*Outputs_Internal!K$51/12</f>
+        <f>$F56*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O56" s="67">
-        <f>$F56*Outputs_Internal!L$51/12</f>
+        <f>$F56*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P56" s="67">
-        <f>$F56*Outputs_Internal!M$51/12</f>
+        <f>$F56*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q56" s="67">
-        <f>$F56*Outputs_Internal!N$51/12</f>
+        <f>$F56*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S56" s="67">
@@ -8112,23 +8187,23 @@
         <v>0</v>
       </c>
       <c r="M57" s="67">
-        <f>$F57*Outputs_Internal!$D$51/12</f>
+        <f>$F57*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N57" s="67">
-        <f>$F57*Outputs_Internal!K$51/12</f>
+        <f>$F57*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O57" s="67">
-        <f>$F57*Outputs_Internal!L$51/12</f>
+        <f>$F57*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P57" s="67">
-        <f>$F57*Outputs_Internal!M$51/12</f>
+        <f>$F57*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q57" s="67">
-        <f>$F57*Outputs_Internal!N$51/12</f>
+        <f>$F57*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S57" s="67">
@@ -8186,23 +8261,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="67">
-        <f>$F58*Outputs_Internal!$D$51/12</f>
+        <f>$F58*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N58" s="67">
-        <f>$F58*Outputs_Internal!K$51/12</f>
+        <f>$F58*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O58" s="67">
-        <f>$F58*Outputs_Internal!L$51/12</f>
+        <f>$F58*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P58" s="67">
-        <f>$F58*Outputs_Internal!M$51/12</f>
+        <f>$F58*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q58" s="67">
-        <f>$F58*Outputs_Internal!N$51/12</f>
+        <f>$F58*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S58" s="67">
@@ -8260,23 +8335,23 @@
         <v>0</v>
       </c>
       <c r="M59" s="67">
-        <f>$F59*Outputs_Internal!$D$51/12</f>
+        <f>$F59*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N59" s="67">
-        <f>$F59*Outputs_Internal!K$51/12</f>
+        <f>$F59*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O59" s="67">
-        <f>$F59*Outputs_Internal!L$51/12</f>
+        <f>$F59*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P59" s="67">
-        <f>$F59*Outputs_Internal!M$51/12</f>
+        <f>$F59*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q59" s="67">
-        <f>$F59*Outputs_Internal!N$51/12</f>
+        <f>$F59*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S59" s="67">
@@ -8334,23 +8409,23 @@
         <v>0</v>
       </c>
       <c r="M60" s="67">
-        <f>$F60*Outputs_Internal!$D$51/12</f>
+        <f>$F60*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N60" s="67">
-        <f>$F60*Outputs_Internal!K$51/12</f>
+        <f>$F60*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O60" s="67">
-        <f>$F60*Outputs_Internal!L$51/12</f>
+        <f>$F60*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P60" s="67">
-        <f>$F60*Outputs_Internal!M$51/12</f>
+        <f>$F60*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q60" s="67">
-        <f>$F60*Outputs_Internal!N$51/12</f>
+        <f>$F60*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S60" s="67">
@@ -8408,23 +8483,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="67">
-        <f>$F61*Outputs_Internal!$D$51/12</f>
+        <f>$F61*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N61" s="67">
-        <f>$F61*Outputs_Internal!K$51/12</f>
+        <f>$F61*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O61" s="67">
-        <f>$F61*Outputs_Internal!L$51/12</f>
+        <f>$F61*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P61" s="67">
-        <f>$F61*Outputs_Internal!M$51/12</f>
+        <f>$F61*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q61" s="67">
-        <f>$F61*Outputs_Internal!N$51/12</f>
+        <f>$F61*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S61" s="67">
@@ -8482,23 +8557,23 @@
         <v>0</v>
       </c>
       <c r="M62" s="67">
-        <f>$F62*Outputs_Internal!$D$51/12</f>
+        <f>$F62*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N62" s="67">
-        <f>$F62*Outputs_Internal!K$51/12</f>
+        <f>$F62*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O62" s="67">
-        <f>$F62*Outputs_Internal!L$51/12</f>
+        <f>$F62*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P62" s="67">
-        <f>$F62*Outputs_Internal!M$51/12</f>
+        <f>$F62*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q62" s="67">
-        <f>$F62*Outputs_Internal!N$51/12</f>
+        <f>$F62*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S62" s="67">
@@ -8556,23 +8631,23 @@
         <v>0</v>
       </c>
       <c r="M63" s="67">
-        <f>$F63*Outputs_Internal!$D$51/12</f>
+        <f>$F63*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N63" s="67">
-        <f>$F63*Outputs_Internal!K$51/12</f>
+        <f>$F63*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O63" s="67">
-        <f>$F63*Outputs_Internal!L$51/12</f>
+        <f>$F63*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P63" s="67">
-        <f>$F63*Outputs_Internal!M$51/12</f>
+        <f>$F63*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q63" s="67">
-        <f>$F63*Outputs_Internal!N$51/12</f>
+        <f>$F63*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S63" s="67">
@@ -8630,23 +8705,23 @@
         <v>0</v>
       </c>
       <c r="M64" s="67">
-        <f>$F64*Outputs_Internal!$D$51/12</f>
+        <f>$F64*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N64" s="67">
-        <f>$F64*Outputs_Internal!K$51/12</f>
+        <f>$F64*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O64" s="67">
-        <f>$F64*Outputs_Internal!L$51/12</f>
+        <f>$F64*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P64" s="67">
-        <f>$F64*Outputs_Internal!M$51/12</f>
+        <f>$F64*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q64" s="67">
-        <f>$F64*Outputs_Internal!N$51/12</f>
+        <f>$F64*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S64" s="67">
@@ -8704,23 +8779,23 @@
         <v>0</v>
       </c>
       <c r="M65" s="67">
-        <f>$F65*Outputs_Internal!$D$51/12</f>
+        <f>$F65*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N65" s="67">
-        <f>$F65*Outputs_Internal!K$51/12</f>
+        <f>$F65*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O65" s="67">
-        <f>$F65*Outputs_Internal!L$51/12</f>
+        <f>$F65*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P65" s="67">
-        <f>$F65*Outputs_Internal!M$51/12</f>
+        <f>$F65*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q65" s="67">
-        <f>$F65*Outputs_Internal!N$51/12</f>
+        <f>$F65*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S65" s="67">
@@ -8778,23 +8853,23 @@
         <v>0</v>
       </c>
       <c r="M66" s="67">
-        <f>$F66*Outputs_Internal!$D$51/12</f>
+        <f>$F66*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N66" s="67">
-        <f>$F66*Outputs_Internal!K$51/12</f>
+        <f>$F66*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O66" s="67">
-        <f>$F66*Outputs_Internal!L$51/12</f>
+        <f>$F66*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P66" s="67">
-        <f>$F66*Outputs_Internal!M$51/12</f>
+        <f>$F66*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q66" s="67">
-        <f>$F66*Outputs_Internal!N$51/12</f>
+        <f>$F66*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S66" s="67">
@@ -8852,23 +8927,23 @@
         <v>0</v>
       </c>
       <c r="M67" s="67">
-        <f>$F67*Outputs_Internal!$D$51/12</f>
+        <f>$F67*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N67" s="67">
-        <f>$F67*Outputs_Internal!K$51/12</f>
+        <f>$F67*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O67" s="67">
-        <f>$F67*Outputs_Internal!L$51/12</f>
+        <f>$F67*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P67" s="67">
-        <f>$F67*Outputs_Internal!M$51/12</f>
+        <f>$F67*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q67" s="67">
-        <f>$F67*Outputs_Internal!N$51/12</f>
+        <f>$F67*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S67" s="67">
@@ -8926,23 +9001,23 @@
         <v>0</v>
       </c>
       <c r="M68" s="67">
-        <f>$F68*Outputs_Internal!$D$51/12</f>
+        <f>$F68*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N68" s="67">
-        <f>$F68*Outputs_Internal!K$51/12</f>
+        <f>$F68*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O68" s="67">
-        <f>$F68*Outputs_Internal!L$51/12</f>
+        <f>$F68*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P68" s="67">
-        <f>$F68*Outputs_Internal!M$51/12</f>
+        <f>$F68*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q68" s="67">
-        <f>$F68*Outputs_Internal!N$51/12</f>
+        <f>$F68*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S68" s="67">
@@ -9000,23 +9075,23 @@
         <v>0</v>
       </c>
       <c r="M69" s="67">
-        <f>$F69*Outputs_Internal!$D$51/12</f>
+        <f>$F69*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N69" s="67">
-        <f>$F69*Outputs_Internal!K$51/12</f>
+        <f>$F69*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O69" s="67">
-        <f>$F69*Outputs_Internal!L$51/12</f>
+        <f>$F69*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P69" s="67">
-        <f>$F69*Outputs_Internal!M$51/12</f>
+        <f>$F69*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q69" s="67">
-        <f>$F69*Outputs_Internal!N$51/12</f>
+        <f>$F69*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S69" s="67">
@@ -9074,23 +9149,23 @@
         <v>0</v>
       </c>
       <c r="M70" s="67">
-        <f>$F70*Outputs_Internal!$D$51/12</f>
+        <f>$F70*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N70" s="67">
-        <f>$F70*Outputs_Internal!K$51/12</f>
+        <f>$F70*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O70" s="67">
-        <f>$F70*Outputs_Internal!L$51/12</f>
+        <f>$F70*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P70" s="67">
-        <f>$F70*Outputs_Internal!M$51/12</f>
+        <f>$F70*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q70" s="67">
-        <f>$F70*Outputs_Internal!N$51/12</f>
+        <f>$F70*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S70" s="67">
@@ -9148,23 +9223,23 @@
         <v>0</v>
       </c>
       <c r="M71" s="67">
-        <f>$F71*Outputs_Internal!$D$51/12</f>
+        <f>$F71*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N71" s="67">
-        <f>$F71*Outputs_Internal!K$51/12</f>
+        <f>$F71*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O71" s="67">
-        <f>$F71*Outputs_Internal!L$51/12</f>
+        <f>$F71*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P71" s="67">
-        <f>$F71*Outputs_Internal!M$51/12</f>
+        <f>$F71*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q71" s="67">
-        <f>$F71*Outputs_Internal!N$51/12</f>
+        <f>$F71*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S71" s="67">
@@ -9222,23 +9297,23 @@
         <v>0</v>
       </c>
       <c r="M72" s="67">
-        <f>$F72*Outputs_Internal!$D$51/12</f>
+        <f>$F72*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N72" s="67">
-        <f>$F72*Outputs_Internal!K$51/12</f>
+        <f>$F72*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O72" s="67">
-        <f>$F72*Outputs_Internal!L$51/12</f>
+        <f>$F72*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P72" s="67">
-        <f>$F72*Outputs_Internal!M$51/12</f>
+        <f>$F72*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q72" s="67">
-        <f>$F72*Outputs_Internal!N$51/12</f>
+        <f>$F72*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S72" s="67">
@@ -9296,23 +9371,23 @@
         <v>0</v>
       </c>
       <c r="M73" s="67">
-        <f>$F73*Outputs_Internal!$D$51/12</f>
+        <f>$F73*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N73" s="67">
-        <f>$F73*Outputs_Internal!K$51/12</f>
+        <f>$F73*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O73" s="67">
-        <f>$F73*Outputs_Internal!L$51/12</f>
+        <f>$F73*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P73" s="67">
-        <f>$F73*Outputs_Internal!M$51/12</f>
+        <f>$F73*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q73" s="67">
-        <f>$F73*Outputs_Internal!N$51/12</f>
+        <f>$F73*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S73" s="67">
@@ -9370,23 +9445,23 @@
         <v>0</v>
       </c>
       <c r="M74" s="67">
-        <f>$F74*Outputs_Internal!$D$51/12</f>
+        <f>$F74*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N74" s="67">
-        <f>$F74*Outputs_Internal!K$51/12</f>
+        <f>$F74*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O74" s="67">
-        <f>$F74*Outputs_Internal!L$51/12</f>
+        <f>$F74*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P74" s="67">
-        <f>$F74*Outputs_Internal!M$51/12</f>
+        <f>$F74*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q74" s="67">
-        <f>$F74*Outputs_Internal!N$51/12</f>
+        <f>$F74*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S74" s="67">
@@ -9444,23 +9519,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="67">
-        <f>$F75*Outputs_Internal!$D$51/12</f>
+        <f>$F75*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N75" s="67">
-        <f>$F75*Outputs_Internal!K$51/12</f>
+        <f>$F75*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O75" s="67">
-        <f>$F75*Outputs_Internal!L$51/12</f>
+        <f>$F75*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P75" s="67">
-        <f>$F75*Outputs_Internal!M$51/12</f>
+        <f>$F75*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q75" s="67">
-        <f>$F75*Outputs_Internal!N$51/12</f>
+        <f>$F75*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S75" s="67">
@@ -9518,23 +9593,23 @@
         <v>0</v>
       </c>
       <c r="M76" s="67">
-        <f>$F76*Outputs_Internal!$D$51/12</f>
+        <f>$F76*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N76" s="67">
-        <f>$F76*Outputs_Internal!K$51/12</f>
+        <f>$F76*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O76" s="67">
-        <f>$F76*Outputs_Internal!L$51/12</f>
+        <f>$F76*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P76" s="67">
-        <f>$F76*Outputs_Internal!M$51/12</f>
+        <f>$F76*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q76" s="67">
-        <f>$F76*Outputs_Internal!N$51/12</f>
+        <f>$F76*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S76" s="67">
@@ -9592,23 +9667,23 @@
         <v>0</v>
       </c>
       <c r="M77" s="67">
-        <f>$F77*Outputs_Internal!$D$51/12</f>
+        <f>$F77*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N77" s="67">
-        <f>$F77*Outputs_Internal!K$51/12</f>
+        <f>$F77*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O77" s="67">
-        <f>$F77*Outputs_Internal!L$51/12</f>
+        <f>$F77*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P77" s="67">
-        <f>$F77*Outputs_Internal!M$51/12</f>
+        <f>$F77*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q77" s="67">
-        <f>$F77*Outputs_Internal!N$51/12</f>
+        <f>$F77*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S77" s="67">
@@ -9666,23 +9741,23 @@
         <v>0</v>
       </c>
       <c r="M78" s="67">
-        <f>$F78*Outputs_Internal!$D$51/12</f>
+        <f>$F78*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N78" s="67">
-        <f>$F78*Outputs_Internal!K$51/12</f>
+        <f>$F78*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O78" s="67">
-        <f>$F78*Outputs_Internal!L$51/12</f>
+        <f>$F78*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P78" s="67">
-        <f>$F78*Outputs_Internal!M$51/12</f>
+        <f>$F78*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q78" s="67">
-        <f>$F78*Outputs_Internal!N$51/12</f>
+        <f>$F78*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S78" s="67">
@@ -9740,23 +9815,23 @@
         <v>0</v>
       </c>
       <c r="M79" s="67">
-        <f>$F79*Outputs_Internal!$D$51/12</f>
+        <f>$F79*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N79" s="67">
-        <f>$F79*Outputs_Internal!K$51/12</f>
+        <f>$F79*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O79" s="67">
-        <f>$F79*Outputs_Internal!L$51/12</f>
+        <f>$F79*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P79" s="67">
-        <f>$F79*Outputs_Internal!M$51/12</f>
+        <f>$F79*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q79" s="67">
-        <f>$F79*Outputs_Internal!N$51/12</f>
+        <f>$F79*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S79" s="67">
@@ -9814,23 +9889,23 @@
         <v>0</v>
       </c>
       <c r="M80" s="67">
-        <f>$F80*Outputs_Internal!$D$51/12</f>
+        <f>$F80*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N80" s="67">
-        <f>$F80*Outputs_Internal!K$51/12</f>
+        <f>$F80*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O80" s="67">
-        <f>$F80*Outputs_Internal!L$51/12</f>
+        <f>$F80*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P80" s="67">
-        <f>$F80*Outputs_Internal!M$51/12</f>
+        <f>$F80*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q80" s="67">
-        <f>$F80*Outputs_Internal!N$51/12</f>
+        <f>$F80*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S80" s="67">
@@ -9888,23 +9963,23 @@
         <v>0</v>
       </c>
       <c r="M81" s="67">
-        <f>$F81*Outputs_Internal!$D$51/12</f>
+        <f>$F81*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N81" s="67">
-        <f>$F81*Outputs_Internal!K$51/12</f>
+        <f>$F81*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O81" s="67">
-        <f>$F81*Outputs_Internal!L$51/12</f>
+        <f>$F81*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P81" s="67">
-        <f>$F81*Outputs_Internal!M$51/12</f>
+        <f>$F81*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q81" s="67">
-        <f>$F81*Outputs_Internal!N$51/12</f>
+        <f>$F81*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S81" s="67">
@@ -9962,23 +10037,23 @@
         <v>0</v>
       </c>
       <c r="M82" s="67">
-        <f>$F82*Outputs_Internal!$D$51/12</f>
+        <f>$F82*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N82" s="67">
-        <f>$F82*Outputs_Internal!K$51/12</f>
+        <f>$F82*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O82" s="67">
-        <f>$F82*Outputs_Internal!L$51/12</f>
+        <f>$F82*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P82" s="67">
-        <f>$F82*Outputs_Internal!M$51/12</f>
+        <f>$F82*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q82" s="67">
-        <f>$F82*Outputs_Internal!N$51/12</f>
+        <f>$F82*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S82" s="67">
@@ -10036,23 +10111,23 @@
         <v>0</v>
       </c>
       <c r="M83" s="67">
-        <f>$F83*Outputs_Internal!$D$51/12</f>
+        <f>$F83*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N83" s="67">
-        <f>$F83*Outputs_Internal!K$51/12</f>
+        <f>$F83*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O83" s="67">
-        <f>$F83*Outputs_Internal!L$51/12</f>
+        <f>$F83*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P83" s="67">
-        <f>$F83*Outputs_Internal!M$51/12</f>
+        <f>$F83*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q83" s="67">
-        <f>$F83*Outputs_Internal!N$51/12</f>
+        <f>$F83*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S83" s="67">
@@ -10110,23 +10185,23 @@
         <v>0</v>
       </c>
       <c r="M84" s="67">
-        <f>$F84*Outputs_Internal!$D$51/12</f>
+        <f>$F84*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N84" s="67">
-        <f>$F84*Outputs_Internal!K$51/12</f>
+        <f>$F84*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O84" s="67">
-        <f>$F84*Outputs_Internal!L$51/12</f>
+        <f>$F84*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P84" s="67">
-        <f>$F84*Outputs_Internal!M$51/12</f>
+        <f>$F84*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q84" s="67">
-        <f>$F84*Outputs_Internal!N$51/12</f>
+        <f>$F84*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S84" s="67">
@@ -10184,23 +10259,23 @@
         <v>0</v>
       </c>
       <c r="M85" s="67">
-        <f>$F85*Outputs_Internal!$D$51/12</f>
+        <f>$F85*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N85" s="67">
-        <f>$F85*Outputs_Internal!K$51/12</f>
+        <f>$F85*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O85" s="67">
-        <f>$F85*Outputs_Internal!L$51/12</f>
+        <f>$F85*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P85" s="67">
-        <f>$F85*Outputs_Internal!M$51/12</f>
+        <f>$F85*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q85" s="67">
-        <f>$F85*Outputs_Internal!N$51/12</f>
+        <f>$F85*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S85" s="67">
@@ -10258,23 +10333,23 @@
         <v>0</v>
       </c>
       <c r="M86" s="67">
-        <f>$F86*Outputs_Internal!$D$51/12</f>
+        <f>$F86*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N86" s="67">
-        <f>$F86*Outputs_Internal!K$51/12</f>
+        <f>$F86*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O86" s="67">
-        <f>$F86*Outputs_Internal!L$51/12</f>
+        <f>$F86*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P86" s="67">
-        <f>$F86*Outputs_Internal!M$51/12</f>
+        <f>$F86*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q86" s="67">
-        <f>$F86*Outputs_Internal!N$51/12</f>
+        <f>$F86*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S86" s="67">
@@ -10332,23 +10407,23 @@
         <v>0</v>
       </c>
       <c r="M87" s="67">
-        <f>$F87*Outputs_Internal!$D$51/12</f>
+        <f>$F87*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N87" s="67">
-        <f>$F87*Outputs_Internal!K$51/12</f>
+        <f>$F87*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O87" s="67">
-        <f>$F87*Outputs_Internal!L$51/12</f>
+        <f>$F87*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P87" s="67">
-        <f>$F87*Outputs_Internal!M$51/12</f>
+        <f>$F87*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q87" s="67">
-        <f>$F87*Outputs_Internal!N$51/12</f>
+        <f>$F87*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S87" s="67">
@@ -10406,23 +10481,23 @@
         <v>0</v>
       </c>
       <c r="M88" s="67">
-        <f>$F88*Outputs_Internal!$D$51/12</f>
+        <f>$F88*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N88" s="67">
-        <f>$F88*Outputs_Internal!K$51/12</f>
+        <f>$F88*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O88" s="67">
-        <f>$F88*Outputs_Internal!L$51/12</f>
+        <f>$F88*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P88" s="67">
-        <f>$F88*Outputs_Internal!M$51/12</f>
+        <f>$F88*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q88" s="67">
-        <f>$F88*Outputs_Internal!N$51/12</f>
+        <f>$F88*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S88" s="67">
@@ -10480,23 +10555,23 @@
         <v>0</v>
       </c>
       <c r="M89" s="67">
-        <f>$F89*Outputs_Internal!$D$51/12</f>
+        <f>$F89*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N89" s="67">
-        <f>$F89*Outputs_Internal!K$51/12</f>
+        <f>$F89*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O89" s="67">
-        <f>$F89*Outputs_Internal!L$51/12</f>
+        <f>$F89*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P89" s="67">
-        <f>$F89*Outputs_Internal!M$51/12</f>
+        <f>$F89*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q89" s="67">
-        <f>$F89*Outputs_Internal!N$51/12</f>
+        <f>$F89*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S89" s="67">
@@ -10554,23 +10629,23 @@
         <v>0</v>
       </c>
       <c r="M90" s="67">
-        <f>$F90*Outputs_Internal!$D$51/12</f>
+        <f>$F90*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N90" s="67">
-        <f>$F90*Outputs_Internal!K$51/12</f>
+        <f>$F90*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O90" s="67">
-        <f>$F90*Outputs_Internal!L$51/12</f>
+        <f>$F90*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P90" s="67">
-        <f>$F90*Outputs_Internal!M$51/12</f>
+        <f>$F90*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q90" s="67">
-        <f>$F90*Outputs_Internal!N$51/12</f>
+        <f>$F90*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S90" s="67">
@@ -10628,23 +10703,23 @@
         <v>0</v>
       </c>
       <c r="M91" s="67">
-        <f>$F91*Outputs_Internal!$D$51/12</f>
+        <f>$F91*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N91" s="67">
-        <f>$F91*Outputs_Internal!K$51/12</f>
+        <f>$F91*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O91" s="67">
-        <f>$F91*Outputs_Internal!L$51/12</f>
+        <f>$F91*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P91" s="67">
-        <f>$F91*Outputs_Internal!M$51/12</f>
+        <f>$F91*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q91" s="67">
-        <f>$F91*Outputs_Internal!N$51/12</f>
+        <f>$F91*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S91" s="67">
@@ -10702,23 +10777,23 @@
         <v>0</v>
       </c>
       <c r="M92" s="67">
-        <f>$F92*Outputs_Internal!$D$51/12</f>
+        <f>$F92*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N92" s="67">
-        <f>$F92*Outputs_Internal!K$51/12</f>
+        <f>$F92*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O92" s="67">
-        <f>$F92*Outputs_Internal!L$51/12</f>
+        <f>$F92*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P92" s="67">
-        <f>$F92*Outputs_Internal!M$51/12</f>
+        <f>$F92*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q92" s="67">
-        <f>$F92*Outputs_Internal!N$51/12</f>
+        <f>$F92*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S92" s="67">
@@ -10776,23 +10851,23 @@
         <v>0</v>
       </c>
       <c r="M93" s="67">
-        <f>$F93*Outputs_Internal!$D$51/12</f>
+        <f>$F93*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N93" s="67">
-        <f>$F93*Outputs_Internal!K$51/12</f>
+        <f>$F93*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O93" s="67">
-        <f>$F93*Outputs_Internal!L$51/12</f>
+        <f>$F93*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P93" s="67">
-        <f>$F93*Outputs_Internal!M$51/12</f>
+        <f>$F93*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q93" s="67">
-        <f>$F93*Outputs_Internal!N$51/12</f>
+        <f>$F93*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S93" s="67">
@@ -10850,23 +10925,23 @@
         <v>0</v>
       </c>
       <c r="M94" s="67">
-        <f>$F94*Outputs_Internal!$D$51/12</f>
+        <f>$F94*Outputs_Internal!$D$52/12</f>
         <v>0</v>
       </c>
       <c r="N94" s="67">
-        <f>$F94*Outputs_Internal!K$51/12</f>
+        <f>$F94*Outputs_Internal!K$52/12</f>
         <v>0</v>
       </c>
       <c r="O94" s="67">
-        <f>$F94*Outputs_Internal!L$51/12</f>
+        <f>$F94*Outputs_Internal!L$52/12</f>
         <v>0</v>
       </c>
       <c r="P94" s="67">
-        <f>$F94*Outputs_Internal!M$51/12</f>
+        <f>$F94*Outputs_Internal!M$52/12</f>
         <v>0</v>
       </c>
       <c r="Q94" s="67">
-        <f>$F94*Outputs_Internal!N$51/12</f>
+        <f>$F94*Outputs_Internal!N$52/12</f>
         <v>0</v>
       </c>
       <c r="S94" s="67">
@@ -10902,13 +10977,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O108"/>
+  <dimension ref="B2:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10922,34 +10997,34 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -10991,7 +11066,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5">
         <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
@@ -11023,7 +11098,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -11078,7 +11153,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
@@ -11103,7 +11178,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
@@ -11128,7 +11203,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
@@ -11153,7 +11228,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
@@ -11178,7 +11253,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
@@ -11203,7 +11278,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
@@ -11228,7 +11303,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
@@ -11253,7 +11328,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
@@ -11278,7 +11353,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
@@ -11303,7 +11378,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11353,7 +11428,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -11378,7 +11453,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D11),0))</f>
@@ -11403,7 +11478,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -11428,7 +11503,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D13),0))</f>
@@ -11453,7 +11528,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D14),0))</f>
@@ -11478,7 +11553,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -11503,7 +11578,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -11528,7 +11603,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -11553,7 +11628,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="29">
         <v>0</v>
@@ -11580,7 +11655,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11635,7 +11710,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="18">
         <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
@@ -11660,7 +11735,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="18">
         <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
@@ -11685,7 +11760,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
@@ -11710,7 +11785,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="18">
         <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
@@ -11735,7 +11810,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="18">
         <f>IF(AND(Inputs!D13="Y",Inputs!D$19="N"),Prices!$C14,0)</f>
@@ -11760,7 +11835,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="18">
         <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
@@ -11785,7 +11860,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="20">
         <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
@@ -11810,7 +11885,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="20">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
@@ -11835,7 +11910,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="20">
         <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
@@ -11860,7 +11935,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -11910,7 +11985,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
@@ -11935,7 +12010,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D11),0))</f>
@@ -11960,7 +12035,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
@@ -11985,7 +12060,7 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D13),0))</f>
@@ -12010,7 +12085,7 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D14),0))</f>
@@ -12035,7 +12110,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D15),0))</f>
@@ -12060,7 +12135,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D16),0))</f>
@@ -12085,7 +12160,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="20">
         <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D17),0))</f>
@@ -12110,7 +12185,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C58" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="29">
         <v>0</v>
@@ -12130,12 +12205,12 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C61" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
@@ -12180,7 +12255,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
@@ -12225,7 +12300,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="20">
         <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
@@ -12270,7 +12345,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="20">
         <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
@@ -12315,12 +12390,12 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C67" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="29">
         <v>0</v>
@@ -12360,7 +12435,7 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" s="18">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D19 = "Y", D$6*Prices!$D21, 0)))</f>
@@ -12385,7 +12460,7 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D20 = "Y", D$6*Prices!$D22, 0)))</f>
@@ -12410,7 +12485,7 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="20">
         <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D21 = "Y", D$6*Prices!$D23, 0)))</f>
@@ -12442,12 +12517,12 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="18">
         <f>D61</f>
@@ -12472,7 +12547,7 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="18">
         <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
@@ -12497,7 +12572,7 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="20">
         <f>IF(D63=0,0,D63-SUM(D17:D19))</f>
@@ -12522,7 +12597,7 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="20">
         <f t="shared" ref="D76:H76" si="12">D64</f>
@@ -12547,12 +12622,12 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" s="29">
         <v>0</v>
@@ -12592,7 +12667,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="18">
         <f>IF(D68=0,0,D68-SUM(D24:D29))</f>
@@ -12617,7 +12692,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" s="20">
         <f>IF(D69=0,0,D69-SUM(D30:D31))</f>
@@ -12642,7 +12717,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" s="20">
         <f t="shared" ref="D82:H82" si="19">D70</f>
@@ -12667,12 +12742,12 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(2, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(2, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -12697,7 +12772,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
@@ -12722,7 +12797,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="7">
         <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
@@ -12750,14 +12825,14 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" s="1">
-        <f>IF(D98=1, 0, IF(D98=2, $E$101, IF(D98=3, $E$102, IF(D98=4, $E$103, IF(D98=5, $E$104, "")))))</f>
+        <f>IF(D100=1, 0, IF(D100=2, $E$103, IF(D100=3, $E$104, IF(D100=4, $E$105, IF(D100=5, $E$106, "")))))</f>
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ref="E90:H90" si="21">IF(E98=1, 0, IF(E98=2, $E$101, IF(E98=3, $E$102, IF(E98=4, $E$103, IF(E98=5, $E$104, "")))))</f>
+        <f t="shared" ref="E90:H90" si="21">IF(E100=1, 0, IF(E100=2, $E$103, IF(E100=3, $E$104, IF(E100=4, $E$105, IF(E100=5, $E$106, "")))))</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
@@ -12773,172 +12848,200 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92" s="7">
+        <v>105</v>
+      </c>
+      <c r="D92" s="1">
+        <f>IF(Inputs!$D$5 = "Y", Prices!$I$18, 0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="7">
         <f>SUM(D88, D90)</f>
         <v>47100</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E94" s="7">
         <f>SUM(E88, E90)</f>
         <v>0</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F94" s="7">
         <f>SUM(F88, F90)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G94" s="7">
         <f>SUM(G88, G90)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H94" s="7">
         <f>SUM(H88, H90)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="C95" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="21">
+    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="27"/>
+      <c r="C97" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
         <v>1</v>
       </c>
-      <c r="E95" s="21">
-        <f t="shared" ref="E95:H95" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
+      <c r="E97" s="21">
+        <f t="shared" ref="E97:H97" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
         <v>2</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F97" s="21">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G97" s="21">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H97" s="21">
         <f t="shared" si="22"/>
         <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="D96" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E96" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F96" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G96" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="H96" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="D97" s="21">
-        <f>SUM(D95:D96)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E97" s="21">
-        <f t="shared" ref="E97:H97" si="23">SUM(E95:E96)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F97" s="21">
-        <f t="shared" si="23"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G97" s="21">
-        <f t="shared" si="23"/>
-        <v>2.4</v>
-      </c>
-      <c r="H97" s="21">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
       </c>
     </row>
     <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="27"/>
       <c r="D98" s="21">
-        <f>_xlfn.RANK.EQ(D97, $D$97:$H$97, 5)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E98" s="21">
-        <f t="shared" ref="E98:H98" si="24">_xlfn.RANK.EQ(E97, $D$97:$H$97, 5)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G98" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H98" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="27"/>
+      <c r="D99" s="21">
+        <f>SUM(D97:D98)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E99" s="21">
+        <f t="shared" ref="E99:H99" si="23">SUM(E97:E98)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F99" s="21">
+        <f t="shared" si="23"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G99" s="21">
+        <f t="shared" si="23"/>
+        <v>2.4</v>
+      </c>
+      <c r="H99" s="21">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="D100" s="21">
+        <f>_xlfn.RANK.EQ(D99, $D$99:$H$99, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="21">
+        <f t="shared" ref="E100:H100" si="24">_xlfn.RANK.EQ(E99, $D$99:$H$99, 5)</f>
         <v>2</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F100" s="21">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G100" s="21">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H98" s="21">
+      <c r="H100" s="21">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="C100" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="27"/>
-      <c r="D101" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$98:$H$98, 0))*Prices!$I$10*-1</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27"/>
-      <c r="D102" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
-        <v>0</v>
+      <c r="C102" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27"/>
       <c r="D103" s="21" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E103" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
+        <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$100:$H$100, 0))*Prices!$I$10*-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27"/>
       <c r="D104" s="21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E104" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$98:$H$98, 0))*Prices!$I$11*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="2"/>
+        <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="27"/>
+      <c r="D105" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="23">
+        <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="27"/>
+      <c r="D106" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="23">
+        <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12950,7 +13053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12969,12 +13074,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -12984,12 +13089,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -12999,7 +13104,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -13007,10 +13112,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3">
         <v>0.3</v>
@@ -13018,7 +13123,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="43">
         <v>18000</v>
@@ -13030,7 +13135,7 @@
         <v>0.4</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3">
         <v>0.45</v>
@@ -13038,7 +13143,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="43">
         <v>8100</v>
@@ -13054,18 +13159,18 @@
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -13073,7 +13178,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="45">
         <v>1200</v>
@@ -13082,7 +13187,7 @@
         <v>0.05</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3">
         <v>0.45</v>
@@ -13090,7 +13195,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="45">
         <v>4800</v>
@@ -13099,7 +13204,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3">
         <v>0.5</v>
@@ -13107,7 +13212,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="45">
         <v>2400</v>
@@ -13118,7 +13223,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="45">
         <v>2400</v>
@@ -13130,7 +13235,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="45">
         <v>7200</v>
@@ -13139,7 +13244,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="61">
         <v>1.2500000000000001E-2</v>
@@ -13147,7 +13252,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="45">
         <v>4800</v>
@@ -13156,7 +13261,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="55">
         <v>43466</v>
@@ -13164,7 +13269,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="46">
         <v>12000</v>
@@ -13175,9 +13280,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="46">
         <v>6000</v>
@@ -13186,9 +13291,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="46">
         <v>6000</v>
@@ -13196,14 +13301,20 @@
       <c r="D18" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="44"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="45">
         <v>10200</v>
@@ -13212,9 +13323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="45">
         <v>39600</v>
@@ -13223,9 +13334,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="46">
         <v>42000</v>
@@ -13234,9 +13345,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="46">
         <v>33600</v>
@@ -13247,5 +13358,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10979,11 +10979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,23 +12775,23 @@
         <v>37</v>
       </c>
       <c r="D86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(3, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(3, L$61:L$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(3, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(3, L$61:L$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(3, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(3, M$61:M$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(3, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(3, M$61:M$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(3, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(3, N$61:N$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(3, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(3, N$61:N$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(3, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(3, O$61:O$64, 0)))*Prices!$I$5*-1, 0)</f>
+        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(3, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(3, O$61:O$64, 0)))*Prices!$I$6*-1, 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="118">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Non-CCLF</t>
   </si>
   <si>
-    <t>PMPY Add-On</t>
-  </si>
-  <si>
     <t>Implementation Add-On (non-CMS Files)</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Patients Above 25,000 (Non-CCLF Only)</t>
   </si>
   <si>
     <t>Multi-Product Discount</t>
@@ -352,6 +346,48 @@
   <si>
     <t>Existing Collaborative Discount</t>
   </si>
+  <si>
+    <t>PMPM Add-Ons</t>
+  </si>
+  <si>
+    <t>25k-50k</t>
+  </si>
+  <si>
+    <t>50k-100k</t>
+  </si>
+  <si>
+    <t>100k-250k</t>
+  </si>
+  <si>
+    <t>Patients 25k-50k (Non-CCLF Only)</t>
+  </si>
+  <si>
+    <t>Patients 50k-100k (Non-CCLF Only)</t>
+  </si>
+  <si>
+    <t>Patients 100k-250k (Non-CCLF Only)</t>
+  </si>
+  <si>
+    <t>250k+</t>
+  </si>
+  <si>
+    <t>Patients 250k+ (Non-CCLF Only)</t>
+  </si>
+  <si>
+    <t>Lives Top</t>
+  </si>
+  <si>
+    <t>Lives Bottom</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>Composite % Scalar of 25k-50k PMPM</t>
+  </si>
+  <si>
+    <t>Total lives over 25k</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +404,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +477,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,7 +631,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -731,6 +774,11 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1031,7 +1079,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="76">
         <v>43101</v>
@@ -1054,7 +1102,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="77">
         <v>36</v>
@@ -1084,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
@@ -1096,17 +1144,17 @@
     </row>
     <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="57"/>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -1126,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="56">
-        <v>50000</v>
+        <v>750000</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -1171,7 +1219,7 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>4</v>
@@ -1198,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
@@ -1207,10 +1255,10 @@
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -1222,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
@@ -1234,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1246,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
@@ -1258,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
@@ -1270,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -1282,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
@@ -1295,7 +1343,7 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
@@ -1371,7 +1419,7 @@
       </c>
       <c r="D4" s="1">
         <f>MAX(Calcs!D4, 0)</f>
-        <v>5000</v>
+        <v>32750</v>
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
@@ -1413,7 +1461,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1421,23 +1469,23 @@
         <v>2</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(Calcs!D35, Calcs!D48)</f>
-        <v>18000</v>
+        <f>SUM(Calcs!D40, Calcs!D53)</f>
+        <v>109400</v>
       </c>
       <c r="E7" s="16">
-        <f>SUM(Calcs!E35, Calcs!E48)</f>
+        <f>SUM(Calcs!E40, Calcs!E53)</f>
         <v>0</v>
       </c>
       <c r="F7" s="16">
-        <f>SUM(Calcs!F35, Calcs!F48)</f>
+        <f>SUM(Calcs!F40, Calcs!F53)</f>
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <f>SUM(Calcs!G35, Calcs!G48)</f>
+        <f>SUM(Calcs!G40, Calcs!G53)</f>
         <v>0</v>
       </c>
       <c r="H7" s="16">
-        <f>SUM(Calcs!H35, Calcs!H48)</f>
+        <f>SUM(Calcs!H40, Calcs!H53)</f>
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
@@ -1457,23 +1505,23 @@
         <v>3</v>
       </c>
       <c r="D8" s="16">
-        <f>SUM(Calcs!D36, Calcs!D49)</f>
+        <f>SUM(Calcs!D41, Calcs!D54)</f>
         <v>8100</v>
       </c>
       <c r="E8" s="16">
-        <f>SUM(Calcs!E36, Calcs!E49)</f>
+        <f>SUM(Calcs!E41, Calcs!E54)</f>
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>SUM(Calcs!F36, Calcs!F49)</f>
+        <f>SUM(Calcs!F41, Calcs!F54)</f>
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>SUM(Calcs!G36, Calcs!G49)</f>
+        <f>SUM(Calcs!G41, Calcs!G54)</f>
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>SUM(Calcs!H36, Calcs!H49)</f>
+        <f>SUM(Calcs!H41, Calcs!H54)</f>
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
@@ -1490,26 +1538,26 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="18">
-        <f>SUM(Calcs!D37, Calcs!D50)</f>
-        <v>1200</v>
+        <f>SUM(Calcs!D42, Calcs!D55)</f>
+        <v>0</v>
       </c>
       <c r="E9" s="18">
-        <f>SUM(Calcs!E37, Calcs!E50)</f>
+        <f>SUM(Calcs!E42, Calcs!E55)</f>
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <f>SUM(Calcs!F37, Calcs!F50)</f>
+        <f>SUM(Calcs!F42, Calcs!F55)</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>SUM(Calcs!G37, Calcs!G50)</f>
+        <f>SUM(Calcs!G42, Calcs!G55)</f>
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <f>SUM(Calcs!H37, Calcs!H50)</f>
+        <f>SUM(Calcs!H42, Calcs!H55)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -1529,23 +1577,23 @@
         <v>10</v>
       </c>
       <c r="D10" s="18">
-        <f>SUM(Calcs!D38, Calcs!D51)</f>
-        <v>4800</v>
+        <f>SUM(Calcs!D43, Calcs!D56)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
-        <f>SUM(Calcs!E38, Calcs!E51)</f>
+        <f>SUM(Calcs!E43, Calcs!E56)</f>
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f>SUM(Calcs!F38, Calcs!F51)</f>
+        <f>SUM(Calcs!F43, Calcs!F56)</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(Calcs!G38, Calcs!G51)</f>
+        <f>SUM(Calcs!G43, Calcs!G56)</f>
         <v>0</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(Calcs!H38, Calcs!H51)</f>
+        <f>SUM(Calcs!H43, Calcs!H56)</f>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
@@ -1562,26 +1610,26 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18">
-        <f>SUM(Calcs!D39, Calcs!D52)</f>
-        <v>2400</v>
+        <f>SUM(Calcs!D44, Calcs!D57)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
-        <f>SUM(Calcs!E39, Calcs!E52)</f>
+        <f>SUM(Calcs!E44, Calcs!E57)</f>
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>SUM(Calcs!F39, Calcs!F52)</f>
+        <f>SUM(Calcs!F44, Calcs!F57)</f>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>SUM(Calcs!G39, Calcs!G52)</f>
+        <f>SUM(Calcs!G44, Calcs!G57)</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <f>SUM(Calcs!H39, Calcs!H52)</f>
+        <f>SUM(Calcs!H44, Calcs!H57)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -1600,23 +1648,23 @@
         <v>11</v>
       </c>
       <c r="D12" s="18">
-        <f>SUM(Calcs!D40, Calcs!D53)</f>
-        <v>2400</v>
+        <f>SUM(Calcs!D45, Calcs!D58)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="18">
-        <f>SUM(Calcs!E40, Calcs!E53)</f>
+        <f>SUM(Calcs!E45, Calcs!E58)</f>
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>SUM(Calcs!F40, Calcs!F53)</f>
+        <f>SUM(Calcs!F45, Calcs!F58)</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(Calcs!G40, Calcs!G53)</f>
+        <f>SUM(Calcs!G45, Calcs!G58)</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(Calcs!H40, Calcs!H53)</f>
+        <f>SUM(Calcs!H45, Calcs!H58)</f>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -1635,23 +1683,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="18">
-        <f>SUM(Calcs!D41, Calcs!D54)</f>
+        <f>SUM(Calcs!D46, Calcs!D59)</f>
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <f>SUM(Calcs!E41, Calcs!E54)</f>
+        <f>SUM(Calcs!E46, Calcs!E59)</f>
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>SUM(Calcs!F41, Calcs!F54)</f>
+        <f>SUM(Calcs!F46, Calcs!F59)</f>
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>SUM(Calcs!G41, Calcs!G54)</f>
+        <f>SUM(Calcs!G46, Calcs!G59)</f>
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f>SUM(Calcs!H41, Calcs!H54)</f>
+        <f>SUM(Calcs!H46, Calcs!H59)</f>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -1667,26 +1715,26 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="18">
-        <f>SUM(Calcs!D42, Calcs!D55)</f>
+        <f>SUM(Calcs!D47, Calcs!D60)</f>
         <v>0</v>
       </c>
       <c r="E14" s="18">
-        <f>SUM(Calcs!E42, Calcs!E55)</f>
+        <f>SUM(Calcs!E47, Calcs!E60)</f>
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>SUM(Calcs!F42, Calcs!F55)</f>
+        <f>SUM(Calcs!F47, Calcs!F60)</f>
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(Calcs!G42, Calcs!G55)</f>
+        <f>SUM(Calcs!G47, Calcs!G60)</f>
         <v>0</v>
       </c>
       <c r="H14" s="18">
-        <f>SUM(Calcs!H42, Calcs!H55)</f>
+        <f>SUM(Calcs!H47, Calcs!H60)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -1705,23 +1753,23 @@
         <v>13</v>
       </c>
       <c r="D15" s="20">
-        <f>SUM(Calcs!D43, Calcs!D56)</f>
+        <f>SUM(Calcs!D48, Calcs!D61)</f>
         <v>0</v>
       </c>
       <c r="E15" s="20">
-        <f>SUM(Calcs!E43, Calcs!E56)</f>
+        <f>SUM(Calcs!E48, Calcs!E61)</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
-        <f>SUM(Calcs!F43, Calcs!F56)</f>
+        <f>SUM(Calcs!F48, Calcs!F61)</f>
         <v>0</v>
       </c>
       <c r="G15" s="20">
-        <f>SUM(Calcs!G43, Calcs!G56)</f>
+        <f>SUM(Calcs!G48, Calcs!G61)</f>
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <f>SUM(Calcs!H43, Calcs!H56)</f>
+        <f>SUM(Calcs!H48, Calcs!H61)</f>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -1740,23 +1788,23 @@
         <v>14</v>
       </c>
       <c r="D16" s="20">
-        <f>SUM(Calcs!D44, Calcs!D57)</f>
+        <f>SUM(Calcs!D49, Calcs!D62)</f>
         <v>0</v>
       </c>
       <c r="E16" s="20">
-        <f>SUM(Calcs!E44, Calcs!E57)</f>
+        <f>SUM(Calcs!E49, Calcs!E62)</f>
         <v>0</v>
       </c>
       <c r="F16" s="20">
-        <f>SUM(Calcs!F44, Calcs!F57)</f>
+        <f>SUM(Calcs!F49, Calcs!F62)</f>
         <v>0</v>
       </c>
       <c r="G16" s="20">
-        <f>SUM(Calcs!G44, Calcs!G57)</f>
+        <f>SUM(Calcs!G49, Calcs!G62)</f>
         <v>0</v>
       </c>
       <c r="H16" s="20">
-        <f>SUM(Calcs!H44, Calcs!H57)</f>
+        <f>SUM(Calcs!H49, Calcs!H62)</f>
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -1772,26 +1820,26 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="20">
-        <f>SUM(Calcs!D45, Calcs!D58)</f>
+        <f>SUM(Calcs!D50, Calcs!D63)</f>
         <v>0</v>
       </c>
       <c r="E17" s="20">
-        <f>SUM(Calcs!E45, Calcs!E58)</f>
+        <f>SUM(Calcs!E50, Calcs!E63)</f>
         <v>0</v>
       </c>
       <c r="F17" s="20">
-        <f>SUM(Calcs!F45, Calcs!F58)</f>
+        <f>SUM(Calcs!F50, Calcs!F63)</f>
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <f>SUM(Calcs!G45, Calcs!G58)</f>
+        <f>SUM(Calcs!G50, Calcs!G63)</f>
         <v>0</v>
       </c>
       <c r="H17" s="20">
-        <f>SUM(Calcs!H45, Calcs!H58)</f>
+        <f>SUM(Calcs!H50, Calcs!H63)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -1807,7 +1855,7 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -1815,23 +1863,23 @@
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM(Calcs!D61, Calcs!D67)</f>
-        <v>10200</v>
+        <f>SUM(Calcs!D66, Calcs!D72)</f>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM(Calcs!E61, Calcs!E67)</f>
+        <f>SUM(Calcs!E66, Calcs!E72)</f>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f>SUM(Calcs!F61, Calcs!F67)</f>
+        <f>SUM(Calcs!F66, Calcs!F72)</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>SUM(Calcs!G61, Calcs!G67)</f>
+        <f>SUM(Calcs!G66, Calcs!G72)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>SUM(Calcs!H61, Calcs!H67)</f>
+        <f>SUM(Calcs!H66, Calcs!H72)</f>
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
@@ -1850,23 +1898,23 @@
         <v>17</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM(Calcs!D62, Calcs!D68)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D67, Calcs!D73)</f>
+        <v>116000</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM(Calcs!E62, Calcs!E68)</f>
+        <f>SUM(Calcs!E67, Calcs!E73)</f>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM(Calcs!F62, Calcs!F68)</f>
+        <f>SUM(Calcs!F67, Calcs!F73)</f>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM(Calcs!G62, Calcs!G68)</f>
+        <f>SUM(Calcs!G67, Calcs!G73)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM(Calcs!H62, Calcs!H68)</f>
+        <f>SUM(Calcs!H67, Calcs!H73)</f>
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
@@ -1885,23 +1933,23 @@
         <v>18</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM(Calcs!D63, Calcs!D69)</f>
+        <f>SUM(Calcs!D68, Calcs!D74)</f>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM(Calcs!E63, Calcs!E69)</f>
+        <f>SUM(Calcs!E68, Calcs!E74)</f>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f>SUM(Calcs!F63, Calcs!F69)</f>
+        <f>SUM(Calcs!F68, Calcs!F74)</f>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f>SUM(Calcs!G63, Calcs!G69)</f>
+        <f>SUM(Calcs!G68, Calcs!G74)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>SUM(Calcs!H63, Calcs!H69)</f>
+        <f>SUM(Calcs!H68, Calcs!H74)</f>
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
@@ -1920,23 +1968,23 @@
         <v>19</v>
       </c>
       <c r="D23" s="1">
-        <f>SUM(Calcs!D64, Calcs!D70)</f>
+        <f>SUM(Calcs!D69, Calcs!D75)</f>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM(Calcs!E64, Calcs!E70)</f>
+        <f>SUM(Calcs!E69, Calcs!E75)</f>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f>SUM(Calcs!F64, Calcs!F70)</f>
+        <f>SUM(Calcs!F69, Calcs!F75)</f>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>SUM(Calcs!G64, Calcs!G70)</f>
+        <f>SUM(Calcs!G69, Calcs!G75)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>SUM(Calcs!H64, Calcs!H70)</f>
+        <f>SUM(Calcs!H69, Calcs!H75)</f>
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
@@ -1952,31 +2000,31 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1">
-        <f>SUM(Calcs!D85:D86)</f>
+        <f>SUM(Calcs!D90:D91)</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f>SUM(Calcs!E85:E86)</f>
+        <f>SUM(Calcs!E90:E91)</f>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f>SUM(Calcs!F85:F86)</f>
+        <f>SUM(Calcs!F90:F91)</f>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f>SUM(Calcs!G85:G86)</f>
+        <f>SUM(Calcs!G90:G91)</f>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>SUM(Calcs!H85:H86)</f>
+        <f>SUM(Calcs!H90:H91)</f>
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
@@ -1992,26 +2040,26 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <f>Calcs!D90</f>
+        <f>Calcs!D95</f>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f>Calcs!E90</f>
+        <f>Calcs!E95</f>
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <f>Calcs!F90</f>
+        <f>Calcs!F95</f>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>Calcs!G90</f>
+        <f>Calcs!G95</f>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>Calcs!H90</f>
+        <f>Calcs!H95</f>
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
@@ -2027,10 +2075,10 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1">
-        <f>Calcs!D92</f>
+        <f>Calcs!D97</f>
         <v>0</v>
       </c>
       <c r="E28" s="1">
@@ -2058,11 +2106,11 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D28)</f>
-        <v>47100</v>
+        <v>233500</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30:H30" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
@@ -2104,7 +2152,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2130,11 +2178,11 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="7">
         <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
-        <v>146300</v>
+        <v>733250</v>
       </c>
       <c r="E35" s="7">
         <f>(E30/12*Inputs!$C$2+E4)*$C$33</f>
@@ -2177,19 +2225,19 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>146300</v>
+        <v>733250</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="53">
         <f>SUM(D35:H35)</f>
-        <v>146300</v>
+        <v>733250</v>
       </c>
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
@@ -2247,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
@@ -2255,32 +2303,32 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2290,11 +2338,11 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="79">
@@ -2312,11 +2360,11 @@
       </c>
       <c r="K4" s="12">
         <f t="shared" ref="K4:N5" si="0">F4*$D4</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="0"/>
@@ -2329,11 +2377,11 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>0</v>
+        <v>32750</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10">
@@ -2351,11 +2399,11 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3275</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29475</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
@@ -2377,7 +2425,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2392,8 +2440,8 @@
         <v>2</v>
       </c>
       <c r="D8" s="16">
-        <f>SUM(Calcs!D9:H9)</f>
-        <v>18000</v>
+        <f>SUM(Calcs!D14:H14)</f>
+        <v>33000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="81">
@@ -2411,11 +2459,11 @@
       </c>
       <c r="K8" s="16">
         <f>F8*$D8</f>
-        <v>7200</v>
+        <v>13200</v>
       </c>
       <c r="L8" s="16">
         <f>G8*$D8</f>
-        <v>10800</v>
+        <v>19800</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:N18" si="2">H8*$D8</f>
@@ -2431,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(Calcs!D10:H10)</f>
+        <f>SUM(Calcs!D15:H15)</f>
         <v>8100</v>
       </c>
       <c r="E9" s="3"/>
@@ -2467,10 +2515,10 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18">
-        <f>SUM(Calcs!D11:H11)</f>
+        <f>SUM(Calcs!D16:H16)</f>
         <v>1200</v>
       </c>
       <c r="E10" s="3"/>
@@ -2509,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="18">
-        <f>SUM(Calcs!D12:H12)</f>
+        <f>SUM(Calcs!D17:H17)</f>
         <v>4800</v>
       </c>
       <c r="E11" s="3"/>
@@ -2544,10 +2592,10 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="18">
-        <f>SUM(Calcs!D13:H13)</f>
+        <f>SUM(Calcs!D18:H18)</f>
         <v>2400</v>
       </c>
       <c r="F12" s="33">
@@ -2585,7 +2633,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="18">
-        <f>SUM(Calcs!D14:H14)</f>
+        <f>SUM(Calcs!D19:H19)</f>
         <v>2400</v>
       </c>
       <c r="F13" s="33">
@@ -2623,8 +2671,8 @@
         <v>12</v>
       </c>
       <c r="D14" s="18">
-        <f>SUM(Calcs!D15:H15)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D20:H20)</f>
+        <v>7200</v>
       </c>
       <c r="F14" s="33">
         <v>0.1</v>
@@ -2640,15 +2688,15 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="N14" s="18">
         <f>I14*$D14</f>
@@ -2657,11 +2705,11 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="18">
-        <f>SUM(Calcs!D16:H16)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D21:H21)</f>
+        <v>4800</v>
       </c>
       <c r="F15" s="80">
         <v>0.6</v>
@@ -2678,11 +2726,11 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="2"/>
@@ -2698,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="20">
-        <f>SUM(Calcs!D17:H17)</f>
+        <f>SUM(Calcs!D22:H22)</f>
         <v>0</v>
       </c>
       <c r="F16" s="34">
@@ -2736,7 +2784,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="20">
-        <f>SUM(Calcs!D18:H18)</f>
+        <f>SUM(Calcs!D23:H23)</f>
         <v>0</v>
       </c>
       <c r="F17" s="34">
@@ -2771,10 +2819,10 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="20">
-        <f>SUM(Calcs!D19:H19)</f>
+        <f>SUM(Calcs!D24:H24)</f>
         <v>0</v>
       </c>
       <c r="F18" s="34">
@@ -2818,7 +2866,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G20" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="10">
         <v>0.1</v>
@@ -2839,7 +2887,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2854,8 +2902,8 @@
         <v>2</v>
       </c>
       <c r="D23" s="16">
-        <f>SUM(Calcs!D22:H22)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D27:H27)</f>
+        <v>76400</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="35">
@@ -2876,11 +2924,11 @@
       </c>
       <c r="K23" s="16">
         <f>F23*$D23</f>
-        <v>0</v>
+        <v>22920.000000000004</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" ref="L23:L33" si="6">G23*$D23</f>
-        <v>0</v>
+        <v>53480</v>
       </c>
       <c r="M23" s="16">
         <f>H23*$D23</f>
@@ -2896,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="29">
-        <f>SUM(Calcs!D23:H23)</f>
+        <f>SUM(Calcs!D28:H28)</f>
         <v>0</v>
       </c>
       <c r="E24" s="3"/>
@@ -2935,11 +2983,11 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="18">
-        <f>SUM(Calcs!D24:H24)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D29:H29)</f>
+        <v>9550</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
@@ -2964,7 +3012,7 @@
       </c>
       <c r="L25" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" si="11"/>
@@ -2980,8 +3028,8 @@
         <v>10</v>
       </c>
       <c r="D26" s="18">
-        <f>SUM(Calcs!D25:H25)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D30:H30)</f>
+        <v>13370.000000000002</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="37">
@@ -3002,11 +3050,11 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4922.590909090909</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7353.5000000000018</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" si="11"/>
@@ -3014,16 +3062,16 @@
       </c>
       <c r="N26" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1093.9090909090908</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="18">
-        <f>SUM(Calcs!D26:H26)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D31:H31)</f>
+        <v>9550</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="7"/>
@@ -3043,11 +3091,11 @@
       </c>
       <c r="K27" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7640</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1910</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" si="11"/>
@@ -3063,8 +3111,8 @@
         <v>11</v>
       </c>
       <c r="D28" s="18">
-        <f>SUM(Calcs!D27:H27)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D32:H32)</f>
+        <v>9550</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="7"/>
@@ -3088,7 +3136,7 @@
       </c>
       <c r="L28" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" si="11"/>
@@ -3104,8 +3152,8 @@
         <v>12</v>
       </c>
       <c r="D29" s="18">
-        <f>SUM(Calcs!D28:H28)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D33:H33)</f>
+        <v>13370.000000000002</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="7"/>
@@ -3125,15 +3173,15 @@
       </c>
       <c r="K29" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1188.4444444444448</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2674.0000000000005</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9507.5555555555584</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="11"/>
@@ -3142,11 +3190,11 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="18">
-        <f>SUM(Calcs!D29:H29)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D34:H34)</f>
+        <v>13370.000000000002</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="7"/>
@@ -3166,11 +3214,11 @@
       </c>
       <c r="K30" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6685.0000000000009</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6685.0000000000009</v>
       </c>
       <c r="M30" s="18">
         <f t="shared" si="11"/>
@@ -3186,8 +3234,8 @@
         <v>13</v>
       </c>
       <c r="D31" s="20">
-        <f>SUM(Calcs!D30:H30)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D35:H35)</f>
+        <v>47750</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="7"/>
@@ -3211,7 +3259,7 @@
       </c>
       <c r="L31" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47750</v>
       </c>
       <c r="M31" s="20">
         <f t="shared" si="11"/>
@@ -3227,8 +3275,8 @@
         <v>14</v>
       </c>
       <c r="D32" s="20">
-        <f>SUM(Calcs!D31:H31)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D36:H36)</f>
+        <v>19100</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="7"/>
@@ -3252,7 +3300,7 @@
       </c>
       <c r="L32" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="11"/>
@@ -3265,10 +3313,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C33" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="29">
-        <f>SUM(Calcs!D32:H32)</f>
+        <f>SUM(Calcs!D37:H37)</f>
         <v>0</v>
       </c>
       <c r="F33" s="36">
@@ -3315,7 +3363,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3330,8 +3378,8 @@
         <v>16</v>
       </c>
       <c r="D36" s="18">
-        <f>SUM(Calcs!D73:H73)</f>
-        <v>10200</v>
+        <f>SUM(Calcs!D78:H78)</f>
+        <v>0</v>
       </c>
       <c r="F36" s="33">
         <v>0.9</v>
@@ -3348,11 +3396,11 @@
       </c>
       <c r="K36" s="18">
         <f t="shared" ref="K36:N39" si="12">F36*$D36</f>
-        <v>9180</v>
+        <v>0</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" si="12"/>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="M36" s="18">
         <f t="shared" si="12"/>
@@ -3368,8 +3416,8 @@
         <v>17</v>
       </c>
       <c r="D37" s="18">
-        <f>SUM(Calcs!D74:H74)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D79:H79)</f>
+        <v>16800</v>
       </c>
       <c r="F37" s="33">
         <v>0.9</v>
@@ -3386,11 +3434,11 @@
       </c>
       <c r="K37" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="M37" s="18">
         <f t="shared" si="12"/>
@@ -3406,7 +3454,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="20">
-        <f>SUM(Calcs!D75:H75)</f>
+        <f>SUM(Calcs!D80:H80)</f>
         <v>0</v>
       </c>
       <c r="F38" s="34">
@@ -3444,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="20">
-        <f>SUM(Calcs!D76:H76)</f>
+        <f>SUM(Calcs!D81:H81)</f>
         <v>0</v>
       </c>
       <c r="F39" s="34">
@@ -3484,7 +3532,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3499,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="29">
-        <f>SUM(Calcs!D79:H79)</f>
+        <f>SUM(Calcs!D84:H84)</f>
         <v>0</v>
       </c>
       <c r="F42" s="50">
@@ -3539,8 +3587,8 @@
         <v>17</v>
       </c>
       <c r="D43" s="18">
-        <f>SUM(Calcs!D80:H80)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D85:H85)</f>
+        <v>7640</v>
       </c>
       <c r="F43" s="30">
         <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
@@ -3559,11 +3607,11 @@
       </c>
       <c r="K43" s="18">
         <f>F43*$D43</f>
-        <v>0</v>
+        <v>6112</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ref="M43:N45" si="15">H43*$D43</f>
@@ -3579,7 +3627,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="20">
-        <f>SUM(Calcs!D81:H81)</f>
+        <f>SUM(Calcs!D86:H86)</f>
         <v>0</v>
       </c>
       <c r="F44" s="31">
@@ -3619,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="20">
-        <f>SUM(Calcs!D82:H82)</f>
+        <f>SUM(Calcs!D87:H87)</f>
         <v>0</v>
       </c>
       <c r="F45" s="31">
@@ -3661,7 +3709,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3669,7 +3717,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
@@ -3677,19 +3725,19 @@
       </c>
       <c r="F48" s="8">
         <f>IFERROR(SUM(K60:K63)/SUM($K$60:$M$63), 0)</f>
-        <v>0.9</v>
+        <v>0.43730082116538704</v>
       </c>
       <c r="G48" s="8">
         <f>IFERROR(SUM(L60:L63)/SUM($K$60:$M$63), 0)</f>
-        <v>0.1</v>
+        <v>0.43084361392076442</v>
       </c>
       <c r="H48" s="8">
         <f>IFERROR(SUM(M60:M63)/SUM($K$60:$M$63), 0)</f>
-        <v>0</v>
+        <v>0.13185556491384848</v>
       </c>
       <c r="I48" s="8">
         <f>IFERROR(SUM(N60:N63)/SUM($K$60:$M$63), 0)</f>
-        <v>0</v>
+        <v>1.3592789726535125E-2</v>
       </c>
       <c r="K48" s="12">
         <f>F48*$D$48</f>
@@ -3710,7 +3758,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
@@ -3718,19 +3766,19 @@
       </c>
       <c r="F49" s="3">
         <f>IFERROR(SUM(K8:K48)/SUM($K8:$N48), 0)</f>
-        <v>0.48152866242038217</v>
+        <v>0.29195283953233014</v>
       </c>
       <c r="G49" s="3">
         <f>IFERROR(SUM(L8:L48)/SUM($K8:$N48), 0)</f>
-        <v>0.50828025477707006</v>
+        <v>0.65197436324288327</v>
       </c>
       <c r="H49" s="3">
         <f>IFERROR(SUM(M8:M48)/SUM($K8:$N48), 0)</f>
-        <v>0</v>
+        <v>5.0832547213436184E-2</v>
       </c>
       <c r="I49" s="3">
         <f>1-F49-G49-H49</f>
-        <v>1.0191082802547768E-2</v>
+        <v>5.2402500113504571E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49*$D$49</f>
@@ -3751,7 +3799,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
         <f>Outputs_External!D28</f>
@@ -3794,36 +3842,36 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>47100</v>
+        <v>233500</v>
       </c>
       <c r="K52" s="12">
         <f>SUM(K48:K50, K36:K39, K8:K18,K23:K33,K42:K45)</f>
-        <v>22680</v>
+        <v>87688.03535353535</v>
       </c>
       <c r="L52" s="12">
         <f t="shared" ref="L52:N52" si="19">SUM(L48:L50, L36:L39, L8:L18,L23:L33,L42:L45)</f>
-        <v>23940</v>
+        <v>195820.5</v>
       </c>
       <c r="M52" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15267.555555555558</v>
       </c>
       <c r="N52" s="12">
         <f t="shared" si="19"/>
-        <v>480</v>
+        <v>1573.9090909090908</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="23">
         <f>SUM(K52:N52)</f>
-        <v>47100</v>
+        <v>300350</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
@@ -3836,46 +3884,46 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>146300</v>
+        <v>733250</v>
       </c>
       <c r="K55" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>70540</v>
+        <v>266339.10606060602</v>
       </c>
       <c r="L55" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>74320</v>
+        <v>616936.5</v>
       </c>
       <c r="M55" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
-        <v>0</v>
+        <v>45802.666666666679</v>
       </c>
       <c r="N55" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>1440</v>
+        <v>4721.7272727272739</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="K56" s="54">
         <f>IFERROR(K55/$D$55, 0)</f>
-        <v>0.48215994531784007</v>
+        <v>0.36323096632881829</v>
       </c>
       <c r="L56" s="54">
         <f>IFERROR(L55/$D$55, 0)</f>
-        <v>0.50799726589200278</v>
+        <v>0.84137265598363453</v>
       </c>
       <c r="M56" s="54">
         <f>IFERROR(M55/$D$55, 0)</f>
-        <v>0</v>
+        <v>6.2465280145471092E-2</v>
       </c>
       <c r="N56" s="54">
         <f>IFERROR(N55/$D$55, 0)</f>
-        <v>9.8427887901572104E-3</v>
+        <v>6.4394507640331044E-3</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -3885,7 +3933,7 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -3905,8 +3953,8 @@
         <v>16</v>
       </c>
       <c r="D60" s="23">
-        <f>SUM(Calcs!D61:H61)+SUM(Calcs!D67:H67)</f>
-        <v>10200</v>
+        <f>SUM(Calcs!D66:H66)+SUM(Calcs!D72:H72)</f>
+        <v>0</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="24">
@@ -3928,11 +3976,11 @@
       <c r="J60" s="21"/>
       <c r="K60" s="25">
         <f t="shared" ref="K60:N63" si="20">F60*$D60</f>
-        <v>9180</v>
+        <v>0</v>
       </c>
       <c r="L60" s="25">
         <f t="shared" si="20"/>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="M60" s="25">
         <f t="shared" si="20"/>
@@ -3949,42 +3997,42 @@
         <v>17</v>
       </c>
       <c r="D61" s="23">
-        <f>SUM(Calcs!D62:H62)+SUM(Calcs!D68:H68)</f>
-        <v>0</v>
+        <f>SUM(Calcs!D67:H67)+SUM(Calcs!D73:H73)</f>
+        <v>116000</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="24">
         <f>IFERROR(SUM(K$37,K$10:K$15,K$43,K$25:K$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.45348837209302323</v>
+        <v>0.43650914714213218</v>
       </c>
       <c r="G61" s="24">
         <f t="shared" ref="G61" si="21">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.54651162790697672</v>
+        <v>0.43006362979835333</v>
       </c>
       <c r="H61" s="24">
         <f>IFERROR(SUM(M$37,M$10:M$15,M$43,M$25:M$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
-        <v>0</v>
+        <v>0.13161685823754793</v>
       </c>
       <c r="I61" s="24">
         <f>IFERROR(SUM(N$37,N$10:N$15,N$43,N$25:N$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>1.3568181818181818E-2</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>50635.061068487332</v>
       </c>
       <c r="L61" s="25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>49887.381056608989</v>
       </c>
       <c r="M61" s="25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15267.55555555556</v>
       </c>
       <c r="N61" s="25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1573.9090909090908</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -3993,7 +4041,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="23">
-        <f>SUM(Calcs!D63:H63)+SUM(Calcs!D69:H69)</f>
+        <f>SUM(Calcs!D68:H68)+SUM(Calcs!D74:H74)</f>
         <v>0</v>
       </c>
       <c r="E62" s="21"/>
@@ -4003,7 +4051,7 @@
       </c>
       <c r="G62" s="24">
         <f>IFERROR(SUM(L38,L16:L18,L44,L31:L33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="24">
         <f>IFERROR(SUM(M38,M16:M18,M44,M31:M33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
@@ -4037,7 +4085,7 @@
         <v>19</v>
       </c>
       <c r="D63" s="23">
-        <f>SUM(Calcs!D64:H64)+SUM(Calcs!D70:H70)</f>
+        <f>SUM(Calcs!D69:H69)+SUM(Calcs!D75:H75)</f>
         <v>0</v>
       </c>
       <c r="E63" s="21"/>
@@ -4117,20 +4165,20 @@
         <v>36</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
       <c r="K1" s="65"/>
       <c r="M1" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="65"/>
       <c r="S1" s="65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
@@ -4138,60 +4186,60 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P2" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S2" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T2" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U2" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V2" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W2" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -4257,7 +4305,7 @@
         <v>42948</v>
       </c>
       <c r="D4" s="68">
-        <f>D3*IF(AND(MONTH(B4)=1,YEAR(B4)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D3*IF(AND(MONTH(B4)=1,YEAR(B4)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E4" s="68">
@@ -4311,7 +4359,7 @@
         <v>42979</v>
       </c>
       <c r="D5" s="68">
-        <f>D4*IF(AND(MONTH(B5)=1,YEAR(B5)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D4*IF(AND(MONTH(B5)=1,YEAR(B5)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="68">
@@ -4385,7 +4433,7 @@
         <v>43009</v>
       </c>
       <c r="D6" s="68">
-        <f>D5*IF(AND(MONTH(B6)=1,YEAR(B6)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D5*IF(AND(MONTH(B6)=1,YEAR(B6)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E6" s="68">
@@ -4459,7 +4507,7 @@
         <v>43040</v>
       </c>
       <c r="D7" s="68">
-        <f>D6*IF(AND(MONTH(B7)=1,YEAR(B7)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D6*IF(AND(MONTH(B7)=1,YEAR(B7)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E7" s="68">
@@ -4533,7 +4581,7 @@
         <v>43070</v>
       </c>
       <c r="D8" s="68">
-        <f>D7*IF(AND(MONTH(B8)=1,YEAR(B8)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D7*IF(AND(MONTH(B8)=1,YEAR(B8)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E8" s="68">
@@ -4607,7 +4655,7 @@
         <v>43101</v>
       </c>
       <c r="D9" s="68">
-        <f>D8*IF(AND(MONTH(B9)=1,YEAR(B9)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D8*IF(AND(MONTH(B9)=1,YEAR(B9)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="68">
@@ -4620,15 +4668,15 @@
       </c>
       <c r="H9" s="67">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>5000</v>
+        <v>32750</v>
       </c>
       <c r="I9" s="67">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>2500</v>
+        <v>3275</v>
       </c>
       <c r="J9" s="67">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>2500</v>
+        <v>29475</v>
       </c>
       <c r="K9" s="67">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -4636,23 +4684,23 @@
       </c>
       <c r="M9" s="67">
         <f>$F9*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N9" s="67">
         <f>$F9*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O9" s="67">
         <f>$F9*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P9" s="67">
         <f>$F9*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q9" s="67">
         <f>$F9*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S9" s="67">
         <f t="shared" si="1"/>
@@ -4681,7 +4729,7 @@
         <v>43132</v>
       </c>
       <c r="D10" s="68">
-        <f>D9*IF(AND(MONTH(B10)=1,YEAR(B10)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D9*IF(AND(MONTH(B10)=1,YEAR(B10)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E10" s="68">
@@ -4710,23 +4758,23 @@
       </c>
       <c r="M10" s="67">
         <f>$F10*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N10" s="67">
         <f>$F10*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O10" s="67">
         <f>$F10*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P10" s="67">
         <f>$F10*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q10" s="67">
         <f>$F10*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S10" s="67">
         <f t="shared" si="1"/>
@@ -4755,7 +4803,7 @@
         <v>43160</v>
       </c>
       <c r="D11" s="68">
-        <f>D10*IF(AND(MONTH(B11)=1,YEAR(B11)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D10*IF(AND(MONTH(B11)=1,YEAR(B11)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E11" s="68">
@@ -4784,43 +4832,43 @@
       </c>
       <c r="M11" s="67">
         <f>$F11*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N11" s="67">
         <f>$F11*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O11" s="67">
         <f>$F11*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P11" s="67">
         <f>$F11*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q11" s="67">
         <f>$F11*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="1"/>
-        <v>16775</v>
+        <v>91124.999999999985</v>
       </c>
       <c r="T11" s="67">
         <f t="shared" si="2"/>
-        <v>8170</v>
+        <v>25197.008838383841</v>
       </c>
       <c r="U11" s="67">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>8485</v>
+        <v>78430.125</v>
       </c>
       <c r="V11" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W11" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -4829,7 +4877,7 @@
         <v>43191</v>
       </c>
       <c r="D12" s="68">
-        <f>D11*IF(AND(MONTH(B12)=1,YEAR(B12)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D11*IF(AND(MONTH(B12)=1,YEAR(B12)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E12" s="68">
@@ -4858,23 +4906,23 @@
       </c>
       <c r="M12" s="67">
         <f>$F12*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N12" s="67">
         <f>$F12*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O12" s="67">
         <f>$F12*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P12" s="67">
         <f>$F12*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q12" s="67">
         <f>$F12*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S12" s="67">
         <f t="shared" si="1"/>
@@ -4903,7 +4951,7 @@
         <v>43221</v>
       </c>
       <c r="D13" s="68">
-        <f>D12*IF(AND(MONTH(B13)=1,YEAR(B13)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D12*IF(AND(MONTH(B13)=1,YEAR(B13)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E13" s="68">
@@ -4932,23 +4980,23 @@
       </c>
       <c r="M13" s="67">
         <f>$F13*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N13" s="67">
         <f>$F13*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O13" s="67">
         <f>$F13*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P13" s="67">
         <f>$F13*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q13" s="67">
         <f>$F13*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S13" s="67">
         <f t="shared" si="1"/>
@@ -4977,7 +5025,7 @@
         <v>43252</v>
       </c>
       <c r="D14" s="68">
-        <f>D13*IF(AND(MONTH(B14)=1,YEAR(B14)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D13*IF(AND(MONTH(B14)=1,YEAR(B14)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E14" s="68">
@@ -5006,43 +5054,43 @@
       </c>
       <c r="M14" s="67">
         <f>$F14*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N14" s="67">
         <f>$F14*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O14" s="67">
         <f>$F14*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P14" s="67">
         <f>$F14*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q14" s="67">
         <f>$F14*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V14" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W14" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5051,7 +5099,7 @@
         <v>43282</v>
       </c>
       <c r="D15" s="68">
-        <f>D14*IF(AND(MONTH(B15)=1,YEAR(B15)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D14*IF(AND(MONTH(B15)=1,YEAR(B15)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E15" s="68">
@@ -5080,23 +5128,23 @@
       </c>
       <c r="M15" s="67">
         <f>$F15*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N15" s="67">
         <f>$F15*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O15" s="67">
         <f>$F15*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P15" s="67">
         <f>$F15*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q15" s="67">
         <f>$F15*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S15" s="67">
         <f t="shared" si="1"/>
@@ -5125,7 +5173,7 @@
         <v>43313</v>
       </c>
       <c r="D16" s="68">
-        <f>D15*IF(AND(MONTH(B16)=1,YEAR(B16)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D15*IF(AND(MONTH(B16)=1,YEAR(B16)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E16" s="68">
@@ -5154,23 +5202,23 @@
       </c>
       <c r="M16" s="67">
         <f>$F16*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N16" s="67">
         <f>$F16*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O16" s="67">
         <f>$F16*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P16" s="67">
         <f>$F16*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q16" s="67">
         <f>$F16*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S16" s="67">
         <f t="shared" si="1"/>
@@ -5199,7 +5247,7 @@
         <v>43344</v>
       </c>
       <c r="D17" s="68">
-        <f>D16*IF(AND(MONTH(B17)=1,YEAR(B17)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D16*IF(AND(MONTH(B17)=1,YEAR(B17)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E17" s="68">
@@ -5228,43 +5276,43 @@
       </c>
       <c r="M17" s="67">
         <f>$F17*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N17" s="67">
         <f>$F17*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O17" s="67">
         <f>$F17*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P17" s="67">
         <f>$F17*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q17" s="67">
         <f>$F17*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V17" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W17" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5273,7 +5321,7 @@
         <v>43374</v>
       </c>
       <c r="D18" s="68">
-        <f>D17*IF(AND(MONTH(B18)=1,YEAR(B18)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D17*IF(AND(MONTH(B18)=1,YEAR(B18)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E18" s="68">
@@ -5302,23 +5350,23 @@
       </c>
       <c r="M18" s="67">
         <f>$F18*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N18" s="67">
         <f>$F18*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O18" s="67">
         <f>$F18*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P18" s="67">
         <f>$F18*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q18" s="67">
         <f>$F18*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S18" s="67">
         <f t="shared" si="1"/>
@@ -5347,7 +5395,7 @@
         <v>43405</v>
       </c>
       <c r="D19" s="68">
-        <f>D18*IF(AND(MONTH(B19)=1,YEAR(B19)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D18*IF(AND(MONTH(B19)=1,YEAR(B19)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E19" s="68">
@@ -5376,23 +5424,23 @@
       </c>
       <c r="M19" s="67">
         <f>$F19*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N19" s="67">
         <f>$F19*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O19" s="67">
         <f>$F19*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P19" s="67">
         <f>$F19*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q19" s="67">
         <f>$F19*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S19" s="67">
         <f t="shared" si="1"/>
@@ -5421,7 +5469,7 @@
         <v>43435</v>
       </c>
       <c r="D20" s="68">
-        <f>D19*IF(AND(MONTH(B20)=1,YEAR(B20)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D19*IF(AND(MONTH(B20)=1,YEAR(B20)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1</v>
       </c>
       <c r="E20" s="68">
@@ -5450,43 +5498,43 @@
       </c>
       <c r="M20" s="67">
         <f>$F20*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N20" s="67">
         <f>$F20*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O20" s="67">
         <f>$F20*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P20" s="67">
         <f>$F20*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q20" s="67">
         <f>$F20*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V20" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W20" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -5495,7 +5543,7 @@
         <v>43466</v>
       </c>
       <c r="D21" s="68">
-        <f>D20*IF(AND(MONTH(B21)=1,YEAR(B21)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D20*IF(AND(MONTH(B21)=1,YEAR(B21)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E21" s="68">
@@ -5524,23 +5572,23 @@
       </c>
       <c r="M21" s="67">
         <f>$F21*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N21" s="67">
         <f>$F21*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O21" s="67">
         <f>$F21*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P21" s="67">
         <f>$F21*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q21" s="67">
         <f>$F21*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S21" s="67">
         <f t="shared" si="1"/>
@@ -5569,7 +5617,7 @@
         <v>43497</v>
       </c>
       <c r="D22" s="68">
-        <f>D21*IF(AND(MONTH(B22)=1,YEAR(B22)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D21*IF(AND(MONTH(B22)=1,YEAR(B22)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E22" s="68">
@@ -5598,23 +5646,23 @@
       </c>
       <c r="M22" s="67">
         <f>$F22*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N22" s="67">
         <f>$F22*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O22" s="67">
         <f>$F22*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P22" s="67">
         <f>$F22*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q22" s="67">
         <f>$F22*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S22" s="67">
         <f t="shared" si="1"/>
@@ -5643,7 +5691,7 @@
         <v>43525</v>
       </c>
       <c r="D23" s="68">
-        <f>D22*IF(AND(MONTH(B23)=1,YEAR(B23)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D22*IF(AND(MONTH(B23)=1,YEAR(B23)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E23" s="68">
@@ -5672,43 +5720,43 @@
       </c>
       <c r="M23" s="67">
         <f>$F23*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N23" s="67">
         <f>$F23*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O23" s="67">
         <f>$F23*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P23" s="67">
         <f>$F23*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q23" s="67">
         <f>$F23*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V23" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W23" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -5717,7 +5765,7 @@
         <v>43556</v>
       </c>
       <c r="D24" s="68">
-        <f>D23*IF(AND(MONTH(B24)=1,YEAR(B24)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D23*IF(AND(MONTH(B24)=1,YEAR(B24)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E24" s="68">
@@ -5746,23 +5794,23 @@
       </c>
       <c r="M24" s="67">
         <f>$F24*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N24" s="67">
         <f>$F24*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O24" s="67">
         <f>$F24*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P24" s="67">
         <f>$F24*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q24" s="67">
         <f>$F24*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S24" s="67">
         <f t="shared" si="1"/>
@@ -5791,7 +5839,7 @@
         <v>43586</v>
       </c>
       <c r="D25" s="68">
-        <f>D24*IF(AND(MONTH(B25)=1,YEAR(B25)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D24*IF(AND(MONTH(B25)=1,YEAR(B25)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E25" s="68">
@@ -5820,23 +5868,23 @@
       </c>
       <c r="M25" s="67">
         <f>$F25*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N25" s="67">
         <f>$F25*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O25" s="67">
         <f>$F25*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P25" s="67">
         <f>$F25*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q25" s="67">
         <f>$F25*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S25" s="67">
         <f t="shared" si="1"/>
@@ -5865,7 +5913,7 @@
         <v>43617</v>
       </c>
       <c r="D26" s="68">
-        <f>D25*IF(AND(MONTH(B26)=1,YEAR(B26)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D25*IF(AND(MONTH(B26)=1,YEAR(B26)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E26" s="68">
@@ -5894,43 +5942,43 @@
       </c>
       <c r="M26" s="67">
         <f>$F26*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N26" s="67">
         <f>$F26*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O26" s="67">
         <f>$F26*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P26" s="67">
         <f>$F26*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q26" s="67">
         <f>$F26*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V26" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W26" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -5939,7 +5987,7 @@
         <v>43647</v>
       </c>
       <c r="D27" s="68">
-        <f>D26*IF(AND(MONTH(B27)=1,YEAR(B27)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D26*IF(AND(MONTH(B27)=1,YEAR(B27)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E27" s="68">
@@ -5968,23 +6016,23 @@
       </c>
       <c r="M27" s="67">
         <f>$F27*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N27" s="67">
         <f>$F27*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O27" s="67">
         <f>$F27*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P27" s="67">
         <f>$F27*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q27" s="67">
         <f>$F27*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S27" s="67">
         <f t="shared" si="1"/>
@@ -6013,7 +6061,7 @@
         <v>43678</v>
       </c>
       <c r="D28" s="68">
-        <f>D27*IF(AND(MONTH(B28)=1,YEAR(B28)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D27*IF(AND(MONTH(B28)=1,YEAR(B28)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E28" s="68">
@@ -6042,23 +6090,23 @@
       </c>
       <c r="M28" s="67">
         <f>$F28*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N28" s="67">
         <f>$F28*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O28" s="67">
         <f>$F28*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P28" s="67">
         <f>$F28*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q28" s="67">
         <f>$F28*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S28" s="67">
         <f t="shared" si="1"/>
@@ -6087,7 +6135,7 @@
         <v>43709</v>
       </c>
       <c r="D29" s="68">
-        <f>D28*IF(AND(MONTH(B29)=1,YEAR(B29)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D28*IF(AND(MONTH(B29)=1,YEAR(B29)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E29" s="68">
@@ -6116,43 +6164,43 @@
       </c>
       <c r="M29" s="67">
         <f>$F29*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N29" s="67">
         <f>$F29*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O29" s="67">
         <f>$F29*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P29" s="67">
         <f>$F29*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q29" s="67">
         <f>$F29*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V29" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W29" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6161,7 +6209,7 @@
         <v>43739</v>
       </c>
       <c r="D30" s="68">
-        <f>D29*IF(AND(MONTH(B30)=1,YEAR(B30)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D29*IF(AND(MONTH(B30)=1,YEAR(B30)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E30" s="68">
@@ -6190,23 +6238,23 @@
       </c>
       <c r="M30" s="67">
         <f>$F30*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N30" s="67">
         <f>$F30*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O30" s="67">
         <f>$F30*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P30" s="67">
         <f>$F30*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q30" s="67">
         <f>$F30*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S30" s="67">
         <f t="shared" si="1"/>
@@ -6235,7 +6283,7 @@
         <v>43770</v>
       </c>
       <c r="D31" s="68">
-        <f>D30*IF(AND(MONTH(B31)=1,YEAR(B31)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D30*IF(AND(MONTH(B31)=1,YEAR(B31)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E31" s="68">
@@ -6264,23 +6312,23 @@
       </c>
       <c r="M31" s="67">
         <f>$F31*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N31" s="67">
         <f>$F31*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O31" s="67">
         <f>$F31*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P31" s="67">
         <f>$F31*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q31" s="67">
         <f>$F31*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S31" s="67">
         <f t="shared" si="1"/>
@@ -6309,7 +6357,7 @@
         <v>43800</v>
       </c>
       <c r="D32" s="68">
-        <f>D31*IF(AND(MONTH(B32)=1,YEAR(B32)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D31*IF(AND(MONTH(B32)=1,YEAR(B32)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0125</v>
       </c>
       <c r="E32" s="68">
@@ -6338,43 +6386,43 @@
       </c>
       <c r="M32" s="67">
         <f>$F32*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N32" s="67">
         <f>$F32*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O32" s="67">
         <f>$F32*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P32" s="67">
         <f>$F32*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q32" s="67">
         <f>$F32*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V32" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W32" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -6383,7 +6431,7 @@
         <v>43831</v>
       </c>
       <c r="D33" s="68">
-        <f>D32*IF(AND(MONTH(B33)=1,YEAR(B33)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D32*IF(AND(MONTH(B33)=1,YEAR(B33)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E33" s="68">
@@ -6412,23 +6460,23 @@
       </c>
       <c r="M33" s="67">
         <f>$F33*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N33" s="67">
         <f>$F33*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O33" s="67">
         <f>$F33*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P33" s="67">
         <f>$F33*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q33" s="67">
         <f>$F33*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S33" s="67">
         <f t="shared" si="1"/>
@@ -6457,7 +6505,7 @@
         <v>43862</v>
       </c>
       <c r="D34" s="68">
-        <f>D33*IF(AND(MONTH(B34)=1,YEAR(B34)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D33*IF(AND(MONTH(B34)=1,YEAR(B34)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E34" s="68">
@@ -6486,23 +6534,23 @@
       </c>
       <c r="M34" s="67">
         <f>$F34*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N34" s="67">
         <f>$F34*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O34" s="67">
         <f>$F34*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P34" s="67">
         <f>$F34*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q34" s="67">
         <f>$F34*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S34" s="67">
         <f t="shared" si="1"/>
@@ -6531,7 +6579,7 @@
         <v>43891</v>
       </c>
       <c r="D35" s="68">
-        <f>D34*IF(AND(MONTH(B35)=1,YEAR(B35)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D34*IF(AND(MONTH(B35)=1,YEAR(B35)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E35" s="68">
@@ -6560,43 +6608,43 @@
       </c>
       <c r="M35" s="67">
         <f>$F35*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N35" s="67">
         <f>$F35*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O35" s="67">
         <f>$F35*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P35" s="67">
         <f>$F35*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q35" s="67">
         <f>$F35*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V35" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W35" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -6605,7 +6653,7 @@
         <v>43922</v>
       </c>
       <c r="D36" s="68">
-        <f>D35*IF(AND(MONTH(B36)=1,YEAR(B36)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D35*IF(AND(MONTH(B36)=1,YEAR(B36)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E36" s="68">
@@ -6634,23 +6682,23 @@
       </c>
       <c r="M36" s="67">
         <f>$F36*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N36" s="67">
         <f>$F36*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O36" s="67">
         <f>$F36*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P36" s="67">
         <f>$F36*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q36" s="67">
         <f>$F36*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S36" s="67">
         <f t="shared" si="1"/>
@@ -6679,7 +6727,7 @@
         <v>43952</v>
       </c>
       <c r="D37" s="68">
-        <f>D36*IF(AND(MONTH(B37)=1,YEAR(B37)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D36*IF(AND(MONTH(B37)=1,YEAR(B37)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E37" s="68">
@@ -6708,23 +6756,23 @@
       </c>
       <c r="M37" s="67">
         <f>$F37*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N37" s="67">
         <f>$F37*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O37" s="67">
         <f>$F37*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P37" s="67">
         <f>$F37*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q37" s="67">
         <f>$F37*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S37" s="67">
         <f t="shared" si="1"/>
@@ -6753,7 +6801,7 @@
         <v>43983</v>
       </c>
       <c r="D38" s="68">
-        <f>D37*IF(AND(MONTH(B38)=1,YEAR(B38)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D37*IF(AND(MONTH(B38)=1,YEAR(B38)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E38" s="68">
@@ -6782,43 +6830,43 @@
       </c>
       <c r="M38" s="67">
         <f>$F38*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N38" s="67">
         <f>$F38*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O38" s="67">
         <f>$F38*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P38" s="67">
         <f>$F38*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q38" s="67">
         <f>$F38*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V38" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W38" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -6827,7 +6875,7 @@
         <v>44013</v>
       </c>
       <c r="D39" s="68">
-        <f>D38*IF(AND(MONTH(B39)=1,YEAR(B39)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D38*IF(AND(MONTH(B39)=1,YEAR(B39)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E39" s="68">
@@ -6856,23 +6904,23 @@
       </c>
       <c r="M39" s="67">
         <f>$F39*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N39" s="67">
         <f>$F39*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O39" s="67">
         <f>$F39*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P39" s="67">
         <f>$F39*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q39" s="67">
         <f>$F39*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S39" s="67">
         <f t="shared" si="1"/>
@@ -6901,7 +6949,7 @@
         <v>44044</v>
       </c>
       <c r="D40" s="68">
-        <f>D39*IF(AND(MONTH(B40)=1,YEAR(B40)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D39*IF(AND(MONTH(B40)=1,YEAR(B40)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E40" s="68">
@@ -6930,23 +6978,23 @@
       </c>
       <c r="M40" s="67">
         <f>$F40*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N40" s="67">
         <f>$F40*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O40" s="67">
         <f>$F40*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P40" s="67">
         <f>$F40*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q40" s="67">
         <f>$F40*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S40" s="67">
         <f t="shared" si="1"/>
@@ -6975,7 +7023,7 @@
         <v>44075</v>
       </c>
       <c r="D41" s="68">
-        <f>D40*IF(AND(MONTH(B41)=1,YEAR(B41)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D40*IF(AND(MONTH(B41)=1,YEAR(B41)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E41" s="68">
@@ -7004,43 +7052,43 @@
       </c>
       <c r="M41" s="67">
         <f>$F41*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N41" s="67">
         <f>$F41*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O41" s="67">
         <f>$F41*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P41" s="67">
         <f>$F41*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q41" s="67">
         <f>$F41*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="1"/>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V41" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W41" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7049,7 +7097,7 @@
         <v>44105</v>
       </c>
       <c r="D42" s="68">
-        <f>D41*IF(AND(MONTH(B42)=1,YEAR(B42)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D41*IF(AND(MONTH(B42)=1,YEAR(B42)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E42" s="68">
@@ -7078,23 +7126,23 @@
       </c>
       <c r="M42" s="67">
         <f>$F42*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N42" s="67">
         <f>$F42*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O42" s="67">
         <f>$F42*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P42" s="67">
         <f>$F42*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q42" s="67">
         <f>$F42*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S42" s="67">
         <f t="shared" si="1"/>
@@ -7123,7 +7171,7 @@
         <v>44136</v>
       </c>
       <c r="D43" s="68">
-        <f>D42*IF(AND(MONTH(B43)=1,YEAR(B43)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D42*IF(AND(MONTH(B43)=1,YEAR(B43)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E43" s="68">
@@ -7152,23 +7200,23 @@
       </c>
       <c r="M43" s="67">
         <f>$F43*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N43" s="67">
         <f>$F43*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O43" s="67">
         <f>$F43*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P43" s="67">
         <f>$F43*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q43" s="67">
         <f>$F43*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S43" s="67">
         <f t="shared" si="1"/>
@@ -7197,7 +7245,7 @@
         <v>44166</v>
       </c>
       <c r="D44" s="68">
-        <f>D43*IF(AND(MONTH(B44)=1,YEAR(B44)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D43*IF(AND(MONTH(B44)=1,YEAR(B44)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.02515625</v>
       </c>
       <c r="E44" s="68">
@@ -7226,43 +7274,43 @@
       </c>
       <c r="M44" s="67">
         <f>$F44*Outputs_Internal!$D$52/12</f>
-        <v>3925</v>
+        <v>19458.333333333332</v>
       </c>
       <c r="N44" s="67">
         <f>$F44*Outputs_Internal!K$52/12</f>
-        <v>1890</v>
+        <v>7307.3362794612794</v>
       </c>
       <c r="O44" s="67">
         <f>$F44*Outputs_Internal!L$52/12</f>
-        <v>1995</v>
+        <v>16318.375</v>
       </c>
       <c r="P44" s="67">
         <f>$F44*Outputs_Internal!M$52/12</f>
-        <v>0</v>
+        <v>1272.2962962962965</v>
       </c>
       <c r="Q44" s="67">
         <f>$F44*Outputs_Internal!N$52/12</f>
-        <v>40</v>
+        <v>131.15909090909091</v>
       </c>
       <c r="S44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>11775</v>
+        <v>58375</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="2"/>
-        <v>5670</v>
+        <v>21922.008838383837</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="3"/>
-        <v>5985</v>
+        <v>48955.125</v>
       </c>
       <c r="V44" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3816.8888888888896</v>
       </c>
       <c r="W44" s="67">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>393.47727272727275</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -7271,7 +7319,7 @@
         <v>44197</v>
       </c>
       <c r="D45" s="68">
-        <f>D44*IF(AND(MONTH(B45)=1,YEAR(B45)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D44*IF(AND(MONTH(B45)=1,YEAR(B45)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E45" s="68">
@@ -7345,7 +7393,7 @@
         <v>44228</v>
       </c>
       <c r="D46" s="68">
-        <f>D45*IF(AND(MONTH(B46)=1,YEAR(B46)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D45*IF(AND(MONTH(B46)=1,YEAR(B46)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E46" s="68">
@@ -7419,7 +7467,7 @@
         <v>44256</v>
       </c>
       <c r="D47" s="68">
-        <f>D46*IF(AND(MONTH(B47)=1,YEAR(B47)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D46*IF(AND(MONTH(B47)=1,YEAR(B47)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E47" s="68">
@@ -7493,7 +7541,7 @@
         <v>44287</v>
       </c>
       <c r="D48" s="68">
-        <f>D47*IF(AND(MONTH(B48)=1,YEAR(B48)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D47*IF(AND(MONTH(B48)=1,YEAR(B48)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E48" s="68">
@@ -7567,7 +7615,7 @@
         <v>44317</v>
       </c>
       <c r="D49" s="68">
-        <f>D48*IF(AND(MONTH(B49)=1,YEAR(B49)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D48*IF(AND(MONTH(B49)=1,YEAR(B49)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E49" s="68">
@@ -7641,7 +7689,7 @@
         <v>44348</v>
       </c>
       <c r="D50" s="68">
-        <f>D49*IF(AND(MONTH(B50)=1,YEAR(B50)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D49*IF(AND(MONTH(B50)=1,YEAR(B50)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E50" s="68">
@@ -7715,7 +7763,7 @@
         <v>44378</v>
       </c>
       <c r="D51" s="68">
-        <f>D50*IF(AND(MONTH(B51)=1,YEAR(B51)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D50*IF(AND(MONTH(B51)=1,YEAR(B51)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E51" s="68">
@@ -7789,7 +7837,7 @@
         <v>44409</v>
       </c>
       <c r="D52" s="68">
-        <f>D51*IF(AND(MONTH(B52)=1,YEAR(B52)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D51*IF(AND(MONTH(B52)=1,YEAR(B52)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E52" s="68">
@@ -7863,7 +7911,7 @@
         <v>44440</v>
       </c>
       <c r="D53" s="68">
-        <f>D52*IF(AND(MONTH(B53)=1,YEAR(B53)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D52*IF(AND(MONTH(B53)=1,YEAR(B53)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E53" s="68">
@@ -7937,7 +7985,7 @@
         <v>44470</v>
       </c>
       <c r="D54" s="68">
-        <f>D53*IF(AND(MONTH(B54)=1,YEAR(B54)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D53*IF(AND(MONTH(B54)=1,YEAR(B54)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E54" s="68">
@@ -8011,7 +8059,7 @@
         <v>44501</v>
       </c>
       <c r="D55" s="68">
-        <f>D54*IF(AND(MONTH(B55)=1,YEAR(B55)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D54*IF(AND(MONTH(B55)=1,YEAR(B55)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E55" s="68">
@@ -8085,7 +8133,7 @@
         <v>44531</v>
       </c>
       <c r="D56" s="68">
-        <f>D55*IF(AND(MONTH(B56)=1,YEAR(B56)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D55*IF(AND(MONTH(B56)=1,YEAR(B56)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0379707031249998</v>
       </c>
       <c r="E56" s="68">
@@ -8159,7 +8207,7 @@
         <v>44562</v>
       </c>
       <c r="D57" s="68">
-        <f>D56*IF(AND(MONTH(B57)=1,YEAR(B57)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D56*IF(AND(MONTH(B57)=1,YEAR(B57)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E57" s="68">
@@ -8233,7 +8281,7 @@
         <v>44593</v>
       </c>
       <c r="D58" s="68">
-        <f>D57*IF(AND(MONTH(B58)=1,YEAR(B58)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D57*IF(AND(MONTH(B58)=1,YEAR(B58)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E58" s="68">
@@ -8307,7 +8355,7 @@
         <v>44621</v>
       </c>
       <c r="D59" s="68">
-        <f>D58*IF(AND(MONTH(B59)=1,YEAR(B59)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D58*IF(AND(MONTH(B59)=1,YEAR(B59)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E59" s="68">
@@ -8381,7 +8429,7 @@
         <v>44652</v>
       </c>
       <c r="D60" s="68">
-        <f>D59*IF(AND(MONTH(B60)=1,YEAR(B60)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D59*IF(AND(MONTH(B60)=1,YEAR(B60)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E60" s="68">
@@ -8455,7 +8503,7 @@
         <v>44682</v>
       </c>
       <c r="D61" s="68">
-        <f>D60*IF(AND(MONTH(B61)=1,YEAR(B61)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D60*IF(AND(MONTH(B61)=1,YEAR(B61)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E61" s="68">
@@ -8529,7 +8577,7 @@
         <v>44713</v>
       </c>
       <c r="D62" s="68">
-        <f>D61*IF(AND(MONTH(B62)=1,YEAR(B62)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D61*IF(AND(MONTH(B62)=1,YEAR(B62)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E62" s="68">
@@ -8603,7 +8651,7 @@
         <v>44743</v>
       </c>
       <c r="D63" s="68">
-        <f>D62*IF(AND(MONTH(B63)=1,YEAR(B63)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D62*IF(AND(MONTH(B63)=1,YEAR(B63)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E63" s="68">
@@ -8677,7 +8725,7 @@
         <v>44774</v>
       </c>
       <c r="D64" s="68">
-        <f>D63*IF(AND(MONTH(B64)=1,YEAR(B64)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D63*IF(AND(MONTH(B64)=1,YEAR(B64)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E64" s="68">
@@ -8751,7 +8799,7 @@
         <v>44805</v>
       </c>
       <c r="D65" s="68">
-        <f>D64*IF(AND(MONTH(B65)=1,YEAR(B65)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D64*IF(AND(MONTH(B65)=1,YEAR(B65)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E65" s="68">
@@ -8825,7 +8873,7 @@
         <v>44835</v>
       </c>
       <c r="D66" s="68">
-        <f>D65*IF(AND(MONTH(B66)=1,YEAR(B66)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D65*IF(AND(MONTH(B66)=1,YEAR(B66)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E66" s="68">
@@ -8899,7 +8947,7 @@
         <v>44866</v>
       </c>
       <c r="D67" s="68">
-        <f>D66*IF(AND(MONTH(B67)=1,YEAR(B67)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D66*IF(AND(MONTH(B67)=1,YEAR(B67)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E67" s="68">
@@ -8973,7 +9021,7 @@
         <v>44896</v>
       </c>
       <c r="D68" s="68">
-        <f>D67*IF(AND(MONTH(B68)=1,YEAR(B68)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D67*IF(AND(MONTH(B68)=1,YEAR(B68)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0509453369140622</v>
       </c>
       <c r="E68" s="68">
@@ -9047,7 +9095,7 @@
         <v>44927</v>
       </c>
       <c r="D69" s="68">
-        <f>D68*IF(AND(MONTH(B69)=1,YEAR(B69)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D68*IF(AND(MONTH(B69)=1,YEAR(B69)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E69" s="68">
@@ -9121,7 +9169,7 @@
         <v>44958</v>
       </c>
       <c r="D70" s="68">
-        <f>D69*IF(AND(MONTH(B70)=1,YEAR(B70)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D69*IF(AND(MONTH(B70)=1,YEAR(B70)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E70" s="68">
@@ -9195,7 +9243,7 @@
         <v>44986</v>
       </c>
       <c r="D71" s="68">
-        <f>D70*IF(AND(MONTH(B71)=1,YEAR(B71)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D70*IF(AND(MONTH(B71)=1,YEAR(B71)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E71" s="68">
@@ -9269,7 +9317,7 @@
         <v>45017</v>
       </c>
       <c r="D72" s="68">
-        <f>D71*IF(AND(MONTH(B72)=1,YEAR(B72)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D71*IF(AND(MONTH(B72)=1,YEAR(B72)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E72" s="68">
@@ -9343,7 +9391,7 @@
         <v>45047</v>
       </c>
       <c r="D73" s="68">
-        <f>D72*IF(AND(MONTH(B73)=1,YEAR(B73)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D72*IF(AND(MONTH(B73)=1,YEAR(B73)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E73" s="68">
@@ -9417,7 +9465,7 @@
         <v>45078</v>
       </c>
       <c r="D74" s="68">
-        <f>D73*IF(AND(MONTH(B74)=1,YEAR(B74)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D73*IF(AND(MONTH(B74)=1,YEAR(B74)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E74" s="68">
@@ -9491,7 +9539,7 @@
         <v>45108</v>
       </c>
       <c r="D75" s="68">
-        <f>D74*IF(AND(MONTH(B75)=1,YEAR(B75)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D74*IF(AND(MONTH(B75)=1,YEAR(B75)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E75" s="68">
@@ -9565,7 +9613,7 @@
         <v>45139</v>
       </c>
       <c r="D76" s="68">
-        <f>D75*IF(AND(MONTH(B76)=1,YEAR(B76)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D75*IF(AND(MONTH(B76)=1,YEAR(B76)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E76" s="68">
@@ -9639,7 +9687,7 @@
         <v>45170</v>
       </c>
       <c r="D77" s="68">
-        <f>D76*IF(AND(MONTH(B77)=1,YEAR(B77)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D76*IF(AND(MONTH(B77)=1,YEAR(B77)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E77" s="68">
@@ -9713,7 +9761,7 @@
         <v>45200</v>
       </c>
       <c r="D78" s="68">
-        <f>D77*IF(AND(MONTH(B78)=1,YEAR(B78)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D77*IF(AND(MONTH(B78)=1,YEAR(B78)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E78" s="68">
@@ -9787,7 +9835,7 @@
         <v>45231</v>
       </c>
       <c r="D79" s="68">
-        <f>D78*IF(AND(MONTH(B79)=1,YEAR(B79)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D78*IF(AND(MONTH(B79)=1,YEAR(B79)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E79" s="68">
@@ -9861,7 +9909,7 @@
         <v>45261</v>
       </c>
       <c r="D80" s="68">
-        <f>D79*IF(AND(MONTH(B80)=1,YEAR(B80)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D79*IF(AND(MONTH(B80)=1,YEAR(B80)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0640821536254879</v>
       </c>
       <c r="E80" s="68">
@@ -9935,7 +9983,7 @@
         <v>45292</v>
       </c>
       <c r="D81" s="68">
-        <f>D80*IF(AND(MONTH(B81)=1,YEAR(B81)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D80*IF(AND(MONTH(B81)=1,YEAR(B81)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E81" s="68">
@@ -10009,7 +10057,7 @@
         <v>45323</v>
       </c>
       <c r="D82" s="68">
-        <f>D81*IF(AND(MONTH(B82)=1,YEAR(B82)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D81*IF(AND(MONTH(B82)=1,YEAR(B82)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E82" s="68">
@@ -10083,7 +10131,7 @@
         <v>45352</v>
       </c>
       <c r="D83" s="68">
-        <f>D82*IF(AND(MONTH(B83)=1,YEAR(B83)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D82*IF(AND(MONTH(B83)=1,YEAR(B83)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E83" s="68">
@@ -10157,7 +10205,7 @@
         <v>45383</v>
       </c>
       <c r="D84" s="68">
-        <f>D83*IF(AND(MONTH(B84)=1,YEAR(B84)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D83*IF(AND(MONTH(B84)=1,YEAR(B84)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E84" s="68">
@@ -10231,7 +10279,7 @@
         <v>45413</v>
       </c>
       <c r="D85" s="68">
-        <f>D84*IF(AND(MONTH(B85)=1,YEAR(B85)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D84*IF(AND(MONTH(B85)=1,YEAR(B85)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E85" s="68">
@@ -10305,7 +10353,7 @@
         <v>45444</v>
       </c>
       <c r="D86" s="68">
-        <f>D85*IF(AND(MONTH(B86)=1,YEAR(B86)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D85*IF(AND(MONTH(B86)=1,YEAR(B86)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E86" s="68">
@@ -10379,7 +10427,7 @@
         <v>45474</v>
       </c>
       <c r="D87" s="68">
-        <f>D86*IF(AND(MONTH(B87)=1,YEAR(B87)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D86*IF(AND(MONTH(B87)=1,YEAR(B87)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E87" s="68">
@@ -10453,7 +10501,7 @@
         <v>45505</v>
       </c>
       <c r="D88" s="68">
-        <f>D87*IF(AND(MONTH(B88)=1,YEAR(B88)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D87*IF(AND(MONTH(B88)=1,YEAR(B88)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E88" s="68">
@@ -10527,7 +10575,7 @@
         <v>45536</v>
       </c>
       <c r="D89" s="68">
-        <f>D88*IF(AND(MONTH(B89)=1,YEAR(B89)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D88*IF(AND(MONTH(B89)=1,YEAR(B89)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E89" s="68">
@@ -10601,7 +10649,7 @@
         <v>45566</v>
       </c>
       <c r="D90" s="68">
-        <f>D89*IF(AND(MONTH(B90)=1,YEAR(B90)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D89*IF(AND(MONTH(B90)=1,YEAR(B90)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E90" s="68">
@@ -10675,7 +10723,7 @@
         <v>45597</v>
       </c>
       <c r="D91" s="68">
-        <f>D90*IF(AND(MONTH(B91)=1,YEAR(B91)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D90*IF(AND(MONTH(B91)=1,YEAR(B91)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E91" s="68">
@@ -10749,7 +10797,7 @@
         <v>45627</v>
       </c>
       <c r="D92" s="68">
-        <f>D91*IF(AND(MONTH(B92)=1,YEAR(B92)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D91*IF(AND(MONTH(B92)=1,YEAR(B92)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0773831805458065</v>
       </c>
       <c r="E92" s="68">
@@ -10823,7 +10871,7 @@
         <v>45658</v>
       </c>
       <c r="D93" s="68">
-        <f>D92*IF(AND(MONTH(B93)=1,YEAR(B93)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D92*IF(AND(MONTH(B93)=1,YEAR(B93)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0908504703026289</v>
       </c>
       <c r="E93" s="68">
@@ -10897,7 +10945,7 @@
         <v>45689</v>
       </c>
       <c r="D94" s="68">
-        <f>D93*IF(AND(MONTH(B94)=1,YEAR(B94)&gt;=YEAR(Prices!$I$15)),1+Prices!$I$14,1)</f>
+        <f>D93*IF(AND(MONTH(B94)=1,YEAR(B94)&gt;=YEAR(Prices!$L$15)),1+Prices!$L$14,1)</f>
         <v>1.0908504703026289</v>
       </c>
       <c r="E94" s="68">
@@ -10977,13 +11025,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O110"/>
+  <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11012,19 +11060,19 @@
         <v>24</v>
       </c>
       <c r="K2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -11038,7 +11086,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
-        <v>5000</v>
+        <v>32750</v>
       </c>
       <c r="E4" s="1">
         <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
@@ -11063,1985 +11111,2158 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="K5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5">
-        <f>IF(Inputs!D4="N",MAX(Inputs!D7-25000,0),0)</f>
-        <v>0</v>
+        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K6,0),$L6-$K6),0)</f>
+        <v>25000</v>
       </c>
       <c r="E6" s="5">
-        <f>IF(Inputs!E4="N",MAX(Inputs!E7-25000,0),)</f>
+        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <f>IF(Inputs!F4="N",MAX(Inputs!F7-25000,0),)</f>
+        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(Inputs!G4="N",MAX(Inputs!G7-25000,0),)</f>
+        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K6,0),$L6-$K6),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <f>IF(Inputs!H4="N",MAX(Inputs!H7-25000,0),)</f>
-        <v>0</v>
+        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K6,0),$L6-$K6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="69">
+        <v>25000</v>
+      </c>
+      <c r="L6" s="69">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="83">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="5">
+        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K7,0),$L7-$K7),0)</f>
+        <v>50000</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K7,0),$L7-$K7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K7,0),$L7-$K7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K7,0),$L7-$K7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K7,0),$L7-$K7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="69">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="69">
+        <v>100000</v>
+      </c>
+      <c r="M7" s="24">
+        <f>Prices!$F$4</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="D8" s="5">
+        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K8,0),$L8-$K8),0)</f>
+        <v>150000</v>
+      </c>
+      <c r="E8" s="5">
+        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K8,0),$L8-$K8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K8,0),$L8-$K8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K8,0),$L8-$K8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K8,0),$L8-$K8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="69">
+        <v>100000</v>
+      </c>
+      <c r="L8" s="69">
+        <v>250000</v>
+      </c>
+      <c r="M8" s="24">
+        <f>Prices!$G$4</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5">
+        <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K9,0),$L9-$K9),0)</f>
+        <v>500000</v>
+      </c>
+      <c r="E9" s="5">
+        <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K9,0),$L9-$K9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K9,0),$L9-$K9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K9,0),$L9-$K9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K9,0),$L9-$K9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="69">
+        <v>250000</v>
+      </c>
+      <c r="L9" s="69">
+        <v>1000000000</v>
+      </c>
+      <c r="M9" s="24">
+        <f>Prices!$H$4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="85">
+        <f>IFERROR(SUMPRODUCT(D6:D9,$M$6:$M$9)/SUM(D6:D9),0)</f>
+        <v>0.26344827586206898</v>
+      </c>
+      <c r="E10" s="85">
+        <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="86">
+        <f>SUM(D6:D9)</f>
+        <v>725000</v>
+      </c>
+      <c r="E11" s="86">
+        <f t="shared" ref="E11:H11" si="1">SUM(E6:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D14" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
-      </c>
-      <c r="E9" s="16">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F14" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G14" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H14" s="16">
         <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D15" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
         <v>8100</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E15" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F15" s="16">
         <f>IF(Inputs!F8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G15" s="16">
         <f>IF(Inputs!G8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H15" s="16">
         <f>IF(Inputs!H8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D9="Y",Inputs!D$19="Y"), Prices!$C10, 0)</f>
         <v>1200</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E9="Y",Inputs!E$19="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F9="Y",Inputs!F$19="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G9="Y",Inputs!G$19="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H9="Y",Inputs!H$19="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D10="Y",Inputs!D$19="Y"), Prices!$C11, 0)</f>
         <v>4800</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E10="Y",Inputs!E$19="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$19="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$19="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H10="Y",Inputs!H$19="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="18">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
         <v>2400</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$19="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$19="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$19="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
         <v>2400</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$19="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$19="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$19="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D13="Y",Inputs!D$19="Y"), Prices!$C14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$19="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$19="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H13="Y",Inputs!H$19="Y"), Prices!$C14, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="18">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D14="Y",Inputs!D$19="Y"), Prices!$C15, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
+        <v>4800</v>
+      </c>
+      <c r="E21" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F21" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$19="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G21" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$19="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H21" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H14="Y",Inputs!H$19="Y"), Prices!$C15, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D15="Y",Inputs!D$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D16="Y",Inputs!D$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="20">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!D17="Y",Inputs!D$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E24" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F24" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G24" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H24" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="16">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", "", PRODUCT(D$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", "", PRODUCT(F$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", "", PRODUCT(G$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$6 = "", "", PRODUCT(H$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="28" t="s">
+      <c r="D27" s="16">
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
+        <v>76400</v>
+      </c>
+      <c r="E27" s="16">
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F9="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G9="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H9="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D14),0))</f>
+      <c r="D28" s="29">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D29" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$6, Prices!$D15),0))</f>
-        <v>0</v>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
+        <v>9550</v>
       </c>
       <c r="E29" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$6, Prices!$D15),0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$6, Prices!$D15),0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F9="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G29" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$19="Y"),PRODUCT(G$6, Prices!$D15),0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G9="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H29" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$19="Y"),PRODUCT(H$6, Prices!$D15),0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H9="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
+        <v>13370.000000000002</v>
+      </c>
+      <c r="E30" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
+        <v>9550</v>
+      </c>
+      <c r="E31" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
+        <v>9550</v>
+      </c>
+      <c r="E32" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
+        <v>13370.000000000002</v>
+      </c>
+      <c r="E33" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G13="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E14),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H13="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E14),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
+        <v>13370.000000000002</v>
+      </c>
+      <c r="E34" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G14="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E15),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H14="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E15),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
+      <c r="D35" s="20">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <v>47750</v>
+      </c>
+      <c r="E35" s="20">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="20">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$20="Y"),PRODUCT(E$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$20="Y"),PRODUCT(F$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$20="Y"),PRODUCT(G$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$20="Y"),PRODUCT(H$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="29">
-        <v>0</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="15" t="s">
+      <c r="D36" s="20">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <v>19100</v>
+      </c>
+      <c r="E36" s="20">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D40" s="16">
         <f>IF(Inputs!D4="Y", Prices!$C$6, IF(Inputs!D4="N", Prices!$D$6, 0))</f>
-        <v>18000</v>
-      </c>
-      <c r="E35" s="16">
+        <v>33000</v>
+      </c>
+      <c r="E40" s="16">
         <f>IF(Inputs!E4="Y", Prices!$C$6, IF(Inputs!E4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F40" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G40" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H40" s="16">
         <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D41" s="16">
         <f>IF(Inputs!D8="Y", Prices!$C$7, 0)</f>
         <v>8100</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E41" s="16">
         <f>IF(Inputs!E8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F41" s="16">
         <f>IF(Inputs!F8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G41" s="16">
         <f>IF(Inputs!G8="Y", Prices!$C$7, 0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H41" s="16">
         <f>IF(Inputs!H8="Y", Prices!$C$7, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="18">
-        <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
-        <v>1200</v>
-      </c>
-      <c r="E37" s="18">
-        <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
-        <f>IF(AND(Inputs!G9="Y",Inputs!G$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <f>IF(AND(Inputs!H9="Y",Inputs!H$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="18">
-        <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
-        <v>4800</v>
-      </c>
-      <c r="E38" s="18">
-        <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <f>IF(AND(Inputs!G10="Y",Inputs!G$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <f>IF(AND(Inputs!H10="Y",Inputs!H$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="18">
-        <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="E39" s="18">
-        <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
-        <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="18">
-        <f>IF(AND(Inputs!G11="Y",Inputs!G$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <f>IF(AND(Inputs!H11="Y",Inputs!H$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="18">
-        <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
-        <v>2400</v>
-      </c>
-      <c r="E40" s="18">
-        <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="18">
-        <f>IF(AND(Inputs!G12="Y",Inputs!G$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <f>IF(AND(Inputs!H12="Y",Inputs!H$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="18">
-        <f>IF(AND(Inputs!D13="Y",Inputs!D$19="N"),Prices!$C14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <f>IF(AND(Inputs!E13="Y",Inputs!E$19="N"),Prices!$C14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <f>IF(AND(Inputs!F13="Y",Inputs!F$19="N"),Prices!$C14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="18">
-        <f>IF(AND(Inputs!G13="Y",Inputs!G$19="N"),Prices!$C14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <f>IF(AND(Inputs!H13="Y",Inputs!H$19="N"),Prices!$C14,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D42" s="18">
+        <f>IF(AND(Inputs!D9="Y",Inputs!D$19="N"),Prices!$C10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <f>IF(AND(Inputs!G9="Y",Inputs!G$19="N"),Prices!$C10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <f>IF(AND(Inputs!H9="Y",Inputs!H$19="N"),Prices!$C10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="18">
+        <f>IF(AND(Inputs!D10="Y",Inputs!D$19="N"),Prices!$C11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="18">
+        <f>IF(AND(Inputs!G10="Y",Inputs!G$19="N"),Prices!$C11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <f>IF(AND(Inputs!H10="Y",Inputs!H$19="N"),Prices!$C11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="18">
+        <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="18">
+        <f>IF(AND(Inputs!G11="Y",Inputs!G$19="N"),Prices!$C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <f>IF(AND(Inputs!H11="Y",Inputs!H$19="N"),Prices!$C12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="18">
+        <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
+        <f>IF(AND(Inputs!G12="Y",Inputs!G$19="N"),Prices!$C13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <f>IF(AND(Inputs!H12="Y",Inputs!H$19="N"),Prices!$C13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="18">
+        <f>IF(AND(Inputs!D13="Y",Inputs!D$19="N"),Prices!$C14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <f>IF(AND(Inputs!E13="Y",Inputs!E$19="N"),Prices!$C14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <f>IF(AND(Inputs!F13="Y",Inputs!F$19="N"),Prices!$C14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <f>IF(AND(Inputs!G13="Y",Inputs!G$19="N"),Prices!$C14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <f>IF(AND(Inputs!H13="Y",Inputs!H$19="N"),Prices!$C14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="18">
         <f>IF(AND(Inputs!D14="Y",Inputs!D$19="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E47" s="18">
         <f>IF(AND(Inputs!E14="Y",Inputs!E$19="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F47" s="18">
         <f>IF(AND(Inputs!F14="Y",Inputs!F$19="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G47" s="18">
         <f>IF(AND(Inputs!G14="Y",Inputs!G$19="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H47" s="18">
         <f>IF(AND(Inputs!H14="Y",Inputs!H$19="N"),Prices!$C15,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="19" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D48" s="20">
         <f>IF(AND(Inputs!D15="Y",Inputs!D$20="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E48" s="20">
         <f>IF(AND(Inputs!E15="Y",Inputs!E$20="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F48" s="20">
         <f>IF(AND(Inputs!F15="Y",Inputs!F$20="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G48" s="20">
         <f>IF(AND(Inputs!G15="Y",Inputs!G$20="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H48" s="20">
         <f>IF(AND(Inputs!H15="Y",Inputs!H$20="N"),Prices!$C16,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="19" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D49" s="20">
         <f>IF(AND(Inputs!D16="Y",Inputs!D$20="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E49" s="20">
         <f>IF(AND(Inputs!E16="Y",Inputs!E$20="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F49" s="20">
         <f>IF(AND(Inputs!F16="Y",Inputs!F$20="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G49" s="20">
         <f>IF(AND(Inputs!G16="Y",Inputs!G$20="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H49" s="20">
         <f>IF(AND(Inputs!H16="Y",Inputs!H$20="N"),Prices!$C17,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="20">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="20">
         <f>IF(AND(Inputs!D17="Y",Inputs!D$20="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E50" s="20">
         <f>IF(AND(Inputs!E17="Y",Inputs!E$20="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F50" s="20">
         <f>IF(AND(Inputs!F17="Y",Inputs!F$20="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G50" s="20">
         <f>IF(AND(Inputs!G17="Y",Inputs!G$20="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H50" s="20">
         <f>IF(AND(Inputs!H17="Y",Inputs!H$20="N"),Prices!$C18,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="15" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="16">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", "", PRODUCT(D$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="16">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", "", PRODUCT(E$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="16">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", "", PRODUCT(F$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", "", PRODUCT(G$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="16">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$6 = "", "", PRODUCT(H$6, Prices!$E$6)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C49" s="28" t="s">
+      <c r="D53" s="16">
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
+        <v>76400</v>
+      </c>
+      <c r="E53" s="16">
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="29">
-        <v>0</v>
-      </c>
-      <c r="E49" s="29">
-        <v>0</v>
-      </c>
-      <c r="F49" s="29">
-        <v>0</v>
-      </c>
-      <c r="G49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="D54" s="29">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E10)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G9="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H9="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E11)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D9="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G9="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H9="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D10),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D10="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D11),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
+      <c r="D57" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E12)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E13)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E14)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E14)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E14)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E14)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E14)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="18">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E15)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="18">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E15)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="18">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E15)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="18">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E15)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="18">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E15)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="20">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="20">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="20">
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="20">
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="20">
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D11="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D12),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D12="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D13),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D13="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E13="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F13="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G13="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H13="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D14),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="18">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D14="Y",Inputs!D$19="N"),PRODUCT(D$6, Prices!$D15),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E14="Y",Inputs!E$19="N"),PRODUCT(E$6, Prices!$D15),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F14="Y",Inputs!F$19="N"),PRODUCT(F$6, Prices!$D15),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="18">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G14="Y",Inputs!G$19="N"),PRODUCT(G$6, Prices!$D15),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="18">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H14="Y",Inputs!H$19="N"),PRODUCT(H$6, Prices!$D15),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C56" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$20="N"),PRODUCT(E$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$20="N"),PRODUCT(F$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$20="N"),PRODUCT(G$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$20="N"),PRODUCT(H$6, Prices!$D16),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$6 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$6 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$20="N"),PRODUCT(E$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$6 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$20="N"),PRODUCT(F$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$6 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$20="N"),PRODUCT(G$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$6 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$20="N"),PRODUCT(H$6, Prices!$D17),0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C58" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="29">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29">
-        <v>0</v>
-      </c>
-      <c r="F58" s="29">
-        <v>0</v>
-      </c>
-      <c r="G58" s="29">
-        <v>0</v>
-      </c>
-      <c r="H58" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C61" s="17" t="s">
+      <c r="D63" s="29">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29">
+        <v>0</v>
+      </c>
+      <c r="G63" s="29">
+        <v>0</v>
+      </c>
+      <c r="H63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D66" s="18">
         <f>IF(Inputs!D$19 = "Y", 0, IF(Inputs!D18="Y", Prices!$C20, 0))</f>
-        <v>10200</v>
-      </c>
-      <c r="E61" s="18">
+        <v>0</v>
+      </c>
+      <c r="E66" s="18">
         <f>IF(Inputs!E$19 = "Y", 0, IF(Inputs!E18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F66" s="18">
         <f>IF(Inputs!F$19 = "Y", 0, IF(Inputs!F18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G66" s="18">
         <f>IF(Inputs!G$19 = "Y", 0, IF(Inputs!G18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H66" s="18">
         <f>IF(Inputs!H$19 = "Y", 0, IF(Inputs!H18="Y", Prices!$C20, 0))</f>
         <v>0</v>
       </c>
-      <c r="K61" s="21">
-        <f t="shared" ref="K61:K64" si="0">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D61,D$61:D$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="L61" s="21">
-        <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E61,E$61:E$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="M61" s="21">
-        <f t="shared" ref="M61:M64" si="1">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F61,F$61:F$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="N61" s="21">
-        <f t="shared" ref="N61:N64" si="2">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G61,G$61:G$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="O61" s="21">
-        <f t="shared" ref="O61:O64" si="3">IF(COUNTIF(H$61:H$64,"")&gt;2,"",IFERROR(RANK(H61,H$61:H$64),4))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="K66" s="21">
+        <f t="shared" ref="K66:K69" si="2">IF(COUNTIF(D$66:D$69,"")&gt;2,"",IFERROR(RANK(D66,D$66:D$69),4))</f>
+        <v>2</v>
+      </c>
+      <c r="L66" s="21">
+        <f>IF(COUNTIF(E$66:E$69,"")&gt;2,"",IFERROR(RANK(E66,E$66:E$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="M66" s="21">
+        <f t="shared" ref="M66:M69" si="3">IF(COUNTIF(F$66:F$69,"")&gt;2,"",IFERROR(RANK(F66,F$66:F$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="21">
+        <f t="shared" ref="N66:N69" si="4">IF(COUNTIF(G$66:G$69,"")&gt;2,"",IFERROR(RANK(G66,G$66:G$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="O66" s="21">
+        <f t="shared" ref="O66:O69" si="5">IF(COUNTIF(H$66:H$69,"")&gt;2,"",IFERROR(RANK(H66,H$66:H$69),4))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D67" s="18">
         <f>IF(Inputs!D19="Y", Prices!$C21, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="18">
+        <v>39600</v>
+      </c>
+      <c r="E67" s="18">
         <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F67" s="18">
         <f>IF(Inputs!F19="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G67" s="18">
         <f>IF(Inputs!G19="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H67" s="18">
         <f>IF(Inputs!H19="Y", Prices!$C21, 0)</f>
         <v>0</v>
       </c>
-      <c r="K62" s="21">
-        <f t="shared" si="0"/>
+      <c r="K67" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L67" s="21">
+        <f t="shared" ref="L67:L69" si="6">IF(COUNTIF(E$66:E$69,"")&gt;2,"",IFERROR(RANK(E67,E$66:E$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="M67" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N67" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="20">
+        <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="20">
+        <f>IF(Inputs!E20="Y", Prices!$C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="20">
+        <f>IF(Inputs!F20="Y", Prices!$C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="20">
+        <f>IF(Inputs!G20="Y", Prices!$C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="20">
+        <f>IF(Inputs!H20="Y", Prices!$C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="21">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L62" s="21">
-        <f t="shared" ref="L62:L64" si="4">IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E62,E$61:E$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="M62" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N62" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="21">
+      <c r="L68" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="21">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="20">
-        <f>IF(Inputs!D20="Y", Prices!$C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="20">
-        <f>IF(Inputs!E20="Y", Prices!$C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="20">
-        <f>IF(Inputs!F20="Y", Prices!$C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="20">
-        <f>IF(Inputs!G20="Y", Prices!$C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="20">
-        <f>IF(Inputs!H20="Y", Prices!$C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L63" s="21">
+      <c r="N68" s="21">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M63" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N63" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="20">
-        <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="20">
-        <f>IF(Inputs!E21="Y", Prices!$C23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="20">
-        <f>IF(Inputs!F21="Y", Prices!$C23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="20">
-        <f>IF(Inputs!G21="Y", Prices!$C23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="20">
-        <f>IF(Inputs!H21="Y", Prices!$C23, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L64" s="21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M64" s="21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N64" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="29">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29">
-        <v>0</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0</v>
-      </c>
-      <c r="G67" s="29">
-        <v>0</v>
-      </c>
-      <c r="H67" s="29">
-        <v>0</v>
-      </c>
-      <c r="K67" s="21">
-        <f t="shared" ref="K67" si="5">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D67,D$61:D$64),4))</f>
-        <v>2</v>
-      </c>
-      <c r="L67" s="21">
-        <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E67,E$61:E$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="M67" s="21">
-        <f t="shared" ref="M67" si="6">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F67,F$61:F$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="N67" s="21">
-        <f t="shared" ref="N67" si="7">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G67,G$61:G$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="O67" s="21">
-        <f t="shared" ref="O67" si="8">IF(COUNTIF(H$61:H$64,"")&gt;2,"",IFERROR(RANK(H67,H$61:H$64),4))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="18">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D19 = "Y", D$6*Prices!$D21, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="18">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", 0, IF(Inputs!E19 = "Y", E$6*Prices!$D21, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="18">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", 0, IF(Inputs!F19 = "Y", F$6*Prices!$D21, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="18">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", 0, IF(Inputs!G19 = "Y", G$6*Prices!$D21, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="18">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$6 = "", 0, IF(Inputs!H19 = "Y", H$6*Prices!$D21, 0)))</f>
-        <v>0</v>
+      <c r="O68" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D20 = "Y", D$6*Prices!$D22, 0)))</f>
+        <f>IF(Inputs!D21="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="E69" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", 0, IF(Inputs!E20 = "Y", E$6*Prices!$D22, 0)))</f>
+        <f>IF(Inputs!E21="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="F69" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", 0, IF(Inputs!F20 = "Y", F$6*Prices!$D22, 0)))</f>
+        <f>IF(Inputs!F21="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="G69" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", 0, IF(Inputs!G20 = "Y", G$6*Prices!$D22, 0)))</f>
+        <f>IF(Inputs!G21="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$6 = "", 0, IF(Inputs!H20 = "Y", H$6*Prices!$D22, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C70" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="20">
-        <f>IF(Inputs!D$4="Y", 0, IF(D$6 = "", 0, IF(Inputs!D21 = "Y", D$6*Prices!$D23, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="20">
-        <f>IF(Inputs!E$4="Y", 0, IF(E$6 = "", 0, IF(Inputs!E21 = "Y", E$6*Prices!$D23, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="20">
-        <f>IF(Inputs!F$4="Y", 0, IF(F$6 = "", 0, IF(Inputs!F21 = "Y", F$6*Prices!$D23, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="20">
-        <f>IF(Inputs!G$4="Y", 0, IF(G$6 = "", 0, IF(Inputs!G21 = "Y", G$6*Prices!$D23, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="20">
-        <f>IF(Inputs!H$4="Y", 0, IF(H$6 = "", 0, IF(Inputs!H21 = "Y", H$6*Prices!$D23, 0)))</f>
-        <v>0</v>
+        <f>IF(Inputs!H21="Y", Prices!$C23, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L69" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M69" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="B71" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>68</v>
+      <c r="C72" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29">
+        <v>0</v>
+      </c>
+      <c r="G72" s="29">
+        <v>0</v>
+      </c>
+      <c r="H72" s="29">
+        <v>0</v>
+      </c>
+      <c r="K72" s="21">
+        <f t="shared" ref="K72" si="7">IF(COUNTIF(D$66:D$69,"")&gt;2,"",IFERROR(RANK(D72,D$66:D$69),4))</f>
+        <v>2</v>
+      </c>
+      <c r="L72" s="21">
+        <f>IF(COUNTIF(E$66:E$69,"")&gt;2,"",IFERROR(RANK(E72,E$66:E$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="M72" s="21">
+        <f t="shared" ref="M72" si="8">IF(COUNTIF(F$66:F$69,"")&gt;2,"",IFERROR(RANK(F72,F$66:F$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="21">
+        <f t="shared" ref="N72" si="9">IF(COUNTIF(G$66:G$69,"")&gt;2,"",IFERROR(RANK(G72,G$66:G$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="O72" s="21">
+        <f t="shared" ref="O72" si="10">IF(COUNTIF(H$66:H$69,"")&gt;2,"",IFERROR(RANK(H72,H$66:H$69),4))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" s="18">
-        <f>D61</f>
-        <v>10200</v>
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D19 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
+        <v>76400</v>
       </c>
       <c r="E73" s="18">
-        <f t="shared" ref="E73:H73" si="9">E61</f>
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E19 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
         <v>0</v>
       </c>
       <c r="F73" s="18">
-        <f t="shared" si="9"/>
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F19 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
         <v>0</v>
       </c>
       <c r="G73" s="18">
-        <f t="shared" si="9"/>
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G19 = "Y", G$11*Prices!$E21, 0)))*G$10</f>
         <v>0</v>
       </c>
       <c r="H73" s="18">
-        <f t="shared" si="9"/>
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H19 = "Y", H$11*Prices!$E21, 0)))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C74" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="18">
-        <f>IF(D62=0,0,D62-SUM(D11:D16))</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="18">
-        <f t="shared" ref="E74:H74" si="10">IF(E62=0,0,E62-SUM(E11:E16))</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="18">
-        <f>IF(F62=0,0,F62-SUM(F11:F16))</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="18">
-        <f t="shared" si="10"/>
+      <c r="C74" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="20">
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D20 = "Y", D$11*Prices!$E22, 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="20">
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E20 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="20">
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F20 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="20">
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G20 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="20">
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="20">
+        <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D21 = "Y", D$11*Prices!$E23, 0)))*D$10</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="20">
+        <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E21 = "Y", E$11*Prices!$E23, 0)))*E$10</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="20">
+        <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F21 = "Y", F$11*Prices!$E23, 0)))*F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="20">
+        <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="20">
+        <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="18">
+        <f>D66</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="18">
+        <f t="shared" ref="E78:H78" si="11">E66</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C79" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="18">
+        <f>IF(D67=0,0,D67-SUM(D16:D21))</f>
+        <v>16800</v>
+      </c>
+      <c r="E79" s="18">
+        <f t="shared" ref="E79:H79" si="12">IF(E67=0,0,E67-SUM(E16:E21))</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="18">
+        <f>IF(F67=0,0,F67-SUM(F16:F21))</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C80" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="20">
-        <f>IF(D63=0,0,D63-SUM(D17:D19))</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
-        <f t="shared" ref="E75:H75" si="11">IF(E63=0,0,E63-SUM(E17:E19))</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="19" t="s">
+      <c r="D80" s="20">
+        <f>IF(D68=0,0,D68-SUM(D22:D24))</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="20">
+        <f t="shared" ref="E80:H80" si="13">IF(E68=0,0,E68-SUM(E22:E24))</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C81" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="20">
-        <f t="shared" ref="D76:H76" si="12">D64</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C79" s="28" t="s">
+      <c r="D81" s="20">
+        <f t="shared" ref="D81:H81" si="14">D69</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C84" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="29">
-        <v>0</v>
-      </c>
-      <c r="E79" s="29">
-        <v>0</v>
-      </c>
-      <c r="F79" s="29">
-        <v>0</v>
-      </c>
-      <c r="G79" s="29">
-        <v>0</v>
-      </c>
-      <c r="H79" s="29">
-        <v>0</v>
-      </c>
-      <c r="K79" s="21">
-        <f t="shared" ref="K79" si="13">IF(COUNTIF(D$61:D$64,"")&gt;2,"",IFERROR(RANK(D79,D$61:D$64),4))</f>
+      <c r="D84" s="29">
+        <v>0</v>
+      </c>
+      <c r="E84" s="29">
+        <v>0</v>
+      </c>
+      <c r="F84" s="29">
+        <v>0</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0</v>
+      </c>
+      <c r="H84" s="29">
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <f t="shared" ref="K84" si="15">IF(COUNTIF(D$66:D$69,"")&gt;2,"",IFERROR(RANK(D84,D$66:D$69),4))</f>
         <v>2</v>
       </c>
-      <c r="L79" s="21">
-        <f>IF(COUNTIF(E$61:E$64,"")&gt;2,"",IFERROR(RANK(E79,E$61:E$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="M79" s="21">
-        <f t="shared" ref="M79" si="14">IF(COUNTIF(F$61:F$64,"")&gt;2,"",IFERROR(RANK(F79,F$61:F$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="N79" s="21">
-        <f t="shared" ref="N79" si="15">IF(COUNTIF(G$61:G$64,"")&gt;2,"",IFERROR(RANK(G79,G$61:G$64),4))</f>
-        <v>1</v>
-      </c>
-      <c r="O79" s="21">
-        <f t="shared" ref="O79" si="16">IF(COUNTIF(H$61:H$64,"")&gt;2,"",IFERROR(RANK(H79,H$61:H$64),4))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
+      <c r="L84" s="21">
+        <f>IF(COUNTIF(E$66:E$69,"")&gt;2,"",IFERROR(RANK(E84,E$66:E$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="M84" s="21">
+        <f t="shared" ref="M84" si="16">IF(COUNTIF(F$66:F$69,"")&gt;2,"",IFERROR(RANK(F84,F$66:F$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="N84" s="21">
+        <f t="shared" ref="N84" si="17">IF(COUNTIF(G$66:G$69,"")&gt;2,"",IFERROR(RANK(G84,G$66:G$69),4))</f>
+        <v>1</v>
+      </c>
+      <c r="O84" s="21">
+        <f t="shared" ref="O84" si="18">IF(COUNTIF(H$66:H$69,"")&gt;2,"",IFERROR(RANK(H84,H$66:H$69),4))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C85" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="18">
-        <f>IF(D68=0,0,D68-SUM(D24:D29))</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="18">
-        <f t="shared" ref="E80:H80" si="17">IF(E68=0,0,E68-SUM(E24:E29))</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="19" t="s">
+      <c r="D85" s="18">
+        <f>IF(D73=0,0,D73-SUM(D29:D34))</f>
+        <v>7640</v>
+      </c>
+      <c r="E85" s="18">
+        <f t="shared" ref="E85:H85" si="19">IF(E73=0,0,E73-SUM(E29:E34))</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C86" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="20">
-        <f>IF(D69=0,0,D69-SUM(D30:D31))</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="20">
-        <f t="shared" ref="E81:H81" si="18">IF(E69=0,0,E69-SUM(E30:E31))</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C82" s="19" t="s">
+      <c r="D86" s="20">
+        <f>IF(D74=0,0,D74-SUM(D35:D36))</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="20">
+        <f t="shared" ref="E86:H86" si="20">IF(E74=0,0,E74-SUM(E35:E36))</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C87" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="20">
-        <f t="shared" ref="D82:H82" si="19">D70</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+      <c r="D87" s="20">
+        <f t="shared" ref="D87:H87" si="21">D75</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$66:D$69, MATCH(2, K$66:K$69, 0)), INDEX(D$71:D$75, MATCH(2, K$66:K$69, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$66:E$69, MATCH(2, L$66:L$69, 0)), INDEX(E$71:E$75, MATCH(2, L$66:L$69, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$66:F$69, MATCH(2, M$66:M$69, 0)), INDEX(F$71:F$75, MATCH(2, M$66:M$69, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$66:G$69, MATCH(2, N$66:N$69, 0)), INDEX(G$71:G$75, MATCH(2, N$66:N$69, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$66:H$69, MATCH(2, O$66:O$69, 0)), INDEX(H$71:H$75, MATCH(2, O$66:O$69, 0)))*Prices!$L$5*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(2, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(2, K$61:K$64, 0)))*Prices!$I$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(2, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(2, L$61:L$64, 0)))*Prices!$I$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(2, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(2, M$61:M$64, 0)))*Prices!$I$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(2, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(2, N$61:N$64, 0)))*Prices!$I$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(2, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(2, O$61:O$64, 0)))*Prices!$I$5*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(D$61:D$64, MATCH(3, K$61:K$64, 0)), INDEX(D$66:D$70, MATCH(3, K$61:K$64, 0)))*Prices!$I$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(E$61:E$64, MATCH(3, L$61:L$64, 0)), INDEX(E$66:E$70, MATCH(3, L$61:L$64, 0)))*Prices!$I$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(F$61:F$64, MATCH(3, M$61:M$64, 0)), INDEX(F$66:F$70, MATCH(3, M$61:M$64, 0)))*Prices!$I$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(G$61:G$64, MATCH(3, N$61:N$64, 0)), INDEX(G$66:G$70, MATCH(3, N$61:N$64, 0)))*Prices!$I$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <f>_xlfn.IFNA(SUM(INDEX(H$61:H$64, MATCH(3, O$61:O$64, 0)), INDEX(H$66:H$70, MATCH(3, O$61:O$64, 0)))*Prices!$I$6*-1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="7">
-        <f>SUM(D35:D45, D48:D58, D61:D64, D67:D70, D85:D86)</f>
-        <v>47100</v>
-      </c>
-      <c r="E88" s="7">
-        <f t="shared" ref="E88:H88" si="20">SUM(E35:E45, E48:E58, E61:E64, E67:E70, E85:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="1">
-        <f>IF(D100=1, 0, IF(D100=2, $E$103, IF(D100=3, $E$104, IF(D100=4, $E$105, IF(D100=5, $E$106, "")))))</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" ref="E90:H90" si="21">IF(E100=1, 0, IF(E100=2, $E$103, IF(E100=3, $E$104, IF(E100=4, $E$105, IF(E100=5, $E$106, "")))))</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" s="1">
-        <f>IF(Inputs!$D$5 = "Y", Prices!$I$18, 0)*-1</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="7">
-        <f>SUM(D88, D90)</f>
-        <v>47100</v>
-      </c>
-      <c r="E94" s="7">
-        <f>SUM(E88, E90)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="7">
-        <f>SUM(F88, F90)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="7">
-        <f>SUM(G88, G90)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="7">
-        <f>SUM(H88, H90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="C97" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="21">
-        <f>IFERROR(_xlfn.RANK.EQ(D88,$D$88:$H$88),5)</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="21">
-        <f t="shared" ref="E97:H97" si="22">IFERROR(_xlfn.RANK.EQ(E88,$D$88:$H$88),5)</f>
-        <v>2</v>
-      </c>
-      <c r="F97" s="21">
+      <c r="D91" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(D$66:D$69, MATCH(3, K$66:K$69, 0)), INDEX(D$71:D$75, MATCH(3, K$66:K$69, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(E$66:E$69, MATCH(3, L$66:L$69, 0)), INDEX(E$71:E$75, MATCH(3, L$66:L$69, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(F$66:F$69, MATCH(3, M$66:M$69, 0)), INDEX(F$71:F$75, MATCH(3, M$66:M$69, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(G$66:G$69, MATCH(3, N$66:N$69, 0)), INDEX(G$71:G$75, MATCH(3, N$66:N$69, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <f>_xlfn.IFNA(SUM(INDEX(H$66:H$69, MATCH(3, O$66:O$69, 0)), INDEX(H$71:H$75, MATCH(3, O$66:O$69, 0)))*Prices!$L$6*-1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="7">
+        <f>SUM(D40:D50, D53:D63, D66:D69, D72:D75, D90:D91)</f>
+        <v>233500</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" ref="E93:H93" si="22">SUM(E40:E50, E53:E63, E66:E69, E72:E75, E90:E91)</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="G97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="H97" s="21">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
-      <c r="D98" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E98" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F98" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G98" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="H98" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-      <c r="D99" s="21">
-        <f>SUM(D97:D98)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E99" s="21">
-        <f t="shared" ref="E99:H99" si="23">SUM(E97:E98)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="1">
+        <f>IF(D105=1, 0, IF(D105=2, $E$108, IF(D105=3, $E$109, IF(D105=4, $E$110, IF(D105=5, $E$111, "")))))</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" ref="E95:H95" si="23">IF(E105=1, 0, IF(E105=2, $E$108, IF(E105=3, $E$109, IF(E105=4, $E$110, IF(E105=5, $E$111, "")))))</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
         <f t="shared" si="23"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="23"/>
-        <v>2.4</v>
-      </c>
-      <c r="H99" s="21">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
         <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="D100" s="21">
-        <f>_xlfn.RANK.EQ(D99, $D$99:$H$99, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="E100" s="21">
-        <f t="shared" ref="E100:H100" si="24">_xlfn.RANK.EQ(E99, $D$99:$H$99, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="F100" s="21">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="G100" s="21">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="H100" s="21">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="1">
+        <f>IF(Inputs!$D$5 = "Y", Prices!$L$18, 0)*-1</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="7">
+        <f>SUM(D93, D95)</f>
+        <v>233500</v>
+      </c>
+      <c r="E99" s="7">
+        <f>SUM(E93, E95)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <f>SUM(F93, F95)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <f>SUM(G93, G95)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <f>SUM(H93, H95)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27"/>
       <c r="C102" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="D102" s="21">
+        <f>IFERROR(_xlfn.RANK.EQ(D93,$D$93:$H$93),5)</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="21">
+        <f t="shared" ref="E102:H102" si="24">IFERROR(_xlfn.RANK.EQ(E93,$D$93:$H$93),5)</f>
+        <v>2</v>
+      </c>
+      <c r="F102" s="21">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="G102" s="21">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="H102" s="21">
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27"/>
-      <c r="D103" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(2, $D$100:$H$100, 0))*Prices!$I$10*-1</f>
-        <v>0</v>
+      <c r="D103" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E103" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H103" s="21">
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27"/>
-      <c r="D104" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(3, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
-        <v>0</v>
+      <c r="D104" s="21">
+        <f>SUM(D102:D103)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E104" s="21">
+        <f t="shared" ref="E104:H104" si="25">SUM(E102:E103)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F104" s="21">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G104" s="21">
+        <f t="shared" si="25"/>
+        <v>2.4</v>
+      </c>
+      <c r="H104" s="21">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27"/>
-      <c r="D105" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(4, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
-        <v>0</v>
+      <c r="D105" s="21">
+        <f>_xlfn.RANK.EQ(D104, $D$104:$H$104, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="21">
+        <f t="shared" ref="E105:H105" si="26">_xlfn.RANK.EQ(E104, $D$104:$H$104, 5)</f>
+        <v>2</v>
+      </c>
+      <c r="F105" s="21">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G105" s="21">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="H105" s="21">
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="27"/>
-      <c r="D106" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E106" s="23">
-        <f>INDEX($D$88:$H$88, 1, MATCH(5, $D$100:$H$100, 0))*Prices!$I$11*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="2"/>
+    </row>
+    <row r="107" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="27"/>
+      <c r="C107" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="27"/>
+      <c r="D108" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="23">
+        <f>INDEX($D$93:$H$93, 1, MATCH(2, $D$105:$H$105, 0))*Prices!$L$10*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="27"/>
+      <c r="D109" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="23">
+        <f>INDEX($D$93:$H$93, 1, MATCH(3, $D$105:$H$105, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="27"/>
+      <c r="D110" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="23">
+        <f>INDEX($D$93:$H$93, 1, MATCH(4, $D$105:$H$105, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="27"/>
+      <c r="D111" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="23">
+        <f>INDEX($D$93:$H$93, 1, MATCH(5, $D$105:$H$105, 0))*Prices!$L$11*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13051,10 +13272,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13063,13 +13284,14 @@
     <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
@@ -13077,7 +13299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -13088,13 +13310,16 @@
         <v>32750</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="H3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -13102,28 +13327,48 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="H4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="82">
+        <v>0.24</v>
+      </c>
+      <c r="H4" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="43">
         <v>18000</v>
@@ -13134,16 +13379,28 @@
       <c r="E6" s="39">
         <v>0.4</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="39">
+        <f>$E6*F$4</f>
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" ref="G6:H7" si="0">$E6*G$4</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="43">
         <v>8100</v>
@@ -13154,206 +13411,378 @@
       <c r="E7" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="39">
+        <f t="shared" ref="F7:H7" si="1">$E7*F$4</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="45">
         <v>1200</v>
       </c>
-      <c r="D10" s="41">
+      <c r="E10" s="41">
         <v>0.05</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="F10" s="41">
+        <f t="shared" ref="F10:H18" si="2">$E10*F$4</f>
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="41">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H10" s="41">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="45">
         <v>4800</v>
       </c>
-      <c r="D11" s="41">
+      <c r="E11" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="F11" s="41">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G11" s="41">
+        <f t="shared" si="2"/>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="H11" s="41">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="45">
         <v>2400</v>
       </c>
-      <c r="D12" s="41">
+      <c r="E12" s="41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="41">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H12" s="41">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="45">
         <v>2400</v>
       </c>
-      <c r="D13" s="41">
+      <c r="E13" s="41">
         <v>0.05</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="41">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H13" s="41">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="45">
         <v>7200</v>
       </c>
-      <c r="D14" s="41">
+      <c r="E14" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H14" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="61">
+      <c r="F14" s="41">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="2"/>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="61">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="45">
         <v>4800</v>
       </c>
-      <c r="D15" s="41">
+      <c r="E15" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="F15" s="41">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G15" s="41">
+        <f t="shared" si="2"/>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="H15" s="41">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="55">
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="46">
         <v>12000</v>
       </c>
-      <c r="D16" s="42">
+      <c r="E16" s="42">
         <v>0.25</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="42">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="46">
         <v>6000</v>
       </c>
-      <c r="D17" s="42">
+      <c r="E17" s="42">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="42">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="46">
         <v>6000</v>
       </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="1">
         <v>3525</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="44"/>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="45">
         <v>10200</v>
       </c>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="41">
+        <v>0</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" ref="F20:H23" si="3">$E20*F$4</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="45">
         <v>39600</v>
       </c>
-      <c r="D21" s="41">
+      <c r="E21" s="41">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="41">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="G21" s="41">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="46">
         <v>42000</v>
       </c>
-      <c r="D22" s="42">
+      <c r="E22" s="42">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="42">
+        <f t="shared" si="3"/>
+        <v>0.252</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="3"/>
+        <v>0.10079999999999999</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="46">
         <v>33600</v>
       </c>
-      <c r="D23" s="42">
+      <c r="E23" s="42">
         <v>0.25</v>
+      </c>
+      <c r="F23" s="42">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="H23" s="42">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -1075,11 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="56">
-        <v>750000</v>
+        <v>250000</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -1375,7 +1375,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D7" s="16">
         <f>SUM(Calcs!D40, Calcs!D53)</f>
-        <v>109400</v>
+        <v>69400</v>
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E40, Calcs!E53)</f>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D21" s="1">
         <f>SUM(Calcs!D67, Calcs!D73)</f>
-        <v>116000</v>
+        <v>76000</v>
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E67, Calcs!E73)</f>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D30" s="7">
         <f>SUM(D7:D17, D20:D23, D26:D28)</f>
-        <v>233500</v>
+        <v>153500</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30:H30" si="0">SUM(E7:E17, E20:E23, E26:E27)</f>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D35" s="7">
         <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
-        <v>733250</v>
+        <v>493250</v>
       </c>
       <c r="E35" s="7">
         <f>(E30/12*Inputs!$C$2+E4)*$C$33</f>
@@ -2231,13 +2231,13 @@
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C39" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>733250</v>
+        <v>493250</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" s="53">
         <f>SUM(D35:H35)</f>
-        <v>733250</v>
+        <v>493250</v>
       </c>
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
@@ -2270,10 +2270,10 @@
   <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2288,7 @@
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D23" s="16">
         <f>SUM(Calcs!D27:H27)</f>
-        <v>76400</v>
+        <v>36400</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="35">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="K23" s="16">
         <f>F23*$D23</f>
-        <v>22920.000000000004</v>
+        <v>10920.000000000002</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" ref="L23:L33" si="6">G23*$D23</f>
-        <v>53480</v>
+        <v>25480</v>
       </c>
       <c r="M23" s="16">
         <f>H23*$D23</f>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="37">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="L25" s="18">
         <f t="shared" si="6"/>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" si="11"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D30:H30)</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="37">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" si="10"/>
-        <v>4922.590909090909</v>
+        <v>2345.3181818181815</v>
       </c>
       <c r="L26" s="18">
         <f t="shared" si="6"/>
-        <v>7353.5000000000018</v>
+        <v>3503.5000000000009</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" si="11"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="N26" s="18">
         <f t="shared" si="11"/>
-        <v>1093.9090909090908</v>
+        <v>521.18181818181813</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D31:H31)</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="7"/>
@@ -3091,11 +3091,11 @@
       </c>
       <c r="K27" s="18">
         <f t="shared" si="10"/>
-        <v>7640</v>
+        <v>3640</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="6"/>
-        <v>1910</v>
+        <v>910</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" si="11"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D32:H32)</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="7"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="L28" s="18">
         <f t="shared" si="6"/>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="M28" s="18">
         <f t="shared" si="11"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D29" s="18">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="7"/>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="K29" s="18">
         <f t="shared" si="10"/>
-        <v>1188.4444444444448</v>
+        <v>566.2222222222224</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" si="6"/>
-        <v>2674.0000000000005</v>
+        <v>1274.0000000000002</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" si="11"/>
-        <v>9507.5555555555584</v>
+        <v>4529.7777777777792</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="11"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D30" s="18">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="7"/>
@@ -3214,11 +3214,11 @@
       </c>
       <c r="K30" s="18">
         <f t="shared" si="10"/>
-        <v>6685.0000000000009</v>
+        <v>3185.0000000000005</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="6"/>
-        <v>6685.0000000000009</v>
+        <v>3185.0000000000005</v>
       </c>
       <c r="M30" s="18">
         <f t="shared" si="11"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D31" s="20">
         <f>SUM(Calcs!D35:H35)</f>
-        <v>47750</v>
+        <v>0</v>
       </c>
       <c r="F31" s="38">
         <f t="shared" si="7"/>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="L31" s="20">
         <f t="shared" si="6"/>
-        <v>47750</v>
+        <v>0</v>
       </c>
       <c r="M31" s="20">
         <f t="shared" si="11"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="D32" s="20">
         <f>SUM(Calcs!D36:H36)</f>
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="38">
         <f t="shared" si="7"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="L32" s="20">
         <f t="shared" si="6"/>
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="11"/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="D43" s="18">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>7640</v>
+        <v>3640</v>
       </c>
       <c r="F43" s="30">
         <f>IFERROR((1-G43)*F37/SUM(F37,H37),0)</f>
@@ -3607,11 +3607,11 @@
       </c>
       <c r="K43" s="18">
         <f>F43*$D43</f>
-        <v>6112</v>
+        <v>2912</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="14"/>
-        <v>1528</v>
+        <v>728</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ref="M43:N45" si="15">H43*$D43</f>
@@ -3725,19 +3725,19 @@
       </c>
       <c r="F48" s="8">
         <f>IFERROR(SUM(K60:K63)/SUM($K$60:$M$63), 0)</f>
-        <v>0.43730082116538704</v>
+        <v>0.48152508107883424</v>
       </c>
       <c r="G48" s="8">
         <f>IFERROR(SUM(L60:L63)/SUM($K$60:$M$63), 0)</f>
-        <v>0.43084361392076442</v>
+        <v>0.38283795769753576</v>
       </c>
       <c r="H48" s="8">
         <f>IFERROR(SUM(M60:M63)/SUM($K$60:$M$63), 0)</f>
-        <v>0.13185556491384848</v>
+        <v>0.13563696122362989</v>
       </c>
       <c r="I48" s="8">
         <f>IFERROR(SUM(N60:N63)/SUM($K$60:$M$63), 0)</f>
-        <v>1.3592789726535125E-2</v>
+        <v>1.3197297588272877E-2</v>
       </c>
       <c r="K48" s="12">
         <f>F48*$D$48</f>
@@ -3766,19 +3766,19 @@
       </c>
       <c r="F49" s="3">
         <f>IFERROR(SUM(K8:K48)/SUM($K8:$N48), 0)</f>
-        <v>0.29195283953233014</v>
+        <v>0.40253120784391144</v>
       </c>
       <c r="G49" s="3">
         <f>IFERROR(SUM(L8:L48)/SUM($K8:$N48), 0)</f>
-        <v>0.65197436324288327</v>
+        <v>0.52391205211726388</v>
       </c>
       <c r="H49" s="3">
         <f>IFERROR(SUM(M8:M48)/SUM($K8:$N48), 0)</f>
-        <v>5.0832547213436184E-2</v>
+        <v>6.7034382917119079E-2</v>
       </c>
       <c r="I49" s="3">
         <f>1-F49-G49-H49</f>
-        <v>5.2402500113504571E-3</v>
+        <v>6.522357121705652E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49*$D$49</f>
@@ -3846,23 +3846,23 @@
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>233500</v>
+        <v>153500</v>
       </c>
       <c r="K52" s="12">
         <f>SUM(K48:K50, K36:K39, K8:K18,K23:K33,K42:K45)</f>
-        <v>87688.03535353535</v>
+        <v>61788.540404040403</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:N52" si="19">SUM(L48:L50, L36:L39, L8:L18,L23:L33,L42:L45)</f>
-        <v>195820.5</v>
+        <f>SUM(L48:L50, L36:L39, L8:L18,L23:L33,L42:L45)</f>
+        <v>80420.5</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="19"/>
-        <v>15267.555555555558</v>
+        <f t="shared" ref="L52:N52" si="19">SUM(M48:M50, M36:M39, M8:M18,M23:M33,M42:M45)</f>
+        <v>10289.777777777779</v>
       </c>
       <c r="N52" s="12">
         <f t="shared" si="19"/>
-        <v>1573.9090909090908</v>
+        <v>1001.1818181818181</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D53" s="23">
         <f>SUM(K52:N52)</f>
-        <v>300350</v>
+        <v>153500</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
@@ -3888,42 +3888,42 @@
       </c>
       <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>733250</v>
+        <v>493250</v>
       </c>
       <c r="K55" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>266339.10606060602</v>
+        <v>188640.62121212113</v>
       </c>
       <c r="L55" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>616936.5</v>
+        <v>270736.5</v>
       </c>
       <c r="M55" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
-        <v>45802.666666666679</v>
+        <v>30869.333333333339</v>
       </c>
       <c r="N55" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>4721.7272727272739</v>
+        <v>3003.545454545454</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="K56" s="54">
         <f>IFERROR(K55/$D$55, 0)</f>
-        <v>0.36323096632881829</v>
+        <v>0.38244423965964752</v>
       </c>
       <c r="L56" s="54">
         <f>IFERROR(L55/$D$55, 0)</f>
-        <v>0.84137265598363453</v>
+        <v>0.5488829194120628</v>
       </c>
       <c r="M56" s="54">
         <f>IFERROR(M55/$D$55, 0)</f>
-        <v>6.2465280145471092E-2</v>
+        <v>6.2583544517655021E-2</v>
       </c>
       <c r="N56" s="54">
         <f>IFERROR(N55/$D$55, 0)</f>
-        <v>6.4394507640331044E-3</v>
+        <v>6.0892964106344736E-3</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -3998,41 +3998,41 @@
       </c>
       <c r="D61" s="23">
         <f>SUM(Calcs!D67:H67)+SUM(Calcs!D73:H73)</f>
-        <v>116000</v>
+        <v>76000</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="24">
         <f>IFERROR(SUM(K$37,K$10:K$15,K$43,K$25:K$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.43650914714213218</v>
+        <v>0.48065477934130413</v>
       </c>
       <c r="G61" s="24">
         <f t="shared" ref="G61" si="21">IFERROR(SUM(L$37,L$10:L$15,L$43,L$25:L$30)/SUM($K$37:$M$37,$K$10:$M$15,$K$43:$M$43,$K$25:$M$30),0)</f>
-        <v>0.43006362979835333</v>
+        <v>0.38214602169488732</v>
       </c>
       <c r="H61" s="24">
         <f>IFERROR(SUM(M$37,M$10:M$15,M$43,M$25:M$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
-        <v>0.13161685823754793</v>
+        <v>0.13539181286549709</v>
       </c>
       <c r="I61" s="24">
         <f>IFERROR(SUM(N$37,N$10:N$15,N$43,N$25:N$30)/SUM($K$37:$N$37,$K$10:$N$15,$K$43:$N$43,$K$25:$N$30),0)</f>
-        <v>1.3568181818181818E-2</v>
+        <v>1.3173444976076554E-2</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
         <f t="shared" si="20"/>
-        <v>50635.061068487332</v>
+        <v>36529.763229939112</v>
       </c>
       <c r="L61" s="25">
         <f t="shared" si="20"/>
-        <v>49887.381056608989</v>
+        <v>29043.097648811436</v>
       </c>
       <c r="M61" s="25">
         <f t="shared" si="20"/>
-        <v>15267.55555555556</v>
+        <v>10289.777777777779</v>
       </c>
       <c r="N61" s="25">
         <f t="shared" si="20"/>
-        <v>1573.9090909090908</v>
+        <v>1001.1818181818181</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="G62" s="24">
         <f>IFERROR(SUM(L38,L16:L18,L44,L31:L33)/SUM($K$38:$M$38,$K$16:$M$18,$K$44:$M$44,$K$31:$M$33),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="24">
         <f>IFERROR(SUM(M38,M16:M18,M44,M31:M33)/SUM($K$38:$N$38,$K$16:$N$18,$K$44:$N$44,$K$31:$N$33),0)</f>
@@ -4684,23 +4684,23 @@
       </c>
       <c r="M9" s="67">
         <f>$F9*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N9" s="67">
         <f>$F9*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O9" s="67">
         <f>$F9*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P9" s="67">
         <f>$F9*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q9" s="67">
         <f>$F9*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S9" s="67">
         <f t="shared" si="1"/>
@@ -4758,23 +4758,23 @@
       </c>
       <c r="M10" s="67">
         <f>$F10*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N10" s="67">
         <f>$F10*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O10" s="67">
         <f>$F10*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P10" s="67">
         <f>$F10*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q10" s="67">
         <f>$F10*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S10" s="67">
         <f t="shared" si="1"/>
@@ -4832,43 +4832,43 @@
       </c>
       <c r="M11" s="67">
         <f>$F11*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N11" s="67">
         <f>$F11*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O11" s="67">
         <f>$F11*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P11" s="67">
         <f>$F11*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q11" s="67">
         <f>$F11*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S11" s="67">
         <f t="shared" si="1"/>
-        <v>91124.999999999985</v>
+        <v>71125</v>
       </c>
       <c r="T11" s="67">
         <f t="shared" si="2"/>
-        <v>25197.008838383841</v>
+        <v>18722.135101010103</v>
       </c>
       <c r="U11" s="67">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>78430.125</v>
+        <v>49580.125000000007</v>
       </c>
       <c r="V11" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W11" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -4906,23 +4906,23 @@
       </c>
       <c r="M12" s="67">
         <f>$F12*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N12" s="67">
         <f>$F12*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O12" s="67">
         <f>$F12*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P12" s="67">
         <f>$F12*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q12" s="67">
         <f>$F12*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S12" s="67">
         <f t="shared" si="1"/>
@@ -4980,23 +4980,23 @@
       </c>
       <c r="M13" s="67">
         <f>$F13*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N13" s="67">
         <f>$F13*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O13" s="67">
         <f>$F13*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P13" s="67">
         <f>$F13*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q13" s="67">
         <f>$F13*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S13" s="67">
         <f t="shared" si="1"/>
@@ -5054,43 +5054,43 @@
       </c>
       <c r="M14" s="67">
         <f>$F14*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N14" s="67">
         <f>$F14*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O14" s="67">
         <f>$F14*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P14" s="67">
         <f>$F14*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q14" s="67">
         <f>$F14*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S14" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T14" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V14" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W14" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
@@ -5128,23 +5128,23 @@
       </c>
       <c r="M15" s="67">
         <f>$F15*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N15" s="67">
         <f>$F15*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O15" s="67">
         <f>$F15*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P15" s="67">
         <f>$F15*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q15" s="67">
         <f>$F15*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S15" s="67">
         <f t="shared" si="1"/>
@@ -5202,23 +5202,23 @@
       </c>
       <c r="M16" s="67">
         <f>$F16*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N16" s="67">
         <f>$F16*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O16" s="67">
         <f>$F16*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P16" s="67">
         <f>$F16*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q16" s="67">
         <f>$F16*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S16" s="67">
         <f t="shared" si="1"/>
@@ -5276,43 +5276,43 @@
       </c>
       <c r="M17" s="67">
         <f>$F17*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N17" s="67">
         <f>$F17*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O17" s="67">
         <f>$F17*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P17" s="67">
         <f>$F17*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q17" s="67">
         <f>$F17*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S17" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V17" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W17" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -5350,23 +5350,23 @@
       </c>
       <c r="M18" s="67">
         <f>$F18*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N18" s="67">
         <f>$F18*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O18" s="67">
         <f>$F18*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P18" s="67">
         <f>$F18*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q18" s="67">
         <f>$F18*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S18" s="67">
         <f t="shared" si="1"/>
@@ -5424,23 +5424,23 @@
       </c>
       <c r="M19" s="67">
         <f>$F19*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N19" s="67">
         <f>$F19*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O19" s="67">
         <f>$F19*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P19" s="67">
         <f>$F19*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q19" s="67">
         <f>$F19*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S19" s="67">
         <f t="shared" si="1"/>
@@ -5498,43 +5498,43 @@
       </c>
       <c r="M20" s="67">
         <f>$F20*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N20" s="67">
         <f>$F20*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O20" s="67">
         <f>$F20*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P20" s="67">
         <f>$F20*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q20" s="67">
         <f>$F20*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S20" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V20" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W20" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -5572,23 +5572,23 @@
       </c>
       <c r="M21" s="67">
         <f>$F21*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N21" s="67">
         <f>$F21*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O21" s="67">
         <f>$F21*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P21" s="67">
         <f>$F21*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q21" s="67">
         <f>$F21*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S21" s="67">
         <f t="shared" si="1"/>
@@ -5646,23 +5646,23 @@
       </c>
       <c r="M22" s="67">
         <f>$F22*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N22" s="67">
         <f>$F22*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O22" s="67">
         <f>$F22*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P22" s="67">
         <f>$F22*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q22" s="67">
         <f>$F22*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S22" s="67">
         <f t="shared" si="1"/>
@@ -5720,43 +5720,43 @@
       </c>
       <c r="M23" s="67">
         <f>$F23*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N23" s="67">
         <f>$F23*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O23" s="67">
         <f>$F23*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P23" s="67">
         <f>$F23*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q23" s="67">
         <f>$F23*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S23" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T23" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V23" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W23" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -5794,23 +5794,23 @@
       </c>
       <c r="M24" s="67">
         <f>$F24*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N24" s="67">
         <f>$F24*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O24" s="67">
         <f>$F24*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P24" s="67">
         <f>$F24*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q24" s="67">
         <f>$F24*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S24" s="67">
         <f t="shared" si="1"/>
@@ -5868,23 +5868,23 @@
       </c>
       <c r="M25" s="67">
         <f>$F25*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N25" s="67">
         <f>$F25*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O25" s="67">
         <f>$F25*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P25" s="67">
         <f>$F25*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q25" s="67">
         <f>$F25*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S25" s="67">
         <f t="shared" si="1"/>
@@ -5942,43 +5942,43 @@
       </c>
       <c r="M26" s="67">
         <f>$F26*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N26" s="67">
         <f>$F26*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O26" s="67">
         <f>$F26*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P26" s="67">
         <f>$F26*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q26" s="67">
         <f>$F26*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S26" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T26" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U26" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V26" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W26" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -6016,23 +6016,23 @@
       </c>
       <c r="M27" s="67">
         <f>$F27*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N27" s="67">
         <f>$F27*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O27" s="67">
         <f>$F27*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P27" s="67">
         <f>$F27*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q27" s="67">
         <f>$F27*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S27" s="67">
         <f t="shared" si="1"/>
@@ -6090,23 +6090,23 @@
       </c>
       <c r="M28" s="67">
         <f>$F28*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N28" s="67">
         <f>$F28*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O28" s="67">
         <f>$F28*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P28" s="67">
         <f>$F28*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q28" s="67">
         <f>$F28*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S28" s="67">
         <f t="shared" si="1"/>
@@ -6164,43 +6164,43 @@
       </c>
       <c r="M29" s="67">
         <f>$F29*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N29" s="67">
         <f>$F29*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O29" s="67">
         <f>$F29*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P29" s="67">
         <f>$F29*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q29" s="67">
         <f>$F29*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S29" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T29" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U29" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V29" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W29" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -6238,23 +6238,23 @@
       </c>
       <c r="M30" s="67">
         <f>$F30*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N30" s="67">
         <f>$F30*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O30" s="67">
         <f>$F30*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P30" s="67">
         <f>$F30*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q30" s="67">
         <f>$F30*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S30" s="67">
         <f t="shared" si="1"/>
@@ -6312,23 +6312,23 @@
       </c>
       <c r="M31" s="67">
         <f>$F31*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N31" s="67">
         <f>$F31*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O31" s="67">
         <f>$F31*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P31" s="67">
         <f>$F31*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q31" s="67">
         <f>$F31*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S31" s="67">
         <f t="shared" si="1"/>
@@ -6386,43 +6386,43 @@
       </c>
       <c r="M32" s="67">
         <f>$F32*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N32" s="67">
         <f>$F32*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O32" s="67">
         <f>$F32*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P32" s="67">
         <f>$F32*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q32" s="67">
         <f>$F32*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S32" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T32" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U32" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V32" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W32" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -6460,23 +6460,23 @@
       </c>
       <c r="M33" s="67">
         <f>$F33*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N33" s="67">
         <f>$F33*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O33" s="67">
         <f>$F33*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P33" s="67">
         <f>$F33*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q33" s="67">
         <f>$F33*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S33" s="67">
         <f t="shared" si="1"/>
@@ -6534,23 +6534,23 @@
       </c>
       <c r="M34" s="67">
         <f>$F34*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N34" s="67">
         <f>$F34*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O34" s="67">
         <f>$F34*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P34" s="67">
         <f>$F34*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q34" s="67">
         <f>$F34*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S34" s="67">
         <f t="shared" si="1"/>
@@ -6608,43 +6608,43 @@
       </c>
       <c r="M35" s="67">
         <f>$F35*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N35" s="67">
         <f>$F35*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O35" s="67">
         <f>$F35*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P35" s="67">
         <f>$F35*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q35" s="67">
         <f>$F35*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S35" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T35" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U35" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V35" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W35" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -6682,23 +6682,23 @@
       </c>
       <c r="M36" s="67">
         <f>$F36*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N36" s="67">
         <f>$F36*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O36" s="67">
         <f>$F36*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P36" s="67">
         <f>$F36*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q36" s="67">
         <f>$F36*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S36" s="67">
         <f t="shared" si="1"/>
@@ -6756,23 +6756,23 @@
       </c>
       <c r="M37" s="67">
         <f>$F37*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N37" s="67">
         <f>$F37*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O37" s="67">
         <f>$F37*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P37" s="67">
         <f>$F37*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q37" s="67">
         <f>$F37*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S37" s="67">
         <f t="shared" si="1"/>
@@ -6830,43 +6830,43 @@
       </c>
       <c r="M38" s="67">
         <f>$F38*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N38" s="67">
         <f>$F38*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O38" s="67">
         <f>$F38*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P38" s="67">
         <f>$F38*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q38" s="67">
         <f>$F38*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S38" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T38" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U38" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V38" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W38" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -6904,23 +6904,23 @@
       </c>
       <c r="M39" s="67">
         <f>$F39*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N39" s="67">
         <f>$F39*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O39" s="67">
         <f>$F39*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P39" s="67">
         <f>$F39*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q39" s="67">
         <f>$F39*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S39" s="67">
         <f t="shared" si="1"/>
@@ -6978,23 +6978,23 @@
       </c>
       <c r="M40" s="67">
         <f>$F40*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N40" s="67">
         <f>$F40*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O40" s="67">
         <f>$F40*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P40" s="67">
         <f>$F40*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q40" s="67">
         <f>$F40*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S40" s="67">
         <f t="shared" si="1"/>
@@ -7052,43 +7052,43 @@
       </c>
       <c r="M41" s="67">
         <f>$F41*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N41" s="67">
         <f>$F41*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O41" s="67">
         <f>$F41*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P41" s="67">
         <f>$F41*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q41" s="67">
         <f>$F41*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S41" s="67">
         <f t="shared" si="1"/>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T41" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U41" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V41" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W41" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -7126,23 +7126,23 @@
       </c>
       <c r="M42" s="67">
         <f>$F42*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N42" s="67">
         <f>$F42*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O42" s="67">
         <f>$F42*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P42" s="67">
         <f>$F42*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q42" s="67">
         <f>$F42*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S42" s="67">
         <f t="shared" si="1"/>
@@ -7200,23 +7200,23 @@
       </c>
       <c r="M43" s="67">
         <f>$F43*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N43" s="67">
         <f>$F43*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O43" s="67">
         <f>$F43*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P43" s="67">
         <f>$F43*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q43" s="67">
         <f>$F43*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S43" s="67">
         <f t="shared" si="1"/>
@@ -7274,43 +7274,43 @@
       </c>
       <c r="M44" s="67">
         <f>$F44*Outputs_Internal!$D$52/12</f>
-        <v>19458.333333333332</v>
+        <v>12791.666666666666</v>
       </c>
       <c r="N44" s="67">
         <f>$F44*Outputs_Internal!K$52/12</f>
-        <v>7307.3362794612794</v>
+        <v>5149.0450336700333</v>
       </c>
       <c r="O44" s="67">
         <f>$F44*Outputs_Internal!L$52/12</f>
-        <v>16318.375</v>
+        <v>6701.708333333333</v>
       </c>
       <c r="P44" s="67">
         <f>$F44*Outputs_Internal!M$52/12</f>
-        <v>1272.2962962962965</v>
+        <v>857.48148148148164</v>
       </c>
       <c r="Q44" s="67">
         <f>$F44*Outputs_Internal!N$52/12</f>
-        <v>131.15909090909091</v>
+        <v>83.431818181818173</v>
       </c>
       <c r="S44" s="67">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>58375</v>
+        <v>38375</v>
       </c>
       <c r="T44" s="67">
         <f t="shared" si="2"/>
-        <v>21922.008838383837</v>
+        <v>15447.135101010099</v>
       </c>
       <c r="U44" s="67">
         <f t="shared" si="3"/>
-        <v>48955.125</v>
+        <v>20105.125</v>
       </c>
       <c r="V44" s="67">
         <f t="shared" si="4"/>
-        <v>3816.8888888888896</v>
+        <v>2572.4444444444448</v>
       </c>
       <c r="W44" s="67">
         <f t="shared" si="5"/>
-        <v>393.47727272727275</v>
+        <v>250.2954545454545</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -11027,11 +11027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="D9" s="5">
         <f>IF(Inputs!D$4="N",MIN(MAX(Inputs!D$7-$K9,0),$L9-$K9),0)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K9,0),$L9-$K9),0)</f>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="D10" s="85">
         <f>IFERROR(SUMPRODUCT(D6:D9,$M$6:$M$9)/SUM(D6:D9),0)</f>
-        <v>0.26344827586206898</v>
+        <v>0.40444444444444444</v>
       </c>
       <c r="E10" s="85">
         <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="D11" s="86">
         <f>SUM(D6:D9)</f>
-        <v>725000</v>
+        <v>225000</v>
       </c>
       <c r="E11" s="86">
         <f t="shared" ref="E11:H11" si="1">SUM(E6:E9)</f>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="D27" s="16">
         <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)))*D$10</f>
-        <v>76400</v>
+        <v>36400</v>
       </c>
       <c r="E27" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="D29" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D9="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E10),0))*D$10</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="E29" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="D30" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D10="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E11),0))*D$10</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="E30" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="D31" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D11="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E12),0))*D$10</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="E31" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="D32" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D12="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E13),0))*D$10</f>
-        <v>9550</v>
+        <v>4550</v>
       </c>
       <c r="E32" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="D33" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D13="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E14),0))*D$10</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="E33" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="D34" s="18">
         <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D14="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E15),0))*D$10</f>
-        <v>13370.000000000002</v>
+        <v>6370.0000000000009</v>
       </c>
       <c r="E34" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
@@ -11802,23 +11802,23 @@
         <v>13</v>
       </c>
       <c r="D35" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
-        <v>47750</v>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D15="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E16),0))*D$10</f>
+        <v>0</v>
       </c>
       <c r="E35" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F35" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G35" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H35" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -11827,23 +11827,23 @@
         <v>14</v>
       </c>
       <c r="D36" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$19="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
-        <v>19100</v>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(OR(Inputs!D16="Y",Inputs!D$20="Y"),PRODUCT(D$11, Prices!$E17),0))*D$10</f>
+        <v>0</v>
       </c>
       <c r="E36" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
         <v>0</v>
       </c>
       <c r="F36" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
         <v>0</v>
       </c>
       <c r="G36" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
         <v>0</v>
       </c>
       <c r="H36" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="D53" s="16">
         <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", "", PRODUCT(D$11, Prices!$E$6)*D$10))</f>
-        <v>76400</v>
+        <v>36400</v>
       </c>
       <c r="E53" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
@@ -12359,23 +12359,23 @@
         <v>13</v>
       </c>
       <c r="D61" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D15="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E16)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E61" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E15="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E16)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F61" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F15="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E16)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G61" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G15="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E16)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H61" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H15="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E16)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12384,23 +12384,23 @@
         <v>14</v>
       </c>
       <c r="D62" s="20">
-        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$19="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
+        <f>IF(OR(Inputs!D$4="Y", D$11 = 0), 0, IF(AND(Inputs!D16="Y",Inputs!D$20="N"),PRODUCT(D$11, Prices!$E17)*D$10,0))</f>
         <v>0</v>
       </c>
       <c r="E62" s="20">
-        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
+        <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E16="Y",Inputs!E$20="N"),PRODUCT(E$11, Prices!$E17)*E$10,0))</f>
         <v>0</v>
       </c>
       <c r="F62" s="20">
-        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
+        <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F16="Y",Inputs!F$20="N"),PRODUCT(F$11, Prices!$E17)*F$10,0))</f>
         <v>0</v>
       </c>
       <c r="G62" s="20">
-        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
+        <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G16="Y",Inputs!G$20="N"),PRODUCT(G$11, Prices!$E17)*G$10,0))</f>
         <v>0</v>
       </c>
       <c r="H62" s="20">
-        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
+        <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H16="Y",Inputs!H$20="N"),PRODUCT(H$11, Prices!$E17)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="D73" s="18">
         <f>IF(Inputs!D$4="Y", 0, IF(D$11 = "", 0, IF(Inputs!D19 = "Y", D$11*Prices!$E21, 0)))*D$10</f>
-        <v>76400</v>
+        <v>36400</v>
       </c>
       <c r="E73" s="18">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E19 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="D85" s="18">
         <f>IF(D73=0,0,D73-SUM(D29:D34))</f>
-        <v>7640</v>
+        <v>3640</v>
       </c>
       <c r="E85" s="18">
         <f t="shared" ref="E85:H85" si="19">IF(E73=0,0,E73-SUM(E29:E34))</f>
@@ -13022,14 +13022,14 @@
       </c>
       <c r="D93" s="7">
         <f>SUM(D40:D50, D53:D63, D66:D69, D72:D75, D90:D91)</f>
-        <v>233500</v>
+        <v>153500</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" ref="E93:H93" si="22">SUM(E40:E50, E53:E63, E66:E69, E72:E75, E90:E91)</f>
+        <f>SUM(E40:E50, E53:E63, E66:E69, E72:E75, E90:E91)</f>
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="E93:H93" si="22">SUM(F40:F50, F53:F63, F66:F69, F72:F75, F90:F91)</f>
         <v>0</v>
       </c>
       <c r="G93" s="7">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="D99" s="7">
         <f>SUM(D93, D95)</f>
-        <v>233500</v>
+        <v>153500</v>
       </c>
       <c r="E99" s="7">
         <f>SUM(E93, E95)</f>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="39">
-        <f t="shared" ref="F7:H7" si="1">$E7*F$4</f>
+        <f t="shared" ref="F7" si="1">$E7*F$4</f>
         <v>0</v>
       </c>
       <c r="G7" s="39">

--- a/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
+++ b/0273NYP - New York Premier/Monthly_Premier_Pricing_Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shea.parkes\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason.Altieri\repos\client-and-project-documentation\0273NYP - New York Premier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="4"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="13680" windowHeight="13890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t>One-Time Fees:</t>
   </si>
@@ -1092,20 +1092,20 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9:F12"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
     <col min="3" max="3" width="18" style="69" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="18.73046875" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="59" t="s">
         <v>76</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="71" t="s">
         <v>90</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="72"/>
       <c r="C3" s="77"/>
       <c r="D3" s="13" t="s">
@@ -1140,7 +1140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
@@ -1150,18 +1150,14 @@
       <c r="E4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="56"/>
       <c r="L4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="73" t="s">
         <v>98</v>
       </c>
@@ -1171,54 +1167,42 @@
       <c r="E5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="56"/>
       <c r="L5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="73" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="55">
-        <v>250000</v>
+        <v>25000</v>
       </c>
       <c r="E7" s="55">
-        <v>250000</v>
-      </c>
-      <c r="F7" s="55">
-        <v>20000</v>
-      </c>
-      <c r="G7" s="55">
-        <v>30000</v>
-      </c>
+        <v>211816</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="73" t="s">
         <v>116</v>
       </c>
@@ -1228,15 +1212,11 @@
       <c r="E8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
@@ -1246,15 +1226,11 @@
       <c r="E9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
@@ -1264,51 +1240,39 @@
       <c r="E10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="73" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="73" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="73" t="s">
         <v>10</v>
       </c>
@@ -1318,15 +1282,11 @@
       <c r="E13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="73" t="s">
         <v>95</v>
       </c>
@@ -1336,15 +1296,11 @@
       <c r="E14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="73" t="s">
         <v>11</v>
       </c>
@@ -1354,15 +1310,11 @@
       <c r="E15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="73" t="s">
         <v>12</v>
       </c>
@@ -1372,15 +1324,11 @@
       <c r="E16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="73" t="s">
         <v>13</v>
       </c>
@@ -1390,15 +1338,11 @@
       <c r="E17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="73" t="s">
         <v>14</v>
       </c>
@@ -1408,15 +1352,11 @@
       <c r="E18" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="73" t="s">
         <v>15</v>
       </c>
@@ -1424,17 +1364,13 @@
         <v>39</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="55" t="s">
         <v>39</v>
       </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
@@ -1442,17 +1378,13 @@
         <v>39</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="74" t="s">
         <v>17</v>
       </c>
@@ -1463,12 +1395,8 @@
       <c r="E21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>3</v>
-      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="58"/>
     </row>
   </sheetData>
@@ -1493,26 +1421,26 @@
   <dimension ref="B2:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.265625" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>18</v>
       </c>
@@ -1529,18 +1457,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f>MAX(Calcs!D4, 0)</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>MAX(Calcs!E4, 0)</f>
@@ -1548,11 +1476,11 @@
       </c>
       <c r="F4" s="1">
         <f>MAX(Calcs!F4, 0)</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>MAX(Calcs!G4, 0)</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f>MAX(Calcs!H4, 0)</f>
@@ -1570,7 +1498,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1580,12 +1508,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1595,15 +1523,15 @@
       </c>
       <c r="E7" s="16">
         <f>SUM(Calcs!E38, Calcs!E50)</f>
-        <v>69400</v>
+        <v>65734.335999999996</v>
       </c>
       <c r="F7" s="16">
         <f>SUM(Calcs!F38, Calcs!F50)</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
         <f>SUM(Calcs!G38, Calcs!G50)</f>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
         <f>SUM(Calcs!H38, Calcs!H50)</f>
@@ -1621,7 +1549,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
@@ -1631,7 +1559,7 @@
       </c>
       <c r="E8" s="18">
         <f>SUM(Calcs!E39, Calcs!E51)</f>
-        <v>0</v>
+        <v>5291.7919999999995</v>
       </c>
       <c r="F8" s="18">
         <f>SUM(Calcs!F39, Calcs!F51)</f>
@@ -1639,7 +1567,7 @@
       </c>
       <c r="G8" s="18">
         <f>SUM(Calcs!G39, Calcs!G51)</f>
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="H8" s="18">
         <f>SUM(Calcs!H39, Calcs!H51)</f>
@@ -1657,7 +1585,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1667,7 +1595,7 @@
       </c>
       <c r="E9" s="18">
         <f>SUM(Calcs!E40, Calcs!E52)</f>
-        <v>0</v>
+        <v>10528.5088</v>
       </c>
       <c r="F9" s="18">
         <f>SUM(Calcs!F40, Calcs!F52)</f>
@@ -1675,7 +1603,7 @@
       </c>
       <c r="G9" s="18">
         <f>SUM(Calcs!G40, Calcs!G52)</f>
-        <v>5150</v>
+        <v>0</v>
       </c>
       <c r="H9" s="18">
         <f>SUM(Calcs!H40, Calcs!H52)</f>
@@ -1693,17 +1621,17 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D41, Calcs!D53)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E10" s="18">
         <f>SUM(Calcs!E41, Calcs!E53)</f>
-        <v>0</v>
+        <v>6491.7919999999995</v>
       </c>
       <c r="F10" s="18">
         <f>SUM(Calcs!F41, Calcs!F53)</f>
@@ -1711,7 +1639,7 @@
       </c>
       <c r="G10" s="18">
         <f>SUM(Calcs!G41, Calcs!G53)</f>
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
         <f>SUM(Calcs!H41, Calcs!H53)</f>
@@ -1728,17 +1656,17 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D42, Calcs!D54)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="18">
         <f>SUM(Calcs!E42, Calcs!E54)</f>
-        <v>0</v>
+        <v>6491.7919999999995</v>
       </c>
       <c r="F11" s="18">
         <f>SUM(Calcs!F42, Calcs!F54)</f>
@@ -1746,7 +1674,7 @@
       </c>
       <c r="G11" s="18">
         <f>SUM(Calcs!G42, Calcs!G54)</f>
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <f>SUM(Calcs!H42, Calcs!H54)</f>
@@ -1763,7 +1691,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1726,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C13" s="17" t="s">
         <v>95</v>
       </c>
@@ -1833,7 +1761,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1796,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1831,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
@@ -1938,12 +1866,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +1906,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -1988,11 +1916,11 @@
       </c>
       <c r="E20" s="1">
         <f>SUM(Calcs!E63, Calcs!E70)</f>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <f>SUM(Calcs!F63, Calcs!F70)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(Calcs!G63, Calcs!G70)</f>
@@ -2013,7 +1941,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +1951,7 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(Calcs!E64, Calcs!E71)</f>
-        <v>80220</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(Calcs!F64, Calcs!F71)</f>
@@ -2031,7 +1959,7 @@
       </c>
       <c r="G21" s="1">
         <f>SUM(Calcs!G64, Calcs!G71)</f>
-        <v>44100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(Calcs!H64, Calcs!H71)</f>
@@ -2048,7 +1976,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -2066,7 +1994,7 @@
       </c>
       <c r="G22" s="1">
         <f>SUM(Calcs!G65, Calcs!G72)</f>
-        <v>34850</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(Calcs!H65, Calcs!H72)</f>
@@ -2083,7 +2011,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>116</v>
       </c>
@@ -2093,7 +2021,7 @@
       </c>
       <c r="E23" s="1">
         <f>SUM(Calcs!E66, Calcs!E73)</f>
-        <v>38900</v>
+        <v>60701.503999999994</v>
       </c>
       <c r="F23" s="1">
         <f>SUM(Calcs!F66, Calcs!F73)</f>
@@ -2101,7 +2029,7 @@
       </c>
       <c r="G23" s="1">
         <f>SUM(Calcs!G66, Calcs!G73)</f>
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(Calcs!H66, Calcs!H73)</f>
@@ -2118,12 +2046,12 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -2133,7 +2061,7 @@
       </c>
       <c r="E26" s="1">
         <f>SUM(Calcs!E90:E91)</f>
-        <v>-40305</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <f>SUM(Calcs!F90:F91)</f>
@@ -2141,7 +2069,7 @@
       </c>
       <c r="G26" s="1">
         <f>SUM(Calcs!G90:G91)</f>
-        <v>-16350</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(Calcs!H90:H91)</f>
@@ -2158,13 +2086,13 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="1">
         <f>Calcs!D95</f>
-        <v>-17800</v>
+        <v>-18180</v>
       </c>
       <c r="E27" s="1">
         <f>Calcs!E95</f>
@@ -2172,11 +2100,11 @@
       </c>
       <c r="F27" s="1">
         <f>Calcs!F95</f>
-        <v>-36300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f>Calcs!G95</f>
-        <v>-55170</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <f>Calcs!H95</f>
@@ -2193,7 +2121,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>100</v>
       </c>
@@ -2224,25 +2152,25 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(D7:D16, D19:D23, D26:D28)</f>
-        <v>17800</v>
+        <v>22220</v>
       </c>
       <c r="E30" s="7">
         <f>SUM(E7:E16, E19:E23, E26:E27)</f>
-        <v>224215</v>
+        <v>155239.7248</v>
       </c>
       <c r="F30" s="7">
         <f>SUM(F7:F16, F19:F23, F26:F27)</f>
-        <v>36300</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7">
         <f>SUM(G7:G16, G19:G23, G26:G27)</f>
-        <v>67430</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7">
         <f>SUM(H7:H16, H19:H23, H26:H27)</f>
@@ -2256,7 +2184,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2270,7 +2198,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>92</v>
       </c>
@@ -2290,31 +2218,31 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C33" s="67">
         <f>INDEX(Outputs_Timeline!$D$3:$D$94,MATCH(Inputs!$C$1,Outputs_Timeline!$B$3:$B$94,0),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="7">
         <f>(D30/12*Inputs!$C$2+D4)*$C$33</f>
-        <v>63400</v>
+        <v>71660</v>
       </c>
       <c r="E35" s="7">
         <f>(E30/12*Inputs!$C$2+E4)*$C$33</f>
-        <v>705395</v>
+        <v>498469.17439999996</v>
       </c>
       <c r="F35" s="7">
         <f>(F30/12*Inputs!$C$2+F4)*$C$33</f>
-        <v>141650</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <f>(G30/12*Inputs!$C$2+G4)*$C$33</f>
-        <v>235040</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <f>(H30/12*Inputs!$C$2+H4)*$C$33</f>
@@ -2328,7 +2256,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -2343,36 +2271,36 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C39" s="7">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>1145485</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+        <v>570129.17440000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.45">
       <c r="C40" s="52">
         <f>SUM(D35:H35)</f>
-        <v>1145485</v>
+        <v>570129.1743999999</v>
       </c>
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.45">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2396,24 +2324,24 @@
       <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.265625" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.265625" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.86328125" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F1" s="50" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +2349,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
@@ -2451,18 +2379,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "Y", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="78">
@@ -2480,11 +2408,11 @@
       </c>
       <c r="K4" s="12">
         <f t="shared" ref="K4:N5" si="0">F4*$D4</f>
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="0"/>
@@ -2495,13 +2423,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="1">
         <f>SUMIF(Inputs!$D$4:$H$4, "N", Outputs_External!D4:'Outputs_External'!H4)</f>
-        <v>98250</v>
+        <v>32750</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10">
@@ -2519,11 +2447,11 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>9825</v>
+        <v>3275</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
-        <v>88425</v>
+        <v>29475</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="0"/>
@@ -2534,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="26"/>
@@ -2543,7 +2471,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
@@ -2555,13 +2483,13 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(Calcs!D14:H14)</f>
-        <v>117000</v>
+        <v>51000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="80">
@@ -2579,11 +2507,11 @@
       </c>
       <c r="K8" s="16">
         <f>F8*$D8</f>
-        <v>46800</v>
+        <v>20400</v>
       </c>
       <c r="L8" s="16">
         <f>G8*$D8</f>
-        <v>70200</v>
+        <v>30600</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:N17" si="2">H8*$D8</f>
@@ -2594,13 +2522,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(Calcs!D15:H15)</f>
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="32">
@@ -2618,11 +2546,11 @@
       </c>
       <c r="K9" s="18">
         <f t="shared" ref="K9:K17" si="3">F9*$D9</f>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" ref="L9:L16" si="4">G9*$D9</f>
-        <v>4320</v>
+        <v>2160</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" si="2"/>
@@ -2633,13 +2561,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(Calcs!D16:H16)</f>
-        <v>19200</v>
+        <v>9600</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="79">
@@ -2656,11 +2584,11 @@
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>8640</v>
+        <v>4320</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="4"/>
-        <v>8640</v>
+        <v>4320</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" si="2"/>
@@ -2668,16 +2596,16 @@
       </c>
       <c r="N10" s="18">
         <f t="shared" si="2"/>
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(Calcs!D17:H17)</f>
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F11" s="32">
         <v>0.9</v>
@@ -2694,11 +2622,11 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>6480</v>
+        <v>4320</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" si="2"/>
@@ -2709,13 +2637,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(Calcs!D18:H18)</f>
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F12" s="32">
         <v>0.1</v>
@@ -2732,11 +2660,11 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="L12" s="18">
         <f t="shared" si="4"/>
-        <v>6480</v>
+        <v>4320</v>
       </c>
       <c r="M12" s="18">
         <f t="shared" si="2"/>
@@ -2747,13 +2675,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="18">
         <f>SUM(Calcs!D19:H19)</f>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="F13" s="32">
         <v>0.1</v>
@@ -2769,28 +2697,28 @@
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="4"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="M13" s="18">
         <f t="shared" si="2"/>
-        <v>11520</v>
+        <v>0</v>
       </c>
       <c r="N13" s="18">
         <f>I13*$D13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C14" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="18">
         <f>SUM(Calcs!D20:H20)</f>
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="79">
         <v>0.6</v>
@@ -2807,11 +2735,11 @@
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>5760</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="4"/>
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="M14" s="18">
         <f t="shared" si="2"/>
@@ -2822,13 +2750,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="20">
         <f>SUM(Calcs!D21:H21)</f>
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="33">
         <v>0.1</v>
@@ -2845,11 +2773,11 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="4"/>
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="2"/>
@@ -2860,13 +2788,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="20">
         <f>SUM(Calcs!D22:H22)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="33">
         <v>0.1</v>
@@ -2883,11 +2811,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" si="4"/>
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" si="2"/>
@@ -2898,13 +2826,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(Calcs!D23:H23)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="33">
         <v>0.1</v>
@@ -2921,11 +2849,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L17" s="20">
         <f>G17*$D17</f>
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="2"/>
@@ -2936,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2945,7 +2873,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G19" s="48" t="s">
         <v>72</v>
       </c>
@@ -2957,7 +2885,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2966,7 +2894,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
@@ -2978,13 +2906,13 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="16">
         <f>SUM(Calcs!D26:H26)</f>
-        <v>38400</v>
+        <v>32734.335999999999</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="34">
@@ -2992,24 +2920,24 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="G22" s="34">
-        <f>MIN(1,G8+$H$19)</f>
+        <f t="shared" ref="G22:G31" si="5">MIN(1,G8+$H$19)</f>
         <v>0.7</v>
       </c>
       <c r="H22" s="34">
-        <f>IF(H8=0, 0,(1-G22)*H8/SUM(F8,H8))</f>
+        <f t="shared" ref="H22:H31" si="6">IF(H8=0, 0,(1-G22)*H8/SUM(F8,H8))</f>
         <v>0</v>
       </c>
       <c r="I22" s="34">
-        <f>IF(I8=0, 0,(1-G22)*I8/SUM(F8,I8))</f>
+        <f t="shared" ref="I22:I31" si="7">IF(I8=0, 0,(1-G22)*I8/SUM(F8,I8))</f>
         <v>0</v>
       </c>
       <c r="K22" s="16">
         <f>F22*$D22</f>
-        <v>11520.000000000002</v>
+        <v>9820.3008000000009</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:L31" si="5">G22*$D22</f>
-        <v>26880</v>
+        <f t="shared" ref="L22:L31" si="8">G22*$D22</f>
+        <v>22914.035199999998</v>
       </c>
       <c r="M22" s="16">
         <f>H22*$D22</f>
@@ -3020,13 +2948,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="18">
         <f>SUM(Calcs!D27:H27)</f>
-        <v>4800</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="36">
@@ -3034,41 +2962,41 @@
         <v>0</v>
       </c>
       <c r="G23" s="36">
-        <f>MIN(1,G9+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H23" s="36">
-        <f>IF(H9=0, 0,(1-G23)*H9/SUM(F9,H9))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23" s="36">
-        <f>IF(I9=0, 0,(1-G23)*I9/SUM(F9,I9))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" ref="K23:K31" si="6">F23*$D23</f>
+        <f t="shared" ref="K23:K31" si="9">F23*$D23</f>
         <v>0</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="5"/>
-        <v>4800</v>
+        <f t="shared" si="8"/>
+        <v>4091.7919999999999</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" ref="M23:N31" si="7">H23*$D23</f>
+        <f t="shared" ref="M23:N31" si="10">H23*$D23</f>
         <v>0</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C24" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="18">
         <f>SUM(Calcs!D28:H28)</f>
-        <v>6720.0000000000009</v>
+        <v>5728.5087999999996</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="36">
@@ -3076,281 +3004,281 @@
         <v>0.36818181818181811</v>
       </c>
       <c r="G24" s="36">
-        <f>MIN(1,G10+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H24" s="36">
-        <f>IF(H10=0, 0,(1-G24)*H10/SUM(F10,H10))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="36">
-        <f>IF(I10=0, 0,(1-G24)*I10/SUM(F10,I10))</f>
+        <f t="shared" si="7"/>
         <v>8.1818181818181804E-2</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="6"/>
-        <v>2474.181818181818</v>
+        <f t="shared" si="9"/>
+        <v>2109.1327854545448</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="5"/>
-        <v>3696.0000000000009</v>
+        <f t="shared" si="8"/>
+        <v>3150.6798400000002</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N24" s="18">
-        <f t="shared" si="7"/>
-        <v>549.81818181818176</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>468.69617454545443</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C25" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Calcs!D29:H29)</f>
-        <v>4800</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F25" s="36">
-        <f>(1-G25)*F11/SUM(F11,H11)</f>
+        <f t="shared" ref="F25:F31" si="11">(1-G25)*F11/SUM(F11,H11)</f>
         <v>0.8</v>
       </c>
       <c r="G25" s="36">
-        <f>MIN(1,G11+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="H25" s="36">
-        <f>IF(H11=0, 0,(1-G25)*H11/SUM(F11,H11))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I25" s="36">
-        <f>IF(I11=0, 0,(1-G25)*I11/SUM(F11,I11))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="6"/>
-        <v>3840</v>
+        <f t="shared" si="9"/>
+        <v>3273.4336000000003</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="5"/>
-        <v>960</v>
+        <f t="shared" si="8"/>
+        <v>818.35840000000007</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C26" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="18">
         <f>SUM(Calcs!D30:H30)</f>
-        <v>4800</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F26" s="36">
-        <f>(1-G26)*F12/SUM(F12,H12)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G26" s="36">
-        <f>MIN(1,G12+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H26" s="36">
-        <f>IF(H12=0, 0,(1-G26)*H12/SUM(F12,H12))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I26" s="36">
-        <f>IF(I12=0, 0,(1-G26)*I12/SUM(F12,I12))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="5"/>
-        <v>4800</v>
+        <f t="shared" si="8"/>
+        <v>4091.7919999999999</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Calcs!D31:H31)</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="F27" s="36">
-        <f>(1-G27)*F13/SUM(F13,H13)</f>
+        <f t="shared" si="11"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="G27" s="36">
-        <f>MIN(1,G13+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="H27" s="36">
-        <f>IF(H13=0, 0,(1-G27)*H13/SUM(F13,H13))</f>
+        <f t="shared" si="6"/>
         <v>0.71111111111111125</v>
       </c>
       <c r="I27" s="36">
-        <f>IF(I13=0, 0,(1-G27)*I13/SUM(F13,I13))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="6"/>
-        <v>566.2222222222224</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="5"/>
-        <v>1274.0000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="7"/>
-        <v>4529.7777777777792</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C28" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="18">
         <f>SUM(Calcs!D32:H32)</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="F28" s="36">
-        <f>(1-G28)*F14/SUM(F14,H14)</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="G28" s="36">
-        <f>MIN(1,G14+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H28" s="36">
-        <f>IF(H14=0, 0,(1-G28)*H14/SUM(F14,H14))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="36">
-        <f>IF(I14=0, 0,(1-G28)*I14/SUM(F14,I14))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="6"/>
-        <v>3185.0000000000005</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="5"/>
-        <v>3185.0000000000005</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C29" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="20">
         <f>SUM(Calcs!D33:H33)</f>
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="37">
-        <f>(1-G29)*F15/SUM(F15,H15)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G29" s="37">
-        <f>MIN(1,G15+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H29" s="37">
-        <f>IF(H15=0, 0,(1-G29)*H15/SUM(F15,H15))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29" s="37">
-        <f>IF(I15=0, 0,(1-G29)*I15/SUM(F15,I15))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K29" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="5"/>
-        <v>24000</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="20">
         <f>SUM(Calcs!D34:H34)</f>
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="F30" s="37">
-        <f>(1-G30)*F16/SUM(F16,H16)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G30" s="37">
-        <f>MIN(1,G16+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H30" s="37">
-        <f>IF(H16=0, 0,(1-G30)*H16/SUM(F16,H16))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="37">
-        <f>IF(I16=0, 0,(1-G30)*I16/SUM(F16,I16))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K30" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="5"/>
-        <v>9600</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C31" s="28" t="s">
         <v>29</v>
       </c>
@@ -3359,39 +3287,39 @@
         <v>0</v>
       </c>
       <c r="F31" s="35">
-        <f>(1-G31)*F17/SUM(F17,H17)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G31" s="35">
-        <f>MIN(1,G17+$H$19)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H31" s="35">
-        <f>IF(H17=0, 0,(1-G31)*H17/SUM(F17,H17))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31" s="35">
-        <f>IF(I17=0, 0,(1-G31)*I17/SUM(F17,I17))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K31" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L31" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M31" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N31" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -3400,7 +3328,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
@@ -3412,7 +3340,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C34" s="17" t="s">
         <v>14</v>
       </c>
@@ -3434,29 +3362,29 @@
         <v>0</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" ref="K34:N38" si="8">F34*$D34</f>
+        <f t="shared" ref="K34:N38" si="12">F34*$D34</f>
         <v>0</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C35" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="18">
         <f>SUM(Calcs!D77:H77)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="F35" s="32">
         <v>0.9</v>
@@ -3472,29 +3400,29 @@
         <v>0</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="8"/>
-        <v>30240</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="8"/>
-        <v>3360</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C36" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="20">
         <f>SUM(Calcs!D78:H78)</f>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="33">
         <v>0.1</v>
@@ -3503,36 +3431,36 @@
         <v>0.9</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" ref="H36:H38" si="9">1-SUM(F36:G36)</f>
+        <f t="shared" ref="H36:H38" si="13">1-SUM(F36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="37">
         <v>0</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" si="8"/>
-        <v>3600</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" si="8"/>
-        <v>32400</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N36" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C37" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="20">
         <f>SUM(Calcs!D79:H79)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="F37" s="33">
         <v>0.1</v>
@@ -3541,36 +3469,36 @@
         <v>0.9</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" ref="H37" si="10">1-SUM(F37:G37)</f>
+        <f t="shared" ref="H37" si="14">1-SUM(F37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="37">
         <v>0</v>
       </c>
       <c r="K37" s="20">
-        <f t="shared" ref="K37" si="11">F37*$D37</f>
-        <v>3360</v>
+        <f t="shared" ref="K37" si="15">F37*$D37</f>
+        <v>0</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" ref="L37" si="12">G37*$D37</f>
-        <v>30240</v>
+        <f t="shared" ref="L37" si="16">G37*$D37</f>
+        <v>0</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" ref="M37" si="13">H37*$D37</f>
+        <f t="shared" ref="M37" si="17">H37*$D37</f>
         <v>0</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" ref="N37" si="14">I37*$D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N37" si="18">I37*$D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C38" s="86" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="89">
         <f>SUM(Calcs!D80:H80)</f>
-        <v>34800</v>
+        <v>23200</v>
       </c>
       <c r="F38" s="90">
         <v>0.2</v>
@@ -3579,35 +3507,35 @@
         <v>0.8</v>
       </c>
       <c r="H38" s="91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I38" s="91">
         <v>0</v>
       </c>
       <c r="K38" s="89">
-        <f t="shared" si="8"/>
-        <v>6960</v>
+        <f t="shared" si="12"/>
+        <v>4640</v>
       </c>
       <c r="L38" s="89">
-        <f t="shared" si="8"/>
-        <v>27840</v>
+        <f t="shared" si="12"/>
+        <v>18560</v>
       </c>
       <c r="M38" s="89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N38" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>73</v>
       </c>
@@ -3619,7 +3547,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C41" s="28" t="s">
         <v>14</v>
       </c>
@@ -3647,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="29">
-        <f t="shared" ref="L41:L44" si="15">G41*$D41</f>
+        <f t="shared" ref="L41:L44" si="19">G41*$D41</f>
         <v>0</v>
       </c>
       <c r="M41" s="29">
@@ -3659,13 +3587,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C42" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="18">
         <f>SUM(Calcs!D84:H84)</f>
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="F42" s="30">
         <f>IFERROR((1-G42)*F35/SUM(F35,H35),0)</f>
@@ -3684,147 +3612,147 @@
       </c>
       <c r="K42" s="18">
         <f>F42*$D42</f>
-        <v>2912</v>
+        <v>0</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" si="15"/>
-        <v>728</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="M42" s="18">
-        <f t="shared" ref="M42:N44" si="16">H42*$D42</f>
+        <f t="shared" ref="M42:N44" si="20">H42*$D42</f>
         <v>0</v>
       </c>
       <c r="N42" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C43" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="20">
         <f>SUM(Calcs!D85:H85)</f>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="F43" s="31">
-        <f t="shared" ref="F43:F45" si="17">IFERROR((1-G43)*F36/SUM(F36,H36),0)</f>
+        <f t="shared" ref="F43:F45" si="21">IFERROR((1-G43)*F36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="31">
-        <f t="shared" ref="G43:G45" si="18">MIN(1,G36+$H$19)</f>
+        <f t="shared" ref="G43:G45" si="22">MIN(1,G36+$H$19)</f>
         <v>1</v>
       </c>
       <c r="H43" s="31">
-        <f t="shared" ref="H43:H45" si="19">IFERROR((1-G43)*H36/SUM(F36,H36),0)</f>
+        <f t="shared" ref="H43:H45" si="23">IFERROR((1-G43)*H36/SUM(F36,H36),0)</f>
         <v>0</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" ref="K43:K44" si="20">F43*$D43</f>
+        <f t="shared" ref="K43:K44" si="24">F43*$D43</f>
         <v>0</v>
       </c>
       <c r="L43" s="20">
-        <f t="shared" si="15"/>
-        <v>6720</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="M43" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N43" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C44" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="20">
         <f>SUM(Calcs!D86:H86)</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F44" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G44" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H44" s="31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="20">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I44" s="31">
-        <v>0</v>
-      </c>
-      <c r="K44" s="20">
+      <c r="M44" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="20">
-        <f t="shared" si="15"/>
-        <v>1250</v>
-      </c>
-      <c r="M44" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="N44" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C45" s="86" t="s">
         <v>116</v>
       </c>
       <c r="D45" s="89">
         <f>SUM(Calcs!D87:H87)</f>
-        <v>28800</v>
+        <v>49101.503999999994</v>
       </c>
       <c r="F45" s="92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="G45" s="92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="H45" s="92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I45" s="92">
         <v>0</v>
       </c>
       <c r="K45" s="89">
-        <f t="shared" ref="K45" si="21">F45*$D45</f>
-        <v>2879.9999999999995</v>
+        <f t="shared" ref="K45" si="25">F45*$D45</f>
+        <v>4910.1503999999986</v>
       </c>
       <c r="L45" s="89">
-        <f t="shared" ref="L45" si="22">G45*$D45</f>
-        <v>25920</v>
+        <f t="shared" ref="L45" si="26">G45*$D45</f>
+        <v>44191.353599999995</v>
       </c>
       <c r="M45" s="89">
-        <f t="shared" ref="M45" si="23">H45*$D45</f>
+        <f t="shared" ref="M45" si="27">H45*$D45</f>
         <v>0</v>
       </c>
       <c r="N45" s="89">
-        <f t="shared" ref="N45" si="24">I45*$D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N45" si="28">I45*$D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
@@ -3832,89 +3760,89 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1">
         <f>SUM(Outputs_External!D26:'Outputs_External'!H26)</f>
-        <v>-56655</v>
+        <v>0</v>
       </c>
       <c r="F48" s="8">
         <f>IFERROR(SUM(K60:K64)/SUM($K$60:$N$64), 0)</f>
-        <v>0.24338429713578949</v>
+        <v>0.13208785255698138</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:I48" si="25">IFERROR(SUM(L60:L64)/SUM($K$60:$N$64), 0)</f>
-        <v>0.70450847200615951</v>
+        <f t="shared" ref="G48:I48" si="29">IFERROR(SUM(L60:L64)/SUM($K$60:$N$64), 0)</f>
+        <v>0.8679121474430187</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="25"/>
-        <v>4.5158084318451197E-2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="25"/>
-        <v>6.9491465395997432E-3</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="K48" s="12">
         <f>F48*$D$48</f>
-        <v>-13788.937354228154</v>
+        <v>0</v>
       </c>
       <c r="L48" s="12">
         <f>G48*$D$48</f>
-        <v>-39913.927481508967</v>
+        <v>0</v>
       </c>
       <c r="M48" s="12">
         <f>H48*$D$48</f>
-        <v>-2558.4312670618524</v>
+        <v>0</v>
       </c>
       <c r="N48" s="12">
         <f>I48*$D$48</f>
-        <v>-393.70389720102344</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="1">
         <f>SUM(Outputs_External!D27:'Outputs_External'!H27)</f>
-        <v>-109270</v>
+        <v>-18180</v>
       </c>
       <c r="F49" s="3">
         <f>IFERROR(SUM(K8:K48)/SUM($K8:$N48), 0)</f>
-        <v>0.29200898143176801</v>
+        <v>0.27863981939855265</v>
       </c>
       <c r="G49" s="3">
         <f>IFERROR(SUM(L8:L48)/SUM($K8:$N48), 0)</f>
-        <v>0.67377794692151038</v>
+        <v>0.71405749104795302</v>
       </c>
       <c r="H49" s="3">
         <f>IFERROR(SUM(M8:M48)/SUM($K8:$N48), 0)</f>
-        <v>2.9650333529039542E-2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <f>1-F49-G49-H49</f>
-        <v>4.5627381176820622E-3</v>
+        <v>7.3026895534943348E-3</v>
       </c>
       <c r="K49" s="12">
         <f>F49*$D$49</f>
-        <v>-31907.821401049292</v>
+        <v>-5065.6719166656867</v>
       </c>
       <c r="L49" s="12">
         <f>G49*$D$49</f>
-        <v>-73623.716260113433</v>
+        <v>-12981.565187251786</v>
       </c>
       <c r="M49" s="12">
         <f>H49*$D$49</f>
-        <v>-3239.8919447181506</v>
+        <v>0</v>
       </c>
       <c r="N49" s="12">
         <f>I49*$D$49</f>
-        <v>-498.57039411911893</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-132.76289608252699</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>100</v>
       </c>
@@ -3940,115 +3868,115 @@
         <v>0</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" ref="L50:N50" si="26">$D$50*G50</f>
+        <f t="shared" ref="L50:N50" si="30">$D$50*G50</f>
         <v>0</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="1">
         <f>SUM(Outputs_External!D30:'Outputs_External'!H30)</f>
-        <v>345745</v>
+        <v>177459.7248</v>
       </c>
       <c r="K52" s="12">
         <f>SUM(K48:K50, K34:K38, K8:K17,K22:K31,K41:K45)</f>
-        <v>100960.64528512659</v>
+        <v>49447.345668788854</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:N52" si="27">SUM(L48:L50, L34:L38, L8:L17,L22:L31,L41:L45)</f>
-        <v>232955.35625837761</v>
+        <f t="shared" ref="L52:N52" si="31">SUM(L48:L50, L34:L38, L8:L17,L22:L31,L41:L45)</f>
+        <v>126716.44585274821</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="27"/>
-        <v>10251.454565997776</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="27"/>
-        <v>1577.5438904980394</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>1295.9332784629273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C53" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="23">
         <f>SUM(K52:N52)</f>
-        <v>345745</v>
+        <v>177459.7248</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B55" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D55" s="1">
         <f>SUM(Outputs_Timeline!S:S)</f>
-        <v>1145485</v>
+        <v>570129.17440000002</v>
       </c>
       <c r="K55" s="12">
         <f>SUM(Outputs_Timeline!T:T)</f>
-        <v>317706.93585537968</v>
+        <v>154117.03700636662</v>
       </c>
       <c r="L55" s="12">
         <f>SUM(Outputs_Timeline!U:U)</f>
-        <v>792291.06877513276</v>
+        <v>412124.33755824453</v>
       </c>
       <c r="M55" s="12">
         <f>SUM(Outputs_Timeline!V:V)</f>
-        <v>30754.363697993325</v>
+        <v>0</v>
       </c>
       <c r="N55" s="12">
         <f>SUM(Outputs_Timeline!W:W)</f>
-        <v>4732.6316714941195</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3887.7998353887829</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D56" s="1"/>
       <c r="K56" s="53">
         <f>IFERROR(K55/$D$55, 0)</f>
-        <v>0.27735582382604718</v>
+        <v>0.27031950639705171</v>
       </c>
       <c r="L56" s="53">
         <f>IFERROR(L55/$D$55, 0)</f>
-        <v>0.69166428960233683</v>
+        <v>0.72286133750647175</v>
       </c>
       <c r="M56" s="53">
         <f>IFERROR(M55/$D$55, 0)</f>
-        <v>2.6848333848102181E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="53">
         <f>IFERROR(N55/$D$55, 0)</f>
-        <v>4.1315527235137248E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6.8191560964763406E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B59" s="27" t="s">
         <v>69</v>
       </c>
@@ -4064,7 +3992,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B60" s="27"/>
       <c r="C60" s="21" t="s">
         <v>14</v>
@@ -4092,195 +4020,195 @@
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="25">
-        <f t="shared" ref="K60:N64" si="28">F60*$D60</f>
+        <f t="shared" ref="K60:N62" si="32">F60*$D60</f>
         <v>0</v>
       </c>
       <c r="L60" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M60" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N60" s="25">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B61" s="27"/>
       <c r="C61" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="23">
         <f>SUM(Calcs!D63:H63)+SUM(Calcs!D70:H70)</f>
-        <v>115600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="24">
-        <f t="shared" ref="F61:G61" si="29">IFERROR(SUM(K$35,K$9:K$14,K$42,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$42:$N$42,$K$23:$N$28),0)</f>
-        <v>0.49990564824272693</v>
+        <f t="shared" ref="F61:G61" si="33">IFERROR(SUM(K$35,K$9:K$14,K$42,K$23:K$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$42:$N$42,$K$23:$N$28),0)</f>
+        <v>0.37225051178450419</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="29"/>
-        <v>0.36137078651685395</v>
+        <f t="shared" si="33"/>
+        <v>0.59167484094893641</v>
       </c>
       <c r="H61" s="24">
         <f>IFERROR(SUM(M$35,M$9:M$14,M$42,M$23:M$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$42:$N$42,$K$23:$N$28),0)</f>
-        <v>0.12022305451518936</v>
+        <v>0</v>
       </c>
       <c r="I61" s="24">
         <f>IFERROR(SUM(N$35,N$9:N$14,N$42,N$23:N$28)/SUM($K$35:$N$35,$K$9:$N$14,$K$42:$N$42,$K$23:$N$28),0)</f>
-        <v>1.8500510725229829E-2</v>
+        <v>3.6074647266559429E-2</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="25">
-        <f t="shared" si="28"/>
-        <v>57789.092936859233</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="28"/>
-        <v>41774.462921348313</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="M61" s="25">
-        <f t="shared" si="28"/>
-        <v>13897.785101955889</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="N61" s="25">
-        <f t="shared" si="28"/>
-        <v>2138.6590398365684</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B62" s="27"/>
       <c r="C62" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="23">
         <f>SUM(Calcs!D64:H64)+SUM(Calcs!D71:H71)</f>
-        <v>124320</v>
+        <v>0</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="24">
         <f>IFERROR(SUM(K36,K15:K17,K43,K29:K31)/SUM($K$36:$N$36,$K$15:$M$17,$K$43:$N$43,$K$29:$N$31),0)</f>
-        <v>6.7567567567567571E-2</v>
+        <v>0</v>
       </c>
       <c r="G62" s="24">
-        <f t="shared" ref="G62:I62" si="30">IFERROR(SUM(L36,L15:L17,L43,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$43:$N$43,$K$29:$N$31),0)</f>
-        <v>0.93243243243243246</v>
+        <f t="shared" ref="G62:I62" si="34">IFERROR(SUM(L36,L15:L17,L43,L29:L31)/SUM($K$36:$N$36,$K$15:$M$17,$K$43:$N$43,$K$29:$N$31),0)</f>
+        <v>0</v>
       </c>
       <c r="H62" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I62" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="25">
-        <f t="shared" si="28"/>
-        <v>8400</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="L62" s="25">
-        <f t="shared" si="28"/>
-        <v>115920</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="M62" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N62" s="25">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B63" s="27"/>
       <c r="C63" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="23">
         <f>SUM(Calcs!D65:H65)+SUM(Calcs!D72:H72)</f>
-        <v>34850</v>
+        <v>0</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="24">
         <f>IFERROR(SUM(K37,K16:K18,K44)/SUM($K$37:$N$37,$K$15:$M$17,$K$44:$N$44),0)</f>
-        <v>6.9523234761617383E-2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="24">
-        <f t="shared" ref="G63:I63" si="31">IFERROR(SUM(L37,L16:L18,L44)/SUM($K$37:$N$37,$K$15:$M$17,$K$44:$N$44),0)</f>
-        <v>0.6407966203983102</v>
+        <f t="shared" ref="G63:I63" si="35">IFERROR(SUM(L37,L16:L18,L44)/SUM($K$37:$N$37,$K$15:$M$17,$K$44:$N$44),0)</f>
+        <v>0</v>
       </c>
       <c r="H63" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I63" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="25">
-        <f t="shared" ref="K63:K64" si="32">F63*$D63</f>
-        <v>2422.8847314423656</v>
+        <f t="shared" ref="K63:K64" si="36">F63*$D63</f>
+        <v>0</v>
       </c>
       <c r="L63" s="25">
-        <f t="shared" ref="L63:L64" si="33">G63*$D63</f>
-        <v>22331.762220881112</v>
+        <f t="shared" ref="L63:L64" si="37">G63*$D63</f>
+        <v>0</v>
       </c>
       <c r="M63" s="25">
-        <f t="shared" ref="M63:M64" si="34">H63*$D63</f>
+        <f t="shared" ref="M63:M64" si="38">H63*$D63</f>
         <v>0</v>
       </c>
       <c r="N63" s="25">
-        <f t="shared" ref="N63:N64" si="35">I63*$D63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N63:N64" si="39">I63*$D63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B64" s="27"/>
       <c r="C64" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D64" s="23">
         <f>SUM(Calcs!D66:H66)+SUM(Calcs!D73:H73)</f>
-        <v>63600</v>
+        <v>72301.503999999986</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="24">
         <f>IFERROR(SUM(K38,K17:K19,K45)/SUM($K$38:$N$38,$K$15:$M$17,$K$45:$N$45),0)</f>
-        <v>9.8924731182795697E-2</v>
+        <v>0.13208785255698138</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" ref="G64:I64" si="36">IFERROR(SUM(L38,L17:L19,L45)/SUM($K$38:$N$38,$K$15:$M$17,$K$45:$N$45),0)</f>
-        <v>0.57849462365591398</v>
+        <f t="shared" ref="G64:I64" si="40">IFERROR(SUM(L38,L17:L19,L45)/SUM($K$38:$N$38,$K$15:$M$17,$K$45:$N$45),0)</f>
+        <v>0.8679121474430187</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I64" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="25">
-        <f t="shared" si="32"/>
-        <v>6291.6129032258059</v>
+        <f t="shared" si="36"/>
+        <v>9550.1503999999986</v>
       </c>
       <c r="L64" s="25">
-        <f t="shared" si="33"/>
-        <v>36792.258064516129</v>
+        <f t="shared" si="37"/>
+        <v>62751.353599999995</v>
       </c>
       <c r="M64" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N64" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,26 +4229,26 @@
       <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="63" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" style="66"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" style="66"/>
-    <col min="16" max="16" width="11.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="63" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" style="63" customWidth="1"/>
+    <col min="8" max="11" width="8.73046875" style="66"/>
+    <col min="12" max="12" width="5.3984375" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.73046875" style="66"/>
+    <col min="16" max="16" width="11.86328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.86328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.59765625" customWidth="1"/>
+    <col min="22" max="23" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F1" s="68">
         <f>COUNTIF(F3:F94,"&gt;0")</f>
         <v>36</v>
@@ -4345,7 +4273,7 @@
       <c r="U1" s="64"/>
       <c r="V1" s="64"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="62" t="s">
         <v>79</v>
       </c>
@@ -4403,7 +4331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B3" s="63">
         <v>42917</v>
       </c>
@@ -4460,7 +4388,7 @@
       <c r="U3" s="66"/>
       <c r="V3" s="66"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B4" s="63">
         <f>EDATE(B3,1)</f>
         <v>42948</v>
@@ -4514,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B5" s="63">
         <f t="shared" ref="B5:B68" si="0">EDATE(B4,1)</f>
         <v>42979</v>
@@ -4588,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B6" s="63">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -4662,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B7" s="63">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -4736,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B8" s="63">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -4810,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="63">
         <f t="shared" si="0"/>
         <v>43101</v>
@@ -4829,15 +4757,15 @@
       </c>
       <c r="H9" s="66">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!$D$4, Outputs_Internal!$D$5),0)*$D9</f>
-        <v>108250</v>
+        <v>37750</v>
       </c>
       <c r="I9" s="66">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!K$4, Outputs_Internal!K$5),0)*$D9</f>
-        <v>14825</v>
+        <v>5775</v>
       </c>
       <c r="J9" s="66">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!L$4, Outputs_Internal!L$5),0)*$D9</f>
-        <v>93425</v>
+        <v>31975</v>
       </c>
       <c r="K9" s="66">
         <f>IF($B9=Inputs!$C$1,SUM(Outputs_Internal!M$4, Outputs_Internal!$M$5),0)*$D9</f>
@@ -4845,23 +4773,23 @@
       </c>
       <c r="M9" s="66">
         <f>$F9*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N9" s="66">
         <f>$F9*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O9" s="66">
         <f>$F9*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P9" s="66">
         <f>$F9*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="66">
         <f>$F9*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S9" s="66">
         <f t="shared" si="1"/>
@@ -4884,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="63">
         <f t="shared" si="0"/>
         <v>43132</v>
@@ -4919,23 +4847,23 @@
       </c>
       <c r="M10" s="66">
         <f>$F10*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N10" s="66">
         <f>$F10*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O10" s="66">
         <f>$F10*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P10" s="66">
         <f>$F10*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="66">
         <f>$F10*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S10" s="66">
         <f t="shared" si="1"/>
@@ -4958,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="63">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -4993,46 +4921,46 @@
       </c>
       <c r="M11" s="66">
         <f>$F11*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N11" s="66">
         <f>$F11*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O11" s="66">
         <f>$F11*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P11" s="66">
         <f>$F11*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="66">
         <f>$F11*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S11" s="66">
         <f t="shared" si="1"/>
-        <v>194686.25000000003</v>
+        <v>82114.931200000006</v>
       </c>
       <c r="T11" s="66">
         <f t="shared" si="2"/>
-        <v>40065.161321281652</v>
+        <v>18136.836417197217</v>
       </c>
       <c r="U11" s="66">
         <f>IF(MOD(MONTH($B11),3)=0,SUM(J9:J11,O9:O11),0)</f>
-        <v>151663.83906459442</v>
+        <v>63654.111463187051</v>
       </c>
       <c r="V11" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W11" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="63">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -5067,23 +4995,23 @@
       </c>
       <c r="M12" s="66">
         <f>$F12*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N12" s="66">
         <f>$F12*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O12" s="66">
         <f>$F12*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P12" s="66">
         <f>$F12*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="66">
         <f>$F12*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S12" s="66">
         <f t="shared" si="1"/>
@@ -5106,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="63">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -5141,23 +5069,23 @@
       </c>
       <c r="M13" s="66">
         <f>$F13*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N13" s="66">
         <f>$F13*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O13" s="66">
         <f>$F13*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P13" s="66">
         <f>$F13*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="66">
         <f>$F13*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S13" s="66">
         <f t="shared" si="1"/>
@@ -5180,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="63">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -5215,46 +5143,46 @@
       </c>
       <c r="M14" s="66">
         <f>$F14*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N14" s="66">
         <f>$F14*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O14" s="66">
         <f>$F14*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P14" s="66">
         <f>$F14*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="66">
         <f>$F14*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S14" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T14" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U14" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V14" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W14" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B15" s="63">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -5289,23 +5217,23 @@
       </c>
       <c r="M15" s="66">
         <f>$F15*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N15" s="66">
         <f>$F15*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O15" s="66">
         <f>$F15*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P15" s="66">
         <f>$F15*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="66">
         <f>$F15*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S15" s="66">
         <f t="shared" si="1"/>
@@ -5328,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="63">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -5363,23 +5291,23 @@
       </c>
       <c r="M16" s="66">
         <f>$F16*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N16" s="66">
         <f>$F16*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O16" s="66">
         <f>$F16*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P16" s="66">
         <f>$F16*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="66">
         <f>$F16*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S16" s="66">
         <f t="shared" si="1"/>
@@ -5402,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="63">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -5437,46 +5365,46 @@
       </c>
       <c r="M17" s="66">
         <f>$F17*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N17" s="66">
         <f>$F17*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O17" s="66">
         <f>$F17*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P17" s="66">
         <f>$F17*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="66">
         <f>$F17*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S17" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T17" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U17" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V17" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W17" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="63">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -5511,23 +5439,23 @@
       </c>
       <c r="M18" s="66">
         <f>$F18*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N18" s="66">
         <f>$F18*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O18" s="66">
         <f>$F18*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P18" s="66">
         <f>$F18*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="66">
         <f>$F18*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S18" s="66">
         <f t="shared" si="1"/>
@@ -5550,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="63">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -5585,23 +5513,23 @@
       </c>
       <c r="M19" s="66">
         <f>$F19*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N19" s="66">
         <f>$F19*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O19" s="66">
         <f>$F19*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P19" s="66">
         <f>$F19*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="66">
         <f>$F19*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S19" s="66">
         <f t="shared" si="1"/>
@@ -5624,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="63">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -5659,46 +5587,46 @@
       </c>
       <c r="M20" s="66">
         <f>$F20*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N20" s="66">
         <f>$F20*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O20" s="66">
         <f>$F20*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P20" s="66">
         <f>$F20*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="66">
         <f>$F20*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S20" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T20" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U20" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V20" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W20" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B21" s="63">
         <f t="shared" si="0"/>
         <v>43466</v>
@@ -5733,23 +5661,23 @@
       </c>
       <c r="M21" s="66">
         <f>$F21*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N21" s="66">
         <f>$F21*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O21" s="66">
         <f>$F21*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P21" s="66">
         <f>$F21*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="66">
         <f>$F21*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S21" s="66">
         <f t="shared" si="1"/>
@@ -5772,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B22" s="63">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -5807,23 +5735,23 @@
       </c>
       <c r="M22" s="66">
         <f>$F22*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N22" s="66">
         <f>$F22*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O22" s="66">
         <f>$F22*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P22" s="66">
         <f>$F22*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="66">
         <f>$F22*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S22" s="66">
         <f t="shared" si="1"/>
@@ -5846,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B23" s="63">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -5881,46 +5809,46 @@
       </c>
       <c r="M23" s="66">
         <f>$F23*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N23" s="66">
         <f>$F23*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O23" s="66">
         <f>$F23*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P23" s="66">
         <f>$F23*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="66">
         <f>$F23*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S23" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T23" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U23" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V23" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W23" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B24" s="63">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -5955,23 +5883,23 @@
       </c>
       <c r="M24" s="66">
         <f>$F24*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N24" s="66">
         <f>$F24*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O24" s="66">
         <f>$F24*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P24" s="66">
         <f>$F24*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="66">
         <f>$F24*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="1"/>
@@ -5994,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B25" s="63">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -6029,23 +5957,23 @@
       </c>
       <c r="M25" s="66">
         <f>$F25*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N25" s="66">
         <f>$F25*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O25" s="66">
         <f>$F25*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P25" s="66">
         <f>$F25*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="66">
         <f>$F25*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S25" s="66">
         <f t="shared" si="1"/>
@@ -6068,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -6103,46 +6031,46 @@
       </c>
       <c r="M26" s="66">
         <f>$F26*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N26" s="66">
         <f>$F26*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O26" s="66">
         <f>$F26*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P26" s="66">
         <f>$F26*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="66">
         <f>$F26*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S26" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T26" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U26" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V26" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W26" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -6177,23 +6105,23 @@
       </c>
       <c r="M27" s="66">
         <f>$F27*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N27" s="66">
         <f>$F27*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O27" s="66">
         <f>$F27*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P27" s="66">
         <f>$F27*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="66">
         <f>$F27*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S27" s="66">
         <f t="shared" si="1"/>
@@ -6216,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B28" s="63">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -6251,23 +6179,23 @@
       </c>
       <c r="M28" s="66">
         <f>$F28*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N28" s="66">
         <f>$F28*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O28" s="66">
         <f>$F28*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P28" s="66">
         <f>$F28*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="66">
         <f>$F28*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S28" s="66">
         <f t="shared" si="1"/>
@@ -6290,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B29" s="63">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -6325,46 +6253,46 @@
       </c>
       <c r="M29" s="66">
         <f>$F29*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N29" s="66">
         <f>$F29*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O29" s="66">
         <f>$F29*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P29" s="66">
         <f>$F29*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="66">
         <f>$F29*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S29" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T29" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U29" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V29" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W29" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B30" s="63">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -6399,23 +6327,23 @@
       </c>
       <c r="M30" s="66">
         <f>$F30*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N30" s="66">
         <f>$F30*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O30" s="66">
         <f>$F30*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P30" s="66">
         <f>$F30*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="66">
         <f>$F30*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S30" s="66">
         <f t="shared" si="1"/>
@@ -6438,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B31" s="63">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -6473,23 +6401,23 @@
       </c>
       <c r="M31" s="66">
         <f>$F31*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N31" s="66">
         <f>$F31*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O31" s="66">
         <f>$F31*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P31" s="66">
         <f>$F31*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="66">
         <f>$F31*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S31" s="66">
         <f t="shared" si="1"/>
@@ -6512,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B32" s="63">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -6547,46 +6475,46 @@
       </c>
       <c r="M32" s="66">
         <f>$F32*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N32" s="66">
         <f>$F32*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O32" s="66">
         <f>$F32*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P32" s="66">
         <f>$F32*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="66">
         <f>$F32*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S32" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T32" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U32" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V32" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W32" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33" s="63">
         <f t="shared" si="0"/>
         <v>43831</v>
@@ -6621,23 +6549,23 @@
       </c>
       <c r="M33" s="66">
         <f>$F33*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N33" s="66">
         <f>$F33*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O33" s="66">
         <f>$F33*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P33" s="66">
         <f>$F33*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="66">
         <f>$F33*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S33" s="66">
         <f t="shared" si="1"/>
@@ -6660,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34" s="63">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -6695,23 +6623,23 @@
       </c>
       <c r="M34" s="66">
         <f>$F34*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N34" s="66">
         <f>$F34*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O34" s="66">
         <f>$F34*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P34" s="66">
         <f>$F34*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="66">
         <f>$F34*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S34" s="66">
         <f t="shared" si="1"/>
@@ -6734,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B35" s="63">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -6769,46 +6697,46 @@
       </c>
       <c r="M35" s="66">
         <f>$F35*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N35" s="66">
         <f>$F35*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O35" s="66">
         <f>$F35*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P35" s="66">
         <f>$F35*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="66">
         <f>$F35*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S35" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T35" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U35" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V35" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W35" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B36" s="63">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -6843,23 +6771,23 @@
       </c>
       <c r="M36" s="66">
         <f>$F36*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N36" s="66">
         <f>$F36*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O36" s="66">
         <f>$F36*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P36" s="66">
         <f>$F36*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="66">
         <f>$F36*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S36" s="66">
         <f t="shared" si="1"/>
@@ -6882,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B37" s="63">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -6917,23 +6845,23 @@
       </c>
       <c r="M37" s="66">
         <f>$F37*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N37" s="66">
         <f>$F37*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O37" s="66">
         <f>$F37*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P37" s="66">
         <f>$F37*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="66">
         <f>$F37*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S37" s="66">
         <f t="shared" si="1"/>
@@ -6956,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B38" s="63">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -6991,46 +6919,46 @@
       </c>
       <c r="M38" s="66">
         <f>$F38*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N38" s="66">
         <f>$F38*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O38" s="66">
         <f>$F38*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P38" s="66">
         <f>$F38*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="66">
         <f>$F38*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S38" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T38" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U38" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V38" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W38" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B39" s="63">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -7065,23 +6993,23 @@
       </c>
       <c r="M39" s="66">
         <f>$F39*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N39" s="66">
         <f>$F39*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O39" s="66">
         <f>$F39*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P39" s="66">
         <f>$F39*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="66">
         <f>$F39*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S39" s="66">
         <f t="shared" si="1"/>
@@ -7104,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B40" s="63">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -7139,23 +7067,23 @@
       </c>
       <c r="M40" s="66">
         <f>$F40*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N40" s="66">
         <f>$F40*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O40" s="66">
         <f>$F40*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P40" s="66">
         <f>$F40*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="66">
         <f>$F40*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S40" s="66">
         <f t="shared" si="1"/>
@@ -7178,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B41" s="63">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -7213,46 +7141,46 @@
       </c>
       <c r="M41" s="66">
         <f>$F41*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N41" s="66">
         <f>$F41*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O41" s="66">
         <f>$F41*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P41" s="66">
         <f>$F41*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="66">
         <f>$F41*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S41" s="66">
         <f t="shared" si="1"/>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T41" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U41" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V41" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W41" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B42" s="63">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -7287,23 +7215,23 @@
       </c>
       <c r="M42" s="66">
         <f>$F42*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N42" s="66">
         <f>$F42*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O42" s="66">
         <f>$F42*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P42" s="66">
         <f>$F42*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="66">
         <f>$F42*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S42" s="66">
         <f t="shared" si="1"/>
@@ -7326,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B43" s="63">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -7361,23 +7289,23 @@
       </c>
       <c r="M43" s="66">
         <f>$F43*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N43" s="66">
         <f>$F43*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O43" s="66">
         <f>$F43*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P43" s="66">
         <f>$F43*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="66">
         <f>$F43*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S43" s="66">
         <f t="shared" si="1"/>
@@ -7400,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B44" s="63">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -7435,46 +7363,46 @@
       </c>
       <c r="M44" s="66">
         <f>$F44*Outputs_Internal!$D$52/12</f>
-        <v>28812.083333333332</v>
+        <v>14788.3104</v>
       </c>
       <c r="N44" s="66">
         <f>$F44*Outputs_Internal!K$52/12</f>
-        <v>8413.3871070938822</v>
+        <v>4120.6121390657381</v>
       </c>
       <c r="O44" s="66">
         <f>$F44*Outputs_Internal!L$52/12</f>
-        <v>19412.946354864802</v>
+        <v>10559.70382106235</v>
       </c>
       <c r="P44" s="66">
         <f>$F44*Outputs_Internal!M$52/12</f>
-        <v>854.28788049981461</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="66">
         <f>$F44*Outputs_Internal!N$52/12</f>
-        <v>131.46199087483663</v>
+        <v>107.99443987191061</v>
       </c>
       <c r="S44" s="66">
         <f>IF(MOD(MONTH($B44),3)=0,SUM(H42:H44,M42:M44),0)</f>
-        <v>86436.25</v>
+        <v>44364.931199999999</v>
       </c>
       <c r="T44" s="66">
         <f t="shared" si="2"/>
-        <v>25240.161321281645</v>
+        <v>12361.836417197213</v>
       </c>
       <c r="U44" s="66">
         <f t="shared" si="3"/>
-        <v>58238.839064594402</v>
+        <v>31679.111463187051</v>
       </c>
       <c r="V44" s="66">
         <f t="shared" si="4"/>
-        <v>2562.8636414994439</v>
+        <v>0</v>
       </c>
       <c r="W44" s="66">
         <f t="shared" si="5"/>
-        <v>394.38597262450992</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+        <v>323.98331961573183</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B45" s="63">
         <f t="shared" si="0"/>
         <v>44197</v>
@@ -7548,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B46" s="63">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -7622,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B47" s="63">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -7696,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B48" s="63">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -7770,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B49" s="63">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -7844,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B50" s="63">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -7918,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B51" s="63">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -7992,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B52" s="63">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -8066,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B53" s="63">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -8140,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B54" s="63">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -8214,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B55" s="63">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -8288,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B56" s="63">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -8362,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B57" s="63">
         <f t="shared" si="0"/>
         <v>44562</v>
@@ -8436,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B58" s="63">
         <f t="shared" si="0"/>
         <v>44593</v>
@@ -8510,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B59" s="63">
         <f t="shared" si="0"/>
         <v>44621</v>
@@ -8584,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B60" s="63">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -8658,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B61" s="63">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -8732,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B62" s="63">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -8806,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B63" s="63">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -8880,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B64" s="63">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -8954,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B65" s="63">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -9028,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B66" s="63">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -9102,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B67" s="63">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9176,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B68" s="63">
         <f t="shared" si="0"/>
         <v>44896</v>
@@ -9250,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B69" s="63">
         <f t="shared" ref="B69:B94" si="6">EDATE(B68,1)</f>
         <v>44927</v>
@@ -9324,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B70" s="63">
         <f t="shared" si="6"/>
         <v>44958</v>
@@ -9398,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B71" s="63">
         <f t="shared" si="6"/>
         <v>44986</v>
@@ -9472,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B72" s="63">
         <f t="shared" si="6"/>
         <v>45017</v>
@@ -9546,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B73" s="63">
         <f t="shared" si="6"/>
         <v>45047</v>
@@ -9620,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B74" s="63">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -9694,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B75" s="63">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -9768,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B76" s="63">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -9842,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B77" s="63">
         <f t="shared" si="6"/>
         <v>45170</v>
@@ -9916,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B78" s="63">
         <f t="shared" si="6"/>
         <v>45200</v>
@@ -9990,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B79" s="63">
         <f t="shared" si="6"/>
         <v>45231</v>
@@ -10064,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B80" s="63">
         <f t="shared" si="6"/>
         <v>45261</v>
@@ -10138,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B81" s="63">
         <f t="shared" si="6"/>
         <v>45292</v>
@@ -10212,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B82" s="63">
         <f t="shared" si="6"/>
         <v>45323</v>
@@ -10286,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B83" s="63">
         <f t="shared" si="6"/>
         <v>45352</v>
@@ -10360,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B84" s="63">
         <f t="shared" si="6"/>
         <v>45383</v>
@@ -10434,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B85" s="63">
         <f t="shared" si="6"/>
         <v>45413</v>
@@ -10508,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B86" s="63">
         <f t="shared" si="6"/>
         <v>45444</v>
@@ -10582,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B87" s="63">
         <f t="shared" si="6"/>
         <v>45474</v>
@@ -10656,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B88" s="63">
         <f t="shared" si="6"/>
         <v>45505</v>
@@ -10730,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B89" s="63">
         <f t="shared" si="6"/>
         <v>45536</v>
@@ -10804,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B90" s="63">
         <f t="shared" si="6"/>
         <v>45566</v>
@@ -10878,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B91" s="63">
         <f t="shared" si="6"/>
         <v>45597</v>
@@ -10952,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B92" s="63">
         <f t="shared" si="6"/>
         <v>45627</v>
@@ -11026,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B93" s="63">
         <f t="shared" si="6"/>
         <v>45658</v>
@@ -11100,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B94" s="63">
         <f t="shared" si="6"/>
         <v>45689</v>
@@ -11188,23 +11116,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="46.86328125" customWidth="1"/>
+    <col min="4" max="8" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="18" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>18</v>
       </c>
@@ -11236,18 +11164,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f>IF(AND(Inputs!D5="Y",Inputs!D4="Y"), 0, IF(Inputs!D4="Y", SUM(Prices!$C$3, IF(Inputs!D$6 ="Y", Prices!$C$4, 0)), IF(Inputs!D4="N", Prices!$D$3, 0)))</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <f>IF(AND(Inputs!E5="Y",Inputs!E4="Y"), 0, IF(Inputs!E4="Y", SUM(Prices!$C$3, IF(Inputs!E$6 ="Y", Prices!$C$4, 0)), IF(Inputs!E4="N", Prices!$D$3, 0)))</f>
@@ -11255,18 +11183,18 @@
       </c>
       <c r="F4" s="1">
         <f>IF(AND(Inputs!F5="Y",Inputs!F4="Y"), 0, IF(Inputs!F4="Y", SUM(Prices!$C$3, IF(Inputs!F$6 ="Y", Prices!$C$4, 0)), IF(Inputs!F4="N", Prices!$D$3, 0)))</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>IF(AND(Inputs!G5="Y",Inputs!G4="Y"), 0, IF(Inputs!G4="Y", SUM(Prices!$C$3, IF(Inputs!G$6 ="Y", Prices!$C$4, 0)), IF(Inputs!G4="N", Prices!$D$3, 0)))</f>
-        <v>32750</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f>IF(AND(Inputs!H5="Y",Inputs!H4="Y"), 0, IF(Inputs!H4="Y", SUM(Prices!$C$3, IF(Inputs!H$6 ="Y", Prices!$C$4, 0)), IF(Inputs!H4="N", Prices!$D$3, 0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11282,7 +11210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>105</v>
       </c>
@@ -11300,7 +11228,7 @@
       </c>
       <c r="G6" s="5">
         <f>IF(Inputs!G$4="N",MIN(MAX(Inputs!G$7-$K6,0),$L6-$K6),0)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Inputs!H$4="N",MIN(MAX(Inputs!H$7-$K6,0),$L6-$K6),0)</f>
@@ -11316,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>106</v>
       </c>
@@ -11351,7 +11279,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>107</v>
       </c>
@@ -11361,7 +11289,7 @@
       </c>
       <c r="E8" s="5">
         <f>IF(Inputs!E$4="N",MIN(MAX(Inputs!E$7-$K8,0),$L8-$K8),0)</f>
-        <v>150000</v>
+        <v>111816</v>
       </c>
       <c r="F8" s="5">
         <f>IF(Inputs!F$4="N",MIN(MAX(Inputs!F$7-$K8,0),$L8-$K8),0)</f>
@@ -11386,7 +11314,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
@@ -11421,7 +11349,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C10" s="83" t="s">
         <v>113</v>
       </c>
@@ -11431,7 +11359,7 @@
       </c>
       <c r="E10" s="84">
         <f t="shared" ref="E10:H10" si="0">IFERROR(SUMPRODUCT(E6:E9,$M$6:$M$9)/SUM(E6:E9),0)</f>
-        <v>0.40444444444444444</v>
+        <v>0.43805584104145251</v>
       </c>
       <c r="F10" s="84">
         <f t="shared" si="0"/>
@@ -11439,14 +11367,14 @@
       </c>
       <c r="G10" s="84">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" s="83" t="s">
         <v>114</v>
       </c>
@@ -11456,7 +11384,7 @@
       </c>
       <c r="E11" s="85">
         <f t="shared" ref="E11:H11" si="1">SUM(E6:E9)</f>
-        <v>225000</v>
+        <v>186816</v>
       </c>
       <c r="F11" s="85">
         <f t="shared" si="1"/>
@@ -11464,26 +11392,26 @@
       </c>
       <c r="G11" s="85">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
@@ -11497,18 +11425,18 @@
       </c>
       <c r="F14" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
         <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
@@ -11522,18 +11450,18 @@
       </c>
       <c r="F15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F9="Y",Inputs!F$19="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G9="Y",Inputs!G$19="Y"), Prices!$C10, 0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H15" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H9="Y",Inputs!H$19="Y"), Prices!$C10, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
@@ -11547,24 +11475,24 @@
       </c>
       <c r="F16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F10="Y",Inputs!F$19="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G10="Y",Inputs!G$19="Y"), Prices!$C11, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="H16" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H10="Y",Inputs!H$19="Y"), Prices!$C11, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D11="Y",Inputs!D$19="Y"), Prices!$C12, 0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E11="Y",Inputs!E$19="Y"), Prices!$C12, 0)</f>
@@ -11572,24 +11500,24 @@
       </c>
       <c r="F17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F11="Y",Inputs!F$19="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G11="Y",Inputs!G$19="Y"), Prices!$C12, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H17" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H11="Y",Inputs!H$19="Y"), Prices!$C12, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!D12="Y",Inputs!D$19="Y"), Prices!$C13, 0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E12="Y",Inputs!E$19="Y"), Prices!$C13, 0)</f>
@@ -11597,18 +11525,18 @@
       </c>
       <c r="F18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F12="Y",Inputs!F$19="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G12="Y",Inputs!G$19="Y"), Prices!$C13, 0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H18" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!H12="Y",Inputs!H$19="Y"), Prices!$C13, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
@@ -11618,11 +11546,11 @@
       </c>
       <c r="E19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E13="Y",Inputs!E$19="Y"), Prices!$C14, 0)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F13="Y",Inputs!F$19="Y"), Prices!$C14, 0)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="G19" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G13="Y",Inputs!G$19="Y"), Prices!$C14, 0)</f>
@@ -11633,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C20" s="17" t="s">
         <v>95</v>
       </c>
@@ -11643,11 +11571,11 @@
       </c>
       <c r="E20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!E14="Y",Inputs!E$19="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!F14="Y",Inputs!F$19="Y"), Prices!$C15, 0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G20" s="18">
         <f xml:space="preserve"> IF(OR(Inputs!G14="Y",Inputs!G$19="Y"), Prices!$C15, 0)</f>
@@ -11658,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
@@ -11668,7 +11596,7 @@
       </c>
       <c r="E21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E15="Y",Inputs!E$20="Y"), Prices!$C16, 0)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F15="Y",Inputs!F$20="Y"), Prices!$C16, 0)</f>
@@ -11676,14 +11604,14 @@
       </c>
       <c r="G21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G15="Y",Inputs!G$20="Y"), Prices!$C16, 0)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H15="Y",Inputs!H$20="Y"), Prices!$C16, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C22" s="19" t="s">
         <v>12</v>
       </c>
@@ -11693,7 +11621,7 @@
       </c>
       <c r="E22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E16="Y",Inputs!E$20="Y"), Prices!$C17, 0)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F16="Y",Inputs!F$20="Y"), Prices!$C17, 0)</f>
@@ -11701,14 +11629,14 @@
       </c>
       <c r="G22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G16="Y",Inputs!G$20="Y"), Prices!$C17, 0)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H16="Y",Inputs!H$20="Y"), Prices!$C17, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C23" s="19" t="s">
         <v>29</v>
       </c>
@@ -11718,7 +11646,7 @@
       </c>
       <c r="E23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!E17="Y",Inputs!E$20="Y"), Prices!$C18, 0)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!F17="Y",Inputs!F$20="Y"), Prices!$C18, 0)</f>
@@ -11726,19 +11654,19 @@
       </c>
       <c r="G23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!G17="Y",Inputs!G$20="Y"), Prices!$C18, 0)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H23" s="20">
         <f xml:space="preserve"> IF(OR(Inputs!H17="Y",Inputs!H$20="Y"), Prices!$C18, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
@@ -11748,7 +11676,7 @@
       </c>
       <c r="E26" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)))*E$10</f>
-        <v>36400</v>
+        <v>32734.335999999999</v>
       </c>
       <c r="F26" s="16">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)))*F$10</f>
@@ -11756,14 +11684,14 @@
       </c>
       <c r="G26" s="16">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)))*G$10</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="16">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
@@ -11773,7 +11701,7 @@
       </c>
       <c r="E27" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E9="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E10),0))*E$10</f>
-        <v>4550</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F27" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F9="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E10),0))*F$10</f>
@@ -11781,14 +11709,14 @@
       </c>
       <c r="G27" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G9="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E10),0))*G$10</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H27" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H9="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E10),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
@@ -11798,7 +11726,7 @@
       </c>
       <c r="E28" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E10="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E11),0))*E$10</f>
-        <v>6370.0000000000009</v>
+        <v>5728.5087999999996</v>
       </c>
       <c r="F28" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F10="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E11),0))*F$10</f>
@@ -11806,14 +11734,14 @@
       </c>
       <c r="G28" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G10="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E11),0))*G$10</f>
-        <v>350.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="H28" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H10="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E11),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C29" s="17" t="s">
         <v>28</v>
       </c>
@@ -11823,7 +11751,7 @@
       </c>
       <c r="E29" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E11="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E12),0))*E$10</f>
-        <v>4550</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F29" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F11="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E12),0))*F$10</f>
@@ -11831,14 +11759,14 @@
       </c>
       <c r="G29" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G11="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E12),0))*G$10</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H29" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H11="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E12),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C30" s="17" t="s">
         <v>9</v>
       </c>
@@ -11848,7 +11776,7 @@
       </c>
       <c r="E30" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E12="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E13),0))*E$10</f>
-        <v>4550</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F30" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F12="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E13),0))*F$10</f>
@@ -11856,14 +11784,14 @@
       </c>
       <c r="G30" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G12="Y",Inputs!G$19="Y"),PRODUCT(G$11, Prices!$E13),0))*G$10</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H30" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H12="Y",Inputs!H$19="Y"),PRODUCT(H$11, Prices!$E13),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -11873,7 +11801,7 @@
       </c>
       <c r="E31" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E13="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E14),0))*E$10</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="F31" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F13="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E14),0))*F$10</f>
@@ -11888,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C32" s="17" t="s">
         <v>95</v>
       </c>
@@ -11898,7 +11826,7 @@
       </c>
       <c r="E32" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E14="Y",Inputs!E$19="Y"),PRODUCT(E$11, Prices!$E15),0))*E$10</f>
-        <v>6370.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="F32" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F14="Y",Inputs!F$19="Y"),PRODUCT(F$11, Prices!$E15),0))*F$10</f>
@@ -11913,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
@@ -11923,7 +11851,7 @@
       </c>
       <c r="E33" s="20">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E15="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E16),0))*E$10</f>
-        <v>22750</v>
+        <v>0</v>
       </c>
       <c r="F33" s="20">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F15="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E16),0))*F$10</f>
@@ -11931,14 +11859,14 @@
       </c>
       <c r="G33" s="20">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G15="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E16),0))*G$10</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="H33" s="20">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H15="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E16),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C34" s="19" t="s">
         <v>12</v>
       </c>
@@ -11948,7 +11876,7 @@
       </c>
       <c r="E34" s="20">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(OR(Inputs!E16="Y",Inputs!E$20="Y"),PRODUCT(E$11, Prices!$E17),0))*E$10</f>
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="F34" s="20">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(OR(Inputs!F16="Y",Inputs!F$20="Y"),PRODUCT(F$11, Prices!$E17),0))*F$10</f>
@@ -11956,14 +11884,14 @@
       </c>
       <c r="G34" s="20">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(OR(Inputs!G16="Y",Inputs!G$20="Y"),PRODUCT(G$11, Prices!$E17),0))*G$10</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H34" s="20">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(OR(Inputs!H16="Y",Inputs!H$20="Y"),PRODUCT(H$11, Prices!$E17),0))*H$10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C35" s="28" t="s">
         <v>29</v>
       </c>
@@ -11983,19 +11911,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -12009,18 +11937,18 @@
       </c>
       <c r="F38" s="16">
         <f>IF(Inputs!F4="Y", Prices!$C$6, IF(Inputs!F4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="16">
         <f>IF(Inputs!G4="Y", Prices!$C$6, IF(Inputs!G4="N", Prices!$D$6, 0))</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="16">
         <f>IF(Inputs!H4="Y", Prices!$C$6, IF(Inputs!H4="N", Prices!$D$6, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
@@ -12030,7 +11958,7 @@
       </c>
       <c r="E39" s="18">
         <f>IF(AND(Inputs!E9="Y",Inputs!E$19="N"),Prices!$C10,0)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F39" s="18">
         <f>IF(AND(Inputs!F9="Y",Inputs!F$19="N"),Prices!$C10,0)</f>
@@ -12038,14 +11966,14 @@
       </c>
       <c r="G39" s="18">
         <f>IF(AND(Inputs!G9="Y",Inputs!G$19="N"),Prices!$C10,0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H39" s="18">
         <f>IF(AND(Inputs!H9="Y",Inputs!H$19="N"),Prices!$C10,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C40" s="17" t="s">
         <v>8</v>
       </c>
@@ -12055,7 +11983,7 @@
       </c>
       <c r="E40" s="18">
         <f>IF(AND(Inputs!E10="Y",Inputs!E$19="N"),Prices!$C11,0)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F40" s="18">
         <f>IF(AND(Inputs!F10="Y",Inputs!F$19="N"),Prices!$C11,0)</f>
@@ -12063,24 +11991,24 @@
       </c>
       <c r="G40" s="18">
         <f>IF(AND(Inputs!G10="Y",Inputs!G$19="N"),Prices!$C11,0)</f>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="H40" s="18">
         <f>IF(AND(Inputs!H10="Y",Inputs!H$19="N"),Prices!$C11,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C41" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="18">
         <f>IF(AND(Inputs!D11="Y",Inputs!D$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="18">
         <f>IF(AND(Inputs!E11="Y",Inputs!E$19="N"),Prices!$C12,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F41" s="18">
         <f>IF(AND(Inputs!F11="Y",Inputs!F$19="N"),Prices!$C12,0)</f>
@@ -12088,24 +12016,24 @@
       </c>
       <c r="G41" s="18">
         <f>IF(AND(Inputs!G11="Y",Inputs!G$19="N"),Prices!$C12,0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H41" s="18">
         <f>IF(AND(Inputs!H11="Y",Inputs!H$19="N"),Prices!$C12,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="18">
         <f>IF(AND(Inputs!D12="Y",Inputs!D$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E42" s="18">
         <f>IF(AND(Inputs!E12="Y",Inputs!E$19="N"),Prices!$C13,0)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="18">
         <f>IF(AND(Inputs!F12="Y",Inputs!F$19="N"),Prices!$C13,0)</f>
@@ -12113,14 +12041,14 @@
       </c>
       <c r="G42" s="18">
         <f>IF(AND(Inputs!G12="Y",Inputs!G$19="N"),Prices!$C13,0)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="18">
         <f>IF(AND(Inputs!H12="Y",Inputs!H$19="N"),Prices!$C13,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C43" s="17" t="s">
         <v>10</v>
       </c>
@@ -12145,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C44" s="17" t="s">
         <v>95</v>
       </c>
@@ -12170,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
@@ -12195,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C46" s="19" t="s">
         <v>12</v>
       </c>
@@ -12220,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C47" s="19" t="s">
         <v>29</v>
       </c>
@@ -12245,12 +12173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -12260,7 +12188,7 @@
       </c>
       <c r="E50" s="16">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", "", PRODUCT(E$11, Prices!$E$6)*E$10))</f>
-        <v>36400</v>
+        <v>32734.335999999999</v>
       </c>
       <c r="F50" s="16">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", "", PRODUCT(F$11, Prices!$E$6)*F$10))</f>
@@ -12268,14 +12196,14 @@
       </c>
       <c r="G50" s="16">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", "", PRODUCT(G$11, Prices!$E$6)*G$10))</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H50" s="16">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", "", PRODUCT(H$11, Prices!$E$6)*H$10))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C51" s="17" t="s">
         <v>27</v>
       </c>
@@ -12285,7 +12213,7 @@
       </c>
       <c r="E51" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E9="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E10)*E$10,0))</f>
-        <v>0</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F51" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F9="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E10)*F$10,0))</f>
@@ -12293,14 +12221,14 @@
       </c>
       <c r="G51" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G9="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E10)*G$10,0))</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H51" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H9="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E10)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C52" s="17" t="s">
         <v>8</v>
       </c>
@@ -12310,7 +12238,7 @@
       </c>
       <c r="E52" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E10="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E11)*E$10,0))</f>
-        <v>0</v>
+        <v>5728.5087999999996</v>
       </c>
       <c r="F52" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F10="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E11)*F$10,0))</f>
@@ -12318,14 +12246,14 @@
       </c>
       <c r="G52" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G10="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E11)*G$10,0))</f>
-        <v>350.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="H52" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H10="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E11)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C53" s="17" t="s">
         <v>28</v>
       </c>
@@ -12335,7 +12263,7 @@
       </c>
       <c r="E53" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E11="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E12)*E$10,0))</f>
-        <v>0</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F53" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F11="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E12)*F$10,0))</f>
@@ -12343,14 +12271,14 @@
       </c>
       <c r="G53" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G11="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E12)*G$10,0))</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H53" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H11="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E12)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C54" s="17" t="s">
         <v>9</v>
       </c>
@@ -12360,7 +12288,7 @@
       </c>
       <c r="E54" s="18">
         <f>IF(OR(Inputs!E$4="Y", E$11 = 0), 0, IF(AND(Inputs!E12="Y",Inputs!E$19="N"),PRODUCT(E$11, Prices!$E13)*E$10,0))</f>
-        <v>0</v>
+        <v>4091.7919999999999</v>
       </c>
       <c r="F54" s="18">
         <f>IF(OR(Inputs!F$4="Y", F$11 = 0), 0, IF(AND(Inputs!F12="Y",Inputs!F$19="N"),PRODUCT(F$11, Prices!$E13)*F$10,0))</f>
@@ -12368,14 +12296,14 @@
       </c>
       <c r="G54" s="18">
         <f>IF(OR(Inputs!G$4="Y", G$11 = 0), 0, IF(AND(Inputs!G12="Y",Inputs!G$19="N"),PRODUCT(G$11, Prices!$E13)*G$10,0))</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H54" s="18">
         <f>IF(OR(Inputs!H$4="Y", H$11 = 0), 0, IF(AND(Inputs!H12="Y",Inputs!H$19="N"),PRODUCT(H$11, Prices!$E13)*H$10,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C55" s="17" t="s">
         <v>10</v>
       </c>
@@ -12400,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C56" s="17" t="s">
         <v>95</v>
       </c>
@@ -12425,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
@@ -12450,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C58" s="19" t="s">
         <v>12</v>
       </c>
@@ -12475,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C59" s="28" t="s">
         <v>29</v>
       </c>
@@ -12495,12 +12423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C62" s="17" t="s">
         <v>14</v>
       </c>
@@ -12525,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C63" s="17" t="s">
         <v>15</v>
       </c>
@@ -12535,11 +12463,11 @@
       </c>
       <c r="E63" s="18">
         <f>IF(Inputs!E19="Y", Prices!$C21, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="F63" s="18">
         <f>IF(Inputs!F19="Y", Prices!$C21, 0)</f>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="G63" s="18">
         <f>IF(Inputs!G19="Y", Prices!$C21, 0)</f>
@@ -12550,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C64" s="19" t="s">
         <v>16</v>
       </c>
@@ -12560,7 +12488,7 @@
       </c>
       <c r="E64" s="20">
         <f>IF(Inputs!E20="Y", Prices!$C22, 0)</f>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F64" s="20">
         <f>IF(Inputs!F20="Y", Prices!$C22, 0)</f>
@@ -12568,14 +12496,14 @@
       </c>
       <c r="G64" s="20">
         <f>IF(Inputs!G20="Y", Prices!$C22, 0)</f>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="H64" s="20">
         <f>IF(Inputs!H20="Y", Prices!$C22, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C65" s="19" t="s">
         <v>17</v>
       </c>
@@ -12593,14 +12521,14 @@
       </c>
       <c r="G65" s="20">
         <f>IF(Inputs!G21="Y", Prices!$C23, 0)</f>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="H65" s="20">
         <f>IF(Inputs!H21="Y", Prices!$C23, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C66" s="86" t="s">
         <v>115</v>
       </c>
@@ -12618,19 +12546,19 @@
       </c>
       <c r="G66" s="89">
         <f>IF(Inputs!G8="Y", Prices!$C24, 0)</f>
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="H66" s="89">
         <f>IF(Inputs!H8="Y", Prices!$C24, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C69" s="28" t="s">
         <v>14</v>
       </c>
@@ -12670,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C70" s="17" t="s">
         <v>15</v>
       </c>
@@ -12680,7 +12608,7 @@
       </c>
       <c r="E70" s="18">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E19 = "Y", E$11*Prices!$E21, 0)))*E$10</f>
-        <v>36400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="18">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F19 = "Y", F$11*Prices!$E21, 0)))*F$10</f>
@@ -12700,11 +12628,11 @@
       </c>
       <c r="L70" s="23">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="23">
         <f t="shared" si="3"/>
-        <v>39600</v>
+        <v>0</v>
       </c>
       <c r="N70" s="23">
         <f t="shared" si="3"/>
@@ -12715,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C71" s="19" t="s">
         <v>16</v>
       </c>
@@ -12725,7 +12653,7 @@
       </c>
       <c r="E71" s="20">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E20 = "Y", E$11*Prices!$E22, 0)))*E$10</f>
-        <v>38220</v>
+        <v>0</v>
       </c>
       <c r="F71" s="20">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F20 = "Y", F$11*Prices!$E22, 0)))*F$10</f>
@@ -12733,7 +12661,7 @@
       </c>
       <c r="G71" s="20">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G20 = "Y", G$11*Prices!$E22, 0)))*G$10</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H71" s="20">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H20 = "Y", H$11*Prices!$E22, 0)))*H$10</f>
@@ -12745,7 +12673,7 @@
       </c>
       <c r="L71" s="23">
         <f t="shared" si="4"/>
-        <v>80220</v>
+        <v>0</v>
       </c>
       <c r="M71" s="23">
         <f t="shared" si="4"/>
@@ -12753,14 +12681,14 @@
       </c>
       <c r="N71" s="23">
         <f t="shared" si="4"/>
-        <v>44100</v>
+        <v>0</v>
       </c>
       <c r="O71" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C72" s="19" t="s">
         <v>17</v>
       </c>
@@ -12778,7 +12706,7 @@
       </c>
       <c r="G72" s="20">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G21 = "Y", G$11*Prices!$E23, 0)))*G$10</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="H72" s="20">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H21 = "Y", H$11*Prices!$E23, 0)))*H$10</f>
@@ -12798,14 +12726,14 @@
       </c>
       <c r="N72" s="23">
         <f t="shared" si="5"/>
-        <v>34850</v>
+        <v>0</v>
       </c>
       <c r="O72" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C73" s="86" t="s">
         <v>115</v>
       </c>
@@ -12815,7 +12743,7 @@
       </c>
       <c r="E73" s="89">
         <f>IF(Inputs!E$4="Y", 0, IF(E$11 = "", 0, IF(Inputs!E8 = "Y", E$11*Prices!$E24, 0)))*E$10</f>
-        <v>27300</v>
+        <v>49101.503999999994</v>
       </c>
       <c r="F73" s="89">
         <f>IF(Inputs!F$4="Y", 0, IF(F$11 = "", 0, IF(Inputs!F8 = "Y", F$11*Prices!$E24, 0)))*F$10</f>
@@ -12823,7 +12751,7 @@
       </c>
       <c r="G73" s="89">
         <f>IF(Inputs!G$4="Y", 0, IF(G$11 = "", 0, IF(Inputs!G8 = "Y", G$11*Prices!$E24, 0)))*G$10</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H73" s="89">
         <f>IF(Inputs!H$4="Y", 0, IF(H$11 = "", 0, IF(Inputs!H8 = "Y", H$11*Prices!$E24, 0)))*H$10</f>
@@ -12835,7 +12763,7 @@
       </c>
       <c r="L73" s="23">
         <f t="shared" si="6"/>
-        <v>38900</v>
+        <v>60701.503999999994</v>
       </c>
       <c r="M73" s="23">
         <f t="shared" si="6"/>
@@ -12843,26 +12771,26 @@
       </c>
       <c r="N73" s="23">
         <f t="shared" si="6"/>
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="O73" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C76" s="17" t="s">
         <v>14</v>
       </c>
@@ -12892,22 +12820,22 @@
       </c>
       <c r="L76" s="21">
         <f t="shared" ref="L76:O76" si="8">IF(COUNTIF(L$69:L$73,"")&gt;2,"",IFERROR(RANK(L69,L$69:L$73),5))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M76" s="21">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O76" s="21">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C77" s="17" t="s">
         <v>15</v>
       </c>
@@ -12917,11 +12845,11 @@
       </c>
       <c r="E77" s="18">
         <f>IF(E63=0,0,E63-SUM(E15:E20))</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="F77" s="18">
         <f>IF(F63=0,0,F63-SUM(F15:F20))</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G77" s="18">
         <f>IF(G63=0,0,G63-SUM(G15:G20))</f>
@@ -12945,14 +12873,14 @@
       </c>
       <c r="N77" s="21">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O77" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C78" s="19" t="s">
         <v>16</v>
       </c>
@@ -12962,7 +12890,7 @@
       </c>
       <c r="E78" s="20">
         <f>IF(E64=0,0,E64-SUM(E21:E23))</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F78" s="20">
         <f>IF(F64=0,0,F64-SUM(F21:F23))</f>
@@ -12970,7 +12898,7 @@
       </c>
       <c r="G78" s="20">
         <f>IF(G64=0,0,G64-SUM(G21:G23))</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H78" s="20">
         <f>IF(H64=0,0,H64-SUM(H21:H23))</f>
@@ -12982,11 +12910,11 @@
       </c>
       <c r="L78" s="21">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="21">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78" s="21">
         <f t="shared" si="10"/>
@@ -12997,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C79" s="19" t="s">
         <v>17</v>
       </c>
@@ -13015,7 +12943,7 @@
       </c>
       <c r="G79" s="20">
         <f t="shared" si="11"/>
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="H79" s="20">
         <f t="shared" si="11"/>
@@ -13027,22 +12955,22 @@
       </c>
       <c r="L79" s="21">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" s="21">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" s="21">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" s="21">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C80" s="86" t="s">
         <v>115</v>
       </c>
@@ -13060,7 +12988,7 @@
       </c>
       <c r="G80" s="89">
         <f t="shared" si="11"/>
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="H80" s="89">
         <f t="shared" si="11"/>
@@ -13072,27 +13000,27 @@
       </c>
       <c r="L80" s="21">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" s="21">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80" s="21">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O80" s="21">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C83" s="28" t="s">
         <v>14</v>
       </c>
@@ -13112,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C84" s="17" t="s">
         <v>15</v>
       </c>
@@ -13122,7 +13050,7 @@
       </c>
       <c r="E84" s="18">
         <f>IF(E70=0,0,E70-SUM(E27:E32))</f>
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="F84" s="18">
         <f>IF(F70=0,0,F70-SUM(F27:F32))</f>
@@ -13137,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C85" s="19" t="s">
         <v>16</v>
       </c>
@@ -13147,7 +13075,7 @@
       </c>
       <c r="E85" s="20">
         <f>IF(E71=0,0,E71-SUM(E33:E34))</f>
-        <v>6370</v>
+        <v>0</v>
       </c>
       <c r="F85" s="20">
         <f>IF(F71=0,0,F71-SUM(F33:F34))</f>
@@ -13155,14 +13083,14 @@
       </c>
       <c r="G85" s="20">
         <f>IF(G71=0,0,G71-SUM(G33:G34))</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H85" s="20">
         <f>IF(H71=0,0,H71-SUM(H33:H34))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C86" s="19" t="s">
         <v>17</v>
       </c>
@@ -13180,14 +13108,14 @@
       </c>
       <c r="G86" s="20">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="H86" s="20">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C87" s="86" t="s">
         <v>115</v>
       </c>
@@ -13197,7 +13125,7 @@
       </c>
       <c r="E87" s="89">
         <f t="shared" si="14"/>
-        <v>27300</v>
+        <v>49101.503999999994</v>
       </c>
       <c r="F87" s="89">
         <f t="shared" si="14"/>
@@ -13205,19 +13133,19 @@
       </c>
       <c r="G87" s="89">
         <f t="shared" si="14"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H87" s="89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B89" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
         <v>32</v>
       </c>
@@ -13227,7 +13155,7 @@
       </c>
       <c r="E90" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$66, MATCH(2, L$76:L$80, 0)), INDEX(E$69:E$73, MATCH(2, L$76:L$80, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-22800</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$66, MATCH(2, M$76:M$80, 0)), INDEX(F$69:F$73, MATCH(2, M$76:M$80, 0)))*Prices!$L$5*-1, 0)</f>
@@ -13235,14 +13163,14 @@
       </c>
       <c r="G90" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$62:G$66, MATCH(2, N$76:N$80, 0)), INDEX(G$69:G$73, MATCH(2, N$76:N$80, 0)))*Prices!$L$5*-1, 0)</f>
-        <v>-10455</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(H$62:H$66, MATCH(2, O$76:O$80, 0)), INDEX(H$69:H$73, MATCH(2, O$76:O$80, 0)))*Prices!$L$5*-1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
         <v>33</v>
       </c>
@@ -13252,7 +13180,7 @@
       </c>
       <c r="E91" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(E$62:E$66, MATCH(3, L$76:L$80, 0)), INDEX(E$69:E$73, MATCH(3, L$76:L$80, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-17505</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(F$62:F$66, MATCH(3, M$76:M$80, 0)), INDEX(F$69:F$73, MATCH(3, M$76:M$80, 0)))*Prices!$L$6*-1, 0)</f>
@@ -13260,48 +13188,48 @@
       </c>
       <c r="G91" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(G$62:G$66, MATCH(3, N$76:N$80, 0)), INDEX(G$69:G$73, MATCH(3, N$76:N$80, 0)))*Prices!$L$6*-1, 0)</f>
-        <v>-5895</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1">
         <f>_xlfn.IFNA(SUM(INDEX(H$62:H$66, MATCH(3, O$76:O$80, 0)), INDEX(H$69:H$73, MATCH(3, O$76:O$80, 0)))*Prices!$L$6*-1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B93" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D93" s="7">
         <f>SUM(D38:D47, D50:D59, D62:D66, D69:D73, D90:D91)</f>
-        <v>35600</v>
+        <v>40400</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" ref="E93:H93" si="15">SUM(E38:E47, E50:E59, E62:E66, E69:E73, E90:E91)</f>
-        <v>224215</v>
+        <v>155239.7248</v>
       </c>
       <c r="F93" s="7">
         <f t="shared" si="15"/>
-        <v>72600</v>
+        <v>0</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="15"/>
-        <v>122600</v>
+        <v>0</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B95" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D95" s="1">
         <f>IF(D105=1, 0, IF(D105=2, $E$108, IF(D105=3, $E$109, IF(D105=4, $E$110, IF(D105=5, $E$111, "")))))</f>
-        <v>-17800</v>
+        <v>-18180</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" ref="E95:H95" si="16">IF(E105=1, 0, IF(E105=2, $E$108, IF(E105=3, $E$109, IF(E105=4, $E$110, IF(E105=5, $E$111, "")))))</f>
@@ -13309,25 +13237,25 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" si="16"/>
-        <v>-36300</v>
+        <v>0</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="16"/>
-        <v>-55170</v>
+        <v>0</v>
       </c>
       <c r="H95" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B97" s="6" t="s">
         <v>100</v>
       </c>
@@ -13348,39 +13276,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B99" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D99" s="7">
         <f>SUM(D93, D95)</f>
-        <v>17800</v>
+        <v>22220</v>
       </c>
       <c r="E99" s="7">
         <f>SUM(E93, E95)</f>
-        <v>224215</v>
+        <v>155239.7248</v>
       </c>
       <c r="F99" s="7">
         <f>SUM(F93, F95)</f>
-        <v>36300</v>
+        <v>0</v>
       </c>
       <c r="G99" s="7">
         <f>SUM(G93, G95)</f>
-        <v>67430</v>
+        <v>0</v>
       </c>
       <c r="H99" s="7">
         <f>SUM(H93, H95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B102" s="27"/>
       <c r="C102" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D102" s="21">
         <f>IFERROR(_xlfn.RANK.EQ(D93,$D$93:$H$93),5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" s="21">
         <f t="shared" ref="E102:H102" si="17">IFERROR(_xlfn.RANK.EQ(E93,$D$93:$H$93),5)</f>
@@ -13392,14 +13320,14 @@
       </c>
       <c r="G102" s="21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="21">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B103" s="27"/>
       <c r="D103" s="21">
         <v>0.1</v>
@@ -13417,11 +13345,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B104" s="27"/>
       <c r="D104" s="21">
         <f>SUM(D102:D103)</f>
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="E104" s="21">
         <f t="shared" ref="E104:H104" si="18">SUM(E102:E103)</f>
@@ -13433,18 +13361,18 @@
       </c>
       <c r="G104" s="21">
         <f t="shared" si="18"/>
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H104" s="21">
         <f t="shared" si="18"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B105" s="27"/>
       <c r="D105" s="21">
         <f>_xlfn.RANK.EQ(D104, $D$104:$H$104, 5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="21">
         <f t="shared" ref="E105:H105" si="19">_xlfn.RANK.EQ(E104, $D$104:$H$104, 5)</f>
@@ -13456,53 +13384,53 @@
       </c>
       <c r="G105" s="21">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" s="21">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B106" s="27"/>
     </row>
-    <row r="107" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B107" s="27"/>
       <c r="C107" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B108" s="27"/>
       <c r="D108" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E108" s="23">
         <f>INDEX($D$93:$H$93, 1, MATCH(2, $D$105:$H$105, 0))*Prices!$L$10*-1</f>
-        <v>-55170</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-18180</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B109" s="27"/>
       <c r="D109" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E109" s="23">
         <f>INDEX($D$93:$H$93, 1, MATCH(3, $D$105:$H$105, 0))*Prices!$L$11*-1</f>
-        <v>-36300</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B110" s="27"/>
       <c r="D110" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E110" s="23">
         <f>INDEX($D$93:$H$93, 1, MATCH(4, $D$105:$H$105, 0))*Prices!$L$11*-1</f>
-        <v>-17800</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B111" s="27"/>
       <c r="D111" s="21" t="s">
         <v>49</v>
@@ -13512,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F115" s="2"/>
     </row>
   </sheetData>
@@ -13525,24 +13453,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="6" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="10" width="4.1328125" customWidth="1"/>
+    <col min="11" max="11" width="38.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -13550,7 +13478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -13568,7 +13496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -13597,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E5" s="48" t="s">
         <v>102</v>
       </c>
@@ -13617,7 +13545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
@@ -13635,7 +13563,7 @@
         <v>0.24</v>
       </c>
       <c r="G6" s="38">
-        <f t="shared" ref="G6:H7" si="0">$E6*G$4</f>
+        <f t="shared" ref="G6:H6" si="0">$E6*G$4</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H6" s="38">
@@ -13649,14 +13577,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" s="43"/>
       <c r="D8" s="39"/>
       <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C9" s="46" t="s">
         <v>38</v>
       </c>
@@ -13671,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
@@ -13700,7 +13628,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +13657,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
@@ -13752,7 +13680,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -13776,7 +13704,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -13805,7 +13733,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="17" t="s">
         <v>95</v>
       </c>
@@ -13834,7 +13762,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
@@ -13859,7 +13787,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
@@ -13882,7 +13810,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -13911,14 +13839,14 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C19" s="43"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="17" t="s">
         <v>14</v>
       </c>
@@ -13941,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="17" t="s">
         <v>15</v>
       </c>
@@ -13964,7 +13892,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="19" t="s">
         <v>16</v>
       </c>
@@ -13987,7 +13915,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
@@ -14010,7 +13938,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="86" t="s">
         <v>115</v>
       </c>
@@ -14019,19 +13947,19 @@
         <v>11600</v>
       </c>
       <c r="E24" s="88">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="88">
         <f>$E24*F$4</f>
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="G24" s="88">
         <f>$E24*G$4</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H24" s="88">
         <f>$E24*H$4</f>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
